--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\running\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DECACE-DFEB-456D-A8D0-4F0E1DF54219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720BD96A-AEBC-4941-B0A0-4CE8BB28BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="all" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$U$982</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$V$982</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5572" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5583" uniqueCount="1078">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3242,6 +3242,21 @@
   </si>
   <si>
     <t>03:10:47.0</t>
+  </si>
+  <si>
+    <t>Andermatt</t>
+  </si>
+  <si>
+    <t>Janis</t>
+  </si>
+  <si>
+    <t>Yaël</t>
+  </si>
+  <si>
+    <t>Philippe Hüsser</t>
+  </si>
+  <si>
+    <t>begleitung5</t>
   </si>
 </sst>
 </file>
@@ -3769,11 +3784,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:U995"/>
+  <dimension ref="A1:V996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A983" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H996" sqref="H996"/>
+      <pane ySplit="1" topLeftCell="A964" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1004" sqref="I1004:I1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3798,11 +3813,12 @@
     <col min="18" max="18" width="20" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="138.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="204" style="9"/>
+    <col min="21" max="21" width="14.85546875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="138.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="204" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
@@ -3863,11 +3879,14 @@
       <c r="T1" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="V1" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -3895,7 +3914,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3915,7 +3934,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3929,7 +3948,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
@@ -3946,7 +3965,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -3963,7 +3982,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
@@ -3983,7 +4002,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>71</v>
       </c>
@@ -4003,7 +4022,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -4031,7 +4050,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -4051,7 +4070,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
@@ -4074,7 +4093,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
@@ -4091,7 +4110,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -4123,7 +4142,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -4143,7 +4162,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -4166,7 +4185,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -4557,7 +4576,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
@@ -4589,7 +4608,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -4619,7 +4638,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -4642,7 +4661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -4670,7 +4689,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
@@ -4698,7 +4717,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
@@ -4723,11 +4742,11 @@
       <c r="R38" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="U38" s="9" t="s">
+      <c r="V38" s="9" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -4758,7 +4777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -4778,7 +4797,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4806,7 +4825,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -4834,7 +4853,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4864,7 +4883,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -4886,7 +4905,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4912,7 +4931,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -4934,7 +4953,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -4964,7 +4983,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -4993,11 +5012,11 @@
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
-      <c r="U48" s="2" t="s">
+      <c r="V48" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -5025,7 +5044,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -5054,11 +5073,11 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
-      <c r="U50" s="2" t="s">
+      <c r="V50" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>71</v>
       </c>
@@ -5080,11 +5099,11 @@
       <c r="Q51" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="U51" s="9" t="s">
+      <c r="V51" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
@@ -5104,7 +5123,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>71</v>
       </c>
@@ -5136,7 +5155,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>71</v>
       </c>
@@ -5170,7 +5189,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
@@ -5198,7 +5217,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
@@ -5226,7 +5245,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -5255,11 +5274,11 @@
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
-      <c r="U57" s="2" t="s">
+      <c r="V57" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>52</v>
       </c>
@@ -5287,7 +5306,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -5316,11 +5335,11 @@
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
-      <c r="U59" s="2" t="s">
+      <c r="V59" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -5348,7 +5367,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5377,11 +5396,11 @@
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
-      <c r="U61" s="2" t="s">
+      <c r="V61" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>71</v>
       </c>
@@ -5415,7 +5434,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>71</v>
       </c>
@@ -5437,11 +5456,11 @@
       <c r="Q63" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="U63" s="9" t="s">
+      <c r="V63" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5470,11 +5489,11 @@
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
-      <c r="U64" s="3" t="s">
+      <c r="V64" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
@@ -5494,7 +5513,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>52</v>
       </c>
@@ -5522,7 +5541,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>52</v>
       </c>
@@ -5550,7 +5569,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>52</v>
       </c>
@@ -5578,7 +5597,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>52</v>
       </c>
@@ -5606,7 +5625,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
@@ -5632,7 +5651,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
@@ -5658,7 +5677,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
@@ -5677,11 +5696,11 @@
       <c r="Q72" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="U72" s="9" t="s">
+      <c r="V72" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>52</v>
       </c>
@@ -5709,7 +5728,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>52</v>
       </c>
@@ -5737,7 +5756,7 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>52</v>
       </c>
@@ -5757,7 +5776,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
@@ -5777,7 +5796,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -5797,7 +5816,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
@@ -5817,7 +5836,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
@@ -5845,7 +5864,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>52</v>
       </c>
@@ -5865,7 +5884,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
@@ -5887,7 +5906,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
@@ -5911,7 +5930,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>52</v>
       </c>
@@ -5939,7 +5958,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>44</v>
       </c>
@@ -5959,7 +5978,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>52</v>
       </c>
@@ -5987,7 +6006,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>52</v>
       </c>
@@ -6007,7 +6026,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
@@ -6027,7 +6046,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>52</v>
       </c>
@@ -6047,7 +6066,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
@@ -6067,7 +6086,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>52</v>
       </c>
@@ -6087,7 +6106,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
@@ -6107,7 +6126,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>71</v>
       </c>
@@ -6133,7 +6152,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>52</v>
       </c>
@@ -6161,7 +6180,7 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
@@ -6188,11 +6207,11 @@
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
-      <c r="U94" s="2" t="s">
+      <c r="V94" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>52</v>
       </c>
@@ -6212,7 +6231,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>52</v>
       </c>
@@ -6232,7 +6251,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>52</v>
       </c>
@@ -6252,7 +6271,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>71</v>
       </c>
@@ -6278,7 +6297,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>52</v>
       </c>
@@ -6298,7 +6317,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>52</v>
       </c>
@@ -6318,7 +6337,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>52</v>
       </c>
@@ -6338,7 +6357,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>52</v>
       </c>
@@ -6358,7 +6377,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>52</v>
       </c>
@@ -6378,7 +6397,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>52</v>
       </c>
@@ -6406,7 +6425,7 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -6433,11 +6452,11 @@
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4"/>
-      <c r="U105" s="9" t="s">
+      <c r="V105" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>52</v>
       </c>
@@ -6457,7 +6476,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>52</v>
       </c>
@@ -6485,7 +6504,7 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>52</v>
       </c>
@@ -6512,11 +6531,11 @@
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4"/>
-      <c r="U108" s="9" t="s">
+      <c r="V108" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>52</v>
       </c>
@@ -6536,7 +6555,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -6566,7 +6585,7 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>149</v>
@@ -6592,7 +6611,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>52</v>
       </c>
@@ -6619,11 +6638,11 @@
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
-      <c r="U112" s="9" t="s">
+      <c r="V112" s="9" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -6644,11 +6663,11 @@
       <c r="H113" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="U113" s="2" t="s">
+      <c r="V113" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>52</v>
       </c>
@@ -6668,7 +6687,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>52</v>
       </c>
@@ -6688,7 +6707,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>52</v>
       </c>
@@ -6708,7 +6727,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>71</v>
       </c>
@@ -6734,7 +6753,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -6756,7 +6775,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -6784,7 +6803,7 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -6814,7 +6833,7 @@
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -6838,7 +6857,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -6868,7 +6887,7 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>149</v>
@@ -6894,7 +6913,7 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>52</v>
       </c>
@@ -6922,7 +6941,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -6952,7 +6971,7 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -6982,7 +7001,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -7008,7 +7027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -8639,7 +8658,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>56</v>
       </c>
@@ -8661,7 +8680,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>52</v>
       </c>
@@ -8683,7 +8702,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>225</v>
       </c>
@@ -8704,11 +8723,11 @@
       <c r="H195" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="U195" s="9" t="s">
+      <c r="V195" s="9" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>52</v>
       </c>
@@ -8731,7 +8750,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>52</v>
       </c>
@@ -8751,7 +8770,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>71</v>
       </c>
@@ -8785,7 +8804,7 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>71</v>
       </c>
@@ -8822,7 +8841,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>71</v>
       </c>
@@ -8859,7 +8878,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>71</v>
       </c>
@@ -8887,7 +8906,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>52</v>
       </c>
@@ -8907,7 +8926,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>52</v>
       </c>
@@ -8930,7 +8949,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>56</v>
       </c>
@@ -8959,9 +8978,9 @@
       <c r="N204" s="6"/>
       <c r="O204" s="6"/>
       <c r="P204" s="6"/>
-      <c r="U204" s="11"/>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V204" s="11"/>
+    </row>
+    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>56</v>
       </c>
@@ -8985,7 +9004,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>56</v>
       </c>
@@ -9013,7 +9032,7 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>56</v>
       </c>
@@ -9041,7 +9060,7 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>56</v>
       </c>
@@ -9063,7 +9082,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>56</v>
       </c>
@@ -9087,7 +9106,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>56</v>
       </c>
@@ -9107,7 +9126,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>56</v>
       </c>
@@ -9127,7 +9146,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>52</v>
       </c>
@@ -9149,7 +9168,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>56</v>
       </c>
@@ -9174,7 +9193,7 @@
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -9195,11 +9214,11 @@
       <c r="H214" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="U214" s="9" t="s">
+      <c r="V214" s="9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>56</v>
       </c>
@@ -9219,7 +9238,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>56</v>
       </c>
@@ -9239,7 +9258,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>225</v>
       </c>
@@ -9260,11 +9279,11 @@
       <c r="H217" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="U217" s="9" t="s">
+      <c r="V217" s="9" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>56</v>
       </c>
@@ -9286,7 +9305,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>56</v>
       </c>
@@ -9308,7 +9327,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>56</v>
       </c>
@@ -9330,7 +9349,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>56</v>
       </c>
@@ -9351,9 +9370,9 @@
       <c r="H221" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="U221" s="11"/>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V221" s="11"/>
+    </row>
+    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>56</v>
       </c>
@@ -9385,7 +9404,7 @@
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>56</v>
       </c>
@@ -9407,7 +9426,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>56</v>
       </c>
@@ -9791,7 +9810,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>56</v>
       </c>
@@ -9817,7 +9836,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>56</v>
       </c>
@@ -9837,7 +9856,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>56</v>
       </c>
@@ -9857,7 +9876,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>56</v>
       </c>
@@ -9877,7 +9896,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>56</v>
       </c>
@@ -9901,7 +9920,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>56</v>
       </c>
@@ -9927,7 +9946,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>56</v>
       </c>
@@ -9953,7 +9972,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>52</v>
       </c>
@@ -9975,7 +9994,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>56</v>
       </c>
@@ -9997,7 +10016,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>225</v>
       </c>
@@ -10018,11 +10037,11 @@
       <c r="H250" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="U250" s="9" t="s">
+      <c r="V250" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>56</v>
       </c>
@@ -10044,7 +10063,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>56</v>
       </c>
@@ -10066,7 +10085,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>56</v>
       </c>
@@ -10088,7 +10107,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>56</v>
       </c>
@@ -10110,7 +10129,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>56</v>
       </c>
@@ -10136,7 +10155,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>52</v>
       </c>
@@ -12386,7 +12405,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
         <v>71</v>
       </c>
@@ -12414,11 +12433,11 @@
       <c r="Q353" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="U353" s="9" t="s">
+      <c r="V353" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
         <v>369</v>
       </c>
@@ -12438,7 +12457,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
         <v>369</v>
       </c>
@@ -12467,7 +12486,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
         <v>369</v>
       </c>
@@ -12496,7 +12515,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="s">
         <v>71</v>
       </c>
@@ -12522,7 +12541,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A358" s="7" t="s">
         <v>71</v>
       </c>
@@ -12553,7 +12572,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="s">
         <v>71</v>
       </c>
@@ -12582,7 +12601,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A360" s="7" t="s">
         <v>71</v>
       </c>
@@ -12613,7 +12632,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
         <v>369</v>
       </c>
@@ -12636,7 +12655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A362" s="7" t="s">
         <v>71</v>
       </c>
@@ -12665,7 +12684,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
         <v>56</v>
       </c>
@@ -12685,7 +12704,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
         <v>369</v>
       </c>
@@ -12711,7 +12730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="s">
         <v>71</v>
       </c>
@@ -12737,7 +12756,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A366" s="7" t="s">
         <v>71</v>
       </c>
@@ -12768,7 +12787,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A367" s="7" t="s">
         <v>52</v>
       </c>
@@ -12788,7 +12807,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="368" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A368" s="7" t="s">
         <v>71</v>
       </c>
@@ -12814,7 +12833,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="369" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
         <v>71</v>
       </c>
@@ -12843,7 +12862,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
         <v>369</v>
       </c>
@@ -12863,7 +12882,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="371" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
         <v>71</v>
       </c>
@@ -12891,11 +12910,11 @@
       <c r="Q371" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="U371" s="9" t="s">
+      <c r="V371" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="372" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
         <v>369</v>
       </c>
@@ -12912,7 +12931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
         <v>71</v>
       </c>
@@ -12938,7 +12957,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="374" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
         <v>369</v>
       </c>
@@ -12961,7 +12980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
         <v>71</v>
       </c>
@@ -12989,7 +13008,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="376" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
         <v>71</v>
       </c>
@@ -13018,7 +13037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
         <v>71</v>
       </c>
@@ -13044,7 +13063,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="378" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
         <v>71</v>
       </c>
@@ -13073,7 +13092,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="379" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
         <v>71</v>
       </c>
@@ -13099,7 +13118,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="380" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
         <v>71</v>
       </c>
@@ -13133,7 +13152,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="381" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
         <v>71</v>
       </c>
@@ -13162,7 +13181,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="382" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
         <v>71</v>
       </c>
@@ -13193,7 +13212,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="383" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
         <v>71</v>
       </c>
@@ -13221,7 +13240,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="384" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
         <v>71</v>
       </c>
@@ -13648,7 +13667,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="401" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
         <v>71</v>
       </c>
@@ -13673,11 +13692,11 @@
       <c r="M401" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="U401" s="9" t="s">
+      <c r="V401" s="9" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="402" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A402" s="7" t="s">
         <v>56</v>
       </c>
@@ -13694,7 +13713,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="403" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A403" s="7" t="s">
         <v>71</v>
       </c>
@@ -13723,7 +13742,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="404" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A404" s="7" t="s">
         <v>56</v>
       </c>
@@ -13746,7 +13765,7 @@
         <v>44332</v>
       </c>
     </row>
-    <row r="405" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A405" s="7" t="s">
         <v>56</v>
       </c>
@@ -13766,7 +13785,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="406" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A406" s="7" t="s">
         <v>56</v>
       </c>
@@ -13783,7 +13802,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="407" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A407" s="7" t="s">
         <v>56</v>
       </c>
@@ -13803,7 +13822,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="408" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A408" s="7" t="s">
         <v>56</v>
       </c>
@@ -13823,7 +13842,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="409" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A409" s="7" t="s">
         <v>56</v>
       </c>
@@ -13843,7 +13862,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="410" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A410" s="7" t="s">
         <v>52</v>
       </c>
@@ -13863,7 +13882,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="411" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A411" s="7" t="s">
         <v>56</v>
       </c>
@@ -13880,7 +13899,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="412" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A412" s="7" t="s">
         <v>56</v>
       </c>
@@ -13900,7 +13919,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="413" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
         <v>71</v>
       </c>
@@ -13929,7 +13948,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="414" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A414" s="7" t="s">
         <v>56</v>
       </c>
@@ -13949,7 +13968,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="415" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A415" s="7" t="s">
         <v>56</v>
       </c>
@@ -13969,7 +13988,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="416" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A416" s="7" t="s">
         <v>71</v>
       </c>
@@ -13998,7 +14017,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="417" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A417" s="7" t="s">
         <v>71</v>
       </c>
@@ -14023,11 +14042,11 @@
       <c r="M417" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="U417" s="9" t="s">
+      <c r="V417" s="9" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="418" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
         <v>71</v>
       </c>
@@ -14062,7 +14081,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="419" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>56</v>
       </c>
@@ -14082,7 +14101,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="420" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
         <v>56</v>
       </c>
@@ -14102,7 +14121,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="421" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>56</v>
       </c>
@@ -14122,7 +14141,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="422" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
         <v>56</v>
       </c>
@@ -14142,7 +14161,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="423" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>56</v>
       </c>
@@ -14165,7 +14184,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
         <v>56</v>
       </c>
@@ -14196,7 +14215,7 @@
       <c r="L424" s="12"/>
       <c r="M424" s="12"/>
     </row>
-    <row r="425" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>56</v>
       </c>
@@ -14213,7 +14232,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="426" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
         <v>56</v>
       </c>
@@ -14233,7 +14252,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="427" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
         <v>56</v>
       </c>
@@ -14253,7 +14272,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="428" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>56</v>
       </c>
@@ -14275,7 +14294,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="429" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>56</v>
       </c>
@@ -14298,7 +14317,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="430" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>56</v>
       </c>
@@ -14324,7 +14343,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="431" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>56</v>
       </c>
@@ -14341,7 +14360,7 @@
         <v>44360</v>
       </c>
     </row>
-    <row r="432" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
         <v>56</v>
       </c>
@@ -14364,7 +14383,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="433" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
         <v>56</v>
       </c>
@@ -14386,7 +14405,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="434" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A434" s="7" t="s">
         <v>56</v>
       </c>
@@ -14408,7 +14427,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="435" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
         <v>56</v>
       </c>
@@ -14430,7 +14449,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="436" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A436" s="7" t="s">
         <v>56</v>
       </c>
@@ -14454,7 +14473,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="437" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A437" s="7" t="s">
         <v>56</v>
       </c>
@@ -14480,7 +14499,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="438" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>56</v>
       </c>
@@ -14500,7 +14519,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="439" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>56</v>
       </c>
@@ -14517,7 +14536,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="440" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>56</v>
       </c>
@@ -14539,7 +14558,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="441" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>56</v>
       </c>
@@ -14563,7 +14582,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="442" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A442" s="7" t="s">
         <v>56</v>
       </c>
@@ -14583,7 +14602,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="443" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A443" s="7" t="s">
         <v>56</v>
       </c>
@@ -14600,7 +14619,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="444" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A444" s="7" t="s">
         <v>56</v>
       </c>
@@ -14616,11 +14635,11 @@
       <c r="G444" s="1">
         <v>44377</v>
       </c>
-      <c r="U444" s="9" t="s">
+      <c r="V444" s="9" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="445" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>56</v>
       </c>
@@ -14644,7 +14663,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="446" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>56</v>
       </c>
@@ -14664,7 +14683,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="447" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>56</v>
       </c>
@@ -14686,7 +14705,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="448" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>56</v>
       </c>
@@ -14708,7 +14727,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="449" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A449" s="7" t="s">
         <v>56</v>
       </c>
@@ -14728,7 +14747,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="450" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A450" s="7" t="s">
         <v>56</v>
       </c>
@@ -14754,7 +14773,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="451" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>56</v>
       </c>
@@ -14776,7 +14795,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="452" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>56</v>
       </c>
@@ -14800,7 +14819,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="453" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A453" s="7" t="s">
         <v>56</v>
       </c>
@@ -14824,7 +14843,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="454" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A454" s="7" t="s">
         <v>56</v>
       </c>
@@ -14850,7 +14869,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="455" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
         <v>56</v>
       </c>
@@ -14870,7 +14889,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="456" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
         <v>56</v>
       </c>
@@ -14890,7 +14909,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="457" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A457" s="7" t="s">
         <v>56</v>
       </c>
@@ -14913,7 +14932,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="458" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>56</v>
       </c>
@@ -14935,7 +14954,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="459" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>56</v>
       </c>
@@ -14957,7 +14976,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="460" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>56</v>
       </c>
@@ -14980,7 +14999,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="461" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A461" s="7" t="s">
         <v>52</v>
       </c>
@@ -15000,7 +15019,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="462" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A462" s="7" t="s">
         <v>56</v>
       </c>
@@ -15017,7 +15036,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="463" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A463" s="7" t="s">
         <v>52</v>
       </c>
@@ -15034,7 +15053,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="464" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A464" s="7" t="s">
         <v>56</v>
       </c>
@@ -15059,7 +15078,7 @@
       <c r="Q464" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="U464" s="9" t="s">
+      <c r="V464" s="9" t="s">
         <v>569</v>
       </c>
     </row>
@@ -16516,7 +16535,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="529" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A529" s="7" t="s">
         <v>71</v>
       </c>
@@ -16545,7 +16564,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="530" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A530" s="7" t="s">
         <v>71</v>
       </c>
@@ -16571,7 +16590,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="531" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
         <v>52</v>
       </c>
@@ -16591,7 +16610,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="532" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A532" s="7" t="s">
         <v>369</v>
       </c>
@@ -16614,7 +16633,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="533" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A533" s="7" t="s">
         <v>71</v>
       </c>
@@ -16643,7 +16662,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="534" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A534" s="7" t="s">
         <v>71</v>
       </c>
@@ -16672,7 +16691,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="535" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A535" s="7" t="s">
         <v>369</v>
       </c>
@@ -16695,7 +16714,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="536" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A536" s="7" t="s">
         <v>71</v>
       </c>
@@ -16727,7 +16746,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="537" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A537" s="7" t="s">
         <v>52</v>
       </c>
@@ -16747,7 +16766,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="538" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A538" s="7" t="s">
         <v>52</v>
       </c>
@@ -16767,7 +16786,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="539" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A539" s="7" t="s">
         <v>369</v>
       </c>
@@ -16790,7 +16809,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="540" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A540" s="7" t="s">
         <v>71</v>
       </c>
@@ -16820,11 +16839,11 @@
       <c r="Q540" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="U540" s="9" t="s">
+      <c r="V540" s="9" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="541" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A541" s="7" t="s">
         <v>71</v>
       </c>
@@ -16855,7 +16874,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="542" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A542" s="7" t="s">
         <v>71</v>
       </c>
@@ -16881,7 +16900,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="543" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A543" s="7" t="s">
         <v>71</v>
       </c>
@@ -16907,7 +16926,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="544" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A544" s="7" t="s">
         <v>369</v>
       </c>
@@ -16930,7 +16949,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="545" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A545" s="7" t="s">
         <v>71</v>
       </c>
@@ -16956,7 +16975,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="546" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A546" s="7" t="s">
         <v>71</v>
       </c>
@@ -16985,7 +17004,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="547" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A547" s="7" t="s">
         <v>369</v>
       </c>
@@ -17014,7 +17033,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="548" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A548" s="7" t="s">
         <v>71</v>
       </c>
@@ -17043,7 +17062,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="549" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A549" s="7" t="s">
         <v>369</v>
       </c>
@@ -17060,7 +17079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A550" s="7" t="s">
         <v>71</v>
       </c>
@@ -17086,7 +17105,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="551" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A551" s="7" t="s">
         <v>71</v>
       </c>
@@ -17115,7 +17134,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="552" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A552" s="7" t="s">
         <v>369</v>
       </c>
@@ -17140,11 +17159,11 @@
       <c r="S552" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="U552" s="9" t="s">
+      <c r="V552" s="9" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="553" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A553" s="7" t="s">
         <v>71</v>
       </c>
@@ -17170,7 +17189,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="554" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A554" s="7" t="s">
         <v>369</v>
       </c>
@@ -17193,7 +17212,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="555" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A555" s="7" t="s">
         <v>369</v>
       </c>
@@ -17213,7 +17232,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="556" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A556" s="7" t="s">
         <v>71</v>
       </c>
@@ -17242,7 +17261,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="557" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A557" s="7" t="s">
         <v>71</v>
       </c>
@@ -17271,7 +17290,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="558" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A558" s="7" t="s">
         <v>369</v>
       </c>
@@ -17294,7 +17313,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="559" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A559" s="7" t="s">
         <v>71</v>
       </c>
@@ -17323,7 +17342,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="560" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A560" s="7" t="s">
         <v>71</v>
       </c>
@@ -17346,7 +17365,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="561" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A561" s="7" t="s">
         <v>369</v>
       </c>
@@ -17366,7 +17385,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A562" s="7" t="s">
         <v>369</v>
       </c>
@@ -17386,7 +17405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A563" s="7" t="s">
         <v>369</v>
       </c>
@@ -17415,7 +17434,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="564" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A564" s="7" t="s">
         <v>71</v>
       </c>
@@ -17443,7 +17462,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="565" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A565" s="7" t="s">
         <v>71</v>
       </c>
@@ -17471,7 +17490,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="566" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A566" s="7" t="s">
         <v>71</v>
       </c>
@@ -17497,7 +17516,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="567" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A567" s="7" t="s">
         <v>71</v>
       </c>
@@ -17537,7 +17556,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="568" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A568" s="7" t="s">
         <v>71</v>
       </c>
@@ -17566,7 +17585,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="569" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A569" s="7" t="s">
         <v>71</v>
       </c>
@@ -17598,7 +17617,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="570" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A570" s="7" t="s">
         <v>369</v>
       </c>
@@ -17620,11 +17639,11 @@
       <c r="R570" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="U570" s="9" t="s">
+      <c r="V570" s="9" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="571" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A571" s="7" t="s">
         <v>71</v>
       </c>
@@ -17655,11 +17674,11 @@
       <c r="R571" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="U571" s="9" t="s">
+      <c r="V571" s="9" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="572" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A572" s="7" t="s">
         <v>369</v>
       </c>
@@ -17676,7 +17695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A573" s="7" t="s">
         <v>369</v>
       </c>
@@ -17698,11 +17717,11 @@
       <c r="R573" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="U573" s="9" t="s">
+      <c r="V573" s="9" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="574" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A574" s="7" t="s">
         <v>369</v>
       </c>
@@ -17719,7 +17738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A575" s="7" t="s">
         <v>71</v>
       </c>
@@ -17745,7 +17764,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="576" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A576" s="7" t="s">
         <v>56</v>
       </c>
@@ -17765,7 +17784,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="577" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A577" s="7" t="s">
         <v>56</v>
       </c>
@@ -17782,7 +17801,7 @@
         <v>44637</v>
       </c>
     </row>
-    <row r="578" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A578" s="7" t="s">
         <v>369</v>
       </c>
@@ -17805,7 +17824,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="579" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A579" s="7" t="s">
         <v>71</v>
       </c>
@@ -17833,7 +17852,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="580" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A580" s="7" t="s">
         <v>56</v>
       </c>
@@ -17856,7 +17875,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="581" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A581" s="7" t="s">
         <v>56</v>
       </c>
@@ -17876,7 +17895,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="582" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A582" s="7" t="s">
         <v>369</v>
       </c>
@@ -17893,7 +17912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A583" s="7" t="s">
         <v>56</v>
       </c>
@@ -17910,7 +17929,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="584" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A584" s="7" t="s">
         <v>71</v>
       </c>
@@ -17936,7 +17955,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="585" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A585" s="7" t="s">
         <v>56</v>
       </c>
@@ -17956,7 +17975,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="586" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A586" s="7" t="s">
         <v>71</v>
       </c>
@@ -17982,7 +18001,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="587" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A587" s="7" t="s">
         <v>71</v>
       </c>
@@ -18008,7 +18027,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="588" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A588" s="7" t="s">
         <v>71</v>
       </c>
@@ -18037,7 +18056,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="589" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A589" s="7" t="s">
         <v>56</v>
       </c>
@@ -18057,7 +18076,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="590" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A590" s="7" t="s">
         <v>52</v>
       </c>
@@ -18077,7 +18096,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="591" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A591" s="7" t="s">
         <v>71</v>
       </c>
@@ -18106,7 +18125,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="592" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A592" s="7" t="s">
         <v>71</v>
       </c>
@@ -18131,7 +18150,7 @@
       <c r="M592" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="U592" s="9" t="s">
+      <c r="V592" s="9" t="s">
         <v>705</v>
       </c>
     </row>
@@ -19131,7 +19150,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="641" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A641" s="7" t="s">
         <v>52</v>
       </c>
@@ -19148,7 +19167,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="642" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A642" s="7" t="s">
         <v>44</v>
       </c>
@@ -19171,7 +19190,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="643" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A643" s="7" t="s">
         <v>44</v>
       </c>
@@ -19194,7 +19213,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="644" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A644" s="7" t="s">
         <v>44</v>
       </c>
@@ -19211,7 +19230,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="645" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A645" s="7" t="s">
         <v>44</v>
       </c>
@@ -19228,7 +19247,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="646" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A646" s="7" t="s">
         <v>44</v>
       </c>
@@ -19245,7 +19264,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="647" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A647" s="7" t="s">
         <v>44</v>
       </c>
@@ -19265,7 +19284,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="648" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A648" s="7" t="s">
         <v>44</v>
       </c>
@@ -19282,7 +19301,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="649" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A649" s="7" t="s">
         <v>44</v>
       </c>
@@ -19299,7 +19318,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="650" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A650" s="7" t="s">
         <v>44</v>
       </c>
@@ -19322,7 +19341,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="651" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A651" s="7" t="s">
         <v>44</v>
       </c>
@@ -19341,11 +19360,11 @@
       <c r="H651" s="7" t="s">
         <v>731</v>
       </c>
-      <c r="U651" s="9" t="s">
+      <c r="V651" s="9" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="652" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A652" s="7" t="s">
         <v>44</v>
       </c>
@@ -19362,7 +19381,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="653" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A653" s="7" t="s">
         <v>44</v>
       </c>
@@ -19388,7 +19407,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="654" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A654" s="7" t="s">
         <v>44</v>
       </c>
@@ -19407,11 +19426,11 @@
       <c r="G654" s="1">
         <v>44961</v>
       </c>
-      <c r="U654" s="9" t="s">
+      <c r="V654" s="9" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="655" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A655" s="7" t="s">
         <v>44</v>
       </c>
@@ -19434,7 +19453,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="656" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A656" s="7" t="s">
         <v>44</v>
       </c>
@@ -19450,11 +19469,11 @@
       <c r="G656" s="1">
         <v>44963</v>
       </c>
-      <c r="U656" s="9" t="s">
+      <c r="V656" s="9" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="657" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A657" s="7" t="s">
         <v>44</v>
       </c>
@@ -19474,7 +19493,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="658" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A658" s="7" t="s">
         <v>44</v>
       </c>
@@ -19490,11 +19509,11 @@
       <c r="G658" s="1">
         <v>44973</v>
       </c>
-      <c r="U658" s="9" t="s">
+      <c r="V658" s="9" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="659" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A659" s="7" t="s">
         <v>44</v>
       </c>
@@ -19510,11 +19529,11 @@
       <c r="G659" s="1">
         <v>44974</v>
       </c>
-      <c r="U659" s="9" t="s">
+      <c r="V659" s="9" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="660" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A660" s="7" t="s">
         <v>56</v>
       </c>
@@ -19534,7 +19553,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="661" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A661" s="7" t="s">
         <v>56</v>
       </c>
@@ -19554,7 +19573,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="662" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A662" s="7" t="s">
         <v>56</v>
       </c>
@@ -19571,7 +19590,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="663" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>56</v>
       </c>
@@ -19592,7 +19611,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="664" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A664" s="7" t="s">
         <v>44</v>
       </c>
@@ -19609,7 +19628,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="665" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A665" s="7" t="s">
         <v>44</v>
       </c>
@@ -19626,7 +19645,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="666" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A666" s="7" t="s">
         <v>44</v>
       </c>
@@ -19643,7 +19662,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="667" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A667" s="7" t="s">
         <v>44</v>
       </c>
@@ -19660,7 +19679,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="668" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A668" s="7" t="s">
         <v>44</v>
       </c>
@@ -19677,7 +19696,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="669" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A669" s="7" t="s">
         <v>44</v>
       </c>
@@ -19694,7 +19713,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="670" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A670" s="7" t="s">
         <v>56</v>
       </c>
@@ -19714,7 +19733,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="671" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A671" s="7" t="s">
         <v>56</v>
       </c>
@@ -19731,7 +19750,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="672" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A672" s="7" t="s">
         <v>44</v>
       </c>
@@ -21681,7 +21700,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="769" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A769" s="7" t="s">
         <v>369</v>
       </c>
@@ -21707,7 +21726,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="770" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A770" s="7" t="s">
         <v>52</v>
       </c>
@@ -21724,7 +21743,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="771" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A771" s="7" t="s">
         <v>71</v>
       </c>
@@ -21756,7 +21775,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="772" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A772" s="7" t="s">
         <v>369</v>
       </c>
@@ -21779,7 +21798,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="773" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A773" s="7" t="s">
         <v>52</v>
       </c>
@@ -21799,7 +21818,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="774" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A774" s="7" t="s">
         <v>369</v>
       </c>
@@ -21828,7 +21847,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="775" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A775" s="7" t="s">
         <v>369</v>
       </c>
@@ -21851,7 +21870,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="776" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A776" s="7" t="s">
         <v>71</v>
       </c>
@@ -21876,11 +21895,11 @@
       <c r="M776" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="U776" s="9" t="s">
+      <c r="V776" s="9" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="777" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A777" s="7" t="s">
         <v>369</v>
       </c>
@@ -21897,7 +21916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A778" s="7" t="s">
         <v>71</v>
       </c>
@@ -21923,7 +21942,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="779" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A779" s="7" t="s">
         <v>71</v>
       </c>
@@ -21949,7 +21968,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="780" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A780" s="7" t="s">
         <v>44</v>
       </c>
@@ -21975,7 +21994,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="781" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A781" s="7" t="s">
         <v>71</v>
       </c>
@@ -22004,7 +22023,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="782" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A782" s="7" t="s">
         <v>369</v>
       </c>
@@ -22033,7 +22052,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="783" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A783" s="7" t="s">
         <v>369</v>
       </c>
@@ -22056,7 +22075,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="784" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A784" s="7" t="s">
         <v>52</v>
       </c>
@@ -22076,7 +22095,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="785" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A785" s="7" t="s">
         <v>52</v>
       </c>
@@ -22096,7 +22115,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="786" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A786" s="7" t="s">
         <v>71</v>
       </c>
@@ -22125,7 +22144,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="787" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A787" s="7" t="s">
         <v>369</v>
       </c>
@@ -22145,7 +22164,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="788" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A788" s="7" t="s">
         <v>71</v>
       </c>
@@ -22173,11 +22192,11 @@
       <c r="Q788" s="7" t="s">
         <v>825</v>
       </c>
-      <c r="U788" s="9" t="s">
+      <c r="V788" s="9" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="789" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A789" s="7" t="s">
         <v>52</v>
       </c>
@@ -22197,7 +22216,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="790" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A790" s="7" t="s">
         <v>52</v>
       </c>
@@ -22217,7 +22236,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="791" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A791" s="7" t="s">
         <v>71</v>
       </c>
@@ -22242,11 +22261,11 @@
       <c r="M791" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="U791" s="9" t="s">
+      <c r="V791" s="9" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="792" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A792" s="7" t="s">
         <v>71</v>
       </c>
@@ -22278,7 +22297,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="793" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A793" s="7" t="s">
         <v>71</v>
       </c>
@@ -22307,7 +22326,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="794" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A794" s="7" t="s">
         <v>52</v>
       </c>
@@ -22327,7 +22346,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="795" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A795" s="7" t="s">
         <v>369</v>
       </c>
@@ -22347,7 +22366,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="796" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A796" s="7" t="s">
         <v>52</v>
       </c>
@@ -22367,7 +22386,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="797" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A797" s="7" t="s">
         <v>369</v>
       </c>
@@ -22380,11 +22399,11 @@
       <c r="Q797" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="U797" s="9" t="s">
+      <c r="V797" s="9" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="798" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A798" s="7" t="s">
         <v>71</v>
       </c>
@@ -22416,7 +22435,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="799" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A799" s="7" t="s">
         <v>71</v>
       </c>
@@ -22442,7 +22461,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="800" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A800" s="7" t="s">
         <v>71</v>
       </c>
@@ -22467,11 +22486,11 @@
       <c r="M800" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="U800" s="9" t="s">
+      <c r="V800" s="9" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="801" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A801" s="7" t="s">
         <v>71</v>
       </c>
@@ -22500,7 +22519,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="802" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A802" s="7" t="s">
         <v>44</v>
       </c>
@@ -22517,7 +22536,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="803" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A803" s="7" t="s">
         <v>71</v>
       </c>
@@ -22549,7 +22568,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="804" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A804" s="7" t="s">
         <v>71</v>
       </c>
@@ -22580,11 +22599,11 @@
       <c r="R804" s="7" t="s">
         <v>809</v>
       </c>
-      <c r="U804" s="9" t="s">
+      <c r="V804" s="9" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="805" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A805" s="7" t="s">
         <v>56</v>
       </c>
@@ -22604,7 +22623,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="806" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A806" s="7" t="s">
         <v>56</v>
       </c>
@@ -22621,7 +22640,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="807" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A807" s="7" t="s">
         <v>369</v>
       </c>
@@ -22635,7 +22654,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="808" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A808" s="7" t="s">
         <v>369</v>
       </c>
@@ -22646,7 +22665,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="809" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A809" s="7" t="s">
         <v>52</v>
       </c>
@@ -22666,7 +22685,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="810" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A810" s="7" t="s">
         <v>56</v>
       </c>
@@ -22686,7 +22705,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="811" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A811" s="7" t="s">
         <v>71</v>
       </c>
@@ -22715,7 +22734,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="812" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A812" s="7" t="s">
         <v>369</v>
       </c>
@@ -22735,7 +22754,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="813" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A813" s="7" t="s">
         <v>369</v>
       </c>
@@ -22752,7 +22771,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="814" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A814" s="7" t="s">
         <v>71</v>
       </c>
@@ -22778,7 +22797,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="815" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A815" s="7" t="s">
         <v>71</v>
       </c>
@@ -22801,7 +22820,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="816" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A816" s="7" t="s">
         <v>369</v>
       </c>
@@ -22817,11 +22836,11 @@
       <c r="Q816" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="U816" s="9" t="s">
+      <c r="V816" s="9" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="817" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A817" s="7" t="s">
         <v>44</v>
       </c>
@@ -22841,7 +22860,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="818" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A818" s="7" t="s">
         <v>52</v>
       </c>
@@ -22861,7 +22880,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="819" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A819" s="7" t="s">
         <v>71</v>
       </c>
@@ -22886,11 +22905,11 @@
       <c r="M819" s="7" t="s">
         <v>843</v>
       </c>
-      <c r="U819" s="9" t="s">
+      <c r="V819" s="9" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="820" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A820" s="7" t="s">
         <v>369</v>
       </c>
@@ -22909,11 +22928,11 @@
       <c r="R820" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="U820" s="9" t="s">
+      <c r="V820" s="9" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="821" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A821" s="7" t="s">
         <v>71</v>
       </c>
@@ -22942,7 +22961,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="822" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A822" s="7" t="s">
         <v>52</v>
       </c>
@@ -22962,7 +22981,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="823" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A823" s="7" t="s">
         <v>56</v>
       </c>
@@ -22982,7 +23001,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="824" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A824" s="7" t="s">
         <v>56</v>
       </c>
@@ -22999,7 +23018,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="825" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A825" s="7" t="s">
         <v>56</v>
       </c>
@@ -23019,7 +23038,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="826" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A826" s="7" t="s">
         <v>52</v>
       </c>
@@ -23039,7 +23058,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="827" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
         <v>56</v>
       </c>
@@ -23061,7 +23080,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="828" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
         <v>56</v>
       </c>
@@ -23085,7 +23104,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="829" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A829" s="7" t="s">
         <v>52</v>
       </c>
@@ -23105,7 +23124,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="830" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>56</v>
       </c>
@@ -23127,7 +23146,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="831" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
         <v>56</v>
       </c>
@@ -23151,7 +23170,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="832" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A832" s="7" t="s">
         <v>883</v>
       </c>
@@ -24519,7 +24538,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="897" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A897" s="7" t="s">
         <v>56</v>
       </c>
@@ -24539,7 +24558,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="898" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A898" s="7" t="s">
         <v>52</v>
       </c>
@@ -24571,7 +24590,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="899" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A899" s="7" t="s">
         <v>44</v>
       </c>
@@ -24594,7 +24613,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="900" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A900" s="7" t="s">
         <v>56</v>
       </c>
@@ -24617,7 +24636,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="901" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A901" s="7" t="s">
         <v>56</v>
       </c>
@@ -24637,7 +24656,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="902" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A902" s="7" t="s">
         <v>56</v>
       </c>
@@ -24654,7 +24673,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="903" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A903" s="7" t="s">
         <v>44</v>
       </c>
@@ -24677,7 +24696,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="904" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A904" s="7" t="s">
         <v>44</v>
       </c>
@@ -24700,7 +24719,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="905" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A905" s="7" t="s">
         <v>44</v>
       </c>
@@ -24726,7 +24745,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="906" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A906" s="7" t="s">
         <v>56</v>
       </c>
@@ -24746,7 +24765,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="907" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A907" s="7" t="s">
         <v>44</v>
       </c>
@@ -24766,7 +24785,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="908" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A908" s="7" t="s">
         <v>52</v>
       </c>
@@ -24801,7 +24820,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="909" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A909" s="7" t="s">
         <v>52</v>
       </c>
@@ -24830,7 +24849,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="910" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A910" s="7" t="s">
         <v>52</v>
       </c>
@@ -24855,11 +24874,11 @@
       <c r="M910" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="U910" s="9" t="s">
+      <c r="V910" s="9" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="911" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A911" s="7" t="s">
         <v>225</v>
       </c>
@@ -24879,7 +24898,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="912" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A912" s="7" t="s">
         <v>44</v>
       </c>
@@ -25257,7 +25276,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="929" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A929" s="7" t="s">
         <v>52</v>
       </c>
@@ -25289,7 +25308,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="930" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A930" s="7" t="s">
         <v>52</v>
       </c>
@@ -25321,7 +25340,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="931" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A931" s="7" t="s">
         <v>52</v>
       </c>
@@ -25341,7 +25360,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="932" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A932" s="7" t="s">
         <v>52</v>
       </c>
@@ -25361,7 +25380,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="933" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A933" s="7" t="s">
         <v>52</v>
       </c>
@@ -25393,7 +25412,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="934" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A934" s="7" t="s">
         <v>56</v>
       </c>
@@ -25413,7 +25432,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="935" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A935" s="7" t="s">
         <v>56</v>
       </c>
@@ -25430,7 +25449,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="936" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A936" s="7" t="s">
         <v>52</v>
       </c>
@@ -25465,7 +25484,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="937" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A937" s="7" t="s">
         <v>52</v>
       </c>
@@ -25487,11 +25506,11 @@
       <c r="H937" s="7" t="s">
         <v>1019</v>
       </c>
-      <c r="U937" s="9" t="s">
+      <c r="V937" s="9" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="938" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A938" s="7" t="s">
         <v>52</v>
       </c>
@@ -25525,11 +25544,11 @@
       <c r="M938" s="7" t="s">
         <v>958</v>
       </c>
-      <c r="U938" s="9" t="s">
+      <c r="V938" s="9" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="939" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A939" s="7" t="s">
         <v>56</v>
       </c>
@@ -25552,7 +25571,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="940" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A940" s="7" t="s">
         <v>52</v>
       </c>
@@ -25572,7 +25591,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="941" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A941" s="7" t="s">
         <v>52</v>
       </c>
@@ -25604,7 +25623,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="942" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A942" s="7" t="s">
         <v>52</v>
       </c>
@@ -25639,7 +25658,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="943" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A943" s="7" t="s">
         <v>52</v>
       </c>
@@ -25662,7 +25681,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="944" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A944" s="7" t="s">
         <v>52</v>
       </c>
@@ -26538,7 +26557,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="977" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A977" s="7" t="s">
         <v>52</v>
       </c>
@@ -26552,7 +26571,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="978" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A978" s="7" t="s">
         <v>52</v>
       </c>
@@ -26566,7 +26585,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="979" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A979" s="7" t="s">
         <v>52</v>
       </c>
@@ -26601,7 +26620,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="980" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A980" s="7" t="s">
         <v>369</v>
       </c>
@@ -26624,7 +26643,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="981" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A981" s="7" t="s">
         <v>52</v>
       </c>
@@ -26656,7 +26675,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="982" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A982" s="7" t="s">
         <v>71</v>
       </c>
@@ -26685,7 +26704,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="983" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A983" s="7" t="s">
         <v>369</v>
       </c>
@@ -26705,7 +26724,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="984" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A984" s="7" t="s">
         <v>71</v>
       </c>
@@ -26731,7 +26750,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="985" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A985" s="7" t="s">
         <v>52</v>
       </c>
@@ -26763,7 +26782,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="986" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A986" s="7" t="s">
         <v>369</v>
       </c>
@@ -26785,8 +26804,17 @@
       <c r="R986" s="7" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="987" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S986" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="T986" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="U986" s="9" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="987" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A987" s="7" t="s">
         <v>52</v>
       </c>
@@ -26818,7 +26846,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="988" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A988" s="7" t="s">
         <v>369</v>
       </c>
@@ -26841,7 +26869,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="989" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A989" s="7" t="s">
         <v>369</v>
       </c>
@@ -26864,7 +26892,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="990" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A990" s="7" t="s">
         <v>369</v>
       </c>
@@ -26887,7 +26915,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="991" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A991" s="7" t="s">
         <v>52</v>
       </c>
@@ -26919,7 +26947,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="992" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A992" s="7" t="s">
         <v>71</v>
       </c>
@@ -26945,7 +26973,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="993" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A993" s="7" t="s">
         <v>71</v>
       </c>
@@ -26965,7 +26993,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="994" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A994" s="7" t="s">
         <v>71</v>
       </c>
@@ -26991,7 +27019,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="995" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A995" s="7" t="s">
         <v>71</v>
       </c>
@@ -27020,8 +27048,37 @@
         <v>368</v>
       </c>
     </row>
+    <row r="996" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A996" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B996" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C996" s="9" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G996" s="1">
+        <v>45655</v>
+      </c>
+      <c r="O996" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q996" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="R996" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="S996" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="T996" s="7" t="s">
+        <v>1076</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U994">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V994">
     <sortCondition ref="G2:G994"/>
   </sortState>
   <conditionalFormatting sqref="A355:C355 E355">

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720BD96A-AEBC-4941-B0A0-4CE8BB28BF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F110C-69F9-474E-8656-E59F9A462C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5583" uniqueCount="1078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5591" uniqueCount="1079">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3257,6 +3257,9 @@
   </si>
   <si>
     <t>begleitung5</t>
+  </si>
+  <si>
+    <t>02:22:47.0</t>
   </si>
 </sst>
 </file>
@@ -3336,7 +3339,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3784,41 +3787,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:V996"/>
+  <dimension ref="A1:V997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A964" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1004" sqref="I1004:I1005"/>
+      <selection pane="bottomLeft" activeCell="Q998" sqref="Q998"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="138.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.81640625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="138.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="204" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -3914,7 +3917,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3934,7 +3937,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -3982,7 +3985,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>71</v>
       </c>
@@ -4022,7 +4025,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -4050,7 +4053,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -4070,7 +4073,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
@@ -4110,7 +4113,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -4162,7 +4165,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -4207,7 +4210,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -4233,7 +4236,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -4255,7 +4258,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -4279,7 +4282,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -4301,7 +4304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4323,7 +4326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -4345,7 +4348,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -4371,7 +4374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -4393,7 +4396,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>71</v>
       </c>
@@ -4459,7 +4462,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>71</v>
       </c>
@@ -4490,7 +4493,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -4507,7 +4510,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
@@ -4536,7 +4539,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>71</v>
       </c>
@@ -4556,7 +4559,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>71</v>
       </c>
@@ -4576,7 +4579,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
@@ -4608,7 +4611,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -4638,7 +4641,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -4661,7 +4664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -4689,7 +4692,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
@@ -4717,7 +4720,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
@@ -4746,7 +4749,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -4777,7 +4780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -4797,7 +4800,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4825,7 +4828,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -4853,7 +4856,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4883,7 +4886,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4931,7 +4934,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -4953,7 +4956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -4983,7 +4986,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -5044,7 +5047,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -5077,7 +5080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>71</v>
       </c>
@@ -5103,7 +5106,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
@@ -5123,7 +5126,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>71</v>
       </c>
@@ -5155,7 +5158,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>71</v>
       </c>
@@ -5189,7 +5192,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
@@ -5217,7 +5220,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
@@ -5245,7 +5248,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -5278,7 +5281,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>52</v>
       </c>
@@ -5306,7 +5309,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -5339,7 +5342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -5367,7 +5370,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5400,7 +5403,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>71</v>
       </c>
@@ -5434,7 +5437,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>71</v>
       </c>
@@ -5460,7 +5463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5493,7 +5496,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
@@ -5513,7 +5516,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>52</v>
       </c>
@@ -5541,7 +5544,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>52</v>
       </c>
@@ -5569,7 +5572,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>52</v>
       </c>
@@ -5597,7 +5600,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>52</v>
       </c>
@@ -5625,7 +5628,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
@@ -5651,7 +5654,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
@@ -5677,7 +5680,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
@@ -5700,7 +5703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>52</v>
       </c>
@@ -5728,7 +5731,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>52</v>
       </c>
@@ -5756,7 +5759,7 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>52</v>
       </c>
@@ -5776,7 +5779,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
@@ -5796,7 +5799,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
@@ -5836,7 +5839,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
@@ -5864,7 +5867,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>52</v>
       </c>
@@ -5884,7 +5887,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
@@ -5906,7 +5909,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
@@ -5930,7 +5933,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>52</v>
       </c>
@@ -5958,7 +5961,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>44</v>
       </c>
@@ -5978,7 +5981,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>52</v>
       </c>
@@ -6006,7 +6009,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>52</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>52</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>52</v>
       </c>
@@ -6106,7 +6109,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>71</v>
       </c>
@@ -6152,7 +6155,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>52</v>
       </c>
@@ -6180,7 +6183,7 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
@@ -6211,7 +6214,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>52</v>
       </c>
@@ -6231,7 +6234,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>52</v>
       </c>
@@ -6251,7 +6254,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>52</v>
       </c>
@@ -6271,7 +6274,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>71</v>
       </c>
@@ -6297,7 +6300,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>52</v>
       </c>
@@ -6317,7 +6320,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>52</v>
       </c>
@@ -6337,7 +6340,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>52</v>
       </c>
@@ -6357,7 +6360,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>52</v>
       </c>
@@ -6377,7 +6380,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>52</v>
       </c>
@@ -6397,7 +6400,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>52</v>
       </c>
@@ -6425,7 +6428,7 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -6456,7 +6459,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>52</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>52</v>
       </c>
@@ -6504,7 +6507,7 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>52</v>
       </c>
@@ -6535,7 +6538,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>52</v>
       </c>
@@ -6555,7 +6558,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -6585,7 +6588,7 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>149</v>
@@ -6611,7 +6614,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>52</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -6667,7 +6670,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>52</v>
       </c>
@@ -6687,7 +6690,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>52</v>
       </c>
@@ -6707,7 +6710,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>52</v>
       </c>
@@ -6727,7 +6730,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>71</v>
       </c>
@@ -6753,7 +6756,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -6775,7 +6778,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -6803,7 +6806,7 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -6833,7 +6836,7 @@
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -6857,7 +6860,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -6887,7 +6890,7 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>149</v>
@@ -6913,7 +6916,7 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>52</v>
       </c>
@@ -6941,7 +6944,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -6971,7 +6974,7 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -7001,7 +7004,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -7027,7 +7030,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -7053,7 +7056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>52</v>
       </c>
@@ -7073,7 +7076,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -7103,7 +7106,7 @@
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
@@ -7129,7 +7132,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>52</v>
       </c>
@@ -7149,7 +7152,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>56</v>
       </c>
@@ -7177,7 +7180,7 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>56</v>
       </c>
@@ -7203,7 +7206,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>56</v>
       </c>
@@ -7225,7 +7228,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>56</v>
       </c>
@@ -7247,7 +7250,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>56</v>
       </c>
@@ -7271,7 +7274,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>56</v>
       </c>
@@ -7297,7 +7300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>56</v>
       </c>
@@ -7321,7 +7324,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>52</v>
       </c>
@@ -7344,7 +7347,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>52</v>
       </c>
@@ -7367,7 +7370,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>56</v>
       </c>
@@ -7397,7 +7400,7 @@
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>56</v>
       </c>
@@ -7419,7 +7422,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>56</v>
       </c>
@@ -7443,7 +7446,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>56</v>
       </c>
@@ -7469,7 +7472,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>56</v>
       </c>
@@ -7491,7 +7494,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>56</v>
       </c>
@@ -7515,7 +7518,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>52</v>
       </c>
@@ -7538,7 +7541,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>52</v>
       </c>
@@ -7561,7 +7564,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>52</v>
       </c>
@@ -7584,7 +7587,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>71</v>
       </c>
@@ -7610,7 +7613,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>71</v>
       </c>
@@ -7641,7 +7644,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>71</v>
       </c>
@@ -7669,7 +7672,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>71</v>
       </c>
@@ -7698,7 +7701,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>71</v>
       </c>
@@ -7729,7 +7732,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>71</v>
       </c>
@@ -7760,7 +7763,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>52</v>
       </c>
@@ -7780,7 +7783,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>71</v>
       </c>
@@ -7811,7 +7814,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>52</v>
       </c>
@@ -7831,7 +7834,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>52</v>
       </c>
@@ -7854,7 +7857,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>71</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>71</v>
       </c>
@@ -7913,7 +7916,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>71</v>
       </c>
@@ -7944,7 +7947,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>52</v>
       </c>
@@ -7967,7 +7970,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>52</v>
       </c>
@@ -7987,7 +7990,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>52</v>
       </c>
@@ -8010,7 +8013,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>52</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>71</v>
       </c>
@@ -8064,7 +8067,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>71</v>
       </c>
@@ -8098,7 +8101,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>71</v>
       </c>
@@ -8132,7 +8135,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>56</v>
       </c>
@@ -8154,7 +8157,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>56</v>
       </c>
@@ -8178,7 +8181,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>149</v>
@@ -8196,7 +8199,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>52</v>
       </c>
@@ -8216,7 +8219,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>52</v>
       </c>
@@ -8236,7 +8239,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>52</v>
       </c>
@@ -8259,7 +8262,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>52</v>
       </c>
@@ -8281,7 +8284,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>56</v>
       </c>
@@ -8301,7 +8304,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>225</v>
       </c>
@@ -8323,7 +8326,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>56</v>
       </c>
@@ -8353,7 +8356,7 @@
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>56</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>52</v>
       </c>
@@ -8402,7 +8405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>56</v>
       </c>
@@ -8430,7 +8433,7 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>56</v>
       </c>
@@ -8458,7 +8461,7 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>56</v>
       </c>
@@ -8486,7 +8489,7 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>56</v>
       </c>
@@ -8516,7 +8519,7 @@
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>56</v>
       </c>
@@ -8542,7 +8545,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>56</v>
       </c>
@@ -8566,7 +8569,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>56</v>
       </c>
@@ -8592,7 +8595,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>52</v>
       </c>
@@ -8614,7 +8617,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>56</v>
       </c>
@@ -8636,7 +8639,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>225</v>
       </c>
@@ -8658,7 +8661,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>56</v>
       </c>
@@ -8680,7 +8683,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>52</v>
       </c>
@@ -8702,7 +8705,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>225</v>
       </c>
@@ -8727,7 +8730,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>52</v>
       </c>
@@ -8750,7 +8753,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>52</v>
       </c>
@@ -8770,7 +8773,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>71</v>
       </c>
@@ -8804,7 +8807,7 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>71</v>
       </c>
@@ -8841,7 +8844,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>71</v>
       </c>
@@ -8878,7 +8881,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>71</v>
       </c>
@@ -8906,7 +8909,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>52</v>
       </c>
@@ -8926,7 +8929,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>52</v>
       </c>
@@ -8949,7 +8952,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>56</v>
       </c>
@@ -8980,7 +8983,7 @@
       <c r="P204" s="6"/>
       <c r="V204" s="11"/>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>56</v>
       </c>
@@ -9004,7 +9007,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>56</v>
       </c>
@@ -9032,7 +9035,7 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>56</v>
       </c>
@@ -9060,7 +9063,7 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>56</v>
       </c>
@@ -9082,7 +9085,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>56</v>
       </c>
@@ -9106,7 +9109,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>56</v>
       </c>
@@ -9126,7 +9129,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>56</v>
       </c>
@@ -9146,7 +9149,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>52</v>
       </c>
@@ -9168,7 +9171,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>56</v>
       </c>
@@ -9193,7 +9196,7 @@
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -9218,7 +9221,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>56</v>
       </c>
@@ -9238,7 +9241,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>56</v>
       </c>
@@ -9258,7 +9261,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>225</v>
       </c>
@@ -9283,7 +9286,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>56</v>
       </c>
@@ -9305,7 +9308,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>56</v>
       </c>
@@ -9327,7 +9330,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>56</v>
       </c>
@@ -9349,7 +9352,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>56</v>
       </c>
@@ -9372,7 +9375,7 @@
       </c>
       <c r="V221" s="11"/>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>56</v>
       </c>
@@ -9404,7 +9407,7 @@
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>56</v>
       </c>
@@ -9426,7 +9429,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>56</v>
       </c>
@@ -9448,7 +9451,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>56</v>
       </c>
@@ -9472,7 +9475,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>56</v>
       </c>
@@ -9494,7 +9497,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>56</v>
       </c>
@@ -9518,7 +9521,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>56</v>
       </c>
@@ -9540,7 +9543,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>56</v>
       </c>
@@ -9562,7 +9565,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>56</v>
       </c>
@@ -9584,7 +9587,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>56</v>
       </c>
@@ -9606,7 +9609,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>56</v>
       </c>
@@ -9628,7 +9631,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>56</v>
       </c>
@@ -9650,7 +9653,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>56</v>
       </c>
@@ -9672,7 +9675,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>225</v>
       </c>
@@ -9694,7 +9697,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>56</v>
       </c>
@@ -9720,7 +9723,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>56</v>
       </c>
@@ -9742,7 +9745,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>56</v>
       </c>
@@ -9764,7 +9767,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>56</v>
       </c>
@@ -9786,7 +9789,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>56</v>
       </c>
@@ -9810,7 +9813,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>56</v>
       </c>
@@ -9836,7 +9839,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>56</v>
       </c>
@@ -9856,7 +9859,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>56</v>
       </c>
@@ -9876,7 +9879,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>56</v>
       </c>
@@ -9896,7 +9899,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>56</v>
       </c>
@@ -9920,7 +9923,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>56</v>
       </c>
@@ -9946,7 +9949,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>56</v>
       </c>
@@ -9972,7 +9975,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>52</v>
       </c>
@@ -9994,7 +9997,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>56</v>
       </c>
@@ -10016,7 +10019,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>225</v>
       </c>
@@ -10041,7 +10044,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>56</v>
       </c>
@@ -10063,7 +10066,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>56</v>
       </c>
@@ -10085,7 +10088,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>56</v>
       </c>
@@ -10107,7 +10110,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>56</v>
       </c>
@@ -10129,7 +10132,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>56</v>
       </c>
@@ -10155,7 +10158,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>52</v>
       </c>
@@ -10175,7 +10178,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>56</v>
       </c>
@@ -10197,7 +10200,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>56</v>
       </c>
@@ -10221,7 +10224,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>56</v>
       </c>
@@ -10241,7 +10244,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>56</v>
       </c>
@@ -10261,7 +10264,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>56</v>
       </c>
@@ -10281,7 +10284,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>56</v>
       </c>
@@ -10303,7 +10306,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>56</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>56</v>
       </c>
@@ -10349,7 +10352,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>52</v>
       </c>
@@ -10371,7 +10374,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>225</v>
       </c>
@@ -10393,7 +10396,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>56</v>
       </c>
@@ -10413,7 +10416,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>56</v>
       </c>
@@ -10435,7 +10438,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>56</v>
       </c>
@@ -10459,7 +10462,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>56</v>
       </c>
@@ -10483,7 +10486,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>56</v>
       </c>
@@ -10509,7 +10512,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>56</v>
       </c>
@@ -10531,7 +10534,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>56</v>
       </c>
@@ -10555,7 +10558,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>56</v>
       </c>
@@ -10574,7 +10577,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>56</v>
       </c>
@@ -10597,7 +10600,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>56</v>
       </c>
@@ -10621,7 +10624,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>56</v>
       </c>
@@ -10647,7 +10650,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>56</v>
       </c>
@@ -10666,7 +10669,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>52</v>
       </c>
@@ -10690,7 +10693,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>56</v>
       </c>
@@ -10713,7 +10716,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>56</v>
       </c>
@@ -10736,7 +10739,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>56</v>
       </c>
@@ -10758,7 +10761,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>56</v>
       </c>
@@ -10780,7 +10783,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>56</v>
       </c>
@@ -10799,7 +10802,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>56</v>
       </c>
@@ -10822,7 +10825,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>56</v>
       </c>
@@ -10848,7 +10851,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>56</v>
       </c>
@@ -10874,7 +10877,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>56</v>
       </c>
@@ -10897,7 +10900,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>52</v>
       </c>
@@ -10920,7 +10923,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>52</v>
       </c>
@@ -10943,7 +10946,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>56</v>
       </c>
@@ -10967,7 +10970,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>56</v>
       </c>
@@ -10989,7 +10992,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>56</v>
       </c>
@@ -11013,7 +11016,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>52</v>
       </c>
@@ -11039,7 +11042,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>52</v>
       </c>
@@ -11062,7 +11065,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>52</v>
       </c>
@@ -11085,7 +11088,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>52</v>
       </c>
@@ -11108,7 +11111,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>56</v>
       </c>
@@ -11130,7 +11133,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>56</v>
       </c>
@@ -11154,7 +11157,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>56</v>
       </c>
@@ -11174,7 +11177,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>56</v>
       </c>
@@ -11194,7 +11197,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>56</v>
       </c>
@@ -11216,7 +11219,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>56</v>
       </c>
@@ -11240,7 +11243,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>52</v>
       </c>
@@ -11260,7 +11263,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>56</v>
       </c>
@@ -11294,7 +11297,7 @@
       <c r="O305" s="4"/>
       <c r="P305" s="4"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>56</v>
       </c>
@@ -11316,7 +11319,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>56</v>
       </c>
@@ -11340,7 +11343,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>56</v>
       </c>
@@ -11362,7 +11365,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>56</v>
       </c>
@@ -11386,7 +11389,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>56</v>
       </c>
@@ -11406,7 +11409,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>225</v>
       </c>
@@ -11428,7 +11431,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>71</v>
       </c>
@@ -11454,7 +11457,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>71</v>
       </c>
@@ -11483,7 +11486,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>71</v>
       </c>
@@ -11515,7 +11518,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>369</v>
       </c>
@@ -11541,7 +11544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>71</v>
       </c>
@@ -11575,7 +11578,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>369</v>
       </c>
@@ -11601,7 +11604,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>369</v>
       </c>
@@ -11621,7 +11624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>369</v>
       </c>
@@ -11644,7 +11647,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>71</v>
       </c>
@@ -11670,7 +11673,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>369</v>
       </c>
@@ -11687,7 +11690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>71</v>
       </c>
@@ -11716,7 +11719,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>369</v>
       </c>
@@ -11739,7 +11742,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
         <v>369</v>
       </c>
@@ -11759,7 +11762,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>369</v>
       </c>
@@ -11779,7 +11782,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>369</v>
       </c>
@@ -11799,7 +11802,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>369</v>
       </c>
@@ -11822,7 +11825,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>52</v>
       </c>
@@ -11845,7 +11848,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>369</v>
       </c>
@@ -11868,7 +11871,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
         <v>369</v>
       </c>
@@ -11891,7 +11894,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>369</v>
       </c>
@@ -11908,7 +11911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>369</v>
       </c>
@@ -11925,7 +11928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>369</v>
       </c>
@@ -11945,7 +11948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>369</v>
       </c>
@@ -11965,7 +11968,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>369</v>
       </c>
@@ -11982,7 +11985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>71</v>
       </c>
@@ -12014,7 +12017,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>369</v>
       </c>
@@ -12034,7 +12037,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>71</v>
       </c>
@@ -12063,7 +12066,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>369</v>
       </c>
@@ -12086,7 +12089,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>71</v>
       </c>
@@ -12115,7 +12118,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>369</v>
       </c>
@@ -12141,7 +12144,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
         <v>369</v>
       </c>
@@ -12158,7 +12161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>369</v>
       </c>
@@ -12181,7 +12184,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
         <v>369</v>
       </c>
@@ -12198,7 +12201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>71</v>
       </c>
@@ -12226,7 +12229,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
         <v>369</v>
       </c>
@@ -12249,7 +12252,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>71</v>
       </c>
@@ -12278,7 +12281,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>369</v>
       </c>
@@ -12295,7 +12298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>369</v>
       </c>
@@ -12318,7 +12321,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
         <v>71</v>
       </c>
@@ -12350,7 +12353,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>71</v>
       </c>
@@ -12379,7 +12382,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
         <v>369</v>
       </c>
@@ -12405,7 +12408,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>71</v>
       </c>
@@ -12437,7 +12440,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>369</v>
       </c>
@@ -12457,7 +12460,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>369</v>
       </c>
@@ -12486,7 +12489,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>369</v>
       </c>
@@ -12515,7 +12518,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>71</v>
       </c>
@@ -12541,7 +12544,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>71</v>
       </c>
@@ -12572,7 +12575,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
         <v>71</v>
       </c>
@@ -12601,7 +12604,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>71</v>
       </c>
@@ -12632,7 +12635,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>369</v>
       </c>
@@ -12655,7 +12658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
         <v>71</v>
       </c>
@@ -12684,7 +12687,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>56</v>
       </c>
@@ -12704,7 +12707,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>369</v>
       </c>
@@ -12730,7 +12733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>71</v>
       </c>
@@ -12756,7 +12759,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>71</v>
       </c>
@@ -12787,7 +12790,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>52</v>
       </c>
@@ -12807,7 +12810,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>71</v>
       </c>
@@ -12833,7 +12836,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>71</v>
       </c>
@@ -12862,7 +12865,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>369</v>
       </c>
@@ -12882,7 +12885,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
         <v>71</v>
       </c>
@@ -12914,7 +12917,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>369</v>
       </c>
@@ -12931,7 +12934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
         <v>71</v>
       </c>
@@ -12957,7 +12960,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
         <v>369</v>
       </c>
@@ -12980,7 +12983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>71</v>
       </c>
@@ -13008,7 +13011,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>71</v>
       </c>
@@ -13037,7 +13040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>71</v>
       </c>
@@ -13063,7 +13066,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
         <v>71</v>
       </c>
@@ -13092,7 +13095,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>71</v>
       </c>
@@ -13118,7 +13121,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
         <v>71</v>
       </c>
@@ -13152,7 +13155,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
         <v>71</v>
       </c>
@@ -13181,7 +13184,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
         <v>71</v>
       </c>
@@ -13212,7 +13215,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
         <v>71</v>
       </c>
@@ -13240,7 +13243,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
         <v>71</v>
       </c>
@@ -13266,7 +13269,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>56</v>
       </c>
@@ -13286,7 +13289,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>56</v>
       </c>
@@ -13308,7 +13311,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>56</v>
       </c>
@@ -13332,7 +13335,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
         <v>71</v>
       </c>
@@ -13361,7 +13364,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
         <v>71</v>
       </c>
@@ -13393,7 +13396,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>56</v>
       </c>
@@ -13416,7 +13419,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>56</v>
       </c>
@@ -13438,7 +13441,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>56</v>
       </c>
@@ -13462,7 +13465,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
         <v>71</v>
       </c>
@@ -13500,7 +13503,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
         <v>56</v>
       </c>
@@ -13520,7 +13523,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>71</v>
       </c>
@@ -13549,7 +13552,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>56</v>
       </c>
@@ -13572,7 +13575,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>56</v>
       </c>
@@ -13595,7 +13598,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>56</v>
       </c>
@@ -13615,7 +13618,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>56</v>
       </c>
@@ -13638,7 +13641,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
         <v>71</v>
       </c>
@@ -13667,7 +13670,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
         <v>71</v>
       </c>
@@ -13696,7 +13699,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
         <v>56</v>
       </c>
@@ -13713,7 +13716,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
         <v>71</v>
       </c>
@@ -13742,7 +13745,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>56</v>
       </c>
@@ -13765,7 +13768,7 @@
         <v>44332</v>
       </c>
     </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>56</v>
       </c>
@@ -13785,7 +13788,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
         <v>56</v>
       </c>
@@ -13802,7 +13805,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
         <v>56</v>
       </c>
@@ -13822,7 +13825,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="408" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
         <v>56</v>
       </c>
@@ -13842,7 +13845,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>56</v>
       </c>
@@ -13862,7 +13865,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="410" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>52</v>
       </c>
@@ -13882,7 +13885,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>56</v>
       </c>
@@ -13899,7 +13902,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="412" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>56</v>
       </c>
@@ -13919,7 +13922,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
         <v>71</v>
       </c>
@@ -13948,7 +13951,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="414" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>56</v>
       </c>
@@ -13968,7 +13971,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
         <v>56</v>
       </c>
@@ -13988,7 +13991,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="416" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>71</v>
       </c>
@@ -14017,7 +14020,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>71</v>
       </c>
@@ -14046,7 +14049,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
         <v>71</v>
       </c>
@@ -14081,7 +14084,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
         <v>56</v>
       </c>
@@ -14101,7 +14104,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
         <v>56</v>
       </c>
@@ -14121,7 +14124,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
         <v>56</v>
       </c>
@@ -14141,7 +14144,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
         <v>56</v>
       </c>
@@ -14161,7 +14164,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
         <v>56</v>
       </c>
@@ -14184,7 +14187,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
         <v>56</v>
       </c>
@@ -14215,7 +14218,7 @@
       <c r="L424" s="12"/>
       <c r="M424" s="12"/>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
         <v>56</v>
       </c>
@@ -14232,7 +14235,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
         <v>56</v>
       </c>
@@ -14252,7 +14255,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
         <v>56</v>
       </c>
@@ -14272,7 +14275,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>56</v>
       </c>
@@ -14294,7 +14297,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>56</v>
       </c>
@@ -14317,7 +14320,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>56</v>
       </c>
@@ -14343,7 +14346,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
         <v>56</v>
       </c>
@@ -14360,7 +14363,7 @@
         <v>44360</v>
       </c>
     </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
         <v>56</v>
       </c>
@@ -14383,7 +14386,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
         <v>56</v>
       </c>
@@ -14405,7 +14408,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
         <v>56</v>
       </c>
@@ -14427,7 +14430,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
         <v>56</v>
       </c>
@@ -14449,7 +14452,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
         <v>56</v>
       </c>
@@ -14473,7 +14476,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
         <v>56</v>
       </c>
@@ -14499,7 +14502,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>56</v>
       </c>
@@ -14519,7 +14522,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>56</v>
       </c>
@@ -14536,7 +14539,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>56</v>
       </c>
@@ -14558,7 +14561,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="441" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>56</v>
       </c>
@@ -14582,7 +14585,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
         <v>56</v>
       </c>
@@ -14602,7 +14605,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="443" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
         <v>56</v>
       </c>
@@ -14619,7 +14622,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
         <v>56</v>
       </c>
@@ -14639,7 +14642,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="445" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>56</v>
       </c>
@@ -14663,7 +14666,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>56</v>
       </c>
@@ -14683,7 +14686,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>56</v>
       </c>
@@ -14705,7 +14708,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>56</v>
       </c>
@@ -14727,7 +14730,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="449" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A449" s="7" t="s">
         <v>56</v>
       </c>
@@ -14747,7 +14750,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A450" s="7" t="s">
         <v>56</v>
       </c>
@@ -14773,7 +14776,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>56</v>
       </c>
@@ -14795,7 +14798,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>56</v>
       </c>
@@ -14819,7 +14822,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="453" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A453" s="7" t="s">
         <v>56</v>
       </c>
@@ -14843,7 +14846,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="454" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
         <v>56</v>
       </c>
@@ -14869,7 +14872,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="455" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A455" s="7" t="s">
         <v>56</v>
       </c>
@@ -14889,7 +14892,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="456" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A456" s="7" t="s">
         <v>56</v>
       </c>
@@ -14909,7 +14912,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="457" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A457" s="7" t="s">
         <v>56</v>
       </c>
@@ -14932,7 +14935,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="458" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>56</v>
       </c>
@@ -14954,7 +14957,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="459" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>56</v>
       </c>
@@ -14976,7 +14979,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="460" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>56</v>
       </c>
@@ -14999,7 +15002,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="461" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A461" s="7" t="s">
         <v>52</v>
       </c>
@@ -15019,7 +15022,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="462" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A462" s="7" t="s">
         <v>56</v>
       </c>
@@ -15036,7 +15039,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="463" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
         <v>52</v>
       </c>
@@ -15053,7 +15056,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="464" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
         <v>56</v>
       </c>
@@ -15082,7 +15085,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>56</v>
       </c>
@@ -15104,7 +15107,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>56</v>
       </c>
@@ -15128,7 +15131,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>56</v>
       </c>
@@ -15154,7 +15157,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="7" t="s">
         <v>56</v>
       </c>
@@ -15174,7 +15177,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="7" t="s">
         <v>52</v>
       </c>
@@ -15197,7 +15200,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="7" t="s">
         <v>52</v>
       </c>
@@ -15217,7 +15220,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>56</v>
       </c>
@@ -15236,7 +15239,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>56</v>
       </c>
@@ -15258,7 +15261,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>56</v>
       </c>
@@ -15282,7 +15285,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
         <v>52</v>
       </c>
@@ -15302,7 +15305,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
         <v>52</v>
       </c>
@@ -15322,7 +15325,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>56</v>
       </c>
@@ -15342,7 +15345,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
         <v>52</v>
       </c>
@@ -15359,7 +15362,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
         <v>56</v>
       </c>
@@ -15381,7 +15384,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>56</v>
       </c>
@@ -15403,7 +15406,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>56</v>
       </c>
@@ -15427,7 +15430,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>56</v>
       </c>
@@ -15449,7 +15452,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>56</v>
       </c>
@@ -15475,7 +15478,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A483" s="7" t="s">
         <v>52</v>
       </c>
@@ -15495,7 +15498,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A484" s="7" t="s">
         <v>52</v>
       </c>
@@ -15518,7 +15521,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>56</v>
       </c>
@@ -15540,7 +15543,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A486" s="7" t="s">
         <v>56</v>
       </c>
@@ -15557,7 +15560,7 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A487" s="7" t="s">
         <v>52</v>
       </c>
@@ -15580,7 +15583,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>56</v>
       </c>
@@ -15602,7 +15605,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>56</v>
       </c>
@@ -15624,7 +15627,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>56</v>
       </c>
@@ -15646,7 +15649,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>56</v>
       </c>
@@ -15670,7 +15673,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A492" s="7" t="s">
         <v>52</v>
       </c>
@@ -15695,7 +15698,7 @@
       <c r="L492" s="4"/>
       <c r="M492" s="4"/>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
         <v>44</v>
       </c>
@@ -15730,7 +15733,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A494" s="7" t="s">
         <v>52</v>
       </c>
@@ -15747,7 +15750,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>56</v>
       </c>
@@ -15769,7 +15772,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
         <v>56</v>
       </c>
@@ -15786,7 +15789,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497" s="7" t="s">
         <v>44</v>
       </c>
@@ -15818,7 +15821,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" s="7" t="s">
         <v>44</v>
       </c>
@@ -15844,7 +15847,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
         <v>56</v>
       </c>
@@ -15870,7 +15873,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" s="7" t="s">
         <v>44</v>
       </c>
@@ -15892,7 +15895,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>56</v>
       </c>
@@ -15911,7 +15914,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>56</v>
       </c>
@@ -15932,7 +15935,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" s="7" t="s">
         <v>56</v>
       </c>
@@ -15954,7 +15957,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A504" s="7" t="s">
         <v>56</v>
       </c>
@@ -15976,7 +15979,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A505" s="7" t="s">
         <v>56</v>
       </c>
@@ -15998,7 +16001,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A506" s="7" t="s">
         <v>56</v>
       </c>
@@ -16020,7 +16023,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A507" s="7" t="s">
         <v>44</v>
       </c>
@@ -16043,7 +16046,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>56</v>
       </c>
@@ -16065,7 +16068,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>56</v>
       </c>
@@ -16086,7 +16089,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A510" s="7" t="s">
         <v>56</v>
       </c>
@@ -16112,7 +16115,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A511" s="7" t="s">
         <v>56</v>
       </c>
@@ -16132,7 +16135,7 @@
         <v>44506</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>56</v>
       </c>
@@ -16153,7 +16156,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A513" s="7" t="s">
         <v>52</v>
       </c>
@@ -16173,7 +16176,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A514" s="7" t="s">
         <v>56</v>
       </c>
@@ -16199,7 +16202,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
         <v>56</v>
       </c>
@@ -16219,7 +16222,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A516" s="7" t="s">
         <v>52</v>
       </c>
@@ -16241,7 +16244,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>56</v>
       </c>
@@ -16265,7 +16268,7 @@
       <c r="L517" s="9"/>
       <c r="M517" s="9"/>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>225</v>
       </c>
@@ -16287,7 +16290,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>56</v>
       </c>
@@ -16304,7 +16307,7 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A520" s="7" t="s">
         <v>52</v>
       </c>
@@ -16324,7 +16327,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" s="7" t="s">
         <v>71</v>
       </c>
@@ -16353,7 +16356,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A522" s="7" t="s">
         <v>369</v>
       </c>
@@ -16373,7 +16376,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A523" s="7" t="s">
         <v>369</v>
       </c>
@@ -16399,7 +16402,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A524" s="7" t="s">
         <v>71</v>
       </c>
@@ -16425,7 +16428,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A525" s="7" t="s">
         <v>71</v>
       </c>
@@ -16451,7 +16454,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A526" s="7" t="s">
         <v>369</v>
       </c>
@@ -16474,7 +16477,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A527" s="7" t="s">
         <v>71</v>
       </c>
@@ -16500,7 +16503,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A528" s="7" t="s">
         <v>71</v>
       </c>
@@ -16535,7 +16538,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="529" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A529" s="7" t="s">
         <v>71</v>
       </c>
@@ -16564,7 +16567,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="530" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A530" s="7" t="s">
         <v>71</v>
       </c>
@@ -16590,7 +16593,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="531" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A531" s="7" t="s">
         <v>52</v>
       </c>
@@ -16610,7 +16613,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="532" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A532" s="7" t="s">
         <v>369</v>
       </c>
@@ -16633,7 +16636,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="533" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A533" s="7" t="s">
         <v>71</v>
       </c>
@@ -16662,7 +16665,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="534" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A534" s="7" t="s">
         <v>71</v>
       </c>
@@ -16691,7 +16694,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="535" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A535" s="7" t="s">
         <v>369</v>
       </c>
@@ -16714,7 +16717,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="536" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
         <v>71</v>
       </c>
@@ -16746,7 +16749,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="537" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A537" s="7" t="s">
         <v>52</v>
       </c>
@@ -16766,7 +16769,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="538" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A538" s="7" t="s">
         <v>52</v>
       </c>
@@ -16786,7 +16789,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="539" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A539" s="7" t="s">
         <v>369</v>
       </c>
@@ -16809,7 +16812,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="540" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A540" s="7" t="s">
         <v>71</v>
       </c>
@@ -16843,7 +16846,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="541" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A541" s="7" t="s">
         <v>71</v>
       </c>
@@ -16874,7 +16877,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="542" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A542" s="7" t="s">
         <v>71</v>
       </c>
@@ -16900,7 +16903,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="543" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A543" s="7" t="s">
         <v>71</v>
       </c>
@@ -16926,7 +16929,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="544" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A544" s="7" t="s">
         <v>369</v>
       </c>
@@ -16949,7 +16952,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="545" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A545" s="7" t="s">
         <v>71</v>
       </c>
@@ -16975,7 +16978,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="546" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
         <v>71</v>
       </c>
@@ -17004,7 +17007,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="547" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A547" s="7" t="s">
         <v>369</v>
       </c>
@@ -17033,7 +17036,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="548" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A548" s="7" t="s">
         <v>71</v>
       </c>
@@ -17062,7 +17065,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="549" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A549" s="7" t="s">
         <v>369</v>
       </c>
@@ -17079,7 +17082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A550" s="7" t="s">
         <v>71</v>
       </c>
@@ -17105,7 +17108,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="551" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A551" s="7" t="s">
         <v>71</v>
       </c>
@@ -17134,7 +17137,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="552" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A552" s="7" t="s">
         <v>369</v>
       </c>
@@ -17163,7 +17166,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="553" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A553" s="7" t="s">
         <v>71</v>
       </c>
@@ -17189,7 +17192,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="554" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
         <v>369</v>
       </c>
@@ -17212,7 +17215,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="555" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A555" s="7" t="s">
         <v>369</v>
       </c>
@@ -17232,7 +17235,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="556" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
         <v>71</v>
       </c>
@@ -17261,7 +17264,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="557" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A557" s="7" t="s">
         <v>71</v>
       </c>
@@ -17290,7 +17293,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="558" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A558" s="7" t="s">
         <v>369</v>
       </c>
@@ -17313,7 +17316,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="559" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A559" s="7" t="s">
         <v>71</v>
       </c>
@@ -17342,7 +17345,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="560" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A560" s="7" t="s">
         <v>71</v>
       </c>
@@ -17365,7 +17368,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="561" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A561" s="7" t="s">
         <v>369</v>
       </c>
@@ -17385,7 +17388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A562" s="7" t="s">
         <v>369</v>
       </c>
@@ -17405,7 +17408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A563" s="7" t="s">
         <v>369</v>
       </c>
@@ -17434,7 +17437,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="564" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A564" s="7" t="s">
         <v>71</v>
       </c>
@@ -17462,7 +17465,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="565" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A565" s="7" t="s">
         <v>71</v>
       </c>
@@ -17490,7 +17493,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="566" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A566" s="7" t="s">
         <v>71</v>
       </c>
@@ -17516,7 +17519,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="567" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A567" s="7" t="s">
         <v>71</v>
       </c>
@@ -17556,7 +17559,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="568" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A568" s="7" t="s">
         <v>71</v>
       </c>
@@ -17585,7 +17588,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="569" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A569" s="7" t="s">
         <v>71</v>
       </c>
@@ -17617,7 +17620,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="570" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A570" s="7" t="s">
         <v>369</v>
       </c>
@@ -17643,7 +17646,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="571" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A571" s="7" t="s">
         <v>71</v>
       </c>
@@ -17678,7 +17681,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="572" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A572" s="7" t="s">
         <v>369</v>
       </c>
@@ -17695,7 +17698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A573" s="7" t="s">
         <v>369</v>
       </c>
@@ -17721,7 +17724,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="574" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A574" s="7" t="s">
         <v>369</v>
       </c>
@@ -17738,7 +17741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A575" s="7" t="s">
         <v>71</v>
       </c>
@@ -17764,7 +17767,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="576" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A576" s="7" t="s">
         <v>56</v>
       </c>
@@ -17784,7 +17787,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="577" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A577" s="7" t="s">
         <v>56</v>
       </c>
@@ -17801,7 +17804,7 @@
         <v>44637</v>
       </c>
     </row>
-    <row r="578" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A578" s="7" t="s">
         <v>369</v>
       </c>
@@ -17824,7 +17827,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="579" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A579" s="7" t="s">
         <v>71</v>
       </c>
@@ -17852,7 +17855,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="580" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A580" s="7" t="s">
         <v>56</v>
       </c>
@@ -17875,7 +17878,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="581" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A581" s="7" t="s">
         <v>56</v>
       </c>
@@ -17895,7 +17898,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="582" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A582" s="7" t="s">
         <v>369</v>
       </c>
@@ -17912,7 +17915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A583" s="7" t="s">
         <v>56</v>
       </c>
@@ -17929,7 +17932,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="584" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A584" s="7" t="s">
         <v>71</v>
       </c>
@@ -17955,7 +17958,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="585" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A585" s="7" t="s">
         <v>56</v>
       </c>
@@ -17975,7 +17978,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="586" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A586" s="7" t="s">
         <v>71</v>
       </c>
@@ -18001,7 +18004,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="587" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A587" s="7" t="s">
         <v>71</v>
       </c>
@@ -18027,7 +18030,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="588" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A588" s="7" t="s">
         <v>71</v>
       </c>
@@ -18056,7 +18059,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="589" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A589" s="7" t="s">
         <v>56</v>
       </c>
@@ -18076,7 +18079,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A590" s="7" t="s">
         <v>52</v>
       </c>
@@ -18096,7 +18099,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="591" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A591" s="7" t="s">
         <v>71</v>
       </c>
@@ -18125,7 +18128,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="592" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
         <v>71</v>
       </c>
@@ -18154,7 +18157,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A593" s="7" t="s">
         <v>56</v>
       </c>
@@ -18171,7 +18174,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A594" s="7" t="s">
         <v>56</v>
       </c>
@@ -18188,7 +18191,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>56</v>
       </c>
@@ -18209,7 +18212,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>56</v>
       </c>
@@ -18230,7 +18233,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>56</v>
       </c>
@@ -18251,7 +18254,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>56</v>
       </c>
@@ -18272,7 +18275,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A599" s="7" t="s">
         <v>44</v>
       </c>
@@ -18298,7 +18301,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>56</v>
       </c>
@@ -18320,7 +18323,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>56</v>
       </c>
@@ -18342,7 +18345,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>56</v>
       </c>
@@ -18364,7 +18367,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>56</v>
       </c>
@@ -18388,7 +18391,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>56</v>
       </c>
@@ -18407,7 +18410,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
         <v>56</v>
       </c>
@@ -18429,7 +18432,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A606" s="7" t="s">
         <v>56</v>
       </c>
@@ -18446,7 +18449,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A607" s="7" t="s">
         <v>56</v>
       </c>
@@ -18466,7 +18469,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
         <v>56</v>
       </c>
@@ -18489,7 +18492,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A609" s="7" t="s">
         <v>56</v>
       </c>
@@ -18512,7 +18515,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A610" s="7" t="s">
         <v>56</v>
       </c>
@@ -18531,7 +18534,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A611" s="7" t="s">
         <v>56</v>
       </c>
@@ -18548,7 +18551,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A612" s="7" t="s">
         <v>56</v>
       </c>
@@ -18574,7 +18577,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A613" s="7" t="s">
         <v>56</v>
       </c>
@@ -18596,7 +18599,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A614" s="7" t="s">
         <v>56</v>
       </c>
@@ -18618,7 +18621,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A615" s="7" t="s">
         <v>56</v>
       </c>
@@ -18640,7 +18643,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A616" s="7" t="s">
         <v>56</v>
       </c>
@@ -18662,7 +18665,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A617" s="7" t="s">
         <v>44</v>
       </c>
@@ -18685,7 +18688,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A618" s="7" t="s">
         <v>56</v>
       </c>
@@ -18702,7 +18705,7 @@
         <v>44871</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A619" s="7" t="s">
         <v>56</v>
       </c>
@@ -18725,7 +18728,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A620" s="7" t="s">
         <v>56</v>
       </c>
@@ -18746,7 +18749,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A621" s="7" t="s">
         <v>56</v>
       </c>
@@ -18770,7 +18773,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>56</v>
       </c>
@@ -18792,7 +18795,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>56</v>
       </c>
@@ -18813,7 +18816,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A624" s="7" t="s">
         <v>44</v>
       </c>
@@ -18833,7 +18836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A625" s="7" t="s">
         <v>44</v>
       </c>
@@ -18853,7 +18856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A626" s="7" t="s">
         <v>44</v>
       </c>
@@ -18870,7 +18873,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A627" s="7" t="s">
         <v>44</v>
       </c>
@@ -18887,7 +18890,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="628" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A628" s="7" t="s">
         <v>44</v>
       </c>
@@ -18907,7 +18910,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="629" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A629" s="7" t="s">
         <v>44</v>
       </c>
@@ -18924,7 +18927,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="630" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A630" s="7" t="s">
         <v>725</v>
       </c>
@@ -18941,7 +18944,7 @@
         <v>44912</v>
       </c>
     </row>
-    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A631" s="7" t="s">
         <v>44</v>
       </c>
@@ -18961,7 +18964,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="632" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A632" s="7" t="s">
         <v>44</v>
       </c>
@@ -18978,7 +18981,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="633" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A633" s="7" t="s">
         <v>44</v>
       </c>
@@ -18995,7 +18998,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="634" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A634" s="7" t="s">
         <v>44</v>
       </c>
@@ -19018,7 +19021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A635" s="7" t="s">
         <v>44</v>
       </c>
@@ -19038,7 +19041,7 @@
         <v>44920</v>
       </c>
     </row>
-    <row r="636" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A636" s="7" t="s">
         <v>44</v>
       </c>
@@ -19055,7 +19058,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="637" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A637" s="7" t="s">
         <v>44</v>
       </c>
@@ -19072,7 +19075,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="638" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A638" s="7" t="s">
         <v>44</v>
       </c>
@@ -19101,7 +19104,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="639" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A639" s="7" t="s">
         <v>52</v>
       </c>
@@ -19118,7 +19121,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="640" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A640" s="7" t="s">
         <v>44</v>
       </c>
@@ -19150,7 +19153,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="641" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A641" s="7" t="s">
         <v>52</v>
       </c>
@@ -19167,7 +19170,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="642" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A642" s="7" t="s">
         <v>44</v>
       </c>
@@ -19190,7 +19193,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="643" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A643" s="7" t="s">
         <v>44</v>
       </c>
@@ -19213,7 +19216,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="644" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A644" s="7" t="s">
         <v>44</v>
       </c>
@@ -19230,7 +19233,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="645" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A645" s="7" t="s">
         <v>44</v>
       </c>
@@ -19247,7 +19250,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="646" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A646" s="7" t="s">
         <v>44</v>
       </c>
@@ -19264,7 +19267,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="647" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A647" s="7" t="s">
         <v>44</v>
       </c>
@@ -19284,7 +19287,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="648" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A648" s="7" t="s">
         <v>44</v>
       </c>
@@ -19301,7 +19304,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="649" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A649" s="7" t="s">
         <v>44</v>
       </c>
@@ -19318,7 +19321,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="650" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A650" s="7" t="s">
         <v>44</v>
       </c>
@@ -19341,7 +19344,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="651" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A651" s="7" t="s">
         <v>44</v>
       </c>
@@ -19364,7 +19367,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="652" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A652" s="7" t="s">
         <v>44</v>
       </c>
@@ -19381,7 +19384,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="653" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A653" s="7" t="s">
         <v>44</v>
       </c>
@@ -19407,7 +19410,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="654" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A654" s="7" t="s">
         <v>44</v>
       </c>
@@ -19430,7 +19433,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="655" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A655" s="7" t="s">
         <v>44</v>
       </c>
@@ -19453,7 +19456,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="656" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A656" s="7" t="s">
         <v>44</v>
       </c>
@@ -19473,7 +19476,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="657" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A657" s="7" t="s">
         <v>44</v>
       </c>
@@ -19493,7 +19496,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="658" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A658" s="7" t="s">
         <v>44</v>
       </c>
@@ -19513,7 +19516,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="659" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A659" s="7" t="s">
         <v>44</v>
       </c>
@@ -19533,7 +19536,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="660" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A660" s="7" t="s">
         <v>56</v>
       </c>
@@ -19553,7 +19556,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="661" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A661" s="7" t="s">
         <v>56</v>
       </c>
@@ -19573,7 +19576,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="662" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A662" s="7" t="s">
         <v>56</v>
       </c>
@@ -19590,7 +19593,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="663" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>56</v>
       </c>
@@ -19611,7 +19614,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="664" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A664" s="7" t="s">
         <v>44</v>
       </c>
@@ -19628,7 +19631,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="665" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A665" s="7" t="s">
         <v>44</v>
       </c>
@@ -19645,7 +19648,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="666" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A666" s="7" t="s">
         <v>44</v>
       </c>
@@ -19662,7 +19665,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="667" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A667" s="7" t="s">
         <v>44</v>
       </c>
@@ -19679,7 +19682,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="668" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A668" s="7" t="s">
         <v>44</v>
       </c>
@@ -19696,7 +19699,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="669" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A669" s="7" t="s">
         <v>44</v>
       </c>
@@ -19713,7 +19716,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="670" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A670" s="7" t="s">
         <v>56</v>
       </c>
@@ -19733,7 +19736,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="671" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A671" s="7" t="s">
         <v>56</v>
       </c>
@@ -19750,7 +19753,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="672" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A672" s="7" t="s">
         <v>44</v>
       </c>
@@ -19767,7 +19770,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" s="7" t="s">
         <v>56</v>
       </c>
@@ -19787,7 +19790,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" s="7" t="s">
         <v>56</v>
       </c>
@@ -19810,7 +19813,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" s="7" t="s">
         <v>52</v>
       </c>
@@ -19827,7 +19830,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" s="7" t="s">
         <v>52</v>
       </c>
@@ -19847,7 +19850,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="7" t="s">
         <v>44</v>
       </c>
@@ -19864,7 +19867,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" s="7" t="s">
         <v>56</v>
       </c>
@@ -19881,7 +19884,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" s="7" t="s">
         <v>44</v>
       </c>
@@ -19898,7 +19901,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" s="7" t="s">
         <v>56</v>
       </c>
@@ -19918,7 +19921,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" s="7" t="s">
         <v>56</v>
       </c>
@@ -19941,7 +19944,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="7" t="s">
         <v>52</v>
       </c>
@@ -19958,7 +19961,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" s="7" t="s">
         <v>52</v>
       </c>
@@ -19975,7 +19978,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" s="7" t="s">
         <v>52</v>
       </c>
@@ -19992,7 +19995,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" s="7" t="s">
         <v>56</v>
       </c>
@@ -20009,7 +20012,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" s="7" t="s">
         <v>56</v>
       </c>
@@ -20029,7 +20032,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="7" t="s">
         <v>56</v>
       </c>
@@ -20049,7 +20052,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" s="7" t="s">
         <v>52</v>
       </c>
@@ -20069,7 +20072,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="689" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A689" s="7" t="s">
         <v>56</v>
       </c>
@@ -20089,7 +20092,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="690" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A690" s="7" t="s">
         <v>71</v>
       </c>
@@ -20115,7 +20118,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="691" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A691" s="7" t="s">
         <v>52</v>
       </c>
@@ -20135,7 +20138,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="692" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A692" s="7" t="s">
         <v>52</v>
       </c>
@@ -20155,7 +20158,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="693" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A693" s="7" t="s">
         <v>52</v>
       </c>
@@ -20172,7 +20175,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="694" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A694" s="7" t="s">
         <v>52</v>
       </c>
@@ -20189,7 +20192,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="695" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A695" s="7" t="s">
         <v>56</v>
       </c>
@@ -20206,7 +20209,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="696" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A696" s="7" t="s">
         <v>56</v>
       </c>
@@ -20226,7 +20229,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="697" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A697" s="7" t="s">
         <v>56</v>
       </c>
@@ -20246,7 +20249,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="698" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A698" s="7" t="s">
         <v>56</v>
       </c>
@@ -20263,7 +20266,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="699" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A699" s="7" t="s">
         <v>768</v>
       </c>
@@ -20280,7 +20283,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="700" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A700" s="7" t="s">
         <v>56</v>
       </c>
@@ -20300,7 +20303,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="701" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A701" s="7" t="s">
         <v>56</v>
       </c>
@@ -20323,7 +20326,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="702" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A702" s="7" t="s">
         <v>56</v>
       </c>
@@ -20343,7 +20346,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="703" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A703" s="7" t="s">
         <v>56</v>
       </c>
@@ -20363,7 +20366,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="704" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A704" s="7" t="s">
         <v>56</v>
       </c>
@@ -20383,7 +20386,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A705" s="7" t="s">
         <v>56</v>
       </c>
@@ -20406,7 +20409,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A706" s="7" t="s">
         <v>56</v>
       </c>
@@ -20426,7 +20429,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A707" s="7" t="s">
         <v>52</v>
       </c>
@@ -20446,7 +20449,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A708" s="7" t="s">
         <v>56</v>
       </c>
@@ -20466,7 +20469,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>225</v>
       </c>
@@ -20488,7 +20491,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A710" s="7" t="s">
         <v>56</v>
       </c>
@@ -20508,7 +20511,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A711" s="7" t="s">
         <v>56</v>
       </c>
@@ -20528,7 +20531,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A712" s="7" t="s">
         <v>768</v>
       </c>
@@ -20551,7 +20554,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A713" s="7" t="s">
         <v>768</v>
       </c>
@@ -20574,7 +20577,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>56</v>
       </c>
@@ -20593,7 +20596,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A715" s="7" t="s">
         <v>56</v>
       </c>
@@ -20613,7 +20616,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A716" s="7" t="s">
         <v>56</v>
       </c>
@@ -20636,7 +20639,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A717" s="7" t="s">
         <v>52</v>
       </c>
@@ -20656,7 +20659,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A718" s="7" t="s">
         <v>44</v>
       </c>
@@ -20676,7 +20679,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A719" s="7" t="s">
         <v>768</v>
       </c>
@@ -20693,7 +20696,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A720" s="7" t="s">
         <v>56</v>
       </c>
@@ -20710,7 +20713,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="721" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A721" s="7" t="s">
         <v>56</v>
       </c>
@@ -20727,7 +20730,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="722" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A722" s="7" t="s">
         <v>56</v>
       </c>
@@ -20744,7 +20747,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="723" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A723" s="7" t="s">
         <v>56</v>
       </c>
@@ -20767,7 +20770,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="724" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A724" s="7" t="s">
         <v>44</v>
       </c>
@@ -20793,7 +20796,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="725" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A725" s="7" t="s">
         <v>52</v>
       </c>
@@ -20813,7 +20816,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="726" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A726" s="7" t="s">
         <v>56</v>
       </c>
@@ -20833,7 +20836,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="727" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A727" s="7" t="s">
         <v>768</v>
       </c>
@@ -20850,7 +20853,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="728" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A728" s="7" t="s">
         <v>56</v>
       </c>
@@ -20867,7 +20870,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="729" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A729" s="7" t="s">
         <v>52</v>
       </c>
@@ -20887,7 +20890,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="730" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A730" s="7" t="s">
         <v>44</v>
       </c>
@@ -20916,7 +20919,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="731" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A731" s="7" t="s">
         <v>44</v>
       </c>
@@ -20945,7 +20948,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="732" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A732" s="7" t="s">
         <v>52</v>
       </c>
@@ -20965,7 +20968,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="733" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A733" s="7" t="s">
         <v>52</v>
       </c>
@@ -20985,7 +20988,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="734" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A734" s="7" t="s">
         <v>56</v>
       </c>
@@ -21005,7 +21008,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="735" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A735" s="7" t="s">
         <v>56</v>
       </c>
@@ -21025,7 +21028,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="736" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A736" s="7" t="s">
         <v>56</v>
       </c>
@@ -21045,7 +21048,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737" s="7" t="s">
         <v>56</v>
       </c>
@@ -21062,7 +21065,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738" s="7" t="s">
         <v>56</v>
       </c>
@@ -21079,7 +21082,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" s="7" t="s">
         <v>56</v>
       </c>
@@ -21099,7 +21102,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" s="7" t="s">
         <v>52</v>
       </c>
@@ -21119,7 +21122,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741" s="7" t="s">
         <v>52</v>
       </c>
@@ -21139,7 +21142,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" s="7" t="s">
         <v>52</v>
       </c>
@@ -21162,7 +21165,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743" s="7" t="s">
         <v>56</v>
       </c>
@@ -21182,7 +21185,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" s="7" t="s">
         <v>56</v>
       </c>
@@ -21199,7 +21202,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745" s="7" t="s">
         <v>52</v>
       </c>
@@ -21219,7 +21222,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746" s="7" t="s">
         <v>52</v>
       </c>
@@ -21239,7 +21242,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747" s="7" t="s">
         <v>56</v>
       </c>
@@ -21259,7 +21262,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748" s="7" t="s">
         <v>56</v>
       </c>
@@ -21276,7 +21279,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749" s="7" t="s">
         <v>56</v>
       </c>
@@ -21296,7 +21299,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750" s="7" t="s">
         <v>44</v>
       </c>
@@ -21313,7 +21316,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A751" s="7" t="s">
         <v>56</v>
       </c>
@@ -21333,7 +21336,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A752" s="7" t="s">
         <v>56</v>
       </c>
@@ -21353,7 +21356,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="753" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A753" s="7" t="s">
         <v>56</v>
       </c>
@@ -21373,7 +21376,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="754" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A754" s="7" t="s">
         <v>56</v>
       </c>
@@ -21393,7 +21396,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="755" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A755" s="7" t="s">
         <v>56</v>
       </c>
@@ -21413,7 +21416,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="756" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A756" s="7" t="s">
         <v>56</v>
       </c>
@@ -21433,7 +21436,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="757" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A757" s="7" t="s">
         <v>56</v>
       </c>
@@ -21453,7 +21456,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="758" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A758" s="7" t="s">
         <v>56</v>
       </c>
@@ -21476,7 +21479,7 @@
       <c r="J758" s="4"/>
       <c r="K758" s="4"/>
     </row>
-    <row r="759" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A759" s="7" t="s">
         <v>56</v>
       </c>
@@ -21493,7 +21496,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="760" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A760" s="7" t="s">
         <v>52</v>
       </c>
@@ -21513,7 +21516,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="761" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A761" s="7" t="s">
         <v>768</v>
       </c>
@@ -21530,7 +21533,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="762" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A762" s="7" t="s">
         <v>52</v>
       </c>
@@ -21550,7 +21553,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="763" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A763" s="7" t="s">
         <v>52</v>
       </c>
@@ -21567,7 +21570,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="764" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A764" s="7" t="s">
         <v>52</v>
       </c>
@@ -21584,7 +21587,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="765" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A765" s="7" t="s">
         <v>71</v>
       </c>
@@ -21616,7 +21619,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="766" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A766" s="7" t="s">
         <v>71</v>
       </c>
@@ -21645,7 +21648,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="767" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A767" s="7" t="s">
         <v>71</v>
       </c>
@@ -21671,7 +21674,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="768" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A768" s="7" t="s">
         <v>71</v>
       </c>
@@ -21700,7 +21703,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="769" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A769" s="7" t="s">
         <v>369</v>
       </c>
@@ -21726,7 +21729,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="770" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A770" s="7" t="s">
         <v>52</v>
       </c>
@@ -21743,7 +21746,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="771" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A771" s="7" t="s">
         <v>71</v>
       </c>
@@ -21775,7 +21778,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="772" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A772" s="7" t="s">
         <v>369</v>
       </c>
@@ -21798,7 +21801,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="773" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A773" s="7" t="s">
         <v>52</v>
       </c>
@@ -21818,7 +21821,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="774" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A774" s="7" t="s">
         <v>369</v>
       </c>
@@ -21847,7 +21850,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="775" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A775" s="7" t="s">
         <v>369</v>
       </c>
@@ -21870,7 +21873,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="776" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A776" s="7" t="s">
         <v>71</v>
       </c>
@@ -21899,7 +21902,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="777" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A777" s="7" t="s">
         <v>369</v>
       </c>
@@ -21916,7 +21919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A778" s="7" t="s">
         <v>71</v>
       </c>
@@ -21942,7 +21945,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="779" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A779" s="7" t="s">
         <v>71</v>
       </c>
@@ -21968,7 +21971,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="780" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A780" s="7" t="s">
         <v>44</v>
       </c>
@@ -21994,7 +21997,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="781" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A781" s="7" t="s">
         <v>71</v>
       </c>
@@ -22023,7 +22026,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="782" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A782" s="7" t="s">
         <v>369</v>
       </c>
@@ -22052,7 +22055,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="783" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A783" s="7" t="s">
         <v>369</v>
       </c>
@@ -22075,7 +22078,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="784" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A784" s="7" t="s">
         <v>52</v>
       </c>
@@ -22095,7 +22098,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="785" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A785" s="7" t="s">
         <v>52</v>
       </c>
@@ -22115,7 +22118,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="786" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A786" s="7" t="s">
         <v>71</v>
       </c>
@@ -22144,7 +22147,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="787" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A787" s="7" t="s">
         <v>369</v>
       </c>
@@ -22164,7 +22167,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="788" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A788" s="7" t="s">
         <v>71</v>
       </c>
@@ -22196,7 +22199,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="789" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A789" s="7" t="s">
         <v>52</v>
       </c>
@@ -22216,7 +22219,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="790" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A790" s="7" t="s">
         <v>52</v>
       </c>
@@ -22236,7 +22239,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="791" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A791" s="7" t="s">
         <v>71</v>
       </c>
@@ -22265,7 +22268,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="792" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A792" s="7" t="s">
         <v>71</v>
       </c>
@@ -22297,7 +22300,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="793" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A793" s="7" t="s">
         <v>71</v>
       </c>
@@ -22326,7 +22329,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="794" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A794" s="7" t="s">
         <v>52</v>
       </c>
@@ -22346,7 +22349,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="795" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A795" s="7" t="s">
         <v>369</v>
       </c>
@@ -22366,7 +22369,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="796" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A796" s="7" t="s">
         <v>52</v>
       </c>
@@ -22386,7 +22389,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="797" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A797" s="7" t="s">
         <v>369</v>
       </c>
@@ -22403,7 +22406,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="798" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A798" s="7" t="s">
         <v>71</v>
       </c>
@@ -22435,7 +22438,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="799" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A799" s="7" t="s">
         <v>71</v>
       </c>
@@ -22461,7 +22464,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="800" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A800" s="7" t="s">
         <v>71</v>
       </c>
@@ -22490,7 +22493,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="801" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A801" s="7" t="s">
         <v>71</v>
       </c>
@@ -22519,7 +22522,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="802" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A802" s="7" t="s">
         <v>44</v>
       </c>
@@ -22536,7 +22539,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="803" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A803" s="7" t="s">
         <v>71</v>
       </c>
@@ -22568,7 +22571,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="804" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A804" s="7" t="s">
         <v>71</v>
       </c>
@@ -22603,7 +22606,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="805" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A805" s="7" t="s">
         <v>56</v>
       </c>
@@ -22623,7 +22626,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="806" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A806" s="7" t="s">
         <v>56</v>
       </c>
@@ -22640,7 +22643,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="807" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A807" s="7" t="s">
         <v>369</v>
       </c>
@@ -22654,7 +22657,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="808" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A808" s="7" t="s">
         <v>369</v>
       </c>
@@ -22665,7 +22668,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="809" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A809" s="7" t="s">
         <v>52</v>
       </c>
@@ -22685,7 +22688,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="810" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A810" s="7" t="s">
         <v>56</v>
       </c>
@@ -22705,7 +22708,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="811" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A811" s="7" t="s">
         <v>71</v>
       </c>
@@ -22734,7 +22737,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="812" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A812" s="7" t="s">
         <v>369</v>
       </c>
@@ -22754,7 +22757,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="813" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A813" s="7" t="s">
         <v>369</v>
       </c>
@@ -22771,7 +22774,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="814" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A814" s="7" t="s">
         <v>71</v>
       </c>
@@ -22797,7 +22800,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="815" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A815" s="7" t="s">
         <v>71</v>
       </c>
@@ -22820,7 +22823,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="816" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A816" s="7" t="s">
         <v>369</v>
       </c>
@@ -22840,7 +22843,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="817" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A817" s="7" t="s">
         <v>44</v>
       </c>
@@ -22860,7 +22863,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="818" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A818" s="7" t="s">
         <v>52</v>
       </c>
@@ -22880,7 +22883,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="819" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A819" s="7" t="s">
         <v>71</v>
       </c>
@@ -22909,7 +22912,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="820" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A820" s="7" t="s">
         <v>369</v>
       </c>
@@ -22932,7 +22935,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="821" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A821" s="7" t="s">
         <v>71</v>
       </c>
@@ -22961,7 +22964,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="822" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A822" s="7" t="s">
         <v>52</v>
       </c>
@@ -22981,7 +22984,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="823" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A823" s="7" t="s">
         <v>56</v>
       </c>
@@ -23001,7 +23004,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="824" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A824" s="7" t="s">
         <v>56</v>
       </c>
@@ -23018,7 +23021,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="825" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A825" s="7" t="s">
         <v>56</v>
       </c>
@@ -23038,7 +23041,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="826" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A826" s="7" t="s">
         <v>52</v>
       </c>
@@ -23058,7 +23061,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="827" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>56</v>
       </c>
@@ -23080,7 +23083,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="828" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>56</v>
       </c>
@@ -23104,7 +23107,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="829" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A829" s="7" t="s">
         <v>52</v>
       </c>
@@ -23124,7 +23127,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="830" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
         <v>56</v>
       </c>
@@ -23146,7 +23149,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="831" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>56</v>
       </c>
@@ -23170,7 +23173,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="832" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A832" s="7" t="s">
         <v>883</v>
       </c>
@@ -23187,7 +23190,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="833" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A833" s="7" t="s">
         <v>44</v>
       </c>
@@ -23204,7 +23207,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="834" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A834" s="7" t="s">
         <v>52</v>
       </c>
@@ -23224,7 +23227,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="835" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A835" s="7" t="s">
         <v>56</v>
       </c>
@@ -23244,7 +23247,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="836" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A836" s="7" t="s">
         <v>56</v>
       </c>
@@ -23261,7 +23264,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="837" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A837" s="7" t="s">
         <v>56</v>
       </c>
@@ -23281,7 +23284,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="838" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A838" s="7" t="s">
         <v>56</v>
       </c>
@@ -23298,7 +23301,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="839" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A839" s="7" t="s">
         <v>56</v>
       </c>
@@ -23320,7 +23323,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="840" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A840" s="7" t="s">
         <v>56</v>
       </c>
@@ -23344,7 +23347,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="841" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A841" s="7" t="s">
         <v>56</v>
       </c>
@@ -23364,7 +23367,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="842" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A842" s="7" t="s">
         <v>56</v>
       </c>
@@ -23381,7 +23384,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="843" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A843" s="7" t="s">
         <v>56</v>
       </c>
@@ -23398,7 +23401,7 @@
         <v>45409</v>
       </c>
     </row>
-    <row r="844" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A844" s="7" t="s">
         <v>56</v>
       </c>
@@ -23418,7 +23421,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="845" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A845" s="7" t="s">
         <v>56</v>
       </c>
@@ -23438,7 +23441,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="846" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>56</v>
       </c>
@@ -23460,7 +23463,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="847" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>56</v>
       </c>
@@ -23484,7 +23487,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="848" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A848" s="7" t="s">
         <v>71</v>
       </c>
@@ -23519,7 +23522,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="849" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A849" s="7" t="s">
         <v>71</v>
       </c>
@@ -23548,7 +23551,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="850" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A850" s="7" t="s">
         <v>71</v>
       </c>
@@ -23574,7 +23577,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="851" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A851" s="7" t="s">
         <v>71</v>
       </c>
@@ -23603,7 +23606,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="852" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A852" s="7" t="s">
         <v>56</v>
       </c>
@@ -23623,7 +23626,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="853" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A853" s="7" t="s">
         <v>52</v>
       </c>
@@ -23643,7 +23646,7 @@
         <v>45428</v>
       </c>
     </row>
-    <row r="854" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A854" s="7" t="s">
         <v>56</v>
       </c>
@@ -23660,7 +23663,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="855" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A855" s="7" t="s">
         <v>56</v>
       </c>
@@ -23683,7 +23686,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A856" s="7" t="s">
         <v>56</v>
       </c>
@@ -23703,7 +23706,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="857" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A857" s="7" t="s">
         <v>56</v>
       </c>
@@ -23723,7 +23726,7 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="858" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A858" s="7" t="s">
         <v>56</v>
       </c>
@@ -23746,7 +23749,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="859" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A859" s="7" t="s">
         <v>52</v>
       </c>
@@ -23766,7 +23769,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="860" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A860" s="7" t="s">
         <v>56</v>
       </c>
@@ -23786,7 +23789,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="861" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A861" s="7" t="s">
         <v>52</v>
       </c>
@@ -23806,7 +23809,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="862" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A862" s="7" t="s">
         <v>56</v>
       </c>
@@ -23826,7 +23829,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="863" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A863" s="7" t="s">
         <v>56</v>
       </c>
@@ -23846,7 +23849,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="864" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A864" s="7" t="s">
         <v>56</v>
       </c>
@@ -23866,7 +23869,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="865" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A865" s="7" t="s">
         <v>56</v>
       </c>
@@ -23886,7 +23889,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="866" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A866" s="7" t="s">
         <v>44</v>
       </c>
@@ -23912,7 +23915,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="867" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A867" s="7" t="s">
         <v>52</v>
       </c>
@@ -23932,7 +23935,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="868" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A868" s="7" t="s">
         <v>56</v>
       </c>
@@ -23949,7 +23952,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="869" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A869" s="7" t="s">
         <v>56</v>
       </c>
@@ -23971,7 +23974,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="870" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A870" s="7" t="s">
         <v>56</v>
       </c>
@@ -23994,7 +23997,7 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="871" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A871" s="7" t="s">
         <v>56</v>
       </c>
@@ -24011,7 +24014,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="872" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A872" s="7" t="s">
         <v>52</v>
       </c>
@@ -24031,7 +24034,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="873" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A873" s="7" t="s">
         <v>56</v>
       </c>
@@ -24048,7 +24051,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="874" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A874" s="7" t="s">
         <v>56</v>
       </c>
@@ -24068,7 +24071,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="875" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A875" s="7" t="s">
         <v>56</v>
       </c>
@@ -24088,7 +24091,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="876" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A876" s="7" t="s">
         <v>56</v>
       </c>
@@ -24105,7 +24108,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="877" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A877" s="7" t="s">
         <v>52</v>
       </c>
@@ -24122,7 +24125,7 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="878" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A878" s="7" t="s">
         <v>52</v>
       </c>
@@ -24145,7 +24148,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="879" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A879" s="7" t="s">
         <v>52</v>
       </c>
@@ -24165,7 +24168,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="880" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A880" s="7" t="s">
         <v>56</v>
       </c>
@@ -24182,7 +24185,7 @@
         <v>45477</v>
       </c>
     </row>
-    <row r="881" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A881" s="7" t="s">
         <v>71</v>
       </c>
@@ -24208,7 +24211,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="882" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A882" s="7" t="s">
         <v>44</v>
       </c>
@@ -24228,7 +24231,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="883" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A883" s="7" t="s">
         <v>768</v>
       </c>
@@ -24248,7 +24251,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="884" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A884" s="7" t="s">
         <v>44</v>
       </c>
@@ -24265,7 +24268,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="885" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A885" s="7" t="s">
         <v>44</v>
       </c>
@@ -24282,7 +24285,7 @@
         <v>45484</v>
       </c>
     </row>
-    <row r="886" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A886" s="7" t="s">
         <v>941</v>
       </c>
@@ -24299,7 +24302,7 @@
         <v>45487</v>
       </c>
     </row>
-    <row r="887" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A887" s="7" t="s">
         <v>44</v>
       </c>
@@ -24322,7 +24325,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="888" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A888" s="7" t="s">
         <v>52</v>
       </c>
@@ -24339,7 +24342,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="889" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A889" s="7" t="s">
         <v>44</v>
       </c>
@@ -24362,7 +24365,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="890" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A890" s="7" t="s">
         <v>52</v>
       </c>
@@ -24391,7 +24394,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="891" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A891" s="7" t="s">
         <v>52</v>
       </c>
@@ -24423,7 +24426,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="892" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A892" s="7" t="s">
         <v>44</v>
       </c>
@@ -24452,7 +24455,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="893" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A893" s="7" t="s">
         <v>56</v>
       </c>
@@ -24469,7 +24472,7 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="894" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A894" s="7" t="s">
         <v>56</v>
       </c>
@@ -24489,7 +24492,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="895" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A895" s="7" t="s">
         <v>44</v>
       </c>
@@ -24509,7 +24512,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="896" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A896" s="7" t="s">
         <v>941</v>
       </c>
@@ -24538,7 +24541,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="897" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A897" s="7" t="s">
         <v>56</v>
       </c>
@@ -24558,7 +24561,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="898" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A898" s="7" t="s">
         <v>52</v>
       </c>
@@ -24590,7 +24593,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="899" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A899" s="7" t="s">
         <v>44</v>
       </c>
@@ -24613,7 +24616,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="900" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A900" s="7" t="s">
         <v>56</v>
       </c>
@@ -24636,7 +24639,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="901" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A901" s="7" t="s">
         <v>56</v>
       </c>
@@ -24656,7 +24659,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="902" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A902" s="7" t="s">
         <v>56</v>
       </c>
@@ -24673,7 +24676,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="903" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A903" s="7" t="s">
         <v>44</v>
       </c>
@@ -24696,7 +24699,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="904" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A904" s="7" t="s">
         <v>44</v>
       </c>
@@ -24719,7 +24722,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="905" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A905" s="7" t="s">
         <v>44</v>
       </c>
@@ -24745,7 +24748,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="906" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A906" s="7" t="s">
         <v>56</v>
       </c>
@@ -24765,7 +24768,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="907" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A907" s="7" t="s">
         <v>44</v>
       </c>
@@ -24785,7 +24788,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="908" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A908" s="7" t="s">
         <v>52</v>
       </c>
@@ -24820,7 +24823,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="909" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A909" s="7" t="s">
         <v>52</v>
       </c>
@@ -24849,7 +24852,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="910" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A910" s="7" t="s">
         <v>52</v>
       </c>
@@ -24878,7 +24881,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="911" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A911" s="7" t="s">
         <v>225</v>
       </c>
@@ -24898,7 +24901,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="912" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A912" s="7" t="s">
         <v>44</v>
       </c>
@@ -24918,7 +24921,7 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="913" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A913" s="7" t="s">
         <v>52</v>
       </c>
@@ -24938,7 +24941,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="914" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A914" s="7" t="s">
         <v>52</v>
       </c>
@@ -24964,7 +24967,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="915" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A915" s="7" t="s">
         <v>56</v>
       </c>
@@ -24984,7 +24987,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="916" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A916" s="7" t="s">
         <v>52</v>
       </c>
@@ -25004,7 +25007,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="917" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A917" s="7" t="s">
         <v>52</v>
       </c>
@@ -25030,7 +25033,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="918" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A918" s="7" t="s">
         <v>44</v>
       </c>
@@ -25059,7 +25062,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="919" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A919" s="7" t="s">
         <v>56</v>
       </c>
@@ -25079,7 +25082,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="920" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A920" s="7" t="s">
         <v>56</v>
       </c>
@@ -25099,7 +25102,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="921" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A921" s="7" t="s">
         <v>56</v>
       </c>
@@ -25119,7 +25122,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="922" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A922" s="7" t="s">
         <v>56</v>
       </c>
@@ -25139,7 +25142,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="923" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A923" s="7" t="s">
         <v>52</v>
       </c>
@@ -25171,7 +25174,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="924" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A924" s="7" t="s">
         <v>56</v>
       </c>
@@ -25188,7 +25191,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="925" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A925" s="7" t="s">
         <v>56</v>
       </c>
@@ -25210,7 +25213,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="926" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A926" s="7" t="s">
         <v>56</v>
       </c>
@@ -25232,7 +25235,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="927" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A927" s="7" t="s">
         <v>56</v>
       </c>
@@ -25254,7 +25257,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="928" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A928" s="7" t="s">
         <v>56</v>
       </c>
@@ -25276,7 +25279,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="929" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A929" s="7" t="s">
         <v>52</v>
       </c>
@@ -25308,7 +25311,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="930" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A930" s="7" t="s">
         <v>52</v>
       </c>
@@ -25340,7 +25343,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="931" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A931" s="7" t="s">
         <v>52</v>
       </c>
@@ -25360,7 +25363,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="932" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A932" s="7" t="s">
         <v>52</v>
       </c>
@@ -25380,7 +25383,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="933" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A933" s="7" t="s">
         <v>52</v>
       </c>
@@ -25412,7 +25415,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="934" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A934" s="7" t="s">
         <v>56</v>
       </c>
@@ -25432,7 +25435,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="935" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A935" s="7" t="s">
         <v>56</v>
       </c>
@@ -25449,7 +25452,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="936" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A936" s="7" t="s">
         <v>52</v>
       </c>
@@ -25484,7 +25487,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="937" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A937" s="7" t="s">
         <v>52</v>
       </c>
@@ -25510,7 +25513,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="938" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A938" s="7" t="s">
         <v>52</v>
       </c>
@@ -25548,7 +25551,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="939" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A939" s="7" t="s">
         <v>56</v>
       </c>
@@ -25571,7 +25574,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="940" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A940" s="7" t="s">
         <v>52</v>
       </c>
@@ -25591,7 +25594,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="941" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A941" s="7" t="s">
         <v>52</v>
       </c>
@@ -25623,7 +25626,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="942" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A942" s="7" t="s">
         <v>52</v>
       </c>
@@ -25658,7 +25661,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="943" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A943" s="7" t="s">
         <v>52</v>
       </c>
@@ -25681,7 +25684,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="944" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A944" s="7" t="s">
         <v>52</v>
       </c>
@@ -25716,7 +25719,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A945" s="7" t="s">
         <v>52</v>
       </c>
@@ -25745,7 +25748,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A946" s="7" t="s">
         <v>44</v>
       </c>
@@ -25765,7 +25768,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A947" s="7" t="s">
         <v>56</v>
       </c>
@@ -25782,7 +25785,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="948" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A948" s="7" t="s">
         <v>56</v>
       </c>
@@ -25802,7 +25805,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A949" s="7" t="s">
         <v>56</v>
       </c>
@@ -25822,7 +25825,7 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A950" s="7" t="s">
         <v>52</v>
       </c>
@@ -25854,7 +25857,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="951" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A951" s="7" t="s">
         <v>52</v>
       </c>
@@ -25886,7 +25889,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A952" s="7" t="s">
         <v>56</v>
       </c>
@@ -25906,7 +25909,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A953" s="7" t="s">
         <v>56</v>
       </c>
@@ -25926,7 +25929,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A954" s="7" t="s">
         <v>52</v>
       </c>
@@ -25958,7 +25961,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A955" s="7" t="s">
         <v>56</v>
       </c>
@@ -25978,7 +25981,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A956" s="7" t="s">
         <v>56</v>
       </c>
@@ -26001,7 +26004,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A957" s="7" t="s">
         <v>56</v>
       </c>
@@ -26021,7 +26024,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A958" s="7" t="s">
         <v>56</v>
       </c>
@@ -26041,7 +26044,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A959" s="7" t="s">
         <v>52</v>
       </c>
@@ -26067,7 +26070,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A960" s="7" t="s">
         <v>52</v>
       </c>
@@ -26102,7 +26105,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="961" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A961" s="7" t="s">
         <v>52</v>
       </c>
@@ -26131,7 +26134,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="962" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A962" s="7" t="s">
         <v>52</v>
       </c>
@@ -26166,7 +26169,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="963" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A963" s="7" t="s">
         <v>56</v>
       </c>
@@ -26186,7 +26189,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="964" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A964" s="7" t="s">
         <v>56</v>
       </c>
@@ -26209,7 +26212,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="965" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A965" s="7" t="s">
         <v>56</v>
       </c>
@@ -26235,7 +26238,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="966" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A966" s="7" t="s">
         <v>52</v>
       </c>
@@ -26267,7 +26270,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="967" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A967" s="7" t="s">
         <v>44</v>
       </c>
@@ -26287,7 +26290,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="968" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A968" s="7" t="s">
         <v>52</v>
       </c>
@@ -26322,7 +26325,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="969" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A969" s="7" t="s">
         <v>52</v>
       </c>
@@ -26354,7 +26357,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="970" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A970" s="7" t="s">
         <v>52</v>
       </c>
@@ -26386,7 +26389,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="971" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A971" s="7" t="s">
         <v>71</v>
       </c>
@@ -26412,7 +26415,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="972" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A972" s="7" t="s">
         <v>52</v>
       </c>
@@ -26441,7 +26444,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="973" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A973" s="7" t="s">
         <v>52</v>
       </c>
@@ -26473,7 +26476,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="974" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A974" s="7" t="s">
         <v>52</v>
       </c>
@@ -26508,7 +26511,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="975" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A975" s="7" t="s">
         <v>52</v>
       </c>
@@ -26537,7 +26540,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="976" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A976" s="7" t="s">
         <v>369</v>
       </c>
@@ -26557,7 +26560,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="977" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A977" s="7" t="s">
         <v>52</v>
       </c>
@@ -26571,7 +26574,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="978" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A978" s="7" t="s">
         <v>52</v>
       </c>
@@ -26585,7 +26588,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="979" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A979" s="7" t="s">
         <v>52</v>
       </c>
@@ -26620,7 +26623,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="980" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A980" s="7" t="s">
         <v>369</v>
       </c>
@@ -26643,7 +26646,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="981" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A981" s="7" t="s">
         <v>52</v>
       </c>
@@ -26675,7 +26678,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="982" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A982" s="7" t="s">
         <v>71</v>
       </c>
@@ -26704,7 +26707,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="983" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A983" s="7" t="s">
         <v>369</v>
       </c>
@@ -26724,7 +26727,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="984" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A984" s="7" t="s">
         <v>71</v>
       </c>
@@ -26750,7 +26753,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="985" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A985" s="7" t="s">
         <v>52</v>
       </c>
@@ -26782,7 +26785,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="986" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A986" s="7" t="s">
         <v>369</v>
       </c>
@@ -26814,7 +26817,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="987" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A987" s="7" t="s">
         <v>52</v>
       </c>
@@ -26846,7 +26849,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="988" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A988" s="7" t="s">
         <v>369</v>
       </c>
@@ -26869,7 +26872,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="989" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A989" s="7" t="s">
         <v>369</v>
       </c>
@@ -26892,7 +26895,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="990" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A990" s="7" t="s">
         <v>369</v>
       </c>
@@ -26915,7 +26918,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="991" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A991" s="7" t="s">
         <v>52</v>
       </c>
@@ -26947,7 +26950,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="992" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A992" s="7" t="s">
         <v>71</v>
       </c>
@@ -26973,7 +26976,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="993" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A993" s="7" t="s">
         <v>71</v>
       </c>
@@ -26993,7 +26996,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="994" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A994" s="7" t="s">
         <v>71</v>
       </c>
@@ -27019,7 +27022,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="995" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A995" s="7" t="s">
         <v>71</v>
       </c>
@@ -27048,7 +27051,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="996" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A996" s="7" t="s">
         <v>369</v>
       </c>
@@ -27075,6 +27078,35 @@
       </c>
       <c r="T996" s="7" t="s">
         <v>1076</v>
+      </c>
+    </row>
+    <row r="997" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A997" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B997" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C997" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="F997" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G997" s="1">
+        <v>45656</v>
+      </c>
+      <c r="H997" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L997" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="M997" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q997" s="7" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077F110C-69F9-474E-8656-E59F9A462C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50099319-53F3-4A43-9261-CE37F9962041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$V$982</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$V$997</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5591" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5594" uniqueCount="1079">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3339,7 +3339,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3790,38 +3790,38 @@
   <dimension ref="A1:V997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A964" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q998" sqref="Q998"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.81640625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="138.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="138.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="204" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -3917,7 +3917,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3937,7 +3937,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>71</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -4053,7 +4053,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -4210,7 +4210,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -4236,7 +4236,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>71</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>71</v>
       </c>
@@ -4493,7 +4493,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
@@ -4539,7 +4539,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>71</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>71</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -4692,7 +4692,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
@@ -4720,7 +4720,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
@@ -4749,7 +4749,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4828,7 +4828,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -4856,7 +4856,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -4986,7 +4986,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -5047,7 +5047,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>71</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>71</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>71</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
@@ -5220,7 +5220,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
@@ -5248,7 +5248,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>52</v>
       </c>
@@ -5309,7 +5309,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -5370,7 +5370,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>71</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>71</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>52</v>
       </c>
@@ -5544,7 +5544,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>52</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>52</v>
       </c>
@@ -5600,7 +5600,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>52</v>
       </c>
@@ -5628,7 +5628,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
@@ -5680,13 +5680,16 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="C72" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="F72" s="2" t="s">
         <v>424</v>
       </c>
@@ -5703,7 +5706,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>52</v>
       </c>
@@ -5731,7 +5734,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>52</v>
       </c>
@@ -5759,7 +5762,7 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>52</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
@@ -5799,7 +5802,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -5819,7 +5822,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
@@ -5867,7 +5870,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>52</v>
       </c>
@@ -5887,7 +5890,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
@@ -5909,7 +5912,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
@@ -5933,7 +5936,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>52</v>
       </c>
@@ -5961,7 +5964,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>44</v>
       </c>
@@ -5981,7 +5984,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>52</v>
       </c>
@@ -6009,7 +6012,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>52</v>
       </c>
@@ -6029,7 +6032,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
@@ -6049,7 +6052,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>52</v>
       </c>
@@ -6069,7 +6072,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
@@ -6089,7 +6092,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>52</v>
       </c>
@@ -6109,7 +6112,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
@@ -6129,7 +6132,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>71</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>52</v>
       </c>
@@ -6183,7 +6186,7 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
@@ -6214,7 +6217,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>52</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>52</v>
       </c>
@@ -6254,7 +6257,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>52</v>
       </c>
@@ -6274,7 +6277,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>71</v>
       </c>
@@ -6300,7 +6303,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>52</v>
       </c>
@@ -6320,7 +6323,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>52</v>
       </c>
@@ -6340,7 +6343,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>52</v>
       </c>
@@ -6360,7 +6363,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>52</v>
       </c>
@@ -6380,7 +6383,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>52</v>
       </c>
@@ -6400,7 +6403,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>52</v>
       </c>
@@ -6428,7 +6431,7 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -6459,7 +6462,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>52</v>
       </c>
@@ -6479,7 +6482,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>52</v>
       </c>
@@ -6507,7 +6510,7 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>52</v>
       </c>
@@ -6538,7 +6541,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>52</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -6588,7 +6591,7 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>149</v>
@@ -6614,7 +6617,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>52</v>
       </c>
@@ -6645,7 +6648,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -6670,7 +6673,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>52</v>
       </c>
@@ -6690,7 +6693,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>52</v>
       </c>
@@ -6710,7 +6713,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>52</v>
       </c>
@@ -6730,7 +6733,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>71</v>
       </c>
@@ -6756,7 +6759,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -6778,7 +6781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -6806,7 +6809,7 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -6836,7 +6839,7 @@
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -6860,7 +6863,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -6890,7 +6893,7 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>149</v>
@@ -6916,7 +6919,7 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>52</v>
       </c>
@@ -6944,7 +6947,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -6974,7 +6977,7 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -7004,7 +7007,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -7030,7 +7033,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -7056,7 +7059,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>52</v>
       </c>
@@ -7076,7 +7079,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -7106,7 +7109,7 @@
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
@@ -7132,7 +7135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>52</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>56</v>
       </c>
@@ -7180,7 +7183,7 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>56</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>56</v>
       </c>
@@ -7228,7 +7231,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>56</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>56</v>
       </c>
@@ -7274,7 +7277,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>56</v>
       </c>
@@ -7300,7 +7303,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>56</v>
       </c>
@@ -7324,7 +7327,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>52</v>
       </c>
@@ -7347,7 +7350,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>52</v>
       </c>
@@ -7370,7 +7373,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>56</v>
       </c>
@@ -7400,7 +7403,7 @@
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>56</v>
       </c>
@@ -7422,7 +7425,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>56</v>
       </c>
@@ -7446,7 +7449,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>56</v>
       </c>
@@ -7472,7 +7475,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>56</v>
       </c>
@@ -7494,7 +7497,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>56</v>
       </c>
@@ -7518,7 +7521,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>52</v>
       </c>
@@ -7541,7 +7544,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>52</v>
       </c>
@@ -7564,7 +7567,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>52</v>
       </c>
@@ -7587,7 +7590,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>71</v>
       </c>
@@ -7613,7 +7616,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>71</v>
       </c>
@@ -7644,7 +7647,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>71</v>
       </c>
@@ -7672,7 +7675,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>71</v>
       </c>
@@ -7701,7 +7704,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>71</v>
       </c>
@@ -7732,7 +7735,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>71</v>
       </c>
@@ -7763,7 +7766,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>52</v>
       </c>
@@ -7783,7 +7786,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>71</v>
       </c>
@@ -7814,7 +7817,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>52</v>
       </c>
@@ -7834,7 +7837,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>52</v>
       </c>
@@ -7857,7 +7860,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>71</v>
       </c>
@@ -7888,7 +7891,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>71</v>
       </c>
@@ -7916,7 +7919,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>71</v>
       </c>
@@ -7947,7 +7950,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>52</v>
       </c>
@@ -7970,7 +7973,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>52</v>
       </c>
@@ -7990,7 +7993,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>52</v>
       </c>
@@ -8013,7 +8016,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>52</v>
       </c>
@@ -8036,7 +8039,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>71</v>
       </c>
@@ -8067,7 +8070,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>71</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>71</v>
       </c>
@@ -8135,7 +8138,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>56</v>
       </c>
@@ -8157,7 +8160,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>56</v>
       </c>
@@ -8181,7 +8184,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>149</v>
@@ -8199,7 +8202,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>52</v>
       </c>
@@ -8219,7 +8222,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>52</v>
       </c>
@@ -8239,7 +8242,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>52</v>
       </c>
@@ -8262,7 +8265,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>52</v>
       </c>
@@ -8284,7 +8287,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>56</v>
       </c>
@@ -8304,7 +8307,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>225</v>
       </c>
@@ -8326,7 +8329,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>56</v>
       </c>
@@ -8356,7 +8359,7 @@
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>56</v>
       </c>
@@ -8382,7 +8385,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>52</v>
       </c>
@@ -8405,7 +8408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>56</v>
       </c>
@@ -8433,7 +8436,7 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>56</v>
       </c>
@@ -8461,7 +8464,7 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>56</v>
       </c>
@@ -8489,7 +8492,7 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>56</v>
       </c>
@@ -8519,7 +8522,7 @@
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>56</v>
       </c>
@@ -8545,7 +8548,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>56</v>
       </c>
@@ -8569,7 +8572,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>56</v>
       </c>
@@ -8595,7 +8598,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>52</v>
       </c>
@@ -8617,7 +8620,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>56</v>
       </c>
@@ -8639,7 +8642,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>225</v>
       </c>
@@ -8661,7 +8664,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>56</v>
       </c>
@@ -8683,7 +8686,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>52</v>
       </c>
@@ -8705,7 +8708,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>225</v>
       </c>
@@ -8730,7 +8733,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>52</v>
       </c>
@@ -8753,7 +8756,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>52</v>
       </c>
@@ -8773,7 +8776,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>71</v>
       </c>
@@ -8807,7 +8810,7 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>71</v>
       </c>
@@ -8844,7 +8847,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>71</v>
       </c>
@@ -8881,7 +8884,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>71</v>
       </c>
@@ -8909,7 +8912,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>52</v>
       </c>
@@ -8929,7 +8932,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>52</v>
       </c>
@@ -8952,7 +8955,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>56</v>
       </c>
@@ -8983,7 +8986,7 @@
       <c r="P204" s="6"/>
       <c r="V204" s="11"/>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>56</v>
       </c>
@@ -9007,7 +9010,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>56</v>
       </c>
@@ -9035,7 +9038,7 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>56</v>
       </c>
@@ -9063,7 +9066,7 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>56</v>
       </c>
@@ -9085,7 +9088,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>56</v>
       </c>
@@ -9109,7 +9112,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>56</v>
       </c>
@@ -9129,7 +9132,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>56</v>
       </c>
@@ -9149,7 +9152,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>52</v>
       </c>
@@ -9171,7 +9174,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>56</v>
       </c>
@@ -9196,7 +9199,7 @@
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -9221,7 +9224,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>56</v>
       </c>
@@ -9241,7 +9244,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>56</v>
       </c>
@@ -9261,7 +9264,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>225</v>
       </c>
@@ -9286,7 +9289,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>56</v>
       </c>
@@ -9308,7 +9311,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>56</v>
       </c>
@@ -9330,7 +9333,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>56</v>
       </c>
@@ -9352,7 +9355,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>56</v>
       </c>
@@ -9375,7 +9378,7 @@
       </c>
       <c r="V221" s="11"/>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>56</v>
       </c>
@@ -9407,7 +9410,7 @@
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>56</v>
       </c>
@@ -9429,7 +9432,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>56</v>
       </c>
@@ -9451,7 +9454,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>56</v>
       </c>
@@ -9475,7 +9478,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>56</v>
       </c>
@@ -9497,7 +9500,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>56</v>
       </c>
@@ -9521,7 +9524,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>56</v>
       </c>
@@ -9543,7 +9546,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>56</v>
       </c>
@@ -9565,7 +9568,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>56</v>
       </c>
@@ -9587,7 +9590,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>56</v>
       </c>
@@ -9609,7 +9612,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>56</v>
       </c>
@@ -9631,7 +9634,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>56</v>
       </c>
@@ -9653,7 +9656,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>56</v>
       </c>
@@ -9675,7 +9678,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>225</v>
       </c>
@@ -9697,7 +9700,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>56</v>
       </c>
@@ -9723,7 +9726,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>56</v>
       </c>
@@ -9745,7 +9748,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>56</v>
       </c>
@@ -9767,7 +9770,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>56</v>
       </c>
@@ -9789,7 +9792,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>56</v>
       </c>
@@ -9813,7 +9816,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>56</v>
       </c>
@@ -9839,7 +9842,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>56</v>
       </c>
@@ -9859,7 +9862,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>56</v>
       </c>
@@ -9879,7 +9882,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>56</v>
       </c>
@@ -9899,7 +9902,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>56</v>
       </c>
@@ -9923,7 +9926,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>56</v>
       </c>
@@ -9949,7 +9952,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>56</v>
       </c>
@@ -9975,7 +9978,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>52</v>
       </c>
@@ -9997,7 +10000,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>56</v>
       </c>
@@ -10019,7 +10022,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>225</v>
       </c>
@@ -10044,7 +10047,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>56</v>
       </c>
@@ -10066,7 +10069,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>56</v>
       </c>
@@ -10088,7 +10091,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>56</v>
       </c>
@@ -10110,7 +10113,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>56</v>
       </c>
@@ -10132,7 +10135,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>56</v>
       </c>
@@ -10158,7 +10161,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>52</v>
       </c>
@@ -10178,7 +10181,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>56</v>
       </c>
@@ -10200,7 +10203,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>56</v>
       </c>
@@ -10224,7 +10227,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>56</v>
       </c>
@@ -10244,7 +10247,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>56</v>
       </c>
@@ -10264,7 +10267,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>56</v>
       </c>
@@ -10284,7 +10287,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>56</v>
       </c>
@@ -10306,7 +10309,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>56</v>
       </c>
@@ -10330,7 +10333,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>56</v>
       </c>
@@ -10352,7 +10355,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>52</v>
       </c>
@@ -10374,7 +10377,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>225</v>
       </c>
@@ -10396,7 +10399,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>56</v>
       </c>
@@ -10416,7 +10419,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>56</v>
       </c>
@@ -10438,7 +10441,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>56</v>
       </c>
@@ -10462,7 +10465,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>56</v>
       </c>
@@ -10486,7 +10489,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>56</v>
       </c>
@@ -10512,7 +10515,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>56</v>
       </c>
@@ -10534,7 +10537,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>56</v>
       </c>
@@ -10558,7 +10561,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>56</v>
       </c>
@@ -10577,7 +10580,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>56</v>
       </c>
@@ -10600,7 +10603,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>56</v>
       </c>
@@ -10624,7 +10627,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>56</v>
       </c>
@@ -10650,7 +10653,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>56</v>
       </c>
@@ -10669,7 +10672,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>52</v>
       </c>
@@ -10693,7 +10696,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>56</v>
       </c>
@@ -10716,7 +10719,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>56</v>
       </c>
@@ -10739,7 +10742,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>56</v>
       </c>
@@ -10761,7 +10764,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>56</v>
       </c>
@@ -10783,7 +10786,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>56</v>
       </c>
@@ -10802,7 +10805,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>56</v>
       </c>
@@ -10825,7 +10828,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>56</v>
       </c>
@@ -10851,7 +10854,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>56</v>
       </c>
@@ -10877,7 +10880,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>56</v>
       </c>
@@ -10900,7 +10903,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>52</v>
       </c>
@@ -10923,7 +10926,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>52</v>
       </c>
@@ -10946,7 +10949,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>56</v>
       </c>
@@ -10970,7 +10973,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>56</v>
       </c>
@@ -10992,7 +10995,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>56</v>
       </c>
@@ -11016,7 +11019,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>52</v>
       </c>
@@ -11042,7 +11045,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>52</v>
       </c>
@@ -11065,7 +11068,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>52</v>
       </c>
@@ -11088,7 +11091,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>52</v>
       </c>
@@ -11111,7 +11114,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>56</v>
       </c>
@@ -11133,7 +11136,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>56</v>
       </c>
@@ -11157,7 +11160,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>56</v>
       </c>
@@ -11177,7 +11180,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>56</v>
       </c>
@@ -11197,7 +11200,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>56</v>
       </c>
@@ -11219,7 +11222,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>56</v>
       </c>
@@ -11243,7 +11246,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
         <v>52</v>
       </c>
@@ -11263,7 +11266,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>56</v>
       </c>
@@ -11297,7 +11300,7 @@
       <c r="O305" s="4"/>
       <c r="P305" s="4"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>56</v>
       </c>
@@ -11319,7 +11322,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>56</v>
       </c>
@@ -11343,7 +11346,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>56</v>
       </c>
@@ -11365,7 +11368,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>56</v>
       </c>
@@ -11389,7 +11392,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>56</v>
       </c>
@@ -11409,7 +11412,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>225</v>
       </c>
@@ -11431,7 +11434,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
         <v>71</v>
       </c>
@@ -11457,7 +11460,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
         <v>71</v>
       </c>
@@ -11486,7 +11489,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
         <v>71</v>
       </c>
@@ -11518,7 +11521,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
         <v>369</v>
       </c>
@@ -11544,7 +11547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A316" s="7" t="s">
         <v>71</v>
       </c>
@@ -11578,7 +11581,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
         <v>369</v>
       </c>
@@ -11604,7 +11607,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
         <v>369</v>
       </c>
@@ -11624,7 +11627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
         <v>369</v>
       </c>
@@ -11647,7 +11650,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
         <v>71</v>
       </c>
@@ -11673,7 +11676,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>369</v>
       </c>
@@ -11690,7 +11693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
         <v>71</v>
       </c>
@@ -11719,7 +11722,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>369</v>
       </c>
@@ -11742,7 +11745,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>369</v>
       </c>
@@ -11762,7 +11765,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
         <v>369</v>
       </c>
@@ -11782,7 +11785,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
         <v>369</v>
       </c>
@@ -11802,7 +11805,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
         <v>369</v>
       </c>
@@ -11825,7 +11828,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
         <v>52</v>
       </c>
@@ -11848,7 +11851,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
         <v>369</v>
       </c>
@@ -11871,7 +11874,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
         <v>369</v>
       </c>
@@ -11894,7 +11897,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
         <v>369</v>
       </c>
@@ -11911,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
         <v>369</v>
       </c>
@@ -11928,7 +11931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
         <v>369</v>
       </c>
@@ -11948,7 +11951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
         <v>369</v>
       </c>
@@ -11968,7 +11971,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>369</v>
       </c>
@@ -11985,7 +11988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
         <v>71</v>
       </c>
@@ -12017,7 +12020,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>369</v>
       </c>
@@ -12037,7 +12040,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
         <v>71</v>
       </c>
@@ -12066,7 +12069,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
         <v>369</v>
       </c>
@@ -12089,7 +12092,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
         <v>71</v>
       </c>
@@ -12118,7 +12121,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
         <v>369</v>
       </c>
@@ -12144,7 +12147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
         <v>369</v>
       </c>
@@ -12161,7 +12164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
         <v>369</v>
       </c>
@@ -12184,7 +12187,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
         <v>369</v>
       </c>
@@ -12201,7 +12204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A345" s="7" t="s">
         <v>71</v>
       </c>
@@ -12229,7 +12232,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A346" s="7" t="s">
         <v>369</v>
       </c>
@@ -12252,7 +12255,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A347" s="7" t="s">
         <v>71</v>
       </c>
@@ -12281,7 +12284,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A348" s="7" t="s">
         <v>369</v>
       </c>
@@ -12298,7 +12301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="s">
         <v>369</v>
       </c>
@@ -12321,7 +12324,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
         <v>71</v>
       </c>
@@ -12353,7 +12356,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
         <v>71</v>
       </c>
@@ -12382,7 +12385,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
         <v>369</v>
       </c>
@@ -12408,7 +12411,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
         <v>71</v>
       </c>
@@ -12440,7 +12443,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
         <v>369</v>
       </c>
@@ -12460,7 +12463,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
         <v>369</v>
       </c>
@@ -12489,7 +12492,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
         <v>369</v>
       </c>
@@ -12518,7 +12521,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="s">
         <v>71</v>
       </c>
@@ -12544,7 +12547,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A358" s="7" t="s">
         <v>71</v>
       </c>
@@ -12575,7 +12578,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="s">
         <v>71</v>
       </c>
@@ -12604,7 +12607,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A360" s="7" t="s">
         <v>71</v>
       </c>
@@ -12635,7 +12638,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
         <v>369</v>
       </c>
@@ -12658,7 +12661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A362" s="7" t="s">
         <v>71</v>
       </c>
@@ -12687,7 +12690,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
         <v>56</v>
       </c>
@@ -12707,7 +12710,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
         <v>369</v>
       </c>
@@ -12733,7 +12736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="s">
         <v>71</v>
       </c>
@@ -12759,7 +12762,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A366" s="7" t="s">
         <v>71</v>
       </c>
@@ -12790,7 +12793,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A367" s="7" t="s">
         <v>52</v>
       </c>
@@ -12810,7 +12813,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A368" s="7" t="s">
         <v>71</v>
       </c>
@@ -12836,7 +12839,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
         <v>71</v>
       </c>
@@ -12865,7 +12868,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
         <v>369</v>
       </c>
@@ -12885,7 +12888,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
         <v>71</v>
       </c>
@@ -12917,7 +12920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
         <v>369</v>
       </c>
@@ -12934,7 +12937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
         <v>71</v>
       </c>
@@ -12960,7 +12963,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
         <v>369</v>
       </c>
@@ -12983,7 +12986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
         <v>71</v>
       </c>
@@ -13011,7 +13014,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
         <v>71</v>
       </c>
@@ -13040,7 +13043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
         <v>71</v>
       </c>
@@ -13066,7 +13069,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
         <v>71</v>
       </c>
@@ -13095,7 +13098,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
         <v>71</v>
       </c>
@@ -13121,7 +13124,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
         <v>71</v>
       </c>
@@ -13155,7 +13158,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
         <v>71</v>
       </c>
@@ -13184,7 +13187,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
         <v>71</v>
       </c>
@@ -13215,7 +13218,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
         <v>71</v>
       </c>
@@ -13243,7 +13246,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
         <v>71</v>
       </c>
@@ -13269,7 +13272,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>56</v>
       </c>
@@ -13289,7 +13292,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>56</v>
       </c>
@@ -13311,7 +13314,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>56</v>
       </c>
@@ -13335,7 +13338,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A388" s="7" t="s">
         <v>71</v>
       </c>
@@ -13364,7 +13367,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A389" s="7" t="s">
         <v>71</v>
       </c>
@@ -13396,7 +13399,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>56</v>
       </c>
@@ -13419,7 +13422,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>56</v>
       </c>
@@ -13441,7 +13444,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>56</v>
       </c>
@@ -13465,7 +13468,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A393" s="7" t="s">
         <v>71</v>
       </c>
@@ -13503,7 +13506,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A394" s="7" t="s">
         <v>56</v>
       </c>
@@ -13523,7 +13526,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A395" s="7" t="s">
         <v>71</v>
       </c>
@@ -13552,7 +13555,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>56</v>
       </c>
@@ -13575,7 +13578,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>56</v>
       </c>
@@ -13598,7 +13601,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>56</v>
       </c>
@@ -13618,7 +13621,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>56</v>
       </c>
@@ -13641,7 +13644,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A400" s="7" t="s">
         <v>71</v>
       </c>
@@ -13670,7 +13673,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
         <v>71</v>
       </c>
@@ -13699,7 +13702,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A402" s="7" t="s">
         <v>56</v>
       </c>
@@ -13716,7 +13719,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A403" s="7" t="s">
         <v>71</v>
       </c>
@@ -13745,7 +13748,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A404" s="7" t="s">
         <v>56</v>
       </c>
@@ -13768,7 +13771,7 @@
         <v>44332</v>
       </c>
     </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A405" s="7" t="s">
         <v>56</v>
       </c>
@@ -13788,7 +13791,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A406" s="7" t="s">
         <v>56</v>
       </c>
@@ -13805,7 +13808,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A407" s="7" t="s">
         <v>56</v>
       </c>
@@ -13825,7 +13828,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="408" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A408" s="7" t="s">
         <v>56</v>
       </c>
@@ -13845,7 +13848,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A409" s="7" t="s">
         <v>56</v>
       </c>
@@ -13865,7 +13868,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="410" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A410" s="7" t="s">
         <v>52</v>
       </c>
@@ -13885,7 +13888,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A411" s="7" t="s">
         <v>56</v>
       </c>
@@ -13902,7 +13905,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="412" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A412" s="7" t="s">
         <v>56</v>
       </c>
@@ -13922,7 +13925,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
         <v>71</v>
       </c>
@@ -13951,7 +13954,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="414" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A414" s="7" t="s">
         <v>56</v>
       </c>
@@ -13971,7 +13974,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A415" s="7" t="s">
         <v>56</v>
       </c>
@@ -13991,7 +13994,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="416" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A416" s="7" t="s">
         <v>71</v>
       </c>
@@ -14020,7 +14023,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A417" s="7" t="s">
         <v>71</v>
       </c>
@@ -14049,7 +14052,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
         <v>71</v>
       </c>
@@ -14084,7 +14087,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>56</v>
       </c>
@@ -14104,7 +14107,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
         <v>56</v>
       </c>
@@ -14124,7 +14127,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>56</v>
       </c>
@@ -14144,7 +14147,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
         <v>56</v>
       </c>
@@ -14164,7 +14167,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>56</v>
       </c>
@@ -14187,7 +14190,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
         <v>56</v>
       </c>
@@ -14218,7 +14221,7 @@
       <c r="L424" s="12"/>
       <c r="M424" s="12"/>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>56</v>
       </c>
@@ -14235,7 +14238,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
         <v>56</v>
       </c>
@@ -14255,7 +14258,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
         <v>56</v>
       </c>
@@ -14275,7 +14278,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>56</v>
       </c>
@@ -14297,7 +14300,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>56</v>
       </c>
@@ -14320,7 +14323,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>56</v>
       </c>
@@ -14346,7 +14349,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>56</v>
       </c>
@@ -14363,7 +14366,7 @@
         <v>44360</v>
       </c>
     </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
         <v>56</v>
       </c>
@@ -14386,7 +14389,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
         <v>56</v>
       </c>
@@ -14408,7 +14411,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A434" s="7" t="s">
         <v>56</v>
       </c>
@@ -14430,7 +14433,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
         <v>56</v>
       </c>
@@ -14452,7 +14455,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A436" s="7" t="s">
         <v>56</v>
       </c>
@@ -14476,7 +14479,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A437" s="7" t="s">
         <v>56</v>
       </c>
@@ -14502,7 +14505,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>56</v>
       </c>
@@ -14522,7 +14525,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>56</v>
       </c>
@@ -14539,7 +14542,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>56</v>
       </c>
@@ -14561,7 +14564,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="441" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>56</v>
       </c>
@@ -14585,7 +14588,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A442" s="7" t="s">
         <v>56</v>
       </c>
@@ -14605,7 +14608,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="443" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A443" s="7" t="s">
         <v>56</v>
       </c>
@@ -14622,7 +14625,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A444" s="7" t="s">
         <v>56</v>
       </c>
@@ -14642,7 +14645,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="445" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>56</v>
       </c>
@@ -14666,7 +14669,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>56</v>
       </c>
@@ -14686,7 +14689,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>56</v>
       </c>
@@ -14708,7 +14711,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>56</v>
       </c>
@@ -14730,7 +14733,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="449" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A449" s="7" t="s">
         <v>56</v>
       </c>
@@ -14750,7 +14753,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A450" s="7" t="s">
         <v>56</v>
       </c>
@@ -14776,7 +14779,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>56</v>
       </c>
@@ -14798,7 +14801,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>56</v>
       </c>
@@ -14822,7 +14825,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="453" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A453" s="7" t="s">
         <v>56</v>
       </c>
@@ -14846,7 +14849,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="454" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A454" s="7" t="s">
         <v>56</v>
       </c>
@@ -14872,7 +14875,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="455" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
         <v>56</v>
       </c>
@@ -14892,7 +14895,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="456" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
         <v>56</v>
       </c>
@@ -14912,7 +14915,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="457" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A457" s="7" t="s">
         <v>56</v>
       </c>
@@ -14935,7 +14938,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="458" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>56</v>
       </c>
@@ -14957,7 +14960,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="459" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>56</v>
       </c>
@@ -14979,7 +14982,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="460" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>56</v>
       </c>
@@ -15002,7 +15005,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="461" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A461" s="7" t="s">
         <v>52</v>
       </c>
@@ -15022,7 +15025,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="462" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A462" s="7" t="s">
         <v>56</v>
       </c>
@@ -15039,7 +15042,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="463" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A463" s="7" t="s">
         <v>52</v>
       </c>
@@ -15056,7 +15059,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="464" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A464" s="7" t="s">
         <v>56</v>
       </c>
@@ -15085,7 +15088,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>56</v>
       </c>
@@ -15107,7 +15110,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>56</v>
       </c>
@@ -15131,7 +15134,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>56</v>
       </c>
@@ -15157,7 +15160,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="7" t="s">
         <v>56</v>
       </c>
@@ -15177,7 +15180,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="7" t="s">
         <v>52</v>
       </c>
@@ -15200,7 +15203,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="7" t="s">
         <v>52</v>
       </c>
@@ -15220,7 +15223,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>56</v>
       </c>
@@ -15239,7 +15242,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>56</v>
       </c>
@@ -15261,7 +15264,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>56</v>
       </c>
@@ -15285,7 +15288,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="7" t="s">
         <v>52</v>
       </c>
@@ -15305,7 +15308,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="7" t="s">
         <v>52</v>
       </c>
@@ -15325,7 +15328,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>56</v>
       </c>
@@ -15345,7 +15348,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="7" t="s">
         <v>52</v>
       </c>
@@ -15362,7 +15365,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="7" t="s">
         <v>56</v>
       </c>
@@ -15384,7 +15387,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>56</v>
       </c>
@@ -15406,7 +15409,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>56</v>
       </c>
@@ -15430,7 +15433,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>56</v>
       </c>
@@ -15452,7 +15455,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>56</v>
       </c>
@@ -15478,7 +15481,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" s="7" t="s">
         <v>52</v>
       </c>
@@ -15498,7 +15501,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484" s="7" t="s">
         <v>52</v>
       </c>
@@ -15521,7 +15524,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>56</v>
       </c>
@@ -15543,7 +15546,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A486" s="7" t="s">
         <v>56</v>
       </c>
@@ -15560,7 +15563,7 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A487" s="7" t="s">
         <v>52</v>
       </c>
@@ -15583,7 +15586,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>56</v>
       </c>
@@ -15605,7 +15608,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>56</v>
       </c>
@@ -15627,7 +15630,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>56</v>
       </c>
@@ -15649,7 +15652,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>56</v>
       </c>
@@ -15673,7 +15676,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A492" s="7" t="s">
         <v>52</v>
       </c>
@@ -15698,7 +15701,7 @@
       <c r="L492" s="4"/>
       <c r="M492" s="4"/>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
         <v>44</v>
       </c>
@@ -15733,7 +15736,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A494" s="7" t="s">
         <v>52</v>
       </c>
@@ -15750,7 +15753,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>56</v>
       </c>
@@ -15772,7 +15775,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A496" s="7" t="s">
         <v>56</v>
       </c>
@@ -15789,7 +15792,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A497" s="7" t="s">
         <v>44</v>
       </c>
@@ -15821,7 +15824,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A498" s="7" t="s">
         <v>44</v>
       </c>
@@ -15847,7 +15850,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A499" s="7" t="s">
         <v>56</v>
       </c>
@@ -15873,7 +15876,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A500" s="7" t="s">
         <v>44</v>
       </c>
@@ -15895,7 +15898,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>56</v>
       </c>
@@ -15914,7 +15917,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>56</v>
       </c>
@@ -15935,7 +15938,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A503" s="7" t="s">
         <v>56</v>
       </c>
@@ -15957,7 +15960,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A504" s="7" t="s">
         <v>56</v>
       </c>
@@ -15979,7 +15982,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A505" s="7" t="s">
         <v>56</v>
       </c>
@@ -16001,7 +16004,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A506" s="7" t="s">
         <v>56</v>
       </c>
@@ -16023,7 +16026,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A507" s="7" t="s">
         <v>44</v>
       </c>
@@ -16046,7 +16049,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>56</v>
       </c>
@@ -16068,7 +16071,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>56</v>
       </c>
@@ -16089,7 +16092,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A510" s="7" t="s">
         <v>56</v>
       </c>
@@ -16115,7 +16118,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A511" s="7" t="s">
         <v>56</v>
       </c>
@@ -16135,7 +16138,7 @@
         <v>44506</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>56</v>
       </c>
@@ -16156,7 +16159,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513" s="7" t="s">
         <v>52</v>
       </c>
@@ -16176,7 +16179,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514" s="7" t="s">
         <v>56</v>
       </c>
@@ -16202,7 +16205,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" s="7" t="s">
         <v>56</v>
       </c>
@@ -16222,7 +16225,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516" s="7" t="s">
         <v>52</v>
       </c>
@@ -16244,7 +16247,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>56</v>
       </c>
@@ -16268,7 +16271,7 @@
       <c r="L517" s="9"/>
       <c r="M517" s="9"/>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>225</v>
       </c>
@@ -16290,7 +16293,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>56</v>
       </c>
@@ -16307,7 +16310,7 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A520" s="7" t="s">
         <v>52</v>
       </c>
@@ -16327,7 +16330,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521" s="7" t="s">
         <v>71</v>
       </c>
@@ -16356,7 +16359,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A522" s="7" t="s">
         <v>369</v>
       </c>
@@ -16376,7 +16379,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523" s="7" t="s">
         <v>369</v>
       </c>
@@ -16402,7 +16405,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A524" s="7" t="s">
         <v>71</v>
       </c>
@@ -16428,7 +16431,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A525" s="7" t="s">
         <v>71</v>
       </c>
@@ -16454,7 +16457,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A526" s="7" t="s">
         <v>369</v>
       </c>
@@ -16477,7 +16480,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A527" s="7" t="s">
         <v>71</v>
       </c>
@@ -16503,7 +16506,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A528" s="7" t="s">
         <v>71</v>
       </c>
@@ -16538,7 +16541,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="529" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A529" s="7" t="s">
         <v>71</v>
       </c>
@@ -16567,7 +16570,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="530" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A530" s="7" t="s">
         <v>71</v>
       </c>
@@ -16593,7 +16596,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="531" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
         <v>52</v>
       </c>
@@ -16613,7 +16616,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="532" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A532" s="7" t="s">
         <v>369</v>
       </c>
@@ -16636,7 +16639,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="533" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A533" s="7" t="s">
         <v>71</v>
       </c>
@@ -16665,7 +16668,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="534" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A534" s="7" t="s">
         <v>71</v>
       </c>
@@ -16694,7 +16697,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="535" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A535" s="7" t="s">
         <v>369</v>
       </c>
@@ -16717,7 +16720,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="536" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A536" s="7" t="s">
         <v>71</v>
       </c>
@@ -16749,7 +16752,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="537" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A537" s="7" t="s">
         <v>52</v>
       </c>
@@ -16769,7 +16772,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="538" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A538" s="7" t="s">
         <v>52</v>
       </c>
@@ -16789,7 +16792,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="539" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A539" s="7" t="s">
         <v>369</v>
       </c>
@@ -16812,7 +16815,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="540" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A540" s="7" t="s">
         <v>71</v>
       </c>
@@ -16846,7 +16849,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="541" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A541" s="7" t="s">
         <v>71</v>
       </c>
@@ -16877,7 +16880,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="542" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A542" s="7" t="s">
         <v>71</v>
       </c>
@@ -16903,7 +16906,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="543" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A543" s="7" t="s">
         <v>71</v>
       </c>
@@ -16929,7 +16932,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="544" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A544" s="7" t="s">
         <v>369</v>
       </c>
@@ -16952,7 +16955,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="545" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A545" s="7" t="s">
         <v>71</v>
       </c>
@@ -16978,7 +16981,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="546" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A546" s="7" t="s">
         <v>71</v>
       </c>
@@ -16997,6 +17000,9 @@
       <c r="H546" s="7" t="s">
         <v>656</v>
       </c>
+      <c r="I546" s="7">
+        <v>1741</v>
+      </c>
       <c r="L546" s="7" t="s">
         <v>670</v>
       </c>
@@ -17007,7 +17013,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="547" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A547" s="7" t="s">
         <v>369</v>
       </c>
@@ -17036,7 +17042,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="548" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A548" s="7" t="s">
         <v>71</v>
       </c>
@@ -17065,7 +17071,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="549" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A549" s="7" t="s">
         <v>369</v>
       </c>
@@ -17082,7 +17088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A550" s="7" t="s">
         <v>71</v>
       </c>
@@ -17108,7 +17114,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="551" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A551" s="7" t="s">
         <v>71</v>
       </c>
@@ -17127,6 +17133,9 @@
       <c r="H551" s="7" t="s">
         <v>662</v>
       </c>
+      <c r="I551" s="7">
+        <v>1741</v>
+      </c>
       <c r="L551" s="7" t="s">
         <v>670</v>
       </c>
@@ -17137,7 +17146,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="552" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A552" s="7" t="s">
         <v>369</v>
       </c>
@@ -17166,7 +17175,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="553" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A553" s="7" t="s">
         <v>71</v>
       </c>
@@ -17185,6 +17194,9 @@
       <c r="H553" s="7" t="s">
         <v>664</v>
       </c>
+      <c r="I553" s="7">
+        <v>1741</v>
+      </c>
       <c r="L553" s="7" t="s">
         <v>670</v>
       </c>
@@ -17192,7 +17204,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="554" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A554" s="7" t="s">
         <v>369</v>
       </c>
@@ -17215,7 +17227,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="555" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A555" s="7" t="s">
         <v>369</v>
       </c>
@@ -17235,7 +17247,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="556" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A556" s="7" t="s">
         <v>71</v>
       </c>
@@ -17264,7 +17276,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="557" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A557" s="7" t="s">
         <v>71</v>
       </c>
@@ -17293,7 +17305,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="558" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A558" s="7" t="s">
         <v>369</v>
       </c>
@@ -17316,7 +17328,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="559" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A559" s="7" t="s">
         <v>71</v>
       </c>
@@ -17345,7 +17357,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="560" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A560" s="7" t="s">
         <v>71</v>
       </c>
@@ -17368,7 +17380,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="561" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A561" s="7" t="s">
         <v>369</v>
       </c>
@@ -17388,7 +17400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A562" s="7" t="s">
         <v>369</v>
       </c>
@@ -17408,7 +17420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A563" s="7" t="s">
         <v>369</v>
       </c>
@@ -17437,7 +17449,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="564" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A564" s="7" t="s">
         <v>71</v>
       </c>
@@ -17465,7 +17477,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="565" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A565" s="7" t="s">
         <v>71</v>
       </c>
@@ -17493,7 +17505,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="566" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A566" s="7" t="s">
         <v>71</v>
       </c>
@@ -17519,7 +17531,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="567" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A567" s="7" t="s">
         <v>71</v>
       </c>
@@ -17559,7 +17571,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="568" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A568" s="7" t="s">
         <v>71</v>
       </c>
@@ -17588,7 +17600,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="569" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A569" s="7" t="s">
         <v>71</v>
       </c>
@@ -17607,6 +17619,9 @@
       <c r="H569" s="7" t="s">
         <v>680</v>
       </c>
+      <c r="I569" s="7">
+        <v>1741</v>
+      </c>
       <c r="L569" s="7" t="s">
         <v>674</v>
       </c>
@@ -17620,7 +17635,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="570" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A570" s="7" t="s">
         <v>369</v>
       </c>
@@ -17646,7 +17661,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="571" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A571" s="7" t="s">
         <v>71</v>
       </c>
@@ -17681,7 +17696,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="572" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A572" s="7" t="s">
         <v>369</v>
       </c>
@@ -17698,7 +17713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A573" s="7" t="s">
         <v>369</v>
       </c>
@@ -17724,7 +17739,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="574" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A574" s="7" t="s">
         <v>369</v>
       </c>
@@ -17741,7 +17756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A575" s="7" t="s">
         <v>71</v>
       </c>
@@ -17767,7 +17782,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="576" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A576" s="7" t="s">
         <v>56</v>
       </c>
@@ -17787,7 +17802,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="577" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A577" s="7" t="s">
         <v>56</v>
       </c>
@@ -17804,7 +17819,7 @@
         <v>44637</v>
       </c>
     </row>
-    <row r="578" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A578" s="7" t="s">
         <v>369</v>
       </c>
@@ -17827,7 +17842,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="579" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A579" s="7" t="s">
         <v>71</v>
       </c>
@@ -17855,7 +17870,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="580" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A580" s="7" t="s">
         <v>56</v>
       </c>
@@ -17878,7 +17893,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="581" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A581" s="7" t="s">
         <v>56</v>
       </c>
@@ -17898,7 +17913,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="582" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A582" s="7" t="s">
         <v>369</v>
       </c>
@@ -17915,7 +17930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A583" s="7" t="s">
         <v>56</v>
       </c>
@@ -17932,7 +17947,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="584" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A584" s="7" t="s">
         <v>71</v>
       </c>
@@ -17958,7 +17973,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="585" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A585" s="7" t="s">
         <v>56</v>
       </c>
@@ -17978,7 +17993,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="586" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A586" s="7" t="s">
         <v>71</v>
       </c>
@@ -18004,7 +18019,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="587" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A587" s="7" t="s">
         <v>71</v>
       </c>
@@ -18030,7 +18045,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="588" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A588" s="7" t="s">
         <v>71</v>
       </c>
@@ -18059,7 +18074,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="589" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A589" s="7" t="s">
         <v>56</v>
       </c>
@@ -18079,7 +18094,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="590" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A590" s="7" t="s">
         <v>52</v>
       </c>
@@ -18099,7 +18114,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="591" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A591" s="7" t="s">
         <v>71</v>
       </c>
@@ -18128,7 +18143,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="592" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A592" s="7" t="s">
         <v>71</v>
       </c>
@@ -18157,7 +18172,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A593" s="7" t="s">
         <v>56</v>
       </c>
@@ -18174,7 +18189,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A594" s="7" t="s">
         <v>56</v>
       </c>
@@ -18191,7 +18206,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>56</v>
       </c>
@@ -18212,7 +18227,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>56</v>
       </c>
@@ -18233,7 +18248,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>56</v>
       </c>
@@ -18254,7 +18269,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>56</v>
       </c>
@@ -18275,7 +18290,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A599" s="7" t="s">
         <v>44</v>
       </c>
@@ -18301,7 +18316,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>56</v>
       </c>
@@ -18323,7 +18338,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>56</v>
       </c>
@@ -18345,7 +18360,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>56</v>
       </c>
@@ -18367,7 +18382,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>56</v>
       </c>
@@ -18391,7 +18406,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>56</v>
       </c>
@@ -18410,7 +18425,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A605" s="7" t="s">
         <v>56</v>
       </c>
@@ -18432,7 +18447,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A606" s="7" t="s">
         <v>56</v>
       </c>
@@ -18449,7 +18464,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A607" s="7" t="s">
         <v>56</v>
       </c>
@@ -18469,7 +18484,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A608" s="7" t="s">
         <v>56</v>
       </c>
@@ -18492,7 +18507,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A609" s="7" t="s">
         <v>56</v>
       </c>
@@ -18515,7 +18530,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A610" s="7" t="s">
         <v>56</v>
       </c>
@@ -18534,7 +18549,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A611" s="7" t="s">
         <v>56</v>
       </c>
@@ -18551,7 +18566,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A612" s="7" t="s">
         <v>56</v>
       </c>
@@ -18577,7 +18592,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A613" s="7" t="s">
         <v>56</v>
       </c>
@@ -18599,7 +18614,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A614" s="7" t="s">
         <v>56</v>
       </c>
@@ -18621,7 +18636,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A615" s="7" t="s">
         <v>56</v>
       </c>
@@ -18643,7 +18658,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A616" s="7" t="s">
         <v>56</v>
       </c>
@@ -18665,7 +18680,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A617" s="7" t="s">
         <v>44</v>
       </c>
@@ -18688,7 +18703,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A618" s="7" t="s">
         <v>56</v>
       </c>
@@ -18705,7 +18720,7 @@
         <v>44871</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A619" s="7" t="s">
         <v>56</v>
       </c>
@@ -18728,7 +18743,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A620" s="7" t="s">
         <v>56</v>
       </c>
@@ -18749,7 +18764,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A621" s="7" t="s">
         <v>56</v>
       </c>
@@ -18773,7 +18788,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>56</v>
       </c>
@@ -18795,7 +18810,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>56</v>
       </c>
@@ -18816,7 +18831,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A624" s="7" t="s">
         <v>44</v>
       </c>
@@ -18836,7 +18851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A625" s="7" t="s">
         <v>44</v>
       </c>
@@ -18856,7 +18871,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A626" s="7" t="s">
         <v>44</v>
       </c>
@@ -18873,7 +18888,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="627" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A627" s="7" t="s">
         <v>44</v>
       </c>
@@ -18890,7 +18905,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="628" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A628" s="7" t="s">
         <v>44</v>
       </c>
@@ -18910,7 +18925,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="629" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A629" s="7" t="s">
         <v>44</v>
       </c>
@@ -18927,7 +18942,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="630" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A630" s="7" t="s">
         <v>725</v>
       </c>
@@ -18944,7 +18959,7 @@
         <v>44912</v>
       </c>
     </row>
-    <row r="631" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A631" s="7" t="s">
         <v>44</v>
       </c>
@@ -18964,7 +18979,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="632" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A632" s="7" t="s">
         <v>44</v>
       </c>
@@ -18981,7 +18996,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="633" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A633" s="7" t="s">
         <v>44</v>
       </c>
@@ -18998,7 +19013,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="634" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A634" s="7" t="s">
         <v>44</v>
       </c>
@@ -19021,7 +19036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A635" s="7" t="s">
         <v>44</v>
       </c>
@@ -19041,7 +19056,7 @@
         <v>44920</v>
       </c>
     </row>
-    <row r="636" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A636" s="7" t="s">
         <v>44</v>
       </c>
@@ -19058,7 +19073,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="637" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A637" s="7" t="s">
         <v>44</v>
       </c>
@@ -19075,7 +19090,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="638" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A638" s="7" t="s">
         <v>44</v>
       </c>
@@ -19104,7 +19119,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="639" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A639" s="7" t="s">
         <v>52</v>
       </c>
@@ -19121,7 +19136,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="640" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A640" s="7" t="s">
         <v>44</v>
       </c>
@@ -19153,7 +19168,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="641" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A641" s="7" t="s">
         <v>52</v>
       </c>
@@ -19170,7 +19185,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="642" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A642" s="7" t="s">
         <v>44</v>
       </c>
@@ -19193,7 +19208,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="643" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A643" s="7" t="s">
         <v>44</v>
       </c>
@@ -19216,7 +19231,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="644" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A644" s="7" t="s">
         <v>44</v>
       </c>
@@ -19233,7 +19248,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="645" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A645" s="7" t="s">
         <v>44</v>
       </c>
@@ -19250,7 +19265,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="646" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A646" s="7" t="s">
         <v>44</v>
       </c>
@@ -19267,7 +19282,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="647" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A647" s="7" t="s">
         <v>44</v>
       </c>
@@ -19287,7 +19302,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="648" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A648" s="7" t="s">
         <v>44</v>
       </c>
@@ -19304,7 +19319,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="649" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A649" s="7" t="s">
         <v>44</v>
       </c>
@@ -19321,7 +19336,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="650" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A650" s="7" t="s">
         <v>44</v>
       </c>
@@ -19344,7 +19359,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="651" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A651" s="7" t="s">
         <v>44</v>
       </c>
@@ -19367,7 +19382,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="652" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A652" s="7" t="s">
         <v>44</v>
       </c>
@@ -19384,7 +19399,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="653" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A653" s="7" t="s">
         <v>44</v>
       </c>
@@ -19410,7 +19425,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="654" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A654" s="7" t="s">
         <v>44</v>
       </c>
@@ -19433,7 +19448,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="655" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A655" s="7" t="s">
         <v>44</v>
       </c>
@@ -19456,7 +19471,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="656" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A656" s="7" t="s">
         <v>44</v>
       </c>
@@ -19476,7 +19491,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="657" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A657" s="7" t="s">
         <v>44</v>
       </c>
@@ -19496,7 +19511,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="658" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A658" s="7" t="s">
         <v>44</v>
       </c>
@@ -19516,7 +19531,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="659" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A659" s="7" t="s">
         <v>44</v>
       </c>
@@ -19536,7 +19551,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="660" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A660" s="7" t="s">
         <v>56</v>
       </c>
@@ -19556,7 +19571,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="661" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A661" s="7" t="s">
         <v>56</v>
       </c>
@@ -19576,7 +19591,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="662" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A662" s="7" t="s">
         <v>56</v>
       </c>
@@ -19593,7 +19608,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="663" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>56</v>
       </c>
@@ -19614,7 +19629,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="664" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A664" s="7" t="s">
         <v>44</v>
       </c>
@@ -19631,7 +19646,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="665" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A665" s="7" t="s">
         <v>44</v>
       </c>
@@ -19648,7 +19663,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="666" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A666" s="7" t="s">
         <v>44</v>
       </c>
@@ -19665,7 +19680,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="667" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A667" s="7" t="s">
         <v>44</v>
       </c>
@@ -19682,7 +19697,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="668" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A668" s="7" t="s">
         <v>44</v>
       </c>
@@ -19699,7 +19714,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="669" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A669" s="7" t="s">
         <v>44</v>
       </c>
@@ -19716,7 +19731,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="670" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A670" s="7" t="s">
         <v>56</v>
       </c>
@@ -19736,7 +19751,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="671" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A671" s="7" t="s">
         <v>56</v>
       </c>
@@ -19753,7 +19768,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="672" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A672" s="7" t="s">
         <v>44</v>
       </c>
@@ -19770,7 +19785,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" s="7" t="s">
         <v>56</v>
       </c>
@@ -19790,7 +19805,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" s="7" t="s">
         <v>56</v>
       </c>
@@ -19813,7 +19828,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" s="7" t="s">
         <v>52</v>
       </c>
@@ -19830,7 +19845,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" s="7" t="s">
         <v>52</v>
       </c>
@@ -19850,7 +19865,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" s="7" t="s">
         <v>44</v>
       </c>
@@ -19867,7 +19882,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" s="7" t="s">
         <v>56</v>
       </c>
@@ -19884,7 +19899,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" s="7" t="s">
         <v>44</v>
       </c>
@@ -19901,7 +19916,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" s="7" t="s">
         <v>56</v>
       </c>
@@ -19921,7 +19936,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" s="7" t="s">
         <v>56</v>
       </c>
@@ -19944,7 +19959,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" s="7" t="s">
         <v>52</v>
       </c>
@@ -19961,7 +19976,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" s="7" t="s">
         <v>52</v>
       </c>
@@ -19978,7 +19993,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" s="7" t="s">
         <v>52</v>
       </c>
@@ -19995,7 +20010,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" s="7" t="s">
         <v>56</v>
       </c>
@@ -20012,7 +20027,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" s="7" t="s">
         <v>56</v>
       </c>
@@ -20032,7 +20047,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" s="7" t="s">
         <v>56</v>
       </c>
@@ -20052,7 +20067,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" s="7" t="s">
         <v>52</v>
       </c>
@@ -20072,7 +20087,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="689" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A689" s="7" t="s">
         <v>56</v>
       </c>
@@ -20092,7 +20107,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="690" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A690" s="7" t="s">
         <v>71</v>
       </c>
@@ -20118,7 +20133,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="691" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A691" s="7" t="s">
         <v>52</v>
       </c>
@@ -20138,7 +20153,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="692" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A692" s="7" t="s">
         <v>52</v>
       </c>
@@ -20158,7 +20173,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="693" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A693" s="7" t="s">
         <v>52</v>
       </c>
@@ -20175,7 +20190,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="694" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A694" s="7" t="s">
         <v>52</v>
       </c>
@@ -20192,7 +20207,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="695" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A695" s="7" t="s">
         <v>56</v>
       </c>
@@ -20209,7 +20224,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="696" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A696" s="7" t="s">
         <v>56</v>
       </c>
@@ -20229,7 +20244,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="697" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A697" s="7" t="s">
         <v>56</v>
       </c>
@@ -20249,7 +20264,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="698" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A698" s="7" t="s">
         <v>56</v>
       </c>
@@ -20266,7 +20281,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="699" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A699" s="7" t="s">
         <v>768</v>
       </c>
@@ -20283,7 +20298,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="700" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A700" s="7" t="s">
         <v>56</v>
       </c>
@@ -20303,7 +20318,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="701" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A701" s="7" t="s">
         <v>56</v>
       </c>
@@ -20326,7 +20341,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="702" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A702" s="7" t="s">
         <v>56</v>
       </c>
@@ -20346,7 +20361,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="703" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A703" s="7" t="s">
         <v>56</v>
       </c>
@@ -20366,7 +20381,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="704" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A704" s="7" t="s">
         <v>56</v>
       </c>
@@ -20386,7 +20401,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A705" s="7" t="s">
         <v>56</v>
       </c>
@@ -20409,7 +20424,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A706" s="7" t="s">
         <v>56</v>
       </c>
@@ -20429,7 +20444,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A707" s="7" t="s">
         <v>52</v>
       </c>
@@ -20449,7 +20464,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A708" s="7" t="s">
         <v>56</v>
       </c>
@@ -20469,7 +20484,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
         <v>225</v>
       </c>
@@ -20491,7 +20506,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A710" s="7" t="s">
         <v>56</v>
       </c>
@@ -20511,7 +20526,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A711" s="7" t="s">
         <v>56</v>
       </c>
@@ -20531,7 +20546,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A712" s="7" t="s">
         <v>768</v>
       </c>
@@ -20554,7 +20569,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A713" s="7" t="s">
         <v>768</v>
       </c>
@@ -20577,7 +20592,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
         <v>56</v>
       </c>
@@ -20596,7 +20611,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A715" s="7" t="s">
         <v>56</v>
       </c>
@@ -20616,7 +20631,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A716" s="7" t="s">
         <v>56</v>
       </c>
@@ -20639,7 +20654,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A717" s="7" t="s">
         <v>52</v>
       </c>
@@ -20659,7 +20674,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A718" s="7" t="s">
         <v>44</v>
       </c>
@@ -20679,7 +20694,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A719" s="7" t="s">
         <v>768</v>
       </c>
@@ -20696,7 +20711,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A720" s="7" t="s">
         <v>56</v>
       </c>
@@ -20713,7 +20728,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="721" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A721" s="7" t="s">
         <v>56</v>
       </c>
@@ -20730,7 +20745,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="722" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A722" s="7" t="s">
         <v>56</v>
       </c>
@@ -20747,7 +20762,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="723" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A723" s="7" t="s">
         <v>56</v>
       </c>
@@ -20770,7 +20785,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="724" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A724" s="7" t="s">
         <v>44</v>
       </c>
@@ -20796,7 +20811,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="725" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A725" s="7" t="s">
         <v>52</v>
       </c>
@@ -20816,7 +20831,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="726" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A726" s="7" t="s">
         <v>56</v>
       </c>
@@ -20836,7 +20851,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="727" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A727" s="7" t="s">
         <v>768</v>
       </c>
@@ -20853,7 +20868,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="728" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A728" s="7" t="s">
         <v>56</v>
       </c>
@@ -20870,7 +20885,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="729" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A729" s="7" t="s">
         <v>52</v>
       </c>
@@ -20890,7 +20905,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="730" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A730" s="7" t="s">
         <v>44</v>
       </c>
@@ -20919,7 +20934,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="731" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A731" s="7" t="s">
         <v>44</v>
       </c>
@@ -20948,7 +20963,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="732" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A732" s="7" t="s">
         <v>52</v>
       </c>
@@ -20968,7 +20983,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="733" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A733" s="7" t="s">
         <v>52</v>
       </c>
@@ -20988,7 +21003,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="734" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A734" s="7" t="s">
         <v>56</v>
       </c>
@@ -21008,7 +21023,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="735" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A735" s="7" t="s">
         <v>56</v>
       </c>
@@ -21028,7 +21043,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="736" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A736" s="7" t="s">
         <v>56</v>
       </c>
@@ -21048,7 +21063,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A737" s="7" t="s">
         <v>56</v>
       </c>
@@ -21065,7 +21080,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A738" s="7" t="s">
         <v>56</v>
       </c>
@@ -21082,7 +21097,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" s="7" t="s">
         <v>56</v>
       </c>
@@ -21102,7 +21117,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" s="7" t="s">
         <v>52</v>
       </c>
@@ -21122,7 +21137,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A741" s="7" t="s">
         <v>52</v>
       </c>
@@ -21142,7 +21157,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" s="7" t="s">
         <v>52</v>
       </c>
@@ -21165,7 +21180,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A743" s="7" t="s">
         <v>56</v>
       </c>
@@ -21185,7 +21200,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" s="7" t="s">
         <v>56</v>
       </c>
@@ -21202,7 +21217,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" s="7" t="s">
         <v>52</v>
       </c>
@@ -21222,7 +21237,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A746" s="7" t="s">
         <v>52</v>
       </c>
@@ -21242,7 +21257,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A747" s="7" t="s">
         <v>56</v>
       </c>
@@ -21262,7 +21277,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A748" s="7" t="s">
         <v>56</v>
       </c>
@@ -21279,7 +21294,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A749" s="7" t="s">
         <v>56</v>
       </c>
@@ -21299,7 +21314,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A750" s="7" t="s">
         <v>44</v>
       </c>
@@ -21316,7 +21331,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A751" s="7" t="s">
         <v>56</v>
       </c>
@@ -21336,7 +21351,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A752" s="7" t="s">
         <v>56</v>
       </c>
@@ -21356,7 +21371,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="753" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A753" s="7" t="s">
         <v>56</v>
       </c>
@@ -21376,7 +21391,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="754" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A754" s="7" t="s">
         <v>56</v>
       </c>
@@ -21396,7 +21411,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="755" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A755" s="7" t="s">
         <v>56</v>
       </c>
@@ -21416,7 +21431,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="756" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A756" s="7" t="s">
         <v>56</v>
       </c>
@@ -21436,7 +21451,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="757" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A757" s="7" t="s">
         <v>56</v>
       </c>
@@ -21456,7 +21471,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="758" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A758" s="7" t="s">
         <v>56</v>
       </c>
@@ -21479,7 +21494,7 @@
       <c r="J758" s="4"/>
       <c r="K758" s="4"/>
     </row>
-    <row r="759" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A759" s="7" t="s">
         <v>56</v>
       </c>
@@ -21496,7 +21511,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="760" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A760" s="7" t="s">
         <v>52</v>
       </c>
@@ -21516,7 +21531,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="761" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A761" s="7" t="s">
         <v>768</v>
       </c>
@@ -21533,7 +21548,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="762" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A762" s="7" t="s">
         <v>52</v>
       </c>
@@ -21553,7 +21568,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="763" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A763" s="7" t="s">
         <v>52</v>
       </c>
@@ -21570,7 +21585,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="764" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A764" s="7" t="s">
         <v>52</v>
       </c>
@@ -21587,7 +21602,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="765" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A765" s="7" t="s">
         <v>71</v>
       </c>
@@ -21619,7 +21634,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="766" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A766" s="7" t="s">
         <v>71</v>
       </c>
@@ -21648,7 +21663,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="767" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A767" s="7" t="s">
         <v>71</v>
       </c>
@@ -21674,7 +21689,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="768" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A768" s="7" t="s">
         <v>71</v>
       </c>
@@ -21703,7 +21718,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="769" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A769" s="7" t="s">
         <v>369</v>
       </c>
@@ -21729,7 +21744,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="770" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A770" s="7" t="s">
         <v>52</v>
       </c>
@@ -21746,7 +21761,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="771" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A771" s="7" t="s">
         <v>71</v>
       </c>
@@ -21778,7 +21793,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="772" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A772" s="7" t="s">
         <v>369</v>
       </c>
@@ -21801,7 +21816,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="773" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A773" s="7" t="s">
         <v>52</v>
       </c>
@@ -21821,7 +21836,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="774" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A774" s="7" t="s">
         <v>369</v>
       </c>
@@ -21850,7 +21865,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="775" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A775" s="7" t="s">
         <v>369</v>
       </c>
@@ -21873,7 +21888,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="776" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A776" s="7" t="s">
         <v>71</v>
       </c>
@@ -21902,7 +21917,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="777" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A777" s="7" t="s">
         <v>369</v>
       </c>
@@ -21919,7 +21934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A778" s="7" t="s">
         <v>71</v>
       </c>
@@ -21945,7 +21960,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="779" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A779" s="7" t="s">
         <v>71</v>
       </c>
@@ -21971,7 +21986,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="780" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A780" s="7" t="s">
         <v>44</v>
       </c>
@@ -21997,7 +22012,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="781" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A781" s="7" t="s">
         <v>71</v>
       </c>
@@ -22026,7 +22041,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="782" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A782" s="7" t="s">
         <v>369</v>
       </c>
@@ -22055,7 +22070,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="783" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A783" s="7" t="s">
         <v>369</v>
       </c>
@@ -22078,7 +22093,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="784" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A784" s="7" t="s">
         <v>52</v>
       </c>
@@ -22098,7 +22113,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="785" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A785" s="7" t="s">
         <v>52</v>
       </c>
@@ -22118,7 +22133,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="786" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A786" s="7" t="s">
         <v>71</v>
       </c>
@@ -22147,7 +22162,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="787" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A787" s="7" t="s">
         <v>369</v>
       </c>
@@ -22167,7 +22182,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="788" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A788" s="7" t="s">
         <v>71</v>
       </c>
@@ -22199,7 +22214,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="789" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A789" s="7" t="s">
         <v>52</v>
       </c>
@@ -22219,7 +22234,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="790" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A790" s="7" t="s">
         <v>52</v>
       </c>
@@ -22239,7 +22254,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="791" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A791" s="7" t="s">
         <v>71</v>
       </c>
@@ -22268,7 +22283,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="792" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A792" s="7" t="s">
         <v>71</v>
       </c>
@@ -22300,7 +22315,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="793" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A793" s="7" t="s">
         <v>71</v>
       </c>
@@ -22329,7 +22344,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="794" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A794" s="7" t="s">
         <v>52</v>
       </c>
@@ -22349,7 +22364,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="795" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A795" s="7" t="s">
         <v>369</v>
       </c>
@@ -22369,7 +22384,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="796" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A796" s="7" t="s">
         <v>52</v>
       </c>
@@ -22389,7 +22404,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="797" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A797" s="7" t="s">
         <v>369</v>
       </c>
@@ -22406,7 +22421,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="798" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A798" s="7" t="s">
         <v>71</v>
       </c>
@@ -22438,7 +22453,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="799" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A799" s="7" t="s">
         <v>71</v>
       </c>
@@ -22464,7 +22479,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="800" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A800" s="7" t="s">
         <v>71</v>
       </c>
@@ -22493,7 +22508,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="801" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A801" s="7" t="s">
         <v>71</v>
       </c>
@@ -22522,7 +22537,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="802" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A802" s="7" t="s">
         <v>44</v>
       </c>
@@ -22539,7 +22554,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="803" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A803" s="7" t="s">
         <v>71</v>
       </c>
@@ -22571,7 +22586,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="804" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A804" s="7" t="s">
         <v>71</v>
       </c>
@@ -22606,7 +22621,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="805" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A805" s="7" t="s">
         <v>56</v>
       </c>
@@ -22626,7 +22641,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="806" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A806" s="7" t="s">
         <v>56</v>
       </c>
@@ -22643,7 +22658,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="807" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A807" s="7" t="s">
         <v>369</v>
       </c>
@@ -22657,7 +22672,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="808" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A808" s="7" t="s">
         <v>369</v>
       </c>
@@ -22668,7 +22683,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="809" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A809" s="7" t="s">
         <v>52</v>
       </c>
@@ -22688,7 +22703,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="810" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A810" s="7" t="s">
         <v>56</v>
       </c>
@@ -22708,7 +22723,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="811" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A811" s="7" t="s">
         <v>71</v>
       </c>
@@ -22737,7 +22752,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="812" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A812" s="7" t="s">
         <v>369</v>
       </c>
@@ -22757,7 +22772,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="813" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A813" s="7" t="s">
         <v>369</v>
       </c>
@@ -22774,7 +22789,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="814" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A814" s="7" t="s">
         <v>71</v>
       </c>
@@ -22800,7 +22815,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="815" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A815" s="7" t="s">
         <v>71</v>
       </c>
@@ -22823,7 +22838,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="816" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A816" s="7" t="s">
         <v>369</v>
       </c>
@@ -22843,7 +22858,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="817" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A817" s="7" t="s">
         <v>44</v>
       </c>
@@ -22863,7 +22878,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="818" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A818" s="7" t="s">
         <v>52</v>
       </c>
@@ -22883,7 +22898,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="819" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A819" s="7" t="s">
         <v>71</v>
       </c>
@@ -22912,7 +22927,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="820" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A820" s="7" t="s">
         <v>369</v>
       </c>
@@ -22935,7 +22950,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="821" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A821" s="7" t="s">
         <v>71</v>
       </c>
@@ -22964,7 +22979,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="822" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A822" s="7" t="s">
         <v>52</v>
       </c>
@@ -22984,7 +22999,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="823" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A823" s="7" t="s">
         <v>56</v>
       </c>
@@ -23004,7 +23019,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="824" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A824" s="7" t="s">
         <v>56</v>
       </c>
@@ -23021,7 +23036,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="825" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A825" s="7" t="s">
         <v>56</v>
       </c>
@@ -23041,7 +23056,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="826" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A826" s="7" t="s">
         <v>52</v>
       </c>
@@ -23061,7 +23076,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="827" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
         <v>56</v>
       </c>
@@ -23083,7 +23098,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="828" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
         <v>56</v>
       </c>
@@ -23107,7 +23122,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="829" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A829" s="7" t="s">
         <v>52</v>
       </c>
@@ -23127,7 +23142,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="830" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>56</v>
       </c>
@@ -23149,7 +23164,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="831" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
         <v>56</v>
       </c>
@@ -23173,7 +23188,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="832" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A832" s="7" t="s">
         <v>883</v>
       </c>
@@ -23190,7 +23205,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="833" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A833" s="7" t="s">
         <v>44</v>
       </c>
@@ -23207,7 +23222,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="834" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A834" s="7" t="s">
         <v>52</v>
       </c>
@@ -23227,7 +23242,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="835" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A835" s="7" t="s">
         <v>56</v>
       </c>
@@ -23247,7 +23262,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="836" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A836" s="7" t="s">
         <v>56</v>
       </c>
@@ -23264,7 +23279,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="837" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A837" s="7" t="s">
         <v>56</v>
       </c>
@@ -23284,7 +23299,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="838" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A838" s="7" t="s">
         <v>56</v>
       </c>
@@ -23301,7 +23316,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="839" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A839" s="7" t="s">
         <v>56</v>
       </c>
@@ -23323,7 +23338,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="840" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A840" s="7" t="s">
         <v>56</v>
       </c>
@@ -23347,7 +23362,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="841" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A841" s="7" t="s">
         <v>56</v>
       </c>
@@ -23367,7 +23382,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="842" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A842" s="7" t="s">
         <v>56</v>
       </c>
@@ -23384,7 +23399,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="843" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A843" s="7" t="s">
         <v>56</v>
       </c>
@@ -23401,7 +23416,7 @@
         <v>45409</v>
       </c>
     </row>
-    <row r="844" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A844" s="7" t="s">
         <v>56</v>
       </c>
@@ -23421,7 +23436,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="845" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A845" s="7" t="s">
         <v>56</v>
       </c>
@@ -23441,7 +23456,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="846" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
         <v>56</v>
       </c>
@@ -23463,7 +23478,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="847" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
         <v>56</v>
       </c>
@@ -23487,7 +23502,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="848" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A848" s="7" t="s">
         <v>71</v>
       </c>
@@ -23522,7 +23537,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="849" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A849" s="7" t="s">
         <v>71</v>
       </c>
@@ -23551,7 +23566,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="850" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A850" s="7" t="s">
         <v>71</v>
       </c>
@@ -23577,7 +23592,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="851" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A851" s="7" t="s">
         <v>71</v>
       </c>
@@ -23606,7 +23621,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="852" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A852" s="7" t="s">
         <v>56</v>
       </c>
@@ -23626,7 +23641,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="853" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A853" s="7" t="s">
         <v>52</v>
       </c>
@@ -23646,7 +23661,7 @@
         <v>45428</v>
       </c>
     </row>
-    <row r="854" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A854" s="7" t="s">
         <v>56</v>
       </c>
@@ -23663,7 +23678,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="855" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A855" s="7" t="s">
         <v>56</v>
       </c>
@@ -23686,7 +23701,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A856" s="7" t="s">
         <v>56</v>
       </c>
@@ -23706,7 +23721,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="857" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A857" s="7" t="s">
         <v>56</v>
       </c>
@@ -23726,7 +23741,7 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="858" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A858" s="7" t="s">
         <v>56</v>
       </c>
@@ -23749,7 +23764,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="859" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A859" s="7" t="s">
         <v>52</v>
       </c>
@@ -23769,7 +23784,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="860" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A860" s="7" t="s">
         <v>56</v>
       </c>
@@ -23789,7 +23804,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="861" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A861" s="7" t="s">
         <v>52</v>
       </c>
@@ -23809,7 +23824,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="862" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A862" s="7" t="s">
         <v>56</v>
       </c>
@@ -23829,7 +23844,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="863" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A863" s="7" t="s">
         <v>56</v>
       </c>
@@ -23849,7 +23864,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="864" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A864" s="7" t="s">
         <v>56</v>
       </c>
@@ -23869,7 +23884,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="865" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A865" s="7" t="s">
         <v>56</v>
       </c>
@@ -23889,7 +23904,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="866" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A866" s="7" t="s">
         <v>44</v>
       </c>
@@ -23915,7 +23930,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="867" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A867" s="7" t="s">
         <v>52</v>
       </c>
@@ -23935,7 +23950,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="868" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A868" s="7" t="s">
         <v>56</v>
       </c>
@@ -23952,7 +23967,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="869" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A869" s="7" t="s">
         <v>56</v>
       </c>
@@ -23974,7 +23989,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="870" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A870" s="7" t="s">
         <v>56</v>
       </c>
@@ -23997,7 +24012,7 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="871" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A871" s="7" t="s">
         <v>56</v>
       </c>
@@ -24014,7 +24029,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="872" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A872" s="7" t="s">
         <v>52</v>
       </c>
@@ -24034,7 +24049,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="873" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A873" s="7" t="s">
         <v>56</v>
       </c>
@@ -24051,7 +24066,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="874" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A874" s="7" t="s">
         <v>56</v>
       </c>
@@ -24071,7 +24086,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="875" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A875" s="7" t="s">
         <v>56</v>
       </c>
@@ -24091,7 +24106,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="876" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A876" s="7" t="s">
         <v>56</v>
       </c>
@@ -24108,7 +24123,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="877" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A877" s="7" t="s">
         <v>52</v>
       </c>
@@ -24125,7 +24140,7 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="878" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A878" s="7" t="s">
         <v>52</v>
       </c>
@@ -24148,7 +24163,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="879" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A879" s="7" t="s">
         <v>52</v>
       </c>
@@ -24168,7 +24183,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="880" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A880" s="7" t="s">
         <v>56</v>
       </c>
@@ -24185,7 +24200,7 @@
         <v>45477</v>
       </c>
     </row>
-    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A881" s="7" t="s">
         <v>71</v>
       </c>
@@ -24211,7 +24226,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A882" s="7" t="s">
         <v>44</v>
       </c>
@@ -24231,7 +24246,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A883" s="7" t="s">
         <v>768</v>
       </c>
@@ -24251,7 +24266,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A884" s="7" t="s">
         <v>44</v>
       </c>
@@ -24268,7 +24283,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A885" s="7" t="s">
         <v>44</v>
       </c>
@@ -24285,7 +24300,7 @@
         <v>45484</v>
       </c>
     </row>
-    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A886" s="7" t="s">
         <v>941</v>
       </c>
@@ -24302,7 +24317,7 @@
         <v>45487</v>
       </c>
     </row>
-    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A887" s="7" t="s">
         <v>44</v>
       </c>
@@ -24325,7 +24340,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A888" s="7" t="s">
         <v>52</v>
       </c>
@@ -24342,7 +24357,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A889" s="7" t="s">
         <v>44</v>
       </c>
@@ -24365,7 +24380,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="890" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A890" s="7" t="s">
         <v>52</v>
       </c>
@@ -24394,7 +24409,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A891" s="7" t="s">
         <v>52</v>
       </c>
@@ -24426,7 +24441,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A892" s="7" t="s">
         <v>44</v>
       </c>
@@ -24455,7 +24470,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A893" s="7" t="s">
         <v>56</v>
       </c>
@@ -24472,7 +24487,7 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="894" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A894" s="7" t="s">
         <v>56</v>
       </c>
@@ -24492,7 +24507,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="895" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A895" s="7" t="s">
         <v>44</v>
       </c>
@@ -24512,7 +24527,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="896" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A896" s="7" t="s">
         <v>941</v>
       </c>
@@ -24541,7 +24556,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="897" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A897" s="7" t="s">
         <v>56</v>
       </c>
@@ -24561,7 +24576,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="898" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A898" s="7" t="s">
         <v>52</v>
       </c>
@@ -24593,7 +24608,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="899" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A899" s="7" t="s">
         <v>44</v>
       </c>
@@ -24616,7 +24631,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="900" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A900" s="7" t="s">
         <v>56</v>
       </c>
@@ -24639,7 +24654,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="901" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A901" s="7" t="s">
         <v>56</v>
       </c>
@@ -24659,7 +24674,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="902" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A902" s="7" t="s">
         <v>56</v>
       </c>
@@ -24676,7 +24691,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="903" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A903" s="7" t="s">
         <v>44</v>
       </c>
@@ -24699,7 +24714,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="904" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A904" s="7" t="s">
         <v>44</v>
       </c>
@@ -24722,7 +24737,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="905" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A905" s="7" t="s">
         <v>44</v>
       </c>
@@ -24748,7 +24763,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="906" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A906" s="7" t="s">
         <v>56</v>
       </c>
@@ -24768,7 +24783,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="907" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A907" s="7" t="s">
         <v>44</v>
       </c>
@@ -24788,7 +24803,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="908" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A908" s="7" t="s">
         <v>52</v>
       </c>
@@ -24823,7 +24838,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="909" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A909" s="7" t="s">
         <v>52</v>
       </c>
@@ -24852,7 +24867,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="910" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A910" s="7" t="s">
         <v>52</v>
       </c>
@@ -24881,7 +24896,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="911" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A911" s="7" t="s">
         <v>225</v>
       </c>
@@ -24901,7 +24916,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="912" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A912" s="7" t="s">
         <v>44</v>
       </c>
@@ -24921,7 +24936,7 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="913" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A913" s="7" t="s">
         <v>52</v>
       </c>
@@ -24941,7 +24956,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="914" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A914" s="7" t="s">
         <v>52</v>
       </c>
@@ -24967,7 +24982,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="915" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A915" s="7" t="s">
         <v>56</v>
       </c>
@@ -24987,7 +25002,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="916" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A916" s="7" t="s">
         <v>52</v>
       </c>
@@ -25007,7 +25022,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="917" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A917" s="7" t="s">
         <v>52</v>
       </c>
@@ -25033,7 +25048,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="918" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A918" s="7" t="s">
         <v>44</v>
       </c>
@@ -25062,7 +25077,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="919" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A919" s="7" t="s">
         <v>56</v>
       </c>
@@ -25082,7 +25097,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="920" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A920" s="7" t="s">
         <v>56</v>
       </c>
@@ -25102,7 +25117,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="921" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A921" s="7" t="s">
         <v>56</v>
       </c>
@@ -25122,7 +25137,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="922" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A922" s="7" t="s">
         <v>56</v>
       </c>
@@ -25142,7 +25157,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="923" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A923" s="7" t="s">
         <v>52</v>
       </c>
@@ -25174,7 +25189,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="924" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A924" s="7" t="s">
         <v>56</v>
       </c>
@@ -25191,7 +25206,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="925" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A925" s="7" t="s">
         <v>56</v>
       </c>
@@ -25213,7 +25228,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="926" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A926" s="7" t="s">
         <v>56</v>
       </c>
@@ -25235,7 +25250,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="927" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A927" s="7" t="s">
         <v>56</v>
       </c>
@@ -25257,7 +25272,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="928" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A928" s="7" t="s">
         <v>56</v>
       </c>
@@ -25279,7 +25294,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="929" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A929" s="7" t="s">
         <v>52</v>
       </c>
@@ -25311,7 +25326,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="930" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A930" s="7" t="s">
         <v>52</v>
       </c>
@@ -25343,7 +25358,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="931" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A931" s="7" t="s">
         <v>52</v>
       </c>
@@ -25363,7 +25378,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="932" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A932" s="7" t="s">
         <v>52</v>
       </c>
@@ -25383,7 +25398,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="933" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A933" s="7" t="s">
         <v>52</v>
       </c>
@@ -25415,7 +25430,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="934" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A934" s="7" t="s">
         <v>56</v>
       </c>
@@ -25435,7 +25450,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="935" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A935" s="7" t="s">
         <v>56</v>
       </c>
@@ -25452,7 +25467,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="936" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A936" s="7" t="s">
         <v>52</v>
       </c>
@@ -25487,7 +25502,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="937" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A937" s="7" t="s">
         <v>52</v>
       </c>
@@ -25513,7 +25528,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="938" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A938" s="7" t="s">
         <v>52</v>
       </c>
@@ -25551,7 +25566,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="939" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A939" s="7" t="s">
         <v>56</v>
       </c>
@@ -25574,7 +25589,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="940" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A940" s="7" t="s">
         <v>52</v>
       </c>
@@ -25594,7 +25609,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="941" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A941" s="7" t="s">
         <v>52</v>
       </c>
@@ -25626,7 +25641,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="942" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A942" s="7" t="s">
         <v>52</v>
       </c>
@@ -25661,7 +25676,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="943" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A943" s="7" t="s">
         <v>52</v>
       </c>
@@ -25684,7 +25699,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="944" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A944" s="7" t="s">
         <v>52</v>
       </c>
@@ -25719,7 +25734,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A945" s="7" t="s">
         <v>52</v>
       </c>
@@ -25748,7 +25763,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A946" s="7" t="s">
         <v>44</v>
       </c>
@@ -25768,7 +25783,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A947" s="7" t="s">
         <v>56</v>
       </c>
@@ -25785,7 +25800,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A948" s="7" t="s">
         <v>56</v>
       </c>
@@ -25805,7 +25820,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A949" s="7" t="s">
         <v>56</v>
       </c>
@@ -25825,7 +25840,7 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A950" s="7" t="s">
         <v>52</v>
       </c>
@@ -25857,7 +25872,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A951" s="7" t="s">
         <v>52</v>
       </c>
@@ -25889,7 +25904,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A952" s="7" t="s">
         <v>56</v>
       </c>
@@ -25909,7 +25924,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A953" s="7" t="s">
         <v>56</v>
       </c>
@@ -25929,7 +25944,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A954" s="7" t="s">
         <v>52</v>
       </c>
@@ -25961,7 +25976,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A955" s="7" t="s">
         <v>56</v>
       </c>
@@ -25981,7 +25996,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A956" s="7" t="s">
         <v>56</v>
       </c>
@@ -26004,7 +26019,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A957" s="7" t="s">
         <v>56</v>
       </c>
@@ -26024,7 +26039,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A958" s="7" t="s">
         <v>56</v>
       </c>
@@ -26044,7 +26059,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A959" s="7" t="s">
         <v>52</v>
       </c>
@@ -26070,7 +26085,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A960" s="7" t="s">
         <v>52</v>
       </c>
@@ -26105,7 +26120,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="961" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A961" s="7" t="s">
         <v>52</v>
       </c>
@@ -26134,7 +26149,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="962" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A962" s="7" t="s">
         <v>52</v>
       </c>
@@ -26169,7 +26184,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="963" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A963" s="7" t="s">
         <v>56</v>
       </c>
@@ -26189,7 +26204,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="964" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A964" s="7" t="s">
         <v>56</v>
       </c>
@@ -26212,7 +26227,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="965" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A965" s="7" t="s">
         <v>56</v>
       </c>
@@ -26238,7 +26253,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="966" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A966" s="7" t="s">
         <v>52</v>
       </c>
@@ -26270,7 +26285,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="967" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A967" s="7" t="s">
         <v>44</v>
       </c>
@@ -26290,7 +26305,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="968" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A968" s="7" t="s">
         <v>52</v>
       </c>
@@ -26325,7 +26340,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="969" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A969" s="7" t="s">
         <v>52</v>
       </c>
@@ -26357,7 +26372,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="970" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A970" s="7" t="s">
         <v>52</v>
       </c>
@@ -26389,7 +26404,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="971" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A971" s="7" t="s">
         <v>71</v>
       </c>
@@ -26415,7 +26430,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="972" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A972" s="7" t="s">
         <v>52</v>
       </c>
@@ -26444,7 +26459,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="973" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A973" s="7" t="s">
         <v>52</v>
       </c>
@@ -26476,7 +26491,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="974" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A974" s="7" t="s">
         <v>52</v>
       </c>
@@ -26511,7 +26526,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="975" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A975" s="7" t="s">
         <v>52</v>
       </c>
@@ -26540,7 +26555,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="976" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A976" s="7" t="s">
         <v>369</v>
       </c>
@@ -26560,7 +26575,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="977" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A977" s="7" t="s">
         <v>52</v>
       </c>
@@ -26574,7 +26589,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="978" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A978" s="7" t="s">
         <v>52</v>
       </c>
@@ -26588,7 +26603,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="979" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A979" s="7" t="s">
         <v>52</v>
       </c>
@@ -26623,7 +26638,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="980" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A980" s="7" t="s">
         <v>369</v>
       </c>
@@ -26646,7 +26661,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="981" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A981" s="7" t="s">
         <v>52</v>
       </c>
@@ -26678,7 +26693,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="982" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A982" s="7" t="s">
         <v>71</v>
       </c>
@@ -26707,7 +26722,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="983" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A983" s="7" t="s">
         <v>369</v>
       </c>
@@ -26727,7 +26742,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="984" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A984" s="7" t="s">
         <v>71</v>
       </c>
@@ -26753,7 +26768,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="985" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A985" s="7" t="s">
         <v>52</v>
       </c>
@@ -26785,7 +26800,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="986" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A986" s="7" t="s">
         <v>369</v>
       </c>
@@ -26817,7 +26832,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="987" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A987" s="7" t="s">
         <v>52</v>
       </c>
@@ -26849,7 +26864,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="988" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A988" s="7" t="s">
         <v>369</v>
       </c>
@@ -26872,7 +26887,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="989" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A989" s="7" t="s">
         <v>369</v>
       </c>
@@ -26895,7 +26910,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="990" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A990" s="7" t="s">
         <v>369</v>
       </c>
@@ -26918,7 +26933,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="991" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A991" s="7" t="s">
         <v>52</v>
       </c>
@@ -26950,7 +26965,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="992" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A992" s="7" t="s">
         <v>71</v>
       </c>
@@ -26976,7 +26991,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="993" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A993" s="7" t="s">
         <v>71</v>
       </c>
@@ -26995,8 +27010,14 @@
       <c r="H993" s="7" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="994" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="L993" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="M993" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="994" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A994" s="7" t="s">
         <v>71</v>
       </c>
@@ -27022,7 +27043,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="995" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A995" s="7" t="s">
         <v>71</v>
       </c>
@@ -27041,6 +27062,9 @@
       <c r="H995" s="7" t="s">
         <v>1072</v>
       </c>
+      <c r="I995" s="7">
+        <v>1741</v>
+      </c>
       <c r="L995" s="7" t="s">
         <v>674</v>
       </c>
@@ -27051,7 +27075,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="996" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A996" s="7" t="s">
         <v>369</v>
       </c>
@@ -27080,7 +27104,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="997" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A997" s="7" t="s">
         <v>71</v>
       </c>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50099319-53F3-4A43-9261-CE37F9962041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134FEFB9-5300-4B5D-AEC7-9C44E20F25AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -3790,8 +3790,8 @@
   <dimension ref="A1:V997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E155" sqref="E155"/>
+      <pane ySplit="1" topLeftCell="A789" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1003" sqref="E1003"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134FEFB9-5300-4B5D-AEC7-9C44E20F25AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6F68D3-0AF6-4B06-8E9C-0E60B7826801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5594" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5608" uniqueCount="1082">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3260,6 +3260,15 @@
   </si>
   <si>
     <t>02:22:47.0</t>
+  </si>
+  <si>
+    <t>Falchern</t>
+  </si>
+  <si>
+    <t>01:53:44.2</t>
+  </si>
+  <si>
+    <t>02:20:01.3</t>
   </si>
 </sst>
 </file>
@@ -3787,41 +3796,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:V997"/>
+  <dimension ref="A1:V999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A789" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1003" sqref="E1003"/>
+      <pane ySplit="1" topLeftCell="A969" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H999" sqref="H999"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="7" customWidth="1"/>
-    <col min="22" max="22" width="138.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.81640625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="138.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="204" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
@@ -3889,7 +3898,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -3917,7 +3926,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3937,7 +3946,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3951,7 +3960,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
@@ -3968,7 +3977,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -3985,7 +3994,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
@@ -4005,7 +4014,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>71</v>
       </c>
@@ -4025,7 +4034,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -4053,7 +4062,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -4073,7 +4082,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
@@ -4096,7 +4105,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
@@ -4113,7 +4122,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -4145,7 +4154,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -4165,7 +4174,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -4188,7 +4197,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -4210,7 +4219,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -4236,7 +4245,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -4258,7 +4267,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -4282,7 +4291,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -4304,7 +4313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4326,7 +4335,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -4348,7 +4357,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -4374,7 +4383,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -4396,7 +4405,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
@@ -4419,7 +4428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -4442,7 +4451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>71</v>
       </c>
@@ -4462,7 +4471,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>71</v>
       </c>
@@ -4493,7 +4502,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -4510,7 +4519,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
@@ -4539,7 +4548,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>71</v>
       </c>
@@ -4559,7 +4568,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>71</v>
       </c>
@@ -4579,7 +4588,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
@@ -4611,7 +4620,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -4641,7 +4650,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -4664,7 +4673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -4692,7 +4701,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
@@ -4720,7 +4729,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
@@ -4749,7 +4758,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -4780,7 +4789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -4800,7 +4809,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4828,7 +4837,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -4856,7 +4865,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4886,7 +4895,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -4908,7 +4917,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4934,7 +4943,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -4956,7 +4965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -4986,7 +4995,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -5019,7 +5028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -5047,7 +5056,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -5080,7 +5089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>71</v>
       </c>
@@ -5106,7 +5115,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
@@ -5126,7 +5135,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>71</v>
       </c>
@@ -5158,7 +5167,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>71</v>
       </c>
@@ -5192,7 +5201,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
@@ -5220,7 +5229,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
@@ -5248,7 +5257,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -5281,7 +5290,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>52</v>
       </c>
@@ -5309,7 +5318,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -5342,7 +5351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -5370,7 +5379,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5403,7 +5412,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>71</v>
       </c>
@@ -5437,7 +5446,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>71</v>
       </c>
@@ -5463,7 +5472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5496,7 +5505,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
@@ -5516,7 +5525,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>52</v>
       </c>
@@ -5544,7 +5553,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>52</v>
       </c>
@@ -5572,7 +5581,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>52</v>
       </c>
@@ -5600,7 +5609,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>52</v>
       </c>
@@ -5628,7 +5637,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
@@ -5654,7 +5663,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
@@ -5680,7 +5689,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
@@ -5706,7 +5715,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>52</v>
       </c>
@@ -5734,7 +5743,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>52</v>
       </c>
@@ -5762,7 +5771,7 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>52</v>
       </c>
@@ -5782,7 +5791,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
@@ -5802,7 +5811,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -5822,7 +5831,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
@@ -5842,7 +5851,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
@@ -5870,7 +5879,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>52</v>
       </c>
@@ -5890,7 +5899,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
@@ -5912,7 +5921,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
@@ -5936,7 +5945,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>52</v>
       </c>
@@ -5964,7 +5973,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>44</v>
       </c>
@@ -5984,7 +5993,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>52</v>
       </c>
@@ -6012,7 +6021,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>52</v>
       </c>
@@ -6032,7 +6041,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
@@ -6052,7 +6061,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>52</v>
       </c>
@@ -6072,7 +6081,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
@@ -6092,7 +6101,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>52</v>
       </c>
@@ -6112,7 +6121,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
@@ -6132,7 +6141,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>71</v>
       </c>
@@ -6158,7 +6167,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>52</v>
       </c>
@@ -6186,7 +6195,7 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
@@ -6217,7 +6226,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>52</v>
       </c>
@@ -6237,7 +6246,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>52</v>
       </c>
@@ -6257,7 +6266,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>52</v>
       </c>
@@ -6277,7 +6286,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>71</v>
       </c>
@@ -6303,7 +6312,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>52</v>
       </c>
@@ -6323,7 +6332,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>52</v>
       </c>
@@ -6343,7 +6352,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>52</v>
       </c>
@@ -6363,7 +6372,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>52</v>
       </c>
@@ -6383,7 +6392,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>52</v>
       </c>
@@ -6403,7 +6412,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>52</v>
       </c>
@@ -6431,7 +6440,7 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -6462,7 +6471,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>52</v>
       </c>
@@ -6482,7 +6491,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>52</v>
       </c>
@@ -6510,7 +6519,7 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>52</v>
       </c>
@@ -6541,7 +6550,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>52</v>
       </c>
@@ -6561,7 +6570,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -6591,7 +6600,7 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>149</v>
@@ -6617,7 +6626,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>52</v>
       </c>
@@ -6648,7 +6657,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -6673,7 +6682,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>52</v>
       </c>
@@ -6693,7 +6702,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>52</v>
       </c>
@@ -6713,7 +6722,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>52</v>
       </c>
@@ -6733,7 +6742,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>71</v>
       </c>
@@ -6759,7 +6768,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -6781,7 +6790,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -6809,7 +6818,7 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -6839,7 +6848,7 @@
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -6863,7 +6872,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -6893,7 +6902,7 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>149</v>
@@ -6919,7 +6928,7 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>52</v>
       </c>
@@ -6947,7 +6956,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -6977,7 +6986,7 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -7007,7 +7016,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -7033,7 +7042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -7059,7 +7068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>52</v>
       </c>
@@ -7079,7 +7088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -7109,7 +7118,7 @@
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
@@ -7135,7 +7144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>52</v>
       </c>
@@ -7155,7 +7164,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>56</v>
       </c>
@@ -7183,7 +7192,7 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>56</v>
       </c>
@@ -7209,7 +7218,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>56</v>
       </c>
@@ -7231,7 +7240,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>56</v>
       </c>
@@ -7253,7 +7262,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>56</v>
       </c>
@@ -7277,7 +7286,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>56</v>
       </c>
@@ -7303,7 +7312,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>56</v>
       </c>
@@ -7327,7 +7336,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>52</v>
       </c>
@@ -7350,7 +7359,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>52</v>
       </c>
@@ -7373,7 +7382,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>56</v>
       </c>
@@ -7403,7 +7412,7 @@
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>56</v>
       </c>
@@ -7425,7 +7434,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>56</v>
       </c>
@@ -7449,7 +7458,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>56</v>
       </c>
@@ -7475,7 +7484,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>56</v>
       </c>
@@ -7497,7 +7506,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>56</v>
       </c>
@@ -7521,7 +7530,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>52</v>
       </c>
@@ -7544,7 +7553,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>52</v>
       </c>
@@ -7567,7 +7576,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>52</v>
       </c>
@@ -7590,7 +7599,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>71</v>
       </c>
@@ -7616,7 +7625,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>71</v>
       </c>
@@ -7647,7 +7656,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>71</v>
       </c>
@@ -7675,7 +7684,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>71</v>
       </c>
@@ -7704,7 +7713,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>71</v>
       </c>
@@ -7735,7 +7744,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>71</v>
       </c>
@@ -7766,7 +7775,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>52</v>
       </c>
@@ -7786,7 +7795,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>71</v>
       </c>
@@ -7817,7 +7826,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>52</v>
       </c>
@@ -7837,7 +7846,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>52</v>
       </c>
@@ -7860,7 +7869,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>71</v>
       </c>
@@ -7891,7 +7900,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>71</v>
       </c>
@@ -7919,7 +7928,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>71</v>
       </c>
@@ -7950,7 +7959,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>52</v>
       </c>
@@ -7973,7 +7982,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>52</v>
       </c>
@@ -7993,7 +8002,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>52</v>
       </c>
@@ -8016,7 +8025,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>52</v>
       </c>
@@ -8039,7 +8048,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>71</v>
       </c>
@@ -8070,7 +8079,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>71</v>
       </c>
@@ -8104,7 +8113,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>71</v>
       </c>
@@ -8138,7 +8147,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>56</v>
       </c>
@@ -8160,7 +8169,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>56</v>
       </c>
@@ -8184,7 +8193,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>149</v>
@@ -8202,7 +8211,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>52</v>
       </c>
@@ -8222,7 +8231,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>52</v>
       </c>
@@ -8242,7 +8251,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>52</v>
       </c>
@@ -8265,7 +8274,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>52</v>
       </c>
@@ -8287,7 +8296,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>56</v>
       </c>
@@ -8307,7 +8316,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>225</v>
       </c>
@@ -8329,7 +8338,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>56</v>
       </c>
@@ -8359,7 +8368,7 @@
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>56</v>
       </c>
@@ -8385,7 +8394,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>52</v>
       </c>
@@ -8408,7 +8417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>56</v>
       </c>
@@ -8436,7 +8445,7 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>56</v>
       </c>
@@ -8464,7 +8473,7 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>56</v>
       </c>
@@ -8492,7 +8501,7 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>56</v>
       </c>
@@ -8522,7 +8531,7 @@
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>56</v>
       </c>
@@ -8548,7 +8557,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>56</v>
       </c>
@@ -8572,7 +8581,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>56</v>
       </c>
@@ -8598,7 +8607,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>52</v>
       </c>
@@ -8620,7 +8629,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>56</v>
       </c>
@@ -8642,7 +8651,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>225</v>
       </c>
@@ -8664,7 +8673,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>56</v>
       </c>
@@ -8686,7 +8695,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>52</v>
       </c>
@@ -8708,7 +8717,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>225</v>
       </c>
@@ -8733,7 +8742,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>52</v>
       </c>
@@ -8756,7 +8765,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>52</v>
       </c>
@@ -8776,7 +8785,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>71</v>
       </c>
@@ -8810,7 +8819,7 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>71</v>
       </c>
@@ -8847,7 +8856,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>71</v>
       </c>
@@ -8884,7 +8893,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>71</v>
       </c>
@@ -8912,7 +8921,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>52</v>
       </c>
@@ -8932,7 +8941,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>52</v>
       </c>
@@ -8955,7 +8964,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>56</v>
       </c>
@@ -8986,7 +8995,7 @@
       <c r="P204" s="6"/>
       <c r="V204" s="11"/>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>56</v>
       </c>
@@ -9010,7 +9019,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>56</v>
       </c>
@@ -9038,7 +9047,7 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>56</v>
       </c>
@@ -9066,7 +9075,7 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>56</v>
       </c>
@@ -9088,7 +9097,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>56</v>
       </c>
@@ -9112,7 +9121,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>56</v>
       </c>
@@ -9132,7 +9141,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>56</v>
       </c>
@@ -9152,7 +9161,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>52</v>
       </c>
@@ -9174,7 +9183,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>56</v>
       </c>
@@ -9199,7 +9208,7 @@
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -9224,7 +9233,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>56</v>
       </c>
@@ -9244,7 +9253,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>56</v>
       </c>
@@ -9264,7 +9273,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>225</v>
       </c>
@@ -9289,7 +9298,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>56</v>
       </c>
@@ -9311,7 +9320,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>56</v>
       </c>
@@ -9333,7 +9342,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>56</v>
       </c>
@@ -9355,7 +9364,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>56</v>
       </c>
@@ -9378,7 +9387,7 @@
       </c>
       <c r="V221" s="11"/>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>56</v>
       </c>
@@ -9410,7 +9419,7 @@
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>56</v>
       </c>
@@ -9432,7 +9441,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>56</v>
       </c>
@@ -9454,7 +9463,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>56</v>
       </c>
@@ -9478,7 +9487,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>56</v>
       </c>
@@ -9500,7 +9509,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>56</v>
       </c>
@@ -9524,7 +9533,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>56</v>
       </c>
@@ -9546,7 +9555,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>56</v>
       </c>
@@ -9568,7 +9577,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>56</v>
       </c>
@@ -9590,7 +9599,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>56</v>
       </c>
@@ -9612,7 +9621,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>56</v>
       </c>
@@ -9634,7 +9643,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>56</v>
       </c>
@@ -9656,7 +9665,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>56</v>
       </c>
@@ -9678,7 +9687,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>225</v>
       </c>
@@ -9700,7 +9709,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>56</v>
       </c>
@@ -9726,7 +9735,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>56</v>
       </c>
@@ -9748,7 +9757,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>56</v>
       </c>
@@ -9770,7 +9779,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>56</v>
       </c>
@@ -9792,7 +9801,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>56</v>
       </c>
@@ -9816,7 +9825,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>56</v>
       </c>
@@ -9842,7 +9851,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>56</v>
       </c>
@@ -9862,7 +9871,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>56</v>
       </c>
@@ -9882,7 +9891,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>56</v>
       </c>
@@ -9902,7 +9911,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>56</v>
       </c>
@@ -9926,7 +9935,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>56</v>
       </c>
@@ -9952,7 +9961,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>56</v>
       </c>
@@ -9978,7 +9987,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>52</v>
       </c>
@@ -10000,7 +10009,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>56</v>
       </c>
@@ -10022,7 +10031,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>225</v>
       </c>
@@ -10047,7 +10056,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>56</v>
       </c>
@@ -10069,7 +10078,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>56</v>
       </c>
@@ -10091,7 +10100,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>56</v>
       </c>
@@ -10113,7 +10122,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>56</v>
       </c>
@@ -10135,7 +10144,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>56</v>
       </c>
@@ -10161,7 +10170,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>52</v>
       </c>
@@ -10181,7 +10190,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>56</v>
       </c>
@@ -10203,7 +10212,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>56</v>
       </c>
@@ -10227,7 +10236,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>56</v>
       </c>
@@ -10247,7 +10256,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>56</v>
       </c>
@@ -10267,7 +10276,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>56</v>
       </c>
@@ -10287,7 +10296,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>56</v>
       </c>
@@ -10309,7 +10318,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>56</v>
       </c>
@@ -10333,7 +10342,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>56</v>
       </c>
@@ -10355,7 +10364,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>52</v>
       </c>
@@ -10377,7 +10386,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>225</v>
       </c>
@@ -10399,7 +10408,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>56</v>
       </c>
@@ -10419,7 +10428,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>56</v>
       </c>
@@ -10441,7 +10450,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>56</v>
       </c>
@@ -10465,7 +10474,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>56</v>
       </c>
@@ -10489,7 +10498,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>56</v>
       </c>
@@ -10515,7 +10524,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>56</v>
       </c>
@@ -10537,7 +10546,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>56</v>
       </c>
@@ -10561,7 +10570,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>56</v>
       </c>
@@ -10580,7 +10589,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>56</v>
       </c>
@@ -10603,7 +10612,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>56</v>
       </c>
@@ -10627,7 +10636,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>56</v>
       </c>
@@ -10653,7 +10662,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>56</v>
       </c>
@@ -10672,7 +10681,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>52</v>
       </c>
@@ -10696,7 +10705,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>56</v>
       </c>
@@ -10719,7 +10728,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>56</v>
       </c>
@@ -10742,7 +10751,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>56</v>
       </c>
@@ -10764,7 +10773,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>56</v>
       </c>
@@ -10786,7 +10795,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>56</v>
       </c>
@@ -10805,7 +10814,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>56</v>
       </c>
@@ -10828,7 +10837,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>56</v>
       </c>
@@ -10854,7 +10863,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>56</v>
       </c>
@@ -10880,7 +10889,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>56</v>
       </c>
@@ -10903,7 +10912,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>52</v>
       </c>
@@ -10926,7 +10935,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>52</v>
       </c>
@@ -10949,7 +10958,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>56</v>
       </c>
@@ -10973,7 +10982,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>56</v>
       </c>
@@ -10995,7 +11004,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>56</v>
       </c>
@@ -11019,7 +11028,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>52</v>
       </c>
@@ -11045,7 +11054,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>52</v>
       </c>
@@ -11068,7 +11077,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>52</v>
       </c>
@@ -11091,7 +11100,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>52</v>
       </c>
@@ -11114,7 +11123,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>56</v>
       </c>
@@ -11136,7 +11145,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>56</v>
       </c>
@@ -11160,7 +11169,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>56</v>
       </c>
@@ -11180,7 +11189,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>56</v>
       </c>
@@ -11200,7 +11209,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>56</v>
       </c>
@@ -11222,7 +11231,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>56</v>
       </c>
@@ -11246,7 +11255,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>52</v>
       </c>
@@ -11266,7 +11275,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>56</v>
       </c>
@@ -11300,7 +11309,7 @@
       <c r="O305" s="4"/>
       <c r="P305" s="4"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>56</v>
       </c>
@@ -11322,7 +11331,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>56</v>
       </c>
@@ -11346,7 +11355,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>56</v>
       </c>
@@ -11368,7 +11377,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>56</v>
       </c>
@@ -11392,7 +11401,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>56</v>
       </c>
@@ -11412,7 +11421,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>225</v>
       </c>
@@ -11434,7 +11443,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>71</v>
       </c>
@@ -11460,7 +11469,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>71</v>
       </c>
@@ -11489,7 +11498,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>71</v>
       </c>
@@ -11521,7 +11530,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>369</v>
       </c>
@@ -11547,7 +11556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>71</v>
       </c>
@@ -11581,7 +11590,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>369</v>
       </c>
@@ -11607,7 +11616,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>369</v>
       </c>
@@ -11627,7 +11636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>369</v>
       </c>
@@ -11650,7 +11659,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>71</v>
       </c>
@@ -11676,7 +11685,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>369</v>
       </c>
@@ -11693,7 +11702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>71</v>
       </c>
@@ -11722,7 +11731,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>369</v>
       </c>
@@ -11745,7 +11754,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
         <v>369</v>
       </c>
@@ -11765,7 +11774,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>369</v>
       </c>
@@ -11785,7 +11794,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>369</v>
       </c>
@@ -11805,7 +11814,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>369</v>
       </c>
@@ -11828,7 +11837,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>52</v>
       </c>
@@ -11851,7 +11860,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>369</v>
       </c>
@@ -11874,7 +11883,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
         <v>369</v>
       </c>
@@ -11897,7 +11906,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>369</v>
       </c>
@@ -11914,7 +11923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>369</v>
       </c>
@@ -11931,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>369</v>
       </c>
@@ -11951,7 +11960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>369</v>
       </c>
@@ -11971,7 +11980,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>369</v>
       </c>
@@ -11988,7 +11997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>71</v>
       </c>
@@ -12020,7 +12029,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>369</v>
       </c>
@@ -12040,7 +12049,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>71</v>
       </c>
@@ -12069,7 +12078,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>369</v>
       </c>
@@ -12092,7 +12101,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>71</v>
       </c>
@@ -12121,7 +12130,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>369</v>
       </c>
@@ -12147,7 +12156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
         <v>369</v>
       </c>
@@ -12164,7 +12173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>369</v>
       </c>
@@ -12187,7 +12196,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
         <v>369</v>
       </c>
@@ -12204,7 +12213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>71</v>
       </c>
@@ -12232,7 +12241,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
         <v>369</v>
       </c>
@@ -12255,7 +12264,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>71</v>
       </c>
@@ -12284,7 +12293,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>369</v>
       </c>
@@ -12301,7 +12310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>369</v>
       </c>
@@ -12324,7 +12333,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
         <v>71</v>
       </c>
@@ -12356,7 +12365,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>71</v>
       </c>
@@ -12385,7 +12394,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
         <v>369</v>
       </c>
@@ -12411,7 +12420,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>71</v>
       </c>
@@ -12443,7 +12452,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>369</v>
       </c>
@@ -12463,7 +12472,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>369</v>
       </c>
@@ -12492,7 +12501,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>369</v>
       </c>
@@ -12521,7 +12530,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>71</v>
       </c>
@@ -12547,7 +12556,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>71</v>
       </c>
@@ -12578,7 +12587,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
         <v>71</v>
       </c>
@@ -12607,7 +12616,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>71</v>
       </c>
@@ -12638,7 +12647,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>369</v>
       </c>
@@ -12661,7 +12670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
         <v>71</v>
       </c>
@@ -12690,7 +12699,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>56</v>
       </c>
@@ -12710,7 +12719,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>369</v>
       </c>
@@ -12736,7 +12745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>71</v>
       </c>
@@ -12762,7 +12771,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>71</v>
       </c>
@@ -12793,7 +12802,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>52</v>
       </c>
@@ -12813,7 +12822,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>71</v>
       </c>
@@ -12839,7 +12848,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>71</v>
       </c>
@@ -12868,7 +12877,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>369</v>
       </c>
@@ -12888,7 +12897,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
         <v>71</v>
       </c>
@@ -12920,7 +12929,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>369</v>
       </c>
@@ -12937,7 +12946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
         <v>71</v>
       </c>
@@ -12963,7 +12972,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
         <v>369</v>
       </c>
@@ -12986,7 +12995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>71</v>
       </c>
@@ -13014,7 +13023,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>71</v>
       </c>
@@ -13043,7 +13052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>71</v>
       </c>
@@ -13069,7 +13078,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
         <v>71</v>
       </c>
@@ -13098,7 +13107,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>71</v>
       </c>
@@ -13124,7 +13133,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
         <v>71</v>
       </c>
@@ -13158,7 +13167,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
         <v>71</v>
       </c>
@@ -13187,7 +13196,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
         <v>71</v>
       </c>
@@ -13218,7 +13227,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
         <v>71</v>
       </c>
@@ -13246,7 +13255,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
         <v>71</v>
       </c>
@@ -13272,7 +13281,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>56</v>
       </c>
@@ -13292,7 +13301,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>56</v>
       </c>
@@ -13314,7 +13323,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>56</v>
       </c>
@@ -13338,7 +13347,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
         <v>71</v>
       </c>
@@ -13367,7 +13376,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
         <v>71</v>
       </c>
@@ -13399,7 +13408,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>56</v>
       </c>
@@ -13422,7 +13431,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>56</v>
       </c>
@@ -13444,7 +13453,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>56</v>
       </c>
@@ -13468,7 +13477,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
         <v>71</v>
       </c>
@@ -13506,7 +13515,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
         <v>56</v>
       </c>
@@ -13526,7 +13535,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>71</v>
       </c>
@@ -13555,7 +13564,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>56</v>
       </c>
@@ -13578,7 +13587,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>56</v>
       </c>
@@ -13601,7 +13610,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>56</v>
       </c>
@@ -13621,7 +13630,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>56</v>
       </c>
@@ -13644,7 +13653,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
         <v>71</v>
       </c>
@@ -13673,7 +13682,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
         <v>71</v>
       </c>
@@ -13702,7 +13711,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
         <v>56</v>
       </c>
@@ -13719,7 +13728,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
         <v>71</v>
       </c>
@@ -13748,7 +13757,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>56</v>
       </c>
@@ -13771,7 +13780,7 @@
         <v>44332</v>
       </c>
     </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>56</v>
       </c>
@@ -13791,7 +13800,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
         <v>56</v>
       </c>
@@ -13808,7 +13817,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
         <v>56</v>
       </c>
@@ -13828,7 +13837,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="408" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
         <v>56</v>
       </c>
@@ -13848,7 +13857,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>56</v>
       </c>
@@ -13868,7 +13877,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="410" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>52</v>
       </c>
@@ -13888,7 +13897,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>56</v>
       </c>
@@ -13905,7 +13914,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="412" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>56</v>
       </c>
@@ -13925,7 +13934,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
         <v>71</v>
       </c>
@@ -13954,7 +13963,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="414" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>56</v>
       </c>
@@ -13974,7 +13983,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
         <v>56</v>
       </c>
@@ -13994,7 +14003,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="416" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>71</v>
       </c>
@@ -14023,7 +14032,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>71</v>
       </c>
@@ -14052,7 +14061,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
         <v>71</v>
       </c>
@@ -14087,7 +14096,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
         <v>56</v>
       </c>
@@ -14107,7 +14116,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
         <v>56</v>
       </c>
@@ -14127,7 +14136,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
         <v>56</v>
       </c>
@@ -14147,7 +14156,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
         <v>56</v>
       </c>
@@ -14167,7 +14176,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
         <v>56</v>
       </c>
@@ -14190,7 +14199,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
         <v>56</v>
       </c>
@@ -14221,7 +14230,7 @@
       <c r="L424" s="12"/>
       <c r="M424" s="12"/>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
         <v>56</v>
       </c>
@@ -14238,7 +14247,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
         <v>56</v>
       </c>
@@ -14258,7 +14267,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
         <v>56</v>
       </c>
@@ -14278,7 +14287,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>56</v>
       </c>
@@ -14300,7 +14309,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>56</v>
       </c>
@@ -14323,7 +14332,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>56</v>
       </c>
@@ -14349,7 +14358,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
         <v>56</v>
       </c>
@@ -14366,7 +14375,7 @@
         <v>44360</v>
       </c>
     </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
         <v>56</v>
       </c>
@@ -14389,7 +14398,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
         <v>56</v>
       </c>
@@ -14411,7 +14420,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
         <v>56</v>
       </c>
@@ -14433,7 +14442,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
         <v>56</v>
       </c>
@@ -14455,7 +14464,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
         <v>56</v>
       </c>
@@ -14479,7 +14488,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
         <v>56</v>
       </c>
@@ -14505,7 +14514,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>56</v>
       </c>
@@ -14525,7 +14534,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>56</v>
       </c>
@@ -14542,7 +14551,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>56</v>
       </c>
@@ -14564,7 +14573,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="441" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>56</v>
       </c>
@@ -14588,7 +14597,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
         <v>56</v>
       </c>
@@ -14608,7 +14617,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="443" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
         <v>56</v>
       </c>
@@ -14625,7 +14634,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
         <v>56</v>
       </c>
@@ -14645,7 +14654,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="445" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>56</v>
       </c>
@@ -14669,7 +14678,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>56</v>
       </c>
@@ -14689,7 +14698,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>56</v>
       </c>
@@ -14711,7 +14720,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>56</v>
       </c>
@@ -14733,7 +14742,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="449" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A449" s="7" t="s">
         <v>56</v>
       </c>
@@ -14753,7 +14762,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A450" s="7" t="s">
         <v>56</v>
       </c>
@@ -14779,7 +14788,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>56</v>
       </c>
@@ -14801,7 +14810,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>56</v>
       </c>
@@ -14825,7 +14834,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="453" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A453" s="7" t="s">
         <v>56</v>
       </c>
@@ -14849,7 +14858,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="454" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
         <v>56</v>
       </c>
@@ -14875,7 +14884,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="455" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A455" s="7" t="s">
         <v>56</v>
       </c>
@@ -14895,7 +14904,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="456" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A456" s="7" t="s">
         <v>56</v>
       </c>
@@ -14915,7 +14924,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="457" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A457" s="7" t="s">
         <v>56</v>
       </c>
@@ -14938,7 +14947,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="458" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>56</v>
       </c>
@@ -14960,7 +14969,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="459" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>56</v>
       </c>
@@ -14982,7 +14991,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="460" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>56</v>
       </c>
@@ -15005,7 +15014,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="461" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A461" s="7" t="s">
         <v>52</v>
       </c>
@@ -15025,7 +15034,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="462" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A462" s="7" t="s">
         <v>56</v>
       </c>
@@ -15042,7 +15051,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="463" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
         <v>52</v>
       </c>
@@ -15059,7 +15068,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="464" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
         <v>56</v>
       </c>
@@ -15088,7 +15097,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>56</v>
       </c>
@@ -15110,7 +15119,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>56</v>
       </c>
@@ -15134,7 +15143,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>56</v>
       </c>
@@ -15160,7 +15169,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="7" t="s">
         <v>56</v>
       </c>
@@ -15180,7 +15189,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="7" t="s">
         <v>52</v>
       </c>
@@ -15203,7 +15212,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="7" t="s">
         <v>52</v>
       </c>
@@ -15223,7 +15232,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>56</v>
       </c>
@@ -15242,7 +15251,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>56</v>
       </c>
@@ -15264,7 +15273,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>56</v>
       </c>
@@ -15288,7 +15297,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
         <v>52</v>
       </c>
@@ -15308,7 +15317,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
         <v>52</v>
       </c>
@@ -15328,7 +15337,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>56</v>
       </c>
@@ -15348,7 +15357,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
         <v>52</v>
       </c>
@@ -15365,7 +15374,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
         <v>56</v>
       </c>
@@ -15387,7 +15396,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>56</v>
       </c>
@@ -15409,7 +15418,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>56</v>
       </c>
@@ -15433,7 +15442,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>56</v>
       </c>
@@ -15455,7 +15464,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>56</v>
       </c>
@@ -15481,7 +15490,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A483" s="7" t="s">
         <v>52</v>
       </c>
@@ -15501,7 +15510,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A484" s="7" t="s">
         <v>52</v>
       </c>
@@ -15524,7 +15533,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>56</v>
       </c>
@@ -15546,7 +15555,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A486" s="7" t="s">
         <v>56</v>
       </c>
@@ -15563,7 +15572,7 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A487" s="7" t="s">
         <v>52</v>
       </c>
@@ -15586,7 +15595,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>56</v>
       </c>
@@ -15608,7 +15617,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>56</v>
       </c>
@@ -15630,7 +15639,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>56</v>
       </c>
@@ -15652,7 +15661,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>56</v>
       </c>
@@ -15676,7 +15685,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A492" s="7" t="s">
         <v>52</v>
       </c>
@@ -15701,7 +15710,7 @@
       <c r="L492" s="4"/>
       <c r="M492" s="4"/>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
         <v>44</v>
       </c>
@@ -15736,7 +15745,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A494" s="7" t="s">
         <v>52</v>
       </c>
@@ -15753,7 +15762,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>56</v>
       </c>
@@ -15775,7 +15784,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
         <v>56</v>
       </c>
@@ -15792,7 +15801,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497" s="7" t="s">
         <v>44</v>
       </c>
@@ -15824,7 +15833,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" s="7" t="s">
         <v>44</v>
       </c>
@@ -15850,7 +15859,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
         <v>56</v>
       </c>
@@ -15876,7 +15885,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" s="7" t="s">
         <v>44</v>
       </c>
@@ -15898,7 +15907,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>56</v>
       </c>
@@ -15917,7 +15926,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>56</v>
       </c>
@@ -15938,7 +15947,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" s="7" t="s">
         <v>56</v>
       </c>
@@ -15960,7 +15969,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A504" s="7" t="s">
         <v>56</v>
       </c>
@@ -15982,7 +15991,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A505" s="7" t="s">
         <v>56</v>
       </c>
@@ -16004,7 +16013,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A506" s="7" t="s">
         <v>56</v>
       </c>
@@ -16026,7 +16035,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A507" s="7" t="s">
         <v>44</v>
       </c>
@@ -16049,7 +16058,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>56</v>
       </c>
@@ -16071,7 +16080,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>56</v>
       </c>
@@ -16092,7 +16101,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A510" s="7" t="s">
         <v>56</v>
       </c>
@@ -16118,7 +16127,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A511" s="7" t="s">
         <v>56</v>
       </c>
@@ -16138,7 +16147,7 @@
         <v>44506</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>56</v>
       </c>
@@ -16159,7 +16168,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A513" s="7" t="s">
         <v>52</v>
       </c>
@@ -16179,7 +16188,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A514" s="7" t="s">
         <v>56</v>
       </c>
@@ -16205,7 +16214,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
         <v>56</v>
       </c>
@@ -16225,7 +16234,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A516" s="7" t="s">
         <v>52</v>
       </c>
@@ -16247,7 +16256,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>56</v>
       </c>
@@ -16271,7 +16280,7 @@
       <c r="L517" s="9"/>
       <c r="M517" s="9"/>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>225</v>
       </c>
@@ -16293,7 +16302,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>56</v>
       </c>
@@ -16310,7 +16319,7 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A520" s="7" t="s">
         <v>52</v>
       </c>
@@ -16330,7 +16339,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" s="7" t="s">
         <v>71</v>
       </c>
@@ -16359,7 +16368,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A522" s="7" t="s">
         <v>369</v>
       </c>
@@ -16379,7 +16388,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A523" s="7" t="s">
         <v>369</v>
       </c>
@@ -16405,7 +16414,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A524" s="7" t="s">
         <v>71</v>
       </c>
@@ -16431,7 +16440,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A525" s="7" t="s">
         <v>71</v>
       </c>
@@ -16457,7 +16466,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A526" s="7" t="s">
         <v>369</v>
       </c>
@@ -16480,7 +16489,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A527" s="7" t="s">
         <v>71</v>
       </c>
@@ -16506,7 +16515,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A528" s="7" t="s">
         <v>71</v>
       </c>
@@ -16541,7 +16550,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="529" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A529" s="7" t="s">
         <v>71</v>
       </c>
@@ -16570,7 +16579,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="530" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A530" s="7" t="s">
         <v>71</v>
       </c>
@@ -16596,7 +16605,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="531" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A531" s="7" t="s">
         <v>52</v>
       </c>
@@ -16616,7 +16625,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="532" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A532" s="7" t="s">
         <v>369</v>
       </c>
@@ -16639,7 +16648,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="533" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A533" s="7" t="s">
         <v>71</v>
       </c>
@@ -16668,7 +16677,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="534" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A534" s="7" t="s">
         <v>71</v>
       </c>
@@ -16697,7 +16706,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="535" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A535" s="7" t="s">
         <v>369</v>
       </c>
@@ -16720,7 +16729,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="536" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
         <v>71</v>
       </c>
@@ -16752,7 +16761,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="537" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A537" s="7" t="s">
         <v>52</v>
       </c>
@@ -16772,7 +16781,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="538" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A538" s="7" t="s">
         <v>52</v>
       </c>
@@ -16792,7 +16801,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="539" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A539" s="7" t="s">
         <v>369</v>
       </c>
@@ -16815,7 +16824,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="540" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A540" s="7" t="s">
         <v>71</v>
       </c>
@@ -16849,7 +16858,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="541" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A541" s="7" t="s">
         <v>71</v>
       </c>
@@ -16880,7 +16889,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="542" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A542" s="7" t="s">
         <v>71</v>
       </c>
@@ -16906,7 +16915,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="543" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A543" s="7" t="s">
         <v>71</v>
       </c>
@@ -16932,7 +16941,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="544" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A544" s="7" t="s">
         <v>369</v>
       </c>
@@ -16955,7 +16964,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="545" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A545" s="7" t="s">
         <v>71</v>
       </c>
@@ -16981,7 +16990,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="546" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
         <v>71</v>
       </c>
@@ -17013,7 +17022,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="547" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A547" s="7" t="s">
         <v>369</v>
       </c>
@@ -17042,7 +17051,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="548" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A548" s="7" t="s">
         <v>71</v>
       </c>
@@ -17071,7 +17080,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="549" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A549" s="7" t="s">
         <v>369</v>
       </c>
@@ -17088,7 +17097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A550" s="7" t="s">
         <v>71</v>
       </c>
@@ -17114,7 +17123,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="551" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A551" s="7" t="s">
         <v>71</v>
       </c>
@@ -17146,7 +17155,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="552" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A552" s="7" t="s">
         <v>369</v>
       </c>
@@ -17175,7 +17184,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="553" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A553" s="7" t="s">
         <v>71</v>
       </c>
@@ -17204,7 +17213,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="554" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
         <v>369</v>
       </c>
@@ -17227,7 +17236,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="555" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A555" s="7" t="s">
         <v>369</v>
       </c>
@@ -17247,7 +17256,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="556" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
         <v>71</v>
       </c>
@@ -17276,7 +17285,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="557" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A557" s="7" t="s">
         <v>71</v>
       </c>
@@ -17305,7 +17314,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="558" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A558" s="7" t="s">
         <v>369</v>
       </c>
@@ -17328,7 +17337,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="559" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A559" s="7" t="s">
         <v>71</v>
       </c>
@@ -17357,7 +17366,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="560" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A560" s="7" t="s">
         <v>71</v>
       </c>
@@ -17380,7 +17389,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="561" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A561" s="7" t="s">
         <v>369</v>
       </c>
@@ -17400,7 +17409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A562" s="7" t="s">
         <v>369</v>
       </c>
@@ -17420,7 +17429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A563" s="7" t="s">
         <v>369</v>
       </c>
@@ -17449,7 +17458,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="564" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A564" s="7" t="s">
         <v>71</v>
       </c>
@@ -17477,7 +17486,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="565" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A565" s="7" t="s">
         <v>71</v>
       </c>
@@ -17505,7 +17514,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="566" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A566" s="7" t="s">
         <v>71</v>
       </c>
@@ -17531,7 +17540,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="567" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A567" s="7" t="s">
         <v>71</v>
       </c>
@@ -17571,7 +17580,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="568" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A568" s="7" t="s">
         <v>71</v>
       </c>
@@ -17600,7 +17609,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="569" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A569" s="7" t="s">
         <v>71</v>
       </c>
@@ -17635,7 +17644,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="570" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A570" s="7" t="s">
         <v>369</v>
       </c>
@@ -17661,7 +17670,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="571" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A571" s="7" t="s">
         <v>71</v>
       </c>
@@ -17696,7 +17705,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="572" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A572" s="7" t="s">
         <v>369</v>
       </c>
@@ -17713,7 +17722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A573" s="7" t="s">
         <v>369</v>
       </c>
@@ -17739,7 +17748,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="574" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A574" s="7" t="s">
         <v>369</v>
       </c>
@@ -17756,7 +17765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A575" s="7" t="s">
         <v>71</v>
       </c>
@@ -17782,7 +17791,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="576" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A576" s="7" t="s">
         <v>56</v>
       </c>
@@ -17802,7 +17811,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="577" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A577" s="7" t="s">
         <v>56</v>
       </c>
@@ -17819,7 +17828,7 @@
         <v>44637</v>
       </c>
     </row>
-    <row r="578" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A578" s="7" t="s">
         <v>369</v>
       </c>
@@ -17842,7 +17851,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="579" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A579" s="7" t="s">
         <v>71</v>
       </c>
@@ -17870,7 +17879,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="580" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A580" s="7" t="s">
         <v>56</v>
       </c>
@@ -17893,7 +17902,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="581" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A581" s="7" t="s">
         <v>56</v>
       </c>
@@ -17913,7 +17922,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="582" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A582" s="7" t="s">
         <v>369</v>
       </c>
@@ -17930,7 +17939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A583" s="7" t="s">
         <v>56</v>
       </c>
@@ -17947,7 +17956,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="584" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A584" s="7" t="s">
         <v>71</v>
       </c>
@@ -17973,7 +17982,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="585" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A585" s="7" t="s">
         <v>56</v>
       </c>
@@ -17993,7 +18002,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="586" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A586" s="7" t="s">
         <v>71</v>
       </c>
@@ -18019,7 +18028,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="587" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A587" s="7" t="s">
         <v>71</v>
       </c>
@@ -18045,7 +18054,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="588" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A588" s="7" t="s">
         <v>71</v>
       </c>
@@ -18074,7 +18083,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="589" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A589" s="7" t="s">
         <v>56</v>
       </c>
@@ -18094,7 +18103,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A590" s="7" t="s">
         <v>52</v>
       </c>
@@ -18114,7 +18123,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="591" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A591" s="7" t="s">
         <v>71</v>
       </c>
@@ -18143,7 +18152,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="592" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
         <v>71</v>
       </c>
@@ -18172,7 +18181,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A593" s="7" t="s">
         <v>56</v>
       </c>
@@ -18189,7 +18198,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A594" s="7" t="s">
         <v>56</v>
       </c>
@@ -18206,7 +18215,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>56</v>
       </c>
@@ -18227,7 +18236,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>56</v>
       </c>
@@ -18248,7 +18257,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>56</v>
       </c>
@@ -18269,7 +18278,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>56</v>
       </c>
@@ -18290,7 +18299,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A599" s="7" t="s">
         <v>44</v>
       </c>
@@ -18316,7 +18325,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>56</v>
       </c>
@@ -18338,7 +18347,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>56</v>
       </c>
@@ -18360,7 +18369,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>56</v>
       </c>
@@ -18382,7 +18391,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>56</v>
       </c>
@@ -18406,7 +18415,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>56</v>
       </c>
@@ -18425,7 +18434,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
         <v>56</v>
       </c>
@@ -18447,7 +18456,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A606" s="7" t="s">
         <v>56</v>
       </c>
@@ -18464,7 +18473,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A607" s="7" t="s">
         <v>56</v>
       </c>
@@ -18484,7 +18493,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
         <v>56</v>
       </c>
@@ -18507,7 +18516,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A609" s="7" t="s">
         <v>56</v>
       </c>
@@ -18530,7 +18539,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A610" s="7" t="s">
         <v>56</v>
       </c>
@@ -18549,7 +18558,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A611" s="7" t="s">
         <v>56</v>
       </c>
@@ -18566,7 +18575,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A612" s="7" t="s">
         <v>56</v>
       </c>
@@ -18592,7 +18601,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A613" s="7" t="s">
         <v>56</v>
       </c>
@@ -18614,7 +18623,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A614" s="7" t="s">
         <v>56</v>
       </c>
@@ -18636,7 +18645,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A615" s="7" t="s">
         <v>56</v>
       </c>
@@ -18658,7 +18667,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A616" s="7" t="s">
         <v>56</v>
       </c>
@@ -18680,7 +18689,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A617" s="7" t="s">
         <v>44</v>
       </c>
@@ -18703,7 +18712,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A618" s="7" t="s">
         <v>56</v>
       </c>
@@ -18720,7 +18729,7 @@
         <v>44871</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A619" s="7" t="s">
         <v>56</v>
       </c>
@@ -18743,7 +18752,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A620" s="7" t="s">
         <v>56</v>
       </c>
@@ -18764,7 +18773,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A621" s="7" t="s">
         <v>56</v>
       </c>
@@ -18788,7 +18797,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>56</v>
       </c>
@@ -18810,7 +18819,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>56</v>
       </c>
@@ -18831,7 +18840,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A624" s="7" t="s">
         <v>44</v>
       </c>
@@ -18851,7 +18860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A625" s="7" t="s">
         <v>44</v>
       </c>
@@ -18871,7 +18880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A626" s="7" t="s">
         <v>44</v>
       </c>
@@ -18888,7 +18897,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A627" s="7" t="s">
         <v>44</v>
       </c>
@@ -18905,7 +18914,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="628" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A628" s="7" t="s">
         <v>44</v>
       </c>
@@ -18925,7 +18934,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="629" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A629" s="7" t="s">
         <v>44</v>
       </c>
@@ -18942,7 +18951,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="630" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A630" s="7" t="s">
         <v>725</v>
       </c>
@@ -18959,7 +18968,7 @@
         <v>44912</v>
       </c>
     </row>
-    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A631" s="7" t="s">
         <v>44</v>
       </c>
@@ -18979,7 +18988,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="632" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A632" s="7" t="s">
         <v>44</v>
       </c>
@@ -18996,7 +19005,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="633" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A633" s="7" t="s">
         <v>44</v>
       </c>
@@ -19013,7 +19022,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="634" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A634" s="7" t="s">
         <v>44</v>
       </c>
@@ -19036,7 +19045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A635" s="7" t="s">
         <v>44</v>
       </c>
@@ -19056,7 +19065,7 @@
         <v>44920</v>
       </c>
     </row>
-    <row r="636" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A636" s="7" t="s">
         <v>44</v>
       </c>
@@ -19073,7 +19082,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="637" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A637" s="7" t="s">
         <v>44</v>
       </c>
@@ -19090,7 +19099,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="638" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A638" s="7" t="s">
         <v>44</v>
       </c>
@@ -19119,7 +19128,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="639" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A639" s="7" t="s">
         <v>52</v>
       </c>
@@ -19136,7 +19145,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="640" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A640" s="7" t="s">
         <v>44</v>
       </c>
@@ -19168,7 +19177,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="641" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A641" s="7" t="s">
         <v>52</v>
       </c>
@@ -19185,7 +19194,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="642" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A642" s="7" t="s">
         <v>44</v>
       </c>
@@ -19208,7 +19217,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="643" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A643" s="7" t="s">
         <v>44</v>
       </c>
@@ -19231,7 +19240,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="644" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A644" s="7" t="s">
         <v>44</v>
       </c>
@@ -19248,7 +19257,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="645" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A645" s="7" t="s">
         <v>44</v>
       </c>
@@ -19265,7 +19274,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="646" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A646" s="7" t="s">
         <v>44</v>
       </c>
@@ -19282,7 +19291,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="647" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A647" s="7" t="s">
         <v>44</v>
       </c>
@@ -19302,7 +19311,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="648" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A648" s="7" t="s">
         <v>44</v>
       </c>
@@ -19319,7 +19328,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="649" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A649" s="7" t="s">
         <v>44</v>
       </c>
@@ -19336,7 +19345,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="650" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A650" s="7" t="s">
         <v>44</v>
       </c>
@@ -19359,7 +19368,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="651" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A651" s="7" t="s">
         <v>44</v>
       </c>
@@ -19382,7 +19391,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="652" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A652" s="7" t="s">
         <v>44</v>
       </c>
@@ -19399,7 +19408,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="653" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A653" s="7" t="s">
         <v>44</v>
       </c>
@@ -19425,7 +19434,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="654" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A654" s="7" t="s">
         <v>44</v>
       </c>
@@ -19448,7 +19457,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="655" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A655" s="7" t="s">
         <v>44</v>
       </c>
@@ -19471,7 +19480,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="656" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A656" s="7" t="s">
         <v>44</v>
       </c>
@@ -19491,7 +19500,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="657" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A657" s="7" t="s">
         <v>44</v>
       </c>
@@ -19511,7 +19520,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="658" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A658" s="7" t="s">
         <v>44</v>
       </c>
@@ -19531,7 +19540,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="659" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A659" s="7" t="s">
         <v>44</v>
       </c>
@@ -19551,7 +19560,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="660" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A660" s="7" t="s">
         <v>56</v>
       </c>
@@ -19571,7 +19580,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="661" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A661" s="7" t="s">
         <v>56</v>
       </c>
@@ -19591,7 +19600,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="662" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A662" s="7" t="s">
         <v>56</v>
       </c>
@@ -19608,7 +19617,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="663" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>56</v>
       </c>
@@ -19629,7 +19638,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="664" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A664" s="7" t="s">
         <v>44</v>
       </c>
@@ -19646,7 +19655,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="665" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A665" s="7" t="s">
         <v>44</v>
       </c>
@@ -19663,7 +19672,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="666" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A666" s="7" t="s">
         <v>44</v>
       </c>
@@ -19680,7 +19689,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="667" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A667" s="7" t="s">
         <v>44</v>
       </c>
@@ -19697,7 +19706,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="668" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A668" s="7" t="s">
         <v>44</v>
       </c>
@@ -19714,7 +19723,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="669" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A669" s="7" t="s">
         <v>44</v>
       </c>
@@ -19731,7 +19740,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="670" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A670" s="7" t="s">
         <v>56</v>
       </c>
@@ -19751,7 +19760,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="671" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A671" s="7" t="s">
         <v>56</v>
       </c>
@@ -19768,7 +19777,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="672" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A672" s="7" t="s">
         <v>44</v>
       </c>
@@ -19785,7 +19794,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" s="7" t="s">
         <v>56</v>
       </c>
@@ -19805,7 +19814,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" s="7" t="s">
         <v>56</v>
       </c>
@@ -19828,7 +19837,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" s="7" t="s">
         <v>52</v>
       </c>
@@ -19845,7 +19854,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" s="7" t="s">
         <v>52</v>
       </c>
@@ -19865,7 +19874,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="7" t="s">
         <v>44</v>
       </c>
@@ -19882,7 +19891,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" s="7" t="s">
         <v>56</v>
       </c>
@@ -19899,7 +19908,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" s="7" t="s">
         <v>44</v>
       </c>
@@ -19916,7 +19925,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" s="7" t="s">
         <v>56</v>
       </c>
@@ -19936,7 +19945,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" s="7" t="s">
         <v>56</v>
       </c>
@@ -19959,7 +19968,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="7" t="s">
         <v>52</v>
       </c>
@@ -19976,7 +19985,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" s="7" t="s">
         <v>52</v>
       </c>
@@ -19993,7 +20002,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" s="7" t="s">
         <v>52</v>
       </c>
@@ -20010,7 +20019,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" s="7" t="s">
         <v>56</v>
       </c>
@@ -20027,7 +20036,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" s="7" t="s">
         <v>56</v>
       </c>
@@ -20047,7 +20056,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="7" t="s">
         <v>56</v>
       </c>
@@ -20067,7 +20076,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" s="7" t="s">
         <v>52</v>
       </c>
@@ -20087,7 +20096,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="689" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A689" s="7" t="s">
         <v>56</v>
       </c>
@@ -20107,7 +20116,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="690" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A690" s="7" t="s">
         <v>71</v>
       </c>
@@ -20133,7 +20142,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="691" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A691" s="7" t="s">
         <v>52</v>
       </c>
@@ -20153,7 +20162,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="692" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A692" s="7" t="s">
         <v>52</v>
       </c>
@@ -20173,7 +20182,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="693" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A693" s="7" t="s">
         <v>52</v>
       </c>
@@ -20190,7 +20199,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="694" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A694" s="7" t="s">
         <v>52</v>
       </c>
@@ -20207,7 +20216,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="695" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A695" s="7" t="s">
         <v>56</v>
       </c>
@@ -20224,7 +20233,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="696" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A696" s="7" t="s">
         <v>56</v>
       </c>
@@ -20244,7 +20253,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="697" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A697" s="7" t="s">
         <v>56</v>
       </c>
@@ -20264,7 +20273,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="698" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A698" s="7" t="s">
         <v>56</v>
       </c>
@@ -20281,7 +20290,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="699" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A699" s="7" t="s">
         <v>768</v>
       </c>
@@ -20298,7 +20307,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="700" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A700" s="7" t="s">
         <v>56</v>
       </c>
@@ -20318,7 +20327,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="701" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A701" s="7" t="s">
         <v>56</v>
       </c>
@@ -20341,7 +20350,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="702" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A702" s="7" t="s">
         <v>56</v>
       </c>
@@ -20361,7 +20370,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="703" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A703" s="7" t="s">
         <v>56</v>
       </c>
@@ -20381,7 +20390,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="704" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A704" s="7" t="s">
         <v>56</v>
       </c>
@@ -20401,7 +20410,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A705" s="7" t="s">
         <v>56</v>
       </c>
@@ -20424,7 +20433,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A706" s="7" t="s">
         <v>56</v>
       </c>
@@ -20444,7 +20453,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A707" s="7" t="s">
         <v>52</v>
       </c>
@@ -20464,7 +20473,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A708" s="7" t="s">
         <v>56</v>
       </c>
@@ -20484,7 +20493,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>225</v>
       </c>
@@ -20506,7 +20515,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A710" s="7" t="s">
         <v>56</v>
       </c>
@@ -20526,7 +20535,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A711" s="7" t="s">
         <v>56</v>
       </c>
@@ -20546,7 +20555,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A712" s="7" t="s">
         <v>768</v>
       </c>
@@ -20569,7 +20578,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A713" s="7" t="s">
         <v>768</v>
       </c>
@@ -20592,7 +20601,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>56</v>
       </c>
@@ -20611,7 +20620,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A715" s="7" t="s">
         <v>56</v>
       </c>
@@ -20631,7 +20640,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A716" s="7" t="s">
         <v>56</v>
       </c>
@@ -20654,7 +20663,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A717" s="7" t="s">
         <v>52</v>
       </c>
@@ -20674,7 +20683,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A718" s="7" t="s">
         <v>44</v>
       </c>
@@ -20694,7 +20703,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A719" s="7" t="s">
         <v>768</v>
       </c>
@@ -20711,7 +20720,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A720" s="7" t="s">
         <v>56</v>
       </c>
@@ -20728,7 +20737,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="721" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A721" s="7" t="s">
         <v>56</v>
       </c>
@@ -20745,7 +20754,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="722" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A722" s="7" t="s">
         <v>56</v>
       </c>
@@ -20762,7 +20771,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="723" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A723" s="7" t="s">
         <v>56</v>
       </c>
@@ -20785,7 +20794,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="724" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A724" s="7" t="s">
         <v>44</v>
       </c>
@@ -20811,7 +20820,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="725" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A725" s="7" t="s">
         <v>52</v>
       </c>
@@ -20831,7 +20840,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="726" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A726" s="7" t="s">
         <v>56</v>
       </c>
@@ -20851,7 +20860,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="727" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A727" s="7" t="s">
         <v>768</v>
       </c>
@@ -20868,7 +20877,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="728" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A728" s="7" t="s">
         <v>56</v>
       </c>
@@ -20885,7 +20894,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="729" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A729" s="7" t="s">
         <v>52</v>
       </c>
@@ -20905,7 +20914,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="730" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A730" s="7" t="s">
         <v>44</v>
       </c>
@@ -20934,7 +20943,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="731" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A731" s="7" t="s">
         <v>44</v>
       </c>
@@ -20963,7 +20972,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="732" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A732" s="7" t="s">
         <v>52</v>
       </c>
@@ -20983,7 +20992,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="733" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A733" s="7" t="s">
         <v>52</v>
       </c>
@@ -21003,7 +21012,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="734" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A734" s="7" t="s">
         <v>56</v>
       </c>
@@ -21023,7 +21032,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="735" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A735" s="7" t="s">
         <v>56</v>
       </c>
@@ -21043,7 +21052,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="736" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A736" s="7" t="s">
         <v>56</v>
       </c>
@@ -21063,7 +21072,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737" s="7" t="s">
         <v>56</v>
       </c>
@@ -21080,7 +21089,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738" s="7" t="s">
         <v>56</v>
       </c>
@@ -21097,7 +21106,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" s="7" t="s">
         <v>56</v>
       </c>
@@ -21117,7 +21126,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" s="7" t="s">
         <v>52</v>
       </c>
@@ -21137,7 +21146,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741" s="7" t="s">
         <v>52</v>
       </c>
@@ -21157,7 +21166,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" s="7" t="s">
         <v>52</v>
       </c>
@@ -21180,7 +21189,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743" s="7" t="s">
         <v>56</v>
       </c>
@@ -21200,7 +21209,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" s="7" t="s">
         <v>56</v>
       </c>
@@ -21217,7 +21226,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745" s="7" t="s">
         <v>52</v>
       </c>
@@ -21237,7 +21246,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746" s="7" t="s">
         <v>52</v>
       </c>
@@ -21257,7 +21266,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747" s="7" t="s">
         <v>56</v>
       </c>
@@ -21277,7 +21286,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748" s="7" t="s">
         <v>56</v>
       </c>
@@ -21294,7 +21303,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749" s="7" t="s">
         <v>56</v>
       </c>
@@ -21314,7 +21323,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750" s="7" t="s">
         <v>44</v>
       </c>
@@ -21331,7 +21340,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A751" s="7" t="s">
         <v>56</v>
       </c>
@@ -21351,7 +21360,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A752" s="7" t="s">
         <v>56</v>
       </c>
@@ -21371,7 +21380,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="753" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A753" s="7" t="s">
         <v>56</v>
       </c>
@@ -21391,7 +21400,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="754" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A754" s="7" t="s">
         <v>56</v>
       </c>
@@ -21411,7 +21420,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="755" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A755" s="7" t="s">
         <v>56</v>
       </c>
@@ -21431,7 +21440,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="756" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A756" s="7" t="s">
         <v>56</v>
       </c>
@@ -21451,7 +21460,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="757" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A757" s="7" t="s">
         <v>56</v>
       </c>
@@ -21471,7 +21480,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="758" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A758" s="7" t="s">
         <v>56</v>
       </c>
@@ -21494,7 +21503,7 @@
       <c r="J758" s="4"/>
       <c r="K758" s="4"/>
     </row>
-    <row r="759" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A759" s="7" t="s">
         <v>56</v>
       </c>
@@ -21511,7 +21520,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="760" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A760" s="7" t="s">
         <v>52</v>
       </c>
@@ -21531,7 +21540,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="761" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A761" s="7" t="s">
         <v>768</v>
       </c>
@@ -21548,7 +21557,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="762" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A762" s="7" t="s">
         <v>52</v>
       </c>
@@ -21568,7 +21577,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="763" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A763" s="7" t="s">
         <v>52</v>
       </c>
@@ -21585,7 +21594,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="764" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A764" s="7" t="s">
         <v>52</v>
       </c>
@@ -21602,7 +21611,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="765" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A765" s="7" t="s">
         <v>71</v>
       </c>
@@ -21634,7 +21643,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="766" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A766" s="7" t="s">
         <v>71</v>
       </c>
@@ -21663,7 +21672,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="767" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A767" s="7" t="s">
         <v>71</v>
       </c>
@@ -21689,7 +21698,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="768" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A768" s="7" t="s">
         <v>71</v>
       </c>
@@ -21718,7 +21727,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="769" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A769" s="7" t="s">
         <v>369</v>
       </c>
@@ -21744,7 +21753,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="770" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A770" s="7" t="s">
         <v>52</v>
       </c>
@@ -21761,7 +21770,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="771" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A771" s="7" t="s">
         <v>71</v>
       </c>
@@ -21793,7 +21802,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="772" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A772" s="7" t="s">
         <v>369</v>
       </c>
@@ -21816,7 +21825,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="773" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A773" s="7" t="s">
         <v>52</v>
       </c>
@@ -21836,7 +21845,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="774" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A774" s="7" t="s">
         <v>369</v>
       </c>
@@ -21865,7 +21874,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="775" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A775" s="7" t="s">
         <v>369</v>
       </c>
@@ -21888,7 +21897,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="776" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A776" s="7" t="s">
         <v>71</v>
       </c>
@@ -21917,7 +21926,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="777" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A777" s="7" t="s">
         <v>369</v>
       </c>
@@ -21934,7 +21943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A778" s="7" t="s">
         <v>71</v>
       </c>
@@ -21960,7 +21969,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="779" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A779" s="7" t="s">
         <v>71</v>
       </c>
@@ -21986,7 +21995,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="780" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A780" s="7" t="s">
         <v>44</v>
       </c>
@@ -22012,7 +22021,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="781" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A781" s="7" t="s">
         <v>71</v>
       </c>
@@ -22041,7 +22050,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="782" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A782" s="7" t="s">
         <v>369</v>
       </c>
@@ -22070,7 +22079,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="783" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A783" s="7" t="s">
         <v>369</v>
       </c>
@@ -22093,7 +22102,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="784" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A784" s="7" t="s">
         <v>52</v>
       </c>
@@ -22113,7 +22122,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="785" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A785" s="7" t="s">
         <v>52</v>
       </c>
@@ -22133,7 +22142,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="786" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A786" s="7" t="s">
         <v>71</v>
       </c>
@@ -22162,7 +22171,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="787" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A787" s="7" t="s">
         <v>369</v>
       </c>
@@ -22182,7 +22191,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="788" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A788" s="7" t="s">
         <v>71</v>
       </c>
@@ -22214,7 +22223,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="789" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A789" s="7" t="s">
         <v>52</v>
       </c>
@@ -22234,7 +22243,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="790" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A790" s="7" t="s">
         <v>52</v>
       </c>
@@ -22254,7 +22263,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="791" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A791" s="7" t="s">
         <v>71</v>
       </c>
@@ -22283,7 +22292,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="792" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A792" s="7" t="s">
         <v>71</v>
       </c>
@@ -22315,7 +22324,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="793" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A793" s="7" t="s">
         <v>71</v>
       </c>
@@ -22344,7 +22353,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="794" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A794" s="7" t="s">
         <v>52</v>
       </c>
@@ -22364,7 +22373,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="795" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A795" s="7" t="s">
         <v>369</v>
       </c>
@@ -22384,7 +22393,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="796" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A796" s="7" t="s">
         <v>52</v>
       </c>
@@ -22404,7 +22413,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="797" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A797" s="7" t="s">
         <v>369</v>
       </c>
@@ -22421,7 +22430,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="798" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A798" s="7" t="s">
         <v>71</v>
       </c>
@@ -22453,7 +22462,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="799" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A799" s="7" t="s">
         <v>71</v>
       </c>
@@ -22479,7 +22488,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="800" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A800" s="7" t="s">
         <v>71</v>
       </c>
@@ -22508,7 +22517,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="801" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A801" s="7" t="s">
         <v>71</v>
       </c>
@@ -22537,7 +22546,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="802" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A802" s="7" t="s">
         <v>44</v>
       </c>
@@ -22554,7 +22563,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="803" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A803" s="7" t="s">
         <v>71</v>
       </c>
@@ -22586,7 +22595,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="804" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A804" s="7" t="s">
         <v>71</v>
       </c>
@@ -22621,7 +22630,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="805" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A805" s="7" t="s">
         <v>56</v>
       </c>
@@ -22641,7 +22650,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="806" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A806" s="7" t="s">
         <v>56</v>
       </c>
@@ -22658,7 +22667,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="807" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A807" s="7" t="s">
         <v>369</v>
       </c>
@@ -22672,7 +22681,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="808" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A808" s="7" t="s">
         <v>369</v>
       </c>
@@ -22683,7 +22692,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="809" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A809" s="7" t="s">
         <v>52</v>
       </c>
@@ -22703,7 +22712,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="810" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A810" s="7" t="s">
         <v>56</v>
       </c>
@@ -22723,7 +22732,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="811" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A811" s="7" t="s">
         <v>71</v>
       </c>
@@ -22752,7 +22761,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="812" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A812" s="7" t="s">
         <v>369</v>
       </c>
@@ -22772,7 +22781,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="813" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A813" s="7" t="s">
         <v>369</v>
       </c>
@@ -22789,7 +22798,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="814" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A814" s="7" t="s">
         <v>71</v>
       </c>
@@ -22815,7 +22824,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="815" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A815" s="7" t="s">
         <v>71</v>
       </c>
@@ -22838,7 +22847,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="816" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A816" s="7" t="s">
         <v>369</v>
       </c>
@@ -22858,7 +22867,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="817" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A817" s="7" t="s">
         <v>44</v>
       </c>
@@ -22878,7 +22887,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="818" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A818" s="7" t="s">
         <v>52</v>
       </c>
@@ -22898,7 +22907,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="819" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A819" s="7" t="s">
         <v>71</v>
       </c>
@@ -22927,7 +22936,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="820" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A820" s="7" t="s">
         <v>369</v>
       </c>
@@ -22950,7 +22959,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="821" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A821" s="7" t="s">
         <v>71</v>
       </c>
@@ -22979,7 +22988,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="822" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A822" s="7" t="s">
         <v>52</v>
       </c>
@@ -22999,7 +23008,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="823" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A823" s="7" t="s">
         <v>56</v>
       </c>
@@ -23019,7 +23028,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="824" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A824" s="7" t="s">
         <v>56</v>
       </c>
@@ -23036,7 +23045,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="825" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A825" s="7" t="s">
         <v>56</v>
       </c>
@@ -23056,7 +23065,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="826" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A826" s="7" t="s">
         <v>52</v>
       </c>
@@ -23076,7 +23085,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="827" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>56</v>
       </c>
@@ -23098,7 +23107,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="828" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>56</v>
       </c>
@@ -23122,7 +23131,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="829" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A829" s="7" t="s">
         <v>52</v>
       </c>
@@ -23142,7 +23151,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="830" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
         <v>56</v>
       </c>
@@ -23164,7 +23173,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="831" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>56</v>
       </c>
@@ -23188,7 +23197,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="832" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A832" s="7" t="s">
         <v>883</v>
       </c>
@@ -23205,7 +23214,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="833" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A833" s="7" t="s">
         <v>44</v>
       </c>
@@ -23222,7 +23231,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="834" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A834" s="7" t="s">
         <v>52</v>
       </c>
@@ -23242,7 +23251,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="835" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A835" s="7" t="s">
         <v>56</v>
       </c>
@@ -23262,7 +23271,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="836" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A836" s="7" t="s">
         <v>56</v>
       </c>
@@ -23279,7 +23288,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="837" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A837" s="7" t="s">
         <v>56</v>
       </c>
@@ -23299,7 +23308,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="838" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A838" s="7" t="s">
         <v>56</v>
       </c>
@@ -23316,7 +23325,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="839" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A839" s="7" t="s">
         <v>56</v>
       </c>
@@ -23338,7 +23347,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="840" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A840" s="7" t="s">
         <v>56</v>
       </c>
@@ -23362,7 +23371,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="841" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A841" s="7" t="s">
         <v>56</v>
       </c>
@@ -23382,7 +23391,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="842" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A842" s="7" t="s">
         <v>56</v>
       </c>
@@ -23399,7 +23408,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="843" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A843" s="7" t="s">
         <v>56</v>
       </c>
@@ -23416,7 +23425,7 @@
         <v>45409</v>
       </c>
     </row>
-    <row r="844" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A844" s="7" t="s">
         <v>56</v>
       </c>
@@ -23436,7 +23445,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="845" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A845" s="7" t="s">
         <v>56</v>
       </c>
@@ -23456,7 +23465,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="846" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>56</v>
       </c>
@@ -23478,7 +23487,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="847" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>56</v>
       </c>
@@ -23502,7 +23511,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="848" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A848" s="7" t="s">
         <v>71</v>
       </c>
@@ -23537,7 +23546,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="849" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A849" s="7" t="s">
         <v>71</v>
       </c>
@@ -23566,7 +23575,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="850" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A850" s="7" t="s">
         <v>71</v>
       </c>
@@ -23592,7 +23601,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="851" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A851" s="7" t="s">
         <v>71</v>
       </c>
@@ -23621,7 +23630,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="852" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A852" s="7" t="s">
         <v>56</v>
       </c>
@@ -23641,7 +23650,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="853" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A853" s="7" t="s">
         <v>52</v>
       </c>
@@ -23661,7 +23670,7 @@
         <v>45428</v>
       </c>
     </row>
-    <row r="854" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A854" s="7" t="s">
         <v>56</v>
       </c>
@@ -23678,7 +23687,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="855" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A855" s="7" t="s">
         <v>56</v>
       </c>
@@ -23701,7 +23710,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A856" s="7" t="s">
         <v>56</v>
       </c>
@@ -23721,7 +23730,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="857" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A857" s="7" t="s">
         <v>56</v>
       </c>
@@ -23741,7 +23750,7 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="858" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A858" s="7" t="s">
         <v>56</v>
       </c>
@@ -23764,7 +23773,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="859" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A859" s="7" t="s">
         <v>52</v>
       </c>
@@ -23784,7 +23793,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="860" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A860" s="7" t="s">
         <v>56</v>
       </c>
@@ -23804,7 +23813,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="861" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A861" s="7" t="s">
         <v>52</v>
       </c>
@@ -23824,7 +23833,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="862" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A862" s="7" t="s">
         <v>56</v>
       </c>
@@ -23844,7 +23853,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="863" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A863" s="7" t="s">
         <v>56</v>
       </c>
@@ -23864,7 +23873,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="864" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A864" s="7" t="s">
         <v>56</v>
       </c>
@@ -23884,7 +23893,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="865" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A865" s="7" t="s">
         <v>56</v>
       </c>
@@ -23904,7 +23913,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="866" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A866" s="7" t="s">
         <v>44</v>
       </c>
@@ -23930,7 +23939,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="867" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A867" s="7" t="s">
         <v>52</v>
       </c>
@@ -23950,7 +23959,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="868" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A868" s="7" t="s">
         <v>56</v>
       </c>
@@ -23967,7 +23976,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="869" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A869" s="7" t="s">
         <v>56</v>
       </c>
@@ -23989,7 +23998,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="870" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A870" s="7" t="s">
         <v>56</v>
       </c>
@@ -24012,7 +24021,7 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="871" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A871" s="7" t="s">
         <v>56</v>
       </c>
@@ -24029,7 +24038,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="872" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A872" s="7" t="s">
         <v>52</v>
       </c>
@@ -24049,7 +24058,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="873" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A873" s="7" t="s">
         <v>56</v>
       </c>
@@ -24066,7 +24075,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="874" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A874" s="7" t="s">
         <v>56</v>
       </c>
@@ -24086,7 +24095,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="875" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A875" s="7" t="s">
         <v>56</v>
       </c>
@@ -24106,7 +24115,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="876" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A876" s="7" t="s">
         <v>56</v>
       </c>
@@ -24123,7 +24132,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="877" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A877" s="7" t="s">
         <v>52</v>
       </c>
@@ -24140,7 +24149,7 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="878" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A878" s="7" t="s">
         <v>52</v>
       </c>
@@ -24163,7 +24172,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="879" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A879" s="7" t="s">
         <v>52</v>
       </c>
@@ -24183,7 +24192,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="880" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A880" s="7" t="s">
         <v>56</v>
       </c>
@@ -24200,7 +24209,7 @@
         <v>45477</v>
       </c>
     </row>
-    <row r="881" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A881" s="7" t="s">
         <v>71</v>
       </c>
@@ -24226,7 +24235,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="882" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A882" s="7" t="s">
         <v>44</v>
       </c>
@@ -24246,7 +24255,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="883" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A883" s="7" t="s">
         <v>768</v>
       </c>
@@ -24266,7 +24275,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="884" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A884" s="7" t="s">
         <v>44</v>
       </c>
@@ -24283,7 +24292,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="885" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A885" s="7" t="s">
         <v>44</v>
       </c>
@@ -24300,7 +24309,7 @@
         <v>45484</v>
       </c>
     </row>
-    <row r="886" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A886" s="7" t="s">
         <v>941</v>
       </c>
@@ -24317,7 +24326,7 @@
         <v>45487</v>
       </c>
     </row>
-    <row r="887" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A887" s="7" t="s">
         <v>44</v>
       </c>
@@ -24340,7 +24349,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="888" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A888" s="7" t="s">
         <v>52</v>
       </c>
@@ -24357,7 +24366,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="889" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A889" s="7" t="s">
         <v>44</v>
       </c>
@@ -24380,7 +24389,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="890" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A890" s="7" t="s">
         <v>52</v>
       </c>
@@ -24409,7 +24418,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="891" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A891" s="7" t="s">
         <v>52</v>
       </c>
@@ -24441,7 +24450,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="892" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A892" s="7" t="s">
         <v>44</v>
       </c>
@@ -24470,7 +24479,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="893" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A893" s="7" t="s">
         <v>56</v>
       </c>
@@ -24487,7 +24496,7 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="894" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A894" s="7" t="s">
         <v>56</v>
       </c>
@@ -24507,7 +24516,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="895" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A895" s="7" t="s">
         <v>44</v>
       </c>
@@ -24527,7 +24536,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="896" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A896" s="7" t="s">
         <v>941</v>
       </c>
@@ -24556,7 +24565,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="897" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A897" s="7" t="s">
         <v>56</v>
       </c>
@@ -24576,7 +24585,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="898" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A898" s="7" t="s">
         <v>52</v>
       </c>
@@ -24608,7 +24617,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="899" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A899" s="7" t="s">
         <v>44</v>
       </c>
@@ -24631,7 +24640,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="900" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A900" s="7" t="s">
         <v>56</v>
       </c>
@@ -24654,7 +24663,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="901" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A901" s="7" t="s">
         <v>56</v>
       </c>
@@ -24674,7 +24683,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="902" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A902" s="7" t="s">
         <v>56</v>
       </c>
@@ -24691,7 +24700,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="903" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A903" s="7" t="s">
         <v>44</v>
       </c>
@@ -24714,7 +24723,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="904" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A904" s="7" t="s">
         <v>44</v>
       </c>
@@ -24737,7 +24746,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="905" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A905" s="7" t="s">
         <v>44</v>
       </c>
@@ -24763,7 +24772,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="906" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A906" s="7" t="s">
         <v>56</v>
       </c>
@@ -24783,7 +24792,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="907" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A907" s="7" t="s">
         <v>44</v>
       </c>
@@ -24803,7 +24812,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="908" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A908" s="7" t="s">
         <v>52</v>
       </c>
@@ -24838,7 +24847,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="909" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A909" s="7" t="s">
         <v>52</v>
       </c>
@@ -24867,7 +24876,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="910" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A910" s="7" t="s">
         <v>52</v>
       </c>
@@ -24896,7 +24905,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="911" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A911" s="7" t="s">
         <v>225</v>
       </c>
@@ -24916,7 +24925,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="912" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A912" s="7" t="s">
         <v>44</v>
       </c>
@@ -24936,7 +24945,7 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="913" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A913" s="7" t="s">
         <v>52</v>
       </c>
@@ -24956,7 +24965,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="914" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A914" s="7" t="s">
         <v>52</v>
       </c>
@@ -24982,7 +24991,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="915" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A915" s="7" t="s">
         <v>56</v>
       </c>
@@ -25002,7 +25011,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="916" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A916" s="7" t="s">
         <v>52</v>
       </c>
@@ -25022,7 +25031,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="917" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A917" s="7" t="s">
         <v>52</v>
       </c>
@@ -25048,7 +25057,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="918" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A918" s="7" t="s">
         <v>44</v>
       </c>
@@ -25077,7 +25086,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="919" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A919" s="7" t="s">
         <v>56</v>
       </c>
@@ -25097,7 +25106,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="920" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A920" s="7" t="s">
         <v>56</v>
       </c>
@@ -25117,7 +25126,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="921" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A921" s="7" t="s">
         <v>56</v>
       </c>
@@ -25137,7 +25146,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="922" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A922" s="7" t="s">
         <v>56</v>
       </c>
@@ -25157,7 +25166,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="923" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A923" s="7" t="s">
         <v>52</v>
       </c>
@@ -25189,7 +25198,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="924" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A924" s="7" t="s">
         <v>56</v>
       </c>
@@ -25206,7 +25215,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="925" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A925" s="7" t="s">
         <v>56</v>
       </c>
@@ -25228,7 +25237,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="926" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A926" s="7" t="s">
         <v>56</v>
       </c>
@@ -25250,7 +25259,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="927" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A927" s="7" t="s">
         <v>56</v>
       </c>
@@ -25272,7 +25281,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="928" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A928" s="7" t="s">
         <v>56</v>
       </c>
@@ -25294,7 +25303,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="929" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A929" s="7" t="s">
         <v>52</v>
       </c>
@@ -25326,7 +25335,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="930" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A930" s="7" t="s">
         <v>52</v>
       </c>
@@ -25358,7 +25367,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="931" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A931" s="7" t="s">
         <v>52</v>
       </c>
@@ -25378,7 +25387,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="932" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A932" s="7" t="s">
         <v>52</v>
       </c>
@@ -25398,7 +25407,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="933" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A933" s="7" t="s">
         <v>52</v>
       </c>
@@ -25430,7 +25439,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="934" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A934" s="7" t="s">
         <v>56</v>
       </c>
@@ -25450,7 +25459,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="935" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A935" s="7" t="s">
         <v>56</v>
       </c>
@@ -25467,7 +25476,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="936" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A936" s="7" t="s">
         <v>52</v>
       </c>
@@ -25502,7 +25511,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="937" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A937" s="7" t="s">
         <v>52</v>
       </c>
@@ -25528,7 +25537,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="938" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A938" s="7" t="s">
         <v>52</v>
       </c>
@@ -25566,7 +25575,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="939" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A939" s="7" t="s">
         <v>56</v>
       </c>
@@ -25589,7 +25598,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="940" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A940" s="7" t="s">
         <v>52</v>
       </c>
@@ -25609,7 +25618,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="941" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A941" s="7" t="s">
         <v>52</v>
       </c>
@@ -25641,7 +25650,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="942" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A942" s="7" t="s">
         <v>52</v>
       </c>
@@ -25676,7 +25685,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="943" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A943" s="7" t="s">
         <v>52</v>
       </c>
@@ -25699,7 +25708,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="944" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A944" s="7" t="s">
         <v>52</v>
       </c>
@@ -25734,7 +25743,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A945" s="7" t="s">
         <v>52</v>
       </c>
@@ -25763,7 +25772,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A946" s="7" t="s">
         <v>44</v>
       </c>
@@ -25783,7 +25792,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A947" s="7" t="s">
         <v>56</v>
       </c>
@@ -25800,7 +25809,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="948" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A948" s="7" t="s">
         <v>56</v>
       </c>
@@ -25820,7 +25829,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A949" s="7" t="s">
         <v>56</v>
       </c>
@@ -25840,7 +25849,7 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A950" s="7" t="s">
         <v>52</v>
       </c>
@@ -25872,7 +25881,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="951" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A951" s="7" t="s">
         <v>52</v>
       </c>
@@ -25904,7 +25913,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A952" s="7" t="s">
         <v>56</v>
       </c>
@@ -25924,7 +25933,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A953" s="7" t="s">
         <v>56</v>
       </c>
@@ -25944,7 +25953,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A954" s="7" t="s">
         <v>52</v>
       </c>
@@ -25976,7 +25985,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A955" s="7" t="s">
         <v>56</v>
       </c>
@@ -25996,7 +26005,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A956" s="7" t="s">
         <v>56</v>
       </c>
@@ -26019,7 +26028,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A957" s="7" t="s">
         <v>56</v>
       </c>
@@ -26039,7 +26048,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A958" s="7" t="s">
         <v>56</v>
       </c>
@@ -26059,7 +26068,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A959" s="7" t="s">
         <v>52</v>
       </c>
@@ -26085,7 +26094,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A960" s="7" t="s">
         <v>52</v>
       </c>
@@ -26120,7 +26129,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="961" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A961" s="7" t="s">
         <v>52</v>
       </c>
@@ -26149,7 +26158,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="962" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A962" s="7" t="s">
         <v>52</v>
       </c>
@@ -26184,7 +26193,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="963" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A963" s="7" t="s">
         <v>56</v>
       </c>
@@ -26204,7 +26213,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="964" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A964" s="7" t="s">
         <v>56</v>
       </c>
@@ -26227,7 +26236,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="965" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A965" s="7" t="s">
         <v>56</v>
       </c>
@@ -26253,7 +26262,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="966" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A966" s="7" t="s">
         <v>52</v>
       </c>
@@ -26285,7 +26294,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="967" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A967" s="7" t="s">
         <v>44</v>
       </c>
@@ -26305,7 +26314,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="968" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A968" s="7" t="s">
         <v>52</v>
       </c>
@@ -26340,7 +26349,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="969" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A969" s="7" t="s">
         <v>52</v>
       </c>
@@ -26372,7 +26381,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="970" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A970" s="7" t="s">
         <v>52</v>
       </c>
@@ -26404,7 +26413,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="971" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A971" s="7" t="s">
         <v>71</v>
       </c>
@@ -26430,7 +26439,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="972" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A972" s="7" t="s">
         <v>52</v>
       </c>
@@ -26459,7 +26468,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="973" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A973" s="7" t="s">
         <v>52</v>
       </c>
@@ -26491,7 +26500,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="974" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A974" s="7" t="s">
         <v>52</v>
       </c>
@@ -26526,7 +26535,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="975" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A975" s="7" t="s">
         <v>52</v>
       </c>
@@ -26555,7 +26564,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="976" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A976" s="7" t="s">
         <v>369</v>
       </c>
@@ -26575,7 +26584,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="977" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A977" s="7" t="s">
         <v>52</v>
       </c>
@@ -26589,7 +26598,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="978" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A978" s="7" t="s">
         <v>52</v>
       </c>
@@ -26603,7 +26612,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="979" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A979" s="7" t="s">
         <v>52</v>
       </c>
@@ -26638,7 +26647,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="980" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A980" s="7" t="s">
         <v>369</v>
       </c>
@@ -26661,7 +26670,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="981" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A981" s="7" t="s">
         <v>52</v>
       </c>
@@ -26693,7 +26702,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="982" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A982" s="7" t="s">
         <v>71</v>
       </c>
@@ -26722,7 +26731,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="983" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A983" s="7" t="s">
         <v>369</v>
       </c>
@@ -26742,7 +26751,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="984" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A984" s="7" t="s">
         <v>71</v>
       </c>
@@ -26768,7 +26777,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="985" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A985" s="7" t="s">
         <v>52</v>
       </c>
@@ -26800,7 +26809,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="986" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A986" s="7" t="s">
         <v>369</v>
       </c>
@@ -26832,7 +26841,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="987" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A987" s="7" t="s">
         <v>52</v>
       </c>
@@ -26864,7 +26873,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="988" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A988" s="7" t="s">
         <v>369</v>
       </c>
@@ -26887,7 +26896,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="989" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A989" s="7" t="s">
         <v>369</v>
       </c>
@@ -26910,7 +26919,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="990" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A990" s="7" t="s">
         <v>369</v>
       </c>
@@ -26933,7 +26942,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="991" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A991" s="7" t="s">
         <v>52</v>
       </c>
@@ -26965,7 +26974,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="992" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A992" s="7" t="s">
         <v>71</v>
       </c>
@@ -26991,7 +27000,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="993" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A993" s="7" t="s">
         <v>71</v>
       </c>
@@ -27017,7 +27026,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="994" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A994" s="7" t="s">
         <v>71</v>
       </c>
@@ -27043,7 +27052,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="995" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A995" s="7" t="s">
         <v>71</v>
       </c>
@@ -27075,7 +27084,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="996" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A996" s="7" t="s">
         <v>369</v>
       </c>
@@ -27104,7 +27113,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="997" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A997" s="7" t="s">
         <v>71</v>
       </c>
@@ -27131,6 +27140,58 @@
       </c>
       <c r="Q997" s="7" t="s">
         <v>386</v>
+      </c>
+    </row>
+    <row r="998" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A998" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B998" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C998" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F998" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="G998" s="1">
+        <v>45659</v>
+      </c>
+      <c r="H998" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L998" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="M998" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="999" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A999" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B999" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C999" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="F999" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="G999" s="1">
+        <v>45659</v>
+      </c>
+      <c r="H999" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L999" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="M999" s="7" t="s">
+        <v>860</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6F68D3-0AF6-4B06-8E9C-0E60B7826801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4066B43-1227-4B00-9742-77C0DF3C3AA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5608" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5612" uniqueCount="1082">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3348,7 +3348,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3796,41 +3796,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:V999"/>
+  <dimension ref="A1:V1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A969" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H999" sqref="H999"/>
+      <selection pane="bottomLeft" activeCell="Q1001" sqref="Q1001"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.81640625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="138.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="7" customWidth="1"/>
+    <col min="22" max="22" width="138.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="204" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
@@ -3898,7 +3898,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
@@ -4014,7 +4014,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>71</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -4313,7 +4313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>71</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>71</v>
       </c>
@@ -4502,7 +4502,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
@@ -4548,7 +4548,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>71</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>71</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -4650,7 +4650,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -4701,7 +4701,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
@@ -4729,7 +4729,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -4865,7 +4865,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4895,7 +4895,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -4965,7 +4965,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -4995,7 +4995,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>71</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>71</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>71</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
@@ -5229,7 +5229,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
@@ -5257,7 +5257,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>52</v>
       </c>
@@ -5318,7 +5318,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -5379,7 +5379,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>71</v>
       </c>
@@ -5446,7 +5446,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>71</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>52</v>
       </c>
@@ -5553,7 +5553,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>52</v>
       </c>
@@ -5581,7 +5581,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>52</v>
       </c>
@@ -5609,7 +5609,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>52</v>
       </c>
@@ -5637,7 +5637,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
@@ -5689,7 +5689,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>52</v>
       </c>
@@ -5743,7 +5743,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>52</v>
       </c>
@@ -5771,7 +5771,7 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>52</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
@@ -5879,7 +5879,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>52</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>52</v>
       </c>
@@ -5973,7 +5973,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>44</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>52</v>
       </c>
@@ -6021,7 +6021,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>52</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>52</v>
       </c>
@@ -6081,7 +6081,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>52</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>71</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>52</v>
       </c>
@@ -6195,7 +6195,7 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>52</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>52</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>52</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>71</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>52</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>52</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>52</v>
       </c>
@@ -6372,7 +6372,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>52</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>52</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>52</v>
       </c>
@@ -6440,7 +6440,7 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>52</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>52</v>
       </c>
@@ -6519,7 +6519,7 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>52</v>
       </c>
@@ -6550,7 +6550,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>52</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -6600,7 +6600,7 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>149</v>
@@ -6626,7 +6626,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>52</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>52</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>52</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>52</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>71</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -6818,7 +6818,7 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -6848,7 +6848,7 @@
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -6902,7 +6902,7 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>149</v>
@@ -6928,7 +6928,7 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>52</v>
       </c>
@@ -6956,7 +6956,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -6986,7 +6986,7 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -7016,7 +7016,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -7042,7 +7042,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>52</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -7118,7 +7118,7 @@
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>52</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>56</v>
       </c>
@@ -7192,7 +7192,7 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>56</v>
       </c>
@@ -7218,7 +7218,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>56</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>56</v>
       </c>
@@ -7262,7 +7262,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>56</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>56</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>56</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>52</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>52</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>56</v>
       </c>
@@ -7412,7 +7412,7 @@
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>56</v>
       </c>
@@ -7434,7 +7434,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>56</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>56</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>56</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>56</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>52</v>
       </c>
@@ -7553,7 +7553,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>52</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>52</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>71</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>71</v>
       </c>
@@ -7656,7 +7656,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>71</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>71</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>71</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>71</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>52</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>71</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>52</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>52</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>71</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>71</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>71</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>52</v>
       </c>
@@ -7982,7 +7982,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>52</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>52</v>
       </c>
@@ -8025,7 +8025,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>52</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>71</v>
       </c>
@@ -8079,7 +8079,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>71</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>71</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>56</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>56</v>
       </c>
@@ -8193,7 +8193,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>149</v>
@@ -8211,7 +8211,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>52</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>52</v>
       </c>
@@ -8251,7 +8251,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>52</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>52</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>56</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>225</v>
       </c>
@@ -8338,7 +8338,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>56</v>
       </c>
@@ -8368,7 +8368,7 @@
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>56</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>52</v>
       </c>
@@ -8417,7 +8417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>56</v>
       </c>
@@ -8445,7 +8445,7 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>56</v>
       </c>
@@ -8473,7 +8473,7 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>56</v>
       </c>
@@ -8501,7 +8501,7 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>56</v>
       </c>
@@ -8531,7 +8531,7 @@
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>56</v>
       </c>
@@ -8557,7 +8557,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>56</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>56</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>52</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>56</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>225</v>
       </c>
@@ -8673,7 +8673,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>56</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>52</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>225</v>
       </c>
@@ -8742,7 +8742,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>52</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>52</v>
       </c>
@@ -8785,7 +8785,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>71</v>
       </c>
@@ -8819,7 +8819,7 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>71</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>71</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>71</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>52</v>
       </c>
@@ -8941,7 +8941,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>52</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>56</v>
       </c>
@@ -8995,7 +8995,7 @@
       <c r="P204" s="6"/>
       <c r="V204" s="11"/>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>56</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>56</v>
       </c>
@@ -9047,7 +9047,7 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>56</v>
       </c>
@@ -9075,7 +9075,7 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>56</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>56</v>
       </c>
@@ -9121,7 +9121,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>56</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>56</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>52</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>56</v>
       </c>
@@ -9208,7 +9208,7 @@
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>56</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>56</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>225</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>56</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>56</v>
       </c>
@@ -9342,7 +9342,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>56</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>56</v>
       </c>
@@ -9387,7 +9387,7 @@
       </c>
       <c r="V221" s="11"/>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>56</v>
       </c>
@@ -9419,7 +9419,7 @@
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>56</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>56</v>
       </c>
@@ -9463,7 +9463,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>56</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>56</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>56</v>
       </c>
@@ -9533,7 +9533,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>56</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>56</v>
       </c>
@@ -9577,7 +9577,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>56</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>56</v>
       </c>
@@ -9621,7 +9621,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>56</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>56</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>56</v>
       </c>
@@ -9687,7 +9687,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>225</v>
       </c>
@@ -9709,7 +9709,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>56</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>56</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>56</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>56</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>56</v>
       </c>
@@ -9825,7 +9825,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>56</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>56</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>56</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>56</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>56</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>56</v>
       </c>
@@ -9961,7 +9961,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>56</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>52</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>56</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>225</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>56</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>56</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>56</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>56</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>56</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>52</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>56</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>56</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>56</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>56</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>56</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>56</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>56</v>
       </c>
@@ -10342,7 +10342,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>56</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>52</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>225</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>56</v>
       </c>
@@ -10428,7 +10428,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>56</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>56</v>
       </c>
@@ -10474,7 +10474,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>56</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>56</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>56</v>
       </c>
@@ -10546,7 +10546,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>56</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>56</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>56</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>56</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>56</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>56</v>
       </c>
@@ -10681,7 +10681,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>52</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>56</v>
       </c>
@@ -10728,7 +10728,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>56</v>
       </c>
@@ -10751,7 +10751,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>56</v>
       </c>
@@ -10773,7 +10773,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>56</v>
       </c>
@@ -10795,7 +10795,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>56</v>
       </c>
@@ -10814,7 +10814,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>56</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>56</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>56</v>
       </c>
@@ -10889,7 +10889,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>56</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>52</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>52</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>56</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>56</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>56</v>
       </c>
@@ -11028,7 +11028,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>52</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>52</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>52</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>52</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>56</v>
       </c>
@@ -11145,7 +11145,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>56</v>
       </c>
@@ -11169,7 +11169,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>56</v>
       </c>
@@ -11189,7 +11189,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>56</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>56</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>56</v>
       </c>
@@ -11255,7 +11255,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
         <v>52</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>56</v>
       </c>
@@ -11309,7 +11309,7 @@
       <c r="O305" s="4"/>
       <c r="P305" s="4"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>56</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>56</v>
       </c>
@@ -11355,7 +11355,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>56</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>56</v>
       </c>
@@ -11401,7 +11401,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>56</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>225</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
         <v>71</v>
       </c>
@@ -11469,7 +11469,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
         <v>71</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
         <v>71</v>
       </c>
@@ -11530,7 +11530,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
         <v>369</v>
       </c>
@@ -11556,7 +11556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A316" s="7" t="s">
         <v>71</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
         <v>369</v>
       </c>
@@ -11616,7 +11616,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
         <v>369</v>
       </c>
@@ -11636,7 +11636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
         <v>369</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
         <v>71</v>
       </c>
@@ -11685,7 +11685,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>369</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
         <v>71</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>369</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>369</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
         <v>369</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
         <v>369</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
         <v>369</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
         <v>52</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
         <v>369</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
         <v>369</v>
       </c>
@@ -11906,7 +11906,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
         <v>369</v>
       </c>
@@ -11923,7 +11923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
         <v>369</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
         <v>369</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
         <v>369</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>369</v>
       </c>
@@ -11997,7 +11997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
         <v>71</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>369</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
         <v>71</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
         <v>369</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
         <v>71</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
         <v>369</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
         <v>369</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
         <v>369</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
         <v>369</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A345" s="7" t="s">
         <v>71</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A346" s="7" t="s">
         <v>369</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A347" s="7" t="s">
         <v>71</v>
       </c>
@@ -12293,7 +12293,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A348" s="7" t="s">
         <v>369</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="s">
         <v>369</v>
       </c>
@@ -12333,7 +12333,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
         <v>71</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
         <v>71</v>
       </c>
@@ -12394,7 +12394,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
         <v>369</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
         <v>71</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
         <v>369</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
         <v>369</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
         <v>369</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="s">
         <v>71</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A358" s="7" t="s">
         <v>71</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="s">
         <v>71</v>
       </c>
@@ -12616,7 +12616,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A360" s="7" t="s">
         <v>71</v>
       </c>
@@ -12647,7 +12647,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
         <v>369</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A362" s="7" t="s">
         <v>71</v>
       </c>
@@ -12699,7 +12699,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
         <v>56</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
         <v>369</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="s">
         <v>71</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A366" s="7" t="s">
         <v>71</v>
       </c>
@@ -12802,7 +12802,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A367" s="7" t="s">
         <v>52</v>
       </c>
@@ -12822,7 +12822,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A368" s="7" t="s">
         <v>71</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
         <v>71</v>
       </c>
@@ -12877,7 +12877,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
         <v>369</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
         <v>71</v>
       </c>
@@ -12929,7 +12929,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
         <v>369</v>
       </c>
@@ -12946,7 +12946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
         <v>71</v>
       </c>
@@ -12972,7 +12972,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
         <v>369</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
         <v>71</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
         <v>71</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
         <v>71</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
         <v>71</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
         <v>71</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
         <v>71</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
         <v>71</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
         <v>71</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
         <v>71</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
         <v>71</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>56</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>56</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>56</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A388" s="7" t="s">
         <v>71</v>
       </c>
@@ -13376,7 +13376,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A389" s="7" t="s">
         <v>71</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>56</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>56</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>56</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A393" s="7" t="s">
         <v>71</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A394" s="7" t="s">
         <v>56</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A395" s="7" t="s">
         <v>71</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>56</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>56</v>
       </c>
@@ -13610,7 +13610,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>56</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>56</v>
       </c>
@@ -13653,7 +13653,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A400" s="7" t="s">
         <v>71</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
         <v>71</v>
       </c>
@@ -13711,7 +13711,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A402" s="7" t="s">
         <v>56</v>
       </c>
@@ -13728,7 +13728,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A403" s="7" t="s">
         <v>71</v>
       </c>
@@ -13757,7 +13757,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A404" s="7" t="s">
         <v>56</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>44332</v>
       </c>
     </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A405" s="7" t="s">
         <v>56</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A406" s="7" t="s">
         <v>56</v>
       </c>
@@ -13817,7 +13817,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A407" s="7" t="s">
         <v>56</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="408" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A408" s="7" t="s">
         <v>56</v>
       </c>
@@ -13857,7 +13857,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A409" s="7" t="s">
         <v>56</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="410" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A410" s="7" t="s">
         <v>52</v>
       </c>
@@ -13897,7 +13897,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A411" s="7" t="s">
         <v>56</v>
       </c>
@@ -13914,7 +13914,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="412" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A412" s="7" t="s">
         <v>56</v>
       </c>
@@ -13934,7 +13934,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
         <v>71</v>
       </c>
@@ -13963,7 +13963,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="414" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A414" s="7" t="s">
         <v>56</v>
       </c>
@@ -13983,7 +13983,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A415" s="7" t="s">
         <v>56</v>
       </c>
@@ -14003,7 +14003,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="416" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A416" s="7" t="s">
         <v>71</v>
       </c>
@@ -14032,7 +14032,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A417" s="7" t="s">
         <v>71</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
         <v>71</v>
       </c>
@@ -14096,7 +14096,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>56</v>
       </c>
@@ -14116,7 +14116,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
         <v>56</v>
       </c>
@@ -14136,7 +14136,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>56</v>
       </c>
@@ -14156,7 +14156,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
         <v>56</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>56</v>
       </c>
@@ -14199,7 +14199,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
         <v>56</v>
       </c>
@@ -14230,7 +14230,7 @@
       <c r="L424" s="12"/>
       <c r="M424" s="12"/>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>56</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
         <v>56</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
         <v>56</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>56</v>
       </c>
@@ -14309,7 +14309,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>56</v>
       </c>
@@ -14332,7 +14332,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>56</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>56</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>44360</v>
       </c>
     </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
         <v>56</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
         <v>56</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A434" s="7" t="s">
         <v>56</v>
       </c>
@@ -14442,7 +14442,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
         <v>56</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A436" s="7" t="s">
         <v>56</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A437" s="7" t="s">
         <v>56</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>56</v>
       </c>
@@ -14534,7 +14534,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>56</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>56</v>
       </c>
@@ -14573,7 +14573,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="441" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>56</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A442" s="7" t="s">
         <v>56</v>
       </c>
@@ -14617,7 +14617,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="443" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A443" s="7" t="s">
         <v>56</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A444" s="7" t="s">
         <v>56</v>
       </c>
@@ -14654,7 +14654,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="445" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>56</v>
       </c>
@@ -14678,7 +14678,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>56</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>56</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>56</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="449" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A449" s="7" t="s">
         <v>56</v>
       </c>
@@ -14762,7 +14762,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A450" s="7" t="s">
         <v>56</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>56</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>56</v>
       </c>
@@ -14834,7 +14834,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="453" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A453" s="7" t="s">
         <v>56</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="454" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A454" s="7" t="s">
         <v>56</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="455" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
         <v>56</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="456" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
         <v>56</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="457" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A457" s="7" t="s">
         <v>56</v>
       </c>
@@ -14947,7 +14947,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="458" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>56</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="459" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>56</v>
       </c>
@@ -14991,7 +14991,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="460" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>56</v>
       </c>
@@ -15014,7 +15014,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="461" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A461" s="7" t="s">
         <v>52</v>
       </c>
@@ -15034,7 +15034,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="462" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A462" s="7" t="s">
         <v>56</v>
       </c>
@@ -15051,7 +15051,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="463" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A463" s="7" t="s">
         <v>52</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="464" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A464" s="7" t="s">
         <v>56</v>
       </c>
@@ -15097,7 +15097,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>56</v>
       </c>
@@ -15119,7 +15119,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>56</v>
       </c>
@@ -15143,7 +15143,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>56</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="7" t="s">
         <v>56</v>
       </c>
@@ -15189,7 +15189,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="7" t="s">
         <v>52</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="7" t="s">
         <v>52</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>56</v>
       </c>
@@ -15251,7 +15251,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>56</v>
       </c>
@@ -15273,7 +15273,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>56</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="7" t="s">
         <v>52</v>
       </c>
@@ -15317,7 +15317,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="7" t="s">
         <v>52</v>
       </c>
@@ -15337,7 +15337,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>56</v>
       </c>
@@ -15357,7 +15357,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="7" t="s">
         <v>52</v>
       </c>
@@ -15374,7 +15374,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="7" t="s">
         <v>56</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>56</v>
       </c>
@@ -15418,7 +15418,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>56</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>56</v>
       </c>
@@ -15464,7 +15464,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>56</v>
       </c>
@@ -15490,7 +15490,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" s="7" t="s">
         <v>52</v>
       </c>
@@ -15510,7 +15510,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484" s="7" t="s">
         <v>52</v>
       </c>
@@ -15533,7 +15533,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>56</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A486" s="7" t="s">
         <v>56</v>
       </c>
@@ -15572,7 +15572,7 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A487" s="7" t="s">
         <v>52</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>56</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>56</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>56</v>
       </c>
@@ -15661,7 +15661,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>56</v>
       </c>
@@ -15685,7 +15685,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A492" s="7" t="s">
         <v>52</v>
       </c>
@@ -15710,7 +15710,7 @@
       <c r="L492" s="4"/>
       <c r="M492" s="4"/>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
         <v>44</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A494" s="7" t="s">
         <v>52</v>
       </c>
@@ -15762,7 +15762,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>56</v>
       </c>
@@ -15784,7 +15784,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A496" s="7" t="s">
         <v>56</v>
       </c>
@@ -15801,7 +15801,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A497" s="7" t="s">
         <v>44</v>
       </c>
@@ -15833,7 +15833,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A498" s="7" t="s">
         <v>44</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A499" s="7" t="s">
         <v>56</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A500" s="7" t="s">
         <v>44</v>
       </c>
@@ -15907,7 +15907,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>56</v>
       </c>
@@ -15926,7 +15926,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>56</v>
       </c>
@@ -15947,7 +15947,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A503" s="7" t="s">
         <v>56</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A504" s="7" t="s">
         <v>56</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A505" s="7" t="s">
         <v>56</v>
       </c>
@@ -16013,7 +16013,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A506" s="7" t="s">
         <v>56</v>
       </c>
@@ -16035,7 +16035,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A507" s="7" t="s">
         <v>44</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>56</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>56</v>
       </c>
@@ -16101,7 +16101,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A510" s="7" t="s">
         <v>56</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A511" s="7" t="s">
         <v>56</v>
       </c>
@@ -16147,7 +16147,7 @@
         <v>44506</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>56</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513" s="7" t="s">
         <v>52</v>
       </c>
@@ -16188,7 +16188,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514" s="7" t="s">
         <v>56</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" s="7" t="s">
         <v>56</v>
       </c>
@@ -16234,7 +16234,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516" s="7" t="s">
         <v>52</v>
       </c>
@@ -16256,7 +16256,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>56</v>
       </c>
@@ -16280,7 +16280,7 @@
       <c r="L517" s="9"/>
       <c r="M517" s="9"/>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>225</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>56</v>
       </c>
@@ -16319,7 +16319,7 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A520" s="7" t="s">
         <v>52</v>
       </c>
@@ -16339,7 +16339,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521" s="7" t="s">
         <v>71</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A522" s="7" t="s">
         <v>369</v>
       </c>
@@ -16388,7 +16388,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523" s="7" t="s">
         <v>369</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A524" s="7" t="s">
         <v>71</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A525" s="7" t="s">
         <v>71</v>
       </c>
@@ -16466,7 +16466,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A526" s="7" t="s">
         <v>369</v>
       </c>
@@ -16489,7 +16489,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A527" s="7" t="s">
         <v>71</v>
       </c>
@@ -16515,7 +16515,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A528" s="7" t="s">
         <v>71</v>
       </c>
@@ -16550,7 +16550,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="529" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A529" s="7" t="s">
         <v>71</v>
       </c>
@@ -16579,7 +16579,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="530" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A530" s="7" t="s">
         <v>71</v>
       </c>
@@ -16605,7 +16605,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="531" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
         <v>52</v>
       </c>
@@ -16625,7 +16625,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="532" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A532" s="7" t="s">
         <v>369</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="533" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A533" s="7" t="s">
         <v>71</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="534" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A534" s="7" t="s">
         <v>71</v>
       </c>
@@ -16706,7 +16706,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="535" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A535" s="7" t="s">
         <v>369</v>
       </c>
@@ -16729,7 +16729,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="536" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A536" s="7" t="s">
         <v>71</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="537" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A537" s="7" t="s">
         <v>52</v>
       </c>
@@ -16781,7 +16781,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="538" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A538" s="7" t="s">
         <v>52</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="539" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A539" s="7" t="s">
         <v>369</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="540" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A540" s="7" t="s">
         <v>71</v>
       </c>
@@ -16858,7 +16858,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="541" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A541" s="7" t="s">
         <v>71</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="542" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A542" s="7" t="s">
         <v>71</v>
       </c>
@@ -16915,7 +16915,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="543" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A543" s="7" t="s">
         <v>71</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="544" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A544" s="7" t="s">
         <v>369</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="545" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A545" s="7" t="s">
         <v>71</v>
       </c>
@@ -16990,7 +16990,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="546" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A546" s="7" t="s">
         <v>71</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="547" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A547" s="7" t="s">
         <v>369</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="548" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A548" s="7" t="s">
         <v>71</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="549" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A549" s="7" t="s">
         <v>369</v>
       </c>
@@ -17097,7 +17097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A550" s="7" t="s">
         <v>71</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="551" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A551" s="7" t="s">
         <v>71</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="552" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A552" s="7" t="s">
         <v>369</v>
       </c>
@@ -17184,7 +17184,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="553" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A553" s="7" t="s">
         <v>71</v>
       </c>
@@ -17213,7 +17213,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="554" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A554" s="7" t="s">
         <v>369</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="555" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A555" s="7" t="s">
         <v>369</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="556" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A556" s="7" t="s">
         <v>71</v>
       </c>
@@ -17285,7 +17285,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="557" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A557" s="7" t="s">
         <v>71</v>
       </c>
@@ -17314,7 +17314,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="558" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A558" s="7" t="s">
         <v>369</v>
       </c>
@@ -17337,7 +17337,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="559" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A559" s="7" t="s">
         <v>71</v>
       </c>
@@ -17366,7 +17366,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="560" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A560" s="7" t="s">
         <v>71</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="561" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A561" s="7" t="s">
         <v>369</v>
       </c>
@@ -17409,7 +17409,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A562" s="7" t="s">
         <v>369</v>
       </c>
@@ -17429,7 +17429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A563" s="7" t="s">
         <v>369</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="564" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A564" s="7" t="s">
         <v>71</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="565" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A565" s="7" t="s">
         <v>71</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="566" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A566" s="7" t="s">
         <v>71</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="567" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A567" s="7" t="s">
         <v>71</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="568" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A568" s="7" t="s">
         <v>71</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="569" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A569" s="7" t="s">
         <v>71</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="570" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A570" s="7" t="s">
         <v>369</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="571" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A571" s="7" t="s">
         <v>71</v>
       </c>
@@ -17705,7 +17705,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="572" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A572" s="7" t="s">
         <v>369</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A573" s="7" t="s">
         <v>369</v>
       </c>
@@ -17748,7 +17748,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="574" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A574" s="7" t="s">
         <v>369</v>
       </c>
@@ -17765,7 +17765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A575" s="7" t="s">
         <v>71</v>
       </c>
@@ -17791,7 +17791,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="576" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A576" s="7" t="s">
         <v>56</v>
       </c>
@@ -17811,7 +17811,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="577" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A577" s="7" t="s">
         <v>56</v>
       </c>
@@ -17828,7 +17828,7 @@
         <v>44637</v>
       </c>
     </row>
-    <row r="578" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A578" s="7" t="s">
         <v>369</v>
       </c>
@@ -17851,7 +17851,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="579" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A579" s="7" t="s">
         <v>71</v>
       </c>
@@ -17879,7 +17879,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="580" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A580" s="7" t="s">
         <v>56</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="581" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A581" s="7" t="s">
         <v>56</v>
       </c>
@@ -17922,7 +17922,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="582" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A582" s="7" t="s">
         <v>369</v>
       </c>
@@ -17939,7 +17939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A583" s="7" t="s">
         <v>56</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="584" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A584" s="7" t="s">
         <v>71</v>
       </c>
@@ -17982,7 +17982,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="585" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A585" s="7" t="s">
         <v>56</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="586" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A586" s="7" t="s">
         <v>71</v>
       </c>
@@ -18028,7 +18028,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="587" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A587" s="7" t="s">
         <v>71</v>
       </c>
@@ -18054,7 +18054,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="588" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A588" s="7" t="s">
         <v>71</v>
       </c>
@@ -18083,7 +18083,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="589" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A589" s="7" t="s">
         <v>56</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="590" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A590" s="7" t="s">
         <v>52</v>
       </c>
@@ -18123,7 +18123,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="591" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A591" s="7" t="s">
         <v>71</v>
       </c>
@@ -18152,7 +18152,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="592" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A592" s="7" t="s">
         <v>71</v>
       </c>
@@ -18181,7 +18181,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A593" s="7" t="s">
         <v>56</v>
       </c>
@@ -18198,7 +18198,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A594" s="7" t="s">
         <v>56</v>
       </c>
@@ -18215,7 +18215,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>56</v>
       </c>
@@ -18236,7 +18236,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>56</v>
       </c>
@@ -18257,7 +18257,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>56</v>
       </c>
@@ -18278,7 +18278,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>56</v>
       </c>
@@ -18299,7 +18299,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A599" s="7" t="s">
         <v>44</v>
       </c>
@@ -18325,7 +18325,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>56</v>
       </c>
@@ -18347,7 +18347,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>56</v>
       </c>
@@ -18369,7 +18369,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>56</v>
       </c>
@@ -18391,7 +18391,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>56</v>
       </c>
@@ -18415,7 +18415,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>56</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A605" s="7" t="s">
         <v>56</v>
       </c>
@@ -18456,7 +18456,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A606" s="7" t="s">
         <v>56</v>
       </c>
@@ -18473,7 +18473,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A607" s="7" t="s">
         <v>56</v>
       </c>
@@ -18493,7 +18493,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A608" s="7" t="s">
         <v>56</v>
       </c>
@@ -18516,7 +18516,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A609" s="7" t="s">
         <v>56</v>
       </c>
@@ -18539,7 +18539,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A610" s="7" t="s">
         <v>56</v>
       </c>
@@ -18558,7 +18558,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A611" s="7" t="s">
         <v>56</v>
       </c>
@@ -18575,7 +18575,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A612" s="7" t="s">
         <v>56</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A613" s="7" t="s">
         <v>56</v>
       </c>
@@ -18623,7 +18623,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A614" s="7" t="s">
         <v>56</v>
       </c>
@@ -18645,7 +18645,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A615" s="7" t="s">
         <v>56</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A616" s="7" t="s">
         <v>56</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A617" s="7" t="s">
         <v>44</v>
       </c>
@@ -18712,7 +18712,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A618" s="7" t="s">
         <v>56</v>
       </c>
@@ -18729,7 +18729,7 @@
         <v>44871</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A619" s="7" t="s">
         <v>56</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A620" s="7" t="s">
         <v>56</v>
       </c>
@@ -18773,7 +18773,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A621" s="7" t="s">
         <v>56</v>
       </c>
@@ -18797,7 +18797,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>56</v>
       </c>
@@ -18819,7 +18819,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>56</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A624" s="7" t="s">
         <v>44</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A625" s="7" t="s">
         <v>44</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A626" s="7" t="s">
         <v>44</v>
       </c>
@@ -18897,7 +18897,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="627" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A627" s="7" t="s">
         <v>44</v>
       </c>
@@ -18914,7 +18914,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="628" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A628" s="7" t="s">
         <v>44</v>
       </c>
@@ -18934,7 +18934,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="629" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A629" s="7" t="s">
         <v>44</v>
       </c>
@@ -18951,7 +18951,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="630" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A630" s="7" t="s">
         <v>725</v>
       </c>
@@ -18968,7 +18968,7 @@
         <v>44912</v>
       </c>
     </row>
-    <row r="631" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A631" s="7" t="s">
         <v>44</v>
       </c>
@@ -18988,7 +18988,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="632" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A632" s="7" t="s">
         <v>44</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="633" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A633" s="7" t="s">
         <v>44</v>
       </c>
@@ -19022,7 +19022,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="634" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A634" s="7" t="s">
         <v>44</v>
       </c>
@@ -19045,7 +19045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A635" s="7" t="s">
         <v>44</v>
       </c>
@@ -19065,7 +19065,7 @@
         <v>44920</v>
       </c>
     </row>
-    <row r="636" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A636" s="7" t="s">
         <v>44</v>
       </c>
@@ -19082,7 +19082,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="637" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A637" s="7" t="s">
         <v>44</v>
       </c>
@@ -19099,7 +19099,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="638" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A638" s="7" t="s">
         <v>44</v>
       </c>
@@ -19128,7 +19128,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="639" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A639" s="7" t="s">
         <v>52</v>
       </c>
@@ -19145,7 +19145,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="640" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A640" s="7" t="s">
         <v>44</v>
       </c>
@@ -19177,7 +19177,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="641" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A641" s="7" t="s">
         <v>52</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="642" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A642" s="7" t="s">
         <v>44</v>
       </c>
@@ -19217,7 +19217,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="643" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A643" s="7" t="s">
         <v>44</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="644" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A644" s="7" t="s">
         <v>44</v>
       </c>
@@ -19257,7 +19257,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="645" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A645" s="7" t="s">
         <v>44</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="646" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A646" s="7" t="s">
         <v>44</v>
       </c>
@@ -19291,7 +19291,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="647" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A647" s="7" t="s">
         <v>44</v>
       </c>
@@ -19311,7 +19311,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="648" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A648" s="7" t="s">
         <v>44</v>
       </c>
@@ -19328,7 +19328,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="649" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A649" s="7" t="s">
         <v>44</v>
       </c>
@@ -19345,7 +19345,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="650" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A650" s="7" t="s">
         <v>44</v>
       </c>
@@ -19368,7 +19368,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="651" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A651" s="7" t="s">
         <v>44</v>
       </c>
@@ -19391,7 +19391,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="652" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A652" s="7" t="s">
         <v>44</v>
       </c>
@@ -19408,7 +19408,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="653" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A653" s="7" t="s">
         <v>44</v>
       </c>
@@ -19434,7 +19434,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="654" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A654" s="7" t="s">
         <v>44</v>
       </c>
@@ -19457,7 +19457,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="655" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A655" s="7" t="s">
         <v>44</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="656" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A656" s="7" t="s">
         <v>44</v>
       </c>
@@ -19500,7 +19500,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="657" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A657" s="7" t="s">
         <v>44</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="658" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A658" s="7" t="s">
         <v>44</v>
       </c>
@@ -19540,7 +19540,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="659" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A659" s="7" t="s">
         <v>44</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="660" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A660" s="7" t="s">
         <v>56</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="661" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A661" s="7" t="s">
         <v>56</v>
       </c>
@@ -19600,7 +19600,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="662" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A662" s="7" t="s">
         <v>56</v>
       </c>
@@ -19617,7 +19617,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="663" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>56</v>
       </c>
@@ -19638,7 +19638,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="664" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A664" s="7" t="s">
         <v>44</v>
       </c>
@@ -19655,7 +19655,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="665" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A665" s="7" t="s">
         <v>44</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="666" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A666" s="7" t="s">
         <v>44</v>
       </c>
@@ -19689,7 +19689,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="667" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A667" s="7" t="s">
         <v>44</v>
       </c>
@@ -19706,7 +19706,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="668" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A668" s="7" t="s">
         <v>44</v>
       </c>
@@ -19723,7 +19723,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="669" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A669" s="7" t="s">
         <v>44</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="670" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A670" s="7" t="s">
         <v>56</v>
       </c>
@@ -19760,7 +19760,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="671" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A671" s="7" t="s">
         <v>56</v>
       </c>
@@ -19777,7 +19777,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="672" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A672" s="7" t="s">
         <v>44</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" s="7" t="s">
         <v>56</v>
       </c>
@@ -19814,7 +19814,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" s="7" t="s">
         <v>56</v>
       </c>
@@ -19837,7 +19837,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" s="7" t="s">
         <v>52</v>
       </c>
@@ -19854,7 +19854,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" s="7" t="s">
         <v>52</v>
       </c>
@@ -19874,7 +19874,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" s="7" t="s">
         <v>44</v>
       </c>
@@ -19891,7 +19891,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" s="7" t="s">
         <v>56</v>
       </c>
@@ -19908,7 +19908,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" s="7" t="s">
         <v>44</v>
       </c>
@@ -19925,7 +19925,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" s="7" t="s">
         <v>56</v>
       </c>
@@ -19945,7 +19945,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" s="7" t="s">
         <v>56</v>
       </c>
@@ -19968,7 +19968,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" s="7" t="s">
         <v>52</v>
       </c>
@@ -19985,7 +19985,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" s="7" t="s">
         <v>52</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" s="7" t="s">
         <v>52</v>
       </c>
@@ -20019,7 +20019,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" s="7" t="s">
         <v>56</v>
       </c>
@@ -20036,7 +20036,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" s="7" t="s">
         <v>56</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" s="7" t="s">
         <v>56</v>
       </c>
@@ -20076,7 +20076,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" s="7" t="s">
         <v>52</v>
       </c>
@@ -20096,7 +20096,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="689" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A689" s="7" t="s">
         <v>56</v>
       </c>
@@ -20116,7 +20116,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="690" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A690" s="7" t="s">
         <v>71</v>
       </c>
@@ -20142,7 +20142,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="691" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A691" s="7" t="s">
         <v>52</v>
       </c>
@@ -20162,7 +20162,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="692" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A692" s="7" t="s">
         <v>52</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="693" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A693" s="7" t="s">
         <v>52</v>
       </c>
@@ -20199,7 +20199,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="694" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A694" s="7" t="s">
         <v>52</v>
       </c>
@@ -20216,7 +20216,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="695" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A695" s="7" t="s">
         <v>56</v>
       </c>
@@ -20233,7 +20233,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="696" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A696" s="7" t="s">
         <v>56</v>
       </c>
@@ -20253,7 +20253,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="697" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A697" s="7" t="s">
         <v>56</v>
       </c>
@@ -20273,7 +20273,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="698" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A698" s="7" t="s">
         <v>56</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="699" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A699" s="7" t="s">
         <v>768</v>
       </c>
@@ -20307,7 +20307,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="700" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A700" s="7" t="s">
         <v>56</v>
       </c>
@@ -20327,7 +20327,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="701" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A701" s="7" t="s">
         <v>56</v>
       </c>
@@ -20350,7 +20350,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="702" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A702" s="7" t="s">
         <v>56</v>
       </c>
@@ -20370,7 +20370,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="703" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A703" s="7" t="s">
         <v>56</v>
       </c>
@@ -20390,7 +20390,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="704" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A704" s="7" t="s">
         <v>56</v>
       </c>
@@ -20410,7 +20410,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A705" s="7" t="s">
         <v>56</v>
       </c>
@@ -20433,7 +20433,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A706" s="7" t="s">
         <v>56</v>
       </c>
@@ -20453,7 +20453,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A707" s="7" t="s">
         <v>52</v>
       </c>
@@ -20473,7 +20473,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A708" s="7" t="s">
         <v>56</v>
       </c>
@@ -20493,7 +20493,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
         <v>225</v>
       </c>
@@ -20515,7 +20515,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A710" s="7" t="s">
         <v>56</v>
       </c>
@@ -20535,7 +20535,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A711" s="7" t="s">
         <v>56</v>
       </c>
@@ -20555,7 +20555,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A712" s="7" t="s">
         <v>768</v>
       </c>
@@ -20578,7 +20578,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A713" s="7" t="s">
         <v>768</v>
       </c>
@@ -20601,7 +20601,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
         <v>56</v>
       </c>
@@ -20620,7 +20620,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A715" s="7" t="s">
         <v>56</v>
       </c>
@@ -20640,7 +20640,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A716" s="7" t="s">
         <v>56</v>
       </c>
@@ -20663,7 +20663,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A717" s="7" t="s">
         <v>52</v>
       </c>
@@ -20683,7 +20683,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A718" s="7" t="s">
         <v>44</v>
       </c>
@@ -20703,7 +20703,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A719" s="7" t="s">
         <v>768</v>
       </c>
@@ -20720,7 +20720,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A720" s="7" t="s">
         <v>56</v>
       </c>
@@ -20737,7 +20737,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="721" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A721" s="7" t="s">
         <v>56</v>
       </c>
@@ -20754,7 +20754,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="722" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A722" s="7" t="s">
         <v>56</v>
       </c>
@@ -20771,7 +20771,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="723" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A723" s="7" t="s">
         <v>56</v>
       </c>
@@ -20794,7 +20794,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="724" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A724" s="7" t="s">
         <v>44</v>
       </c>
@@ -20820,7 +20820,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="725" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A725" s="7" t="s">
         <v>52</v>
       </c>
@@ -20840,7 +20840,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="726" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A726" s="7" t="s">
         <v>56</v>
       </c>
@@ -20860,7 +20860,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="727" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A727" s="7" t="s">
         <v>768</v>
       </c>
@@ -20877,7 +20877,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="728" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A728" s="7" t="s">
         <v>56</v>
       </c>
@@ -20894,7 +20894,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="729" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A729" s="7" t="s">
         <v>52</v>
       </c>
@@ -20914,7 +20914,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="730" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A730" s="7" t="s">
         <v>44</v>
       </c>
@@ -20943,7 +20943,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="731" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A731" s="7" t="s">
         <v>44</v>
       </c>
@@ -20972,7 +20972,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="732" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A732" s="7" t="s">
         <v>52</v>
       </c>
@@ -20992,7 +20992,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="733" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A733" s="7" t="s">
         <v>52</v>
       </c>
@@ -21012,7 +21012,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="734" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A734" s="7" t="s">
         <v>56</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="735" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A735" s="7" t="s">
         <v>56</v>
       </c>
@@ -21052,7 +21052,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="736" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A736" s="7" t="s">
         <v>56</v>
       </c>
@@ -21072,7 +21072,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A737" s="7" t="s">
         <v>56</v>
       </c>
@@ -21089,7 +21089,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A738" s="7" t="s">
         <v>56</v>
       </c>
@@ -21106,7 +21106,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" s="7" t="s">
         <v>56</v>
       </c>
@@ -21126,7 +21126,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" s="7" t="s">
         <v>52</v>
       </c>
@@ -21146,7 +21146,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A741" s="7" t="s">
         <v>52</v>
       </c>
@@ -21166,7 +21166,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" s="7" t="s">
         <v>52</v>
       </c>
@@ -21189,7 +21189,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A743" s="7" t="s">
         <v>56</v>
       </c>
@@ -21209,7 +21209,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" s="7" t="s">
         <v>56</v>
       </c>
@@ -21226,7 +21226,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" s="7" t="s">
         <v>52</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A746" s="7" t="s">
         <v>52</v>
       </c>
@@ -21266,7 +21266,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A747" s="7" t="s">
         <v>56</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A748" s="7" t="s">
         <v>56</v>
       </c>
@@ -21303,7 +21303,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A749" s="7" t="s">
         <v>56</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A750" s="7" t="s">
         <v>44</v>
       </c>
@@ -21340,7 +21340,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A751" s="7" t="s">
         <v>56</v>
       </c>
@@ -21360,7 +21360,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A752" s="7" t="s">
         <v>56</v>
       </c>
@@ -21380,7 +21380,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="753" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A753" s="7" t="s">
         <v>56</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="754" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A754" s="7" t="s">
         <v>56</v>
       </c>
@@ -21420,7 +21420,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="755" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A755" s="7" t="s">
         <v>56</v>
       </c>
@@ -21440,7 +21440,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="756" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A756" s="7" t="s">
         <v>56</v>
       </c>
@@ -21460,7 +21460,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="757" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A757" s="7" t="s">
         <v>56</v>
       </c>
@@ -21480,7 +21480,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="758" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A758" s="7" t="s">
         <v>56</v>
       </c>
@@ -21503,7 +21503,7 @@
       <c r="J758" s="4"/>
       <c r="K758" s="4"/>
     </row>
-    <row r="759" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A759" s="7" t="s">
         <v>56</v>
       </c>
@@ -21520,7 +21520,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="760" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A760" s="7" t="s">
         <v>52</v>
       </c>
@@ -21540,7 +21540,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="761" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A761" s="7" t="s">
         <v>768</v>
       </c>
@@ -21557,7 +21557,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="762" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A762" s="7" t="s">
         <v>52</v>
       </c>
@@ -21577,7 +21577,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="763" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A763" s="7" t="s">
         <v>52</v>
       </c>
@@ -21594,7 +21594,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="764" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A764" s="7" t="s">
         <v>52</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="765" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A765" s="7" t="s">
         <v>71</v>
       </c>
@@ -21643,7 +21643,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="766" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A766" s="7" t="s">
         <v>71</v>
       </c>
@@ -21672,7 +21672,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="767" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A767" s="7" t="s">
         <v>71</v>
       </c>
@@ -21698,7 +21698,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="768" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A768" s="7" t="s">
         <v>71</v>
       </c>
@@ -21727,7 +21727,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="769" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A769" s="7" t="s">
         <v>369</v>
       </c>
@@ -21753,7 +21753,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="770" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A770" s="7" t="s">
         <v>52</v>
       </c>
@@ -21770,7 +21770,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="771" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A771" s="7" t="s">
         <v>71</v>
       </c>
@@ -21802,7 +21802,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="772" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A772" s="7" t="s">
         <v>369</v>
       </c>
@@ -21825,7 +21825,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="773" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A773" s="7" t="s">
         <v>52</v>
       </c>
@@ -21845,7 +21845,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="774" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A774" s="7" t="s">
         <v>369</v>
       </c>
@@ -21874,7 +21874,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="775" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A775" s="7" t="s">
         <v>369</v>
       </c>
@@ -21897,7 +21897,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="776" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A776" s="7" t="s">
         <v>71</v>
       </c>
@@ -21926,7 +21926,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="777" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A777" s="7" t="s">
         <v>369</v>
       </c>
@@ -21943,7 +21943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A778" s="7" t="s">
         <v>71</v>
       </c>
@@ -21969,7 +21969,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="779" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A779" s="7" t="s">
         <v>71</v>
       </c>
@@ -21995,7 +21995,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="780" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A780" s="7" t="s">
         <v>44</v>
       </c>
@@ -22021,7 +22021,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="781" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A781" s="7" t="s">
         <v>71</v>
       </c>
@@ -22050,7 +22050,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="782" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A782" s="7" t="s">
         <v>369</v>
       </c>
@@ -22079,7 +22079,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="783" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A783" s="7" t="s">
         <v>369</v>
       </c>
@@ -22102,7 +22102,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="784" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A784" s="7" t="s">
         <v>52</v>
       </c>
@@ -22122,7 +22122,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="785" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A785" s="7" t="s">
         <v>52</v>
       </c>
@@ -22142,7 +22142,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="786" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A786" s="7" t="s">
         <v>71</v>
       </c>
@@ -22171,7 +22171,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="787" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A787" s="7" t="s">
         <v>369</v>
       </c>
@@ -22191,7 +22191,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="788" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A788" s="7" t="s">
         <v>71</v>
       </c>
@@ -22223,7 +22223,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="789" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A789" s="7" t="s">
         <v>52</v>
       </c>
@@ -22243,7 +22243,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="790" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A790" s="7" t="s">
         <v>52</v>
       </c>
@@ -22263,7 +22263,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="791" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A791" s="7" t="s">
         <v>71</v>
       </c>
@@ -22292,7 +22292,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="792" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A792" s="7" t="s">
         <v>71</v>
       </c>
@@ -22324,7 +22324,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="793" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A793" s="7" t="s">
         <v>71</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="794" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A794" s="7" t="s">
         <v>52</v>
       </c>
@@ -22373,7 +22373,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="795" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A795" s="7" t="s">
         <v>369</v>
       </c>
@@ -22393,7 +22393,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="796" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A796" s="7" t="s">
         <v>52</v>
       </c>
@@ -22413,7 +22413,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="797" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A797" s="7" t="s">
         <v>369</v>
       </c>
@@ -22430,7 +22430,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="798" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A798" s="7" t="s">
         <v>71</v>
       </c>
@@ -22462,7 +22462,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="799" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A799" s="7" t="s">
         <v>71</v>
       </c>
@@ -22488,7 +22488,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="800" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A800" s="7" t="s">
         <v>71</v>
       </c>
@@ -22517,7 +22517,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="801" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A801" s="7" t="s">
         <v>71</v>
       </c>
@@ -22546,7 +22546,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="802" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A802" s="7" t="s">
         <v>44</v>
       </c>
@@ -22563,7 +22563,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="803" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A803" s="7" t="s">
         <v>71</v>
       </c>
@@ -22595,7 +22595,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="804" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A804" s="7" t="s">
         <v>71</v>
       </c>
@@ -22630,7 +22630,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="805" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A805" s="7" t="s">
         <v>56</v>
       </c>
@@ -22650,7 +22650,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="806" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A806" s="7" t="s">
         <v>56</v>
       </c>
@@ -22667,7 +22667,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="807" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A807" s="7" t="s">
         <v>369</v>
       </c>
@@ -22681,7 +22681,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="808" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A808" s="7" t="s">
         <v>369</v>
       </c>
@@ -22692,7 +22692,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="809" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A809" s="7" t="s">
         <v>52</v>
       </c>
@@ -22712,7 +22712,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="810" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A810" s="7" t="s">
         <v>56</v>
       </c>
@@ -22732,7 +22732,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="811" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A811" s="7" t="s">
         <v>71</v>
       </c>
@@ -22761,7 +22761,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="812" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A812" s="7" t="s">
         <v>369</v>
       </c>
@@ -22781,7 +22781,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="813" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A813" s="7" t="s">
         <v>369</v>
       </c>
@@ -22798,7 +22798,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="814" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A814" s="7" t="s">
         <v>71</v>
       </c>
@@ -22824,7 +22824,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="815" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A815" s="7" t="s">
         <v>71</v>
       </c>
@@ -22847,7 +22847,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="816" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A816" s="7" t="s">
         <v>369</v>
       </c>
@@ -22867,7 +22867,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="817" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A817" s="7" t="s">
         <v>44</v>
       </c>
@@ -22887,7 +22887,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="818" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A818" s="7" t="s">
         <v>52</v>
       </c>
@@ -22907,7 +22907,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="819" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A819" s="7" t="s">
         <v>71</v>
       </c>
@@ -22936,7 +22936,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="820" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A820" s="7" t="s">
         <v>369</v>
       </c>
@@ -22959,7 +22959,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="821" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A821" s="7" t="s">
         <v>71</v>
       </c>
@@ -22988,7 +22988,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="822" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A822" s="7" t="s">
         <v>52</v>
       </c>
@@ -23008,7 +23008,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="823" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A823" s="7" t="s">
         <v>56</v>
       </c>
@@ -23028,7 +23028,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="824" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A824" s="7" t="s">
         <v>56</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="825" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A825" s="7" t="s">
         <v>56</v>
       </c>
@@ -23065,7 +23065,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="826" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A826" s="7" t="s">
         <v>52</v>
       </c>
@@ -23085,7 +23085,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="827" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
         <v>56</v>
       </c>
@@ -23107,7 +23107,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="828" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
         <v>56</v>
       </c>
@@ -23131,7 +23131,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="829" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A829" s="7" t="s">
         <v>52</v>
       </c>
@@ -23151,7 +23151,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="830" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>56</v>
       </c>
@@ -23173,7 +23173,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="831" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
         <v>56</v>
       </c>
@@ -23197,7 +23197,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="832" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A832" s="7" t="s">
         <v>883</v>
       </c>
@@ -23214,7 +23214,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="833" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A833" s="7" t="s">
         <v>44</v>
       </c>
@@ -23231,7 +23231,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="834" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A834" s="7" t="s">
         <v>52</v>
       </c>
@@ -23251,7 +23251,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="835" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A835" s="7" t="s">
         <v>56</v>
       </c>
@@ -23271,7 +23271,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="836" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A836" s="7" t="s">
         <v>56</v>
       </c>
@@ -23288,7 +23288,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="837" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A837" s="7" t="s">
         <v>56</v>
       </c>
@@ -23308,7 +23308,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="838" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A838" s="7" t="s">
         <v>56</v>
       </c>
@@ -23325,7 +23325,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="839" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A839" s="7" t="s">
         <v>56</v>
       </c>
@@ -23347,7 +23347,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="840" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A840" s="7" t="s">
         <v>56</v>
       </c>
@@ -23371,7 +23371,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="841" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A841" s="7" t="s">
         <v>56</v>
       </c>
@@ -23391,7 +23391,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="842" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A842" s="7" t="s">
         <v>56</v>
       </c>
@@ -23408,7 +23408,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="843" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A843" s="7" t="s">
         <v>56</v>
       </c>
@@ -23425,7 +23425,7 @@
         <v>45409</v>
       </c>
     </row>
-    <row r="844" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A844" s="7" t="s">
         <v>56</v>
       </c>
@@ -23445,7 +23445,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="845" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A845" s="7" t="s">
         <v>56</v>
       </c>
@@ -23465,7 +23465,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="846" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
         <v>56</v>
       </c>
@@ -23487,7 +23487,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="847" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
         <v>56</v>
       </c>
@@ -23511,7 +23511,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="848" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A848" s="7" t="s">
         <v>71</v>
       </c>
@@ -23546,7 +23546,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="849" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A849" s="7" t="s">
         <v>71</v>
       </c>
@@ -23575,7 +23575,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="850" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A850" s="7" t="s">
         <v>71</v>
       </c>
@@ -23601,7 +23601,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="851" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A851" s="7" t="s">
         <v>71</v>
       </c>
@@ -23630,7 +23630,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="852" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A852" s="7" t="s">
         <v>56</v>
       </c>
@@ -23650,7 +23650,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="853" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A853" s="7" t="s">
         <v>52</v>
       </c>
@@ -23670,7 +23670,7 @@
         <v>45428</v>
       </c>
     </row>
-    <row r="854" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A854" s="7" t="s">
         <v>56</v>
       </c>
@@ -23687,7 +23687,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="855" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A855" s="7" t="s">
         <v>56</v>
       </c>
@@ -23710,7 +23710,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A856" s="7" t="s">
         <v>56</v>
       </c>
@@ -23730,7 +23730,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="857" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A857" s="7" t="s">
         <v>56</v>
       </c>
@@ -23750,7 +23750,7 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="858" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A858" s="7" t="s">
         <v>56</v>
       </c>
@@ -23773,7 +23773,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="859" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A859" s="7" t="s">
         <v>52</v>
       </c>
@@ -23793,7 +23793,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="860" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A860" s="7" t="s">
         <v>56</v>
       </c>
@@ -23813,7 +23813,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="861" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A861" s="7" t="s">
         <v>52</v>
       </c>
@@ -23833,7 +23833,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="862" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A862" s="7" t="s">
         <v>56</v>
       </c>
@@ -23853,7 +23853,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="863" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A863" s="7" t="s">
         <v>56</v>
       </c>
@@ -23873,7 +23873,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="864" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A864" s="7" t="s">
         <v>56</v>
       </c>
@@ -23893,7 +23893,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="865" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A865" s="7" t="s">
         <v>56</v>
       </c>
@@ -23913,7 +23913,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="866" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A866" s="7" t="s">
         <v>44</v>
       </c>
@@ -23939,7 +23939,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="867" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A867" s="7" t="s">
         <v>52</v>
       </c>
@@ -23959,7 +23959,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="868" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A868" s="7" t="s">
         <v>56</v>
       </c>
@@ -23976,7 +23976,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="869" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A869" s="7" t="s">
         <v>56</v>
       </c>
@@ -23998,7 +23998,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="870" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A870" s="7" t="s">
         <v>56</v>
       </c>
@@ -24021,7 +24021,7 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="871" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A871" s="7" t="s">
         <v>56</v>
       </c>
@@ -24038,7 +24038,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="872" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A872" s="7" t="s">
         <v>52</v>
       </c>
@@ -24058,7 +24058,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="873" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A873" s="7" t="s">
         <v>56</v>
       </c>
@@ -24075,7 +24075,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="874" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A874" s="7" t="s">
         <v>56</v>
       </c>
@@ -24095,7 +24095,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="875" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A875" s="7" t="s">
         <v>56</v>
       </c>
@@ -24115,7 +24115,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="876" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A876" s="7" t="s">
         <v>56</v>
       </c>
@@ -24132,7 +24132,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="877" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A877" s="7" t="s">
         <v>52</v>
       </c>
@@ -24149,7 +24149,7 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="878" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A878" s="7" t="s">
         <v>52</v>
       </c>
@@ -24172,7 +24172,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="879" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A879" s="7" t="s">
         <v>52</v>
       </c>
@@ -24192,7 +24192,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="880" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A880" s="7" t="s">
         <v>56</v>
       </c>
@@ -24209,7 +24209,7 @@
         <v>45477</v>
       </c>
     </row>
-    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A881" s="7" t="s">
         <v>71</v>
       </c>
@@ -24235,7 +24235,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A882" s="7" t="s">
         <v>44</v>
       </c>
@@ -24255,7 +24255,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A883" s="7" t="s">
         <v>768</v>
       </c>
@@ -24275,7 +24275,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A884" s="7" t="s">
         <v>44</v>
       </c>
@@ -24292,7 +24292,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A885" s="7" t="s">
         <v>44</v>
       </c>
@@ -24309,7 +24309,7 @@
         <v>45484</v>
       </c>
     </row>
-    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A886" s="7" t="s">
         <v>941</v>
       </c>
@@ -24326,7 +24326,7 @@
         <v>45487</v>
       </c>
     </row>
-    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A887" s="7" t="s">
         <v>44</v>
       </c>
@@ -24349,7 +24349,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A888" s="7" t="s">
         <v>52</v>
       </c>
@@ -24366,7 +24366,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A889" s="7" t="s">
         <v>44</v>
       </c>
@@ -24389,7 +24389,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="890" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A890" s="7" t="s">
         <v>52</v>
       </c>
@@ -24418,7 +24418,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A891" s="7" t="s">
         <v>52</v>
       </c>
@@ -24450,7 +24450,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A892" s="7" t="s">
         <v>44</v>
       </c>
@@ -24479,7 +24479,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A893" s="7" t="s">
         <v>56</v>
       </c>
@@ -24496,7 +24496,7 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="894" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A894" s="7" t="s">
         <v>56</v>
       </c>
@@ -24516,7 +24516,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="895" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A895" s="7" t="s">
         <v>44</v>
       </c>
@@ -24536,7 +24536,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="896" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A896" s="7" t="s">
         <v>941</v>
       </c>
@@ -24565,7 +24565,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="897" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A897" s="7" t="s">
         <v>56</v>
       </c>
@@ -24585,7 +24585,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="898" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A898" s="7" t="s">
         <v>52</v>
       </c>
@@ -24617,7 +24617,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="899" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A899" s="7" t="s">
         <v>44</v>
       </c>
@@ -24640,7 +24640,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="900" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A900" s="7" t="s">
         <v>56</v>
       </c>
@@ -24663,7 +24663,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="901" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A901" s="7" t="s">
         <v>56</v>
       </c>
@@ -24683,7 +24683,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="902" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A902" s="7" t="s">
         <v>56</v>
       </c>
@@ -24700,7 +24700,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="903" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A903" s="7" t="s">
         <v>44</v>
       </c>
@@ -24723,7 +24723,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="904" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A904" s="7" t="s">
         <v>44</v>
       </c>
@@ -24746,7 +24746,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="905" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A905" s="7" t="s">
         <v>44</v>
       </c>
@@ -24772,7 +24772,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="906" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A906" s="7" t="s">
         <v>56</v>
       </c>
@@ -24792,7 +24792,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="907" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A907" s="7" t="s">
         <v>44</v>
       </c>
@@ -24812,7 +24812,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="908" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A908" s="7" t="s">
         <v>52</v>
       </c>
@@ -24847,7 +24847,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="909" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A909" s="7" t="s">
         <v>52</v>
       </c>
@@ -24876,7 +24876,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="910" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A910" s="7" t="s">
         <v>52</v>
       </c>
@@ -24905,7 +24905,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="911" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A911" s="7" t="s">
         <v>225</v>
       </c>
@@ -24925,7 +24925,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="912" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A912" s="7" t="s">
         <v>44</v>
       </c>
@@ -24945,7 +24945,7 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="913" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A913" s="7" t="s">
         <v>52</v>
       </c>
@@ -24965,7 +24965,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="914" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A914" s="7" t="s">
         <v>52</v>
       </c>
@@ -24991,7 +24991,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="915" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A915" s="7" t="s">
         <v>56</v>
       </c>
@@ -25011,7 +25011,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="916" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A916" s="7" t="s">
         <v>52</v>
       </c>
@@ -25031,7 +25031,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="917" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A917" s="7" t="s">
         <v>52</v>
       </c>
@@ -25057,7 +25057,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="918" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A918" s="7" t="s">
         <v>44</v>
       </c>
@@ -25086,7 +25086,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="919" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A919" s="7" t="s">
         <v>56</v>
       </c>
@@ -25106,7 +25106,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="920" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A920" s="7" t="s">
         <v>56</v>
       </c>
@@ -25126,7 +25126,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="921" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A921" s="7" t="s">
         <v>56</v>
       </c>
@@ -25146,7 +25146,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="922" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A922" s="7" t="s">
         <v>56</v>
       </c>
@@ -25166,7 +25166,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="923" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A923" s="7" t="s">
         <v>52</v>
       </c>
@@ -25198,7 +25198,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="924" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A924" s="7" t="s">
         <v>56</v>
       </c>
@@ -25215,7 +25215,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="925" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A925" s="7" t="s">
         <v>56</v>
       </c>
@@ -25237,7 +25237,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="926" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A926" s="7" t="s">
         <v>56</v>
       </c>
@@ -25259,7 +25259,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="927" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A927" s="7" t="s">
         <v>56</v>
       </c>
@@ -25281,7 +25281,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="928" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A928" s="7" t="s">
         <v>56</v>
       </c>
@@ -25303,7 +25303,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="929" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A929" s="7" t="s">
         <v>52</v>
       </c>
@@ -25335,7 +25335,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="930" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A930" s="7" t="s">
         <v>52</v>
       </c>
@@ -25367,7 +25367,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="931" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A931" s="7" t="s">
         <v>52</v>
       </c>
@@ -25387,7 +25387,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="932" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A932" s="7" t="s">
         <v>52</v>
       </c>
@@ -25407,7 +25407,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="933" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A933" s="7" t="s">
         <v>52</v>
       </c>
@@ -25439,7 +25439,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="934" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A934" s="7" t="s">
         <v>56</v>
       </c>
@@ -25459,7 +25459,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="935" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A935" s="7" t="s">
         <v>56</v>
       </c>
@@ -25476,7 +25476,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="936" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A936" s="7" t="s">
         <v>52</v>
       </c>
@@ -25511,7 +25511,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="937" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A937" s="7" t="s">
         <v>52</v>
       </c>
@@ -25537,7 +25537,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="938" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A938" s="7" t="s">
         <v>52</v>
       </c>
@@ -25575,7 +25575,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="939" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A939" s="7" t="s">
         <v>56</v>
       </c>
@@ -25598,7 +25598,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="940" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A940" s="7" t="s">
         <v>52</v>
       </c>
@@ -25618,7 +25618,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="941" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A941" s="7" t="s">
         <v>52</v>
       </c>
@@ -25650,7 +25650,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="942" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A942" s="7" t="s">
         <v>52</v>
       </c>
@@ -25685,7 +25685,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="943" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A943" s="7" t="s">
         <v>52</v>
       </c>
@@ -25708,7 +25708,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="944" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A944" s="7" t="s">
         <v>52</v>
       </c>
@@ -25743,7 +25743,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A945" s="7" t="s">
         <v>52</v>
       </c>
@@ -25772,7 +25772,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A946" s="7" t="s">
         <v>44</v>
       </c>
@@ -25792,7 +25792,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A947" s="7" t="s">
         <v>56</v>
       </c>
@@ -25809,7 +25809,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A948" s="7" t="s">
         <v>56</v>
       </c>
@@ -25829,7 +25829,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A949" s="7" t="s">
         <v>56</v>
       </c>
@@ -25849,7 +25849,7 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A950" s="7" t="s">
         <v>52</v>
       </c>
@@ -25881,7 +25881,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A951" s="7" t="s">
         <v>52</v>
       </c>
@@ -25913,7 +25913,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A952" s="7" t="s">
         <v>56</v>
       </c>
@@ -25933,7 +25933,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A953" s="7" t="s">
         <v>56</v>
       </c>
@@ -25953,7 +25953,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A954" s="7" t="s">
         <v>52</v>
       </c>
@@ -25985,7 +25985,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A955" s="7" t="s">
         <v>56</v>
       </c>
@@ -26005,7 +26005,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A956" s="7" t="s">
         <v>56</v>
       </c>
@@ -26028,7 +26028,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A957" s="7" t="s">
         <v>56</v>
       </c>
@@ -26048,7 +26048,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A958" s="7" t="s">
         <v>56</v>
       </c>
@@ -26068,7 +26068,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A959" s="7" t="s">
         <v>52</v>
       </c>
@@ -26094,7 +26094,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A960" s="7" t="s">
         <v>52</v>
       </c>
@@ -26129,7 +26129,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="961" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A961" s="7" t="s">
         <v>52</v>
       </c>
@@ -26158,7 +26158,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="962" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A962" s="7" t="s">
         <v>52</v>
       </c>
@@ -26193,7 +26193,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="963" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A963" s="7" t="s">
         <v>56</v>
       </c>
@@ -26213,7 +26213,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="964" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A964" s="7" t="s">
         <v>56</v>
       </c>
@@ -26236,7 +26236,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="965" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A965" s="7" t="s">
         <v>56</v>
       </c>
@@ -26262,7 +26262,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="966" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A966" s="7" t="s">
         <v>52</v>
       </c>
@@ -26294,7 +26294,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="967" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A967" s="7" t="s">
         <v>44</v>
       </c>
@@ -26314,7 +26314,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="968" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A968" s="7" t="s">
         <v>52</v>
       </c>
@@ -26349,7 +26349,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="969" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A969" s="7" t="s">
         <v>52</v>
       </c>
@@ -26381,7 +26381,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="970" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A970" s="7" t="s">
         <v>52</v>
       </c>
@@ -26413,7 +26413,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="971" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A971" s="7" t="s">
         <v>71</v>
       </c>
@@ -26439,7 +26439,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="972" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A972" s="7" t="s">
         <v>52</v>
       </c>
@@ -26468,7 +26468,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="973" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A973" s="7" t="s">
         <v>52</v>
       </c>
@@ -26500,7 +26500,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="974" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A974" s="7" t="s">
         <v>52</v>
       </c>
@@ -26535,7 +26535,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="975" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A975" s="7" t="s">
         <v>52</v>
       </c>
@@ -26564,7 +26564,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="976" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A976" s="7" t="s">
         <v>369</v>
       </c>
@@ -26584,7 +26584,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="977" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A977" s="7" t="s">
         <v>52</v>
       </c>
@@ -26598,7 +26598,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="978" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A978" s="7" t="s">
         <v>52</v>
       </c>
@@ -26612,7 +26612,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="979" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A979" s="7" t="s">
         <v>52</v>
       </c>
@@ -26647,7 +26647,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="980" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A980" s="7" t="s">
         <v>369</v>
       </c>
@@ -26670,7 +26670,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="981" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A981" s="7" t="s">
         <v>52</v>
       </c>
@@ -26702,7 +26702,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="982" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A982" s="7" t="s">
         <v>71</v>
       </c>
@@ -26731,7 +26731,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="983" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A983" s="7" t="s">
         <v>369</v>
       </c>
@@ -26751,7 +26751,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="984" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A984" s="7" t="s">
         <v>71</v>
       </c>
@@ -26777,7 +26777,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="985" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A985" s="7" t="s">
         <v>52</v>
       </c>
@@ -26809,7 +26809,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="986" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A986" s="7" t="s">
         <v>369</v>
       </c>
@@ -26841,7 +26841,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="987" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A987" s="7" t="s">
         <v>52</v>
       </c>
@@ -26873,7 +26873,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="988" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A988" s="7" t="s">
         <v>369</v>
       </c>
@@ -26896,7 +26896,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="989" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A989" s="7" t="s">
         <v>369</v>
       </c>
@@ -26919,7 +26919,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="990" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A990" s="7" t="s">
         <v>369</v>
       </c>
@@ -26942,7 +26942,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="991" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A991" s="7" t="s">
         <v>52</v>
       </c>
@@ -26974,7 +26974,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="992" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A992" s="7" t="s">
         <v>71</v>
       </c>
@@ -27000,7 +27000,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="993" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A993" s="7" t="s">
         <v>71</v>
       </c>
@@ -27026,7 +27026,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="994" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A994" s="7" t="s">
         <v>71</v>
       </c>
@@ -27052,7 +27052,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="995" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A995" s="7" t="s">
         <v>71</v>
       </c>
@@ -27084,7 +27084,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="996" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A996" s="7" t="s">
         <v>369</v>
       </c>
@@ -27113,7 +27113,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="997" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A997" s="7" t="s">
         <v>71</v>
       </c>
@@ -27142,7 +27142,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="998" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A998" s="7" t="s">
         <v>71</v>
       </c>
@@ -27168,7 +27168,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="999" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A999" s="7" t="s">
         <v>71</v>
       </c>
@@ -27192,6 +27192,26 @@
       </c>
       <c r="M999" s="7" t="s">
         <v>860</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1000" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1000" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1000" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1000" s="1">
+        <v>45661</v>
+      </c>
+      <c r="P1000" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q1000" s="7" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6F68D3-0AF6-4B06-8E9C-0E60B7826801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A8BF5B-96B4-430A-9C26-685C2E9846E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="all" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$V$997</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">all!$A$1:$V$999</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -3799,8 +3799,8 @@
   <dimension ref="A1:V999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A969" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H999" sqref="H999"/>
+      <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1005" sqref="K1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A8BF5B-96B4-430A-9C26-685C2E9846E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236BC5B3-4F87-4D6F-B822-CE58B45300A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5608" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5619" uniqueCount="1083">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3269,6 +3269,9 @@
   </si>
   <si>
     <t>02:20:01.3</t>
+  </si>
+  <si>
+    <t>01:30:56.0</t>
   </si>
 </sst>
 </file>
@@ -3796,11 +3799,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:V999"/>
+  <dimension ref="A1:V1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A754" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1005" sqref="K1005"/>
+      <pane ySplit="1" topLeftCell="A970" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1001" sqref="O1001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -27194,6 +27197,52 @@
         <v>860</v>
       </c>
     </row>
+    <row r="1000" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1000" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1000" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1000" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1000" s="1">
+        <v>45661</v>
+      </c>
+      <c r="O1000" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q1000" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1001" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1001" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1001" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1001" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1001" s="1">
+        <v>45664</v>
+      </c>
+      <c r="H1001" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="L1001" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="M1001" s="7" t="s">
+        <v>860</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V994">
     <sortCondition ref="G2:G994"/>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236BC5B3-4F87-4D6F-B822-CE58B45300A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B35ADA-DA6C-4810-A471-F71215038972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5619" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5631" uniqueCount="1085">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3272,6 +3272,12 @@
   </si>
   <si>
     <t>01:30:56.0</t>
+  </si>
+  <si>
+    <t>00:38:08.7</t>
+  </si>
+  <si>
+    <t>Merrell</t>
   </si>
 </sst>
 </file>
@@ -3799,11 +3805,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:V1001"/>
+  <dimension ref="A1:V1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A970" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1001" sqref="O1001"/>
+      <pane ySplit="1" topLeftCell="A979" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1004" sqref="M1004"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -27243,6 +27249,52 @@
         <v>860</v>
       </c>
     </row>
+    <row r="1002" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1002" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1002" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1002" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="F1002" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G1002" s="1">
+        <v>45666</v>
+      </c>
+      <c r="M1002" s="7" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1003" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1003" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1003" s="9" t="s">
+        <v>795</v>
+      </c>
+      <c r="D1003" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="F1003" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1003" s="1">
+        <v>45667</v>
+      </c>
+      <c r="H1003" s="7" t="s">
+        <v>1083</v>
+      </c>
+      <c r="M1003" s="7" t="s">
+        <v>1084</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V994">
     <sortCondition ref="G2:G994"/>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B35ADA-DA6C-4810-A471-F71215038972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923D08AD-BA9B-451F-BC6E-3B9C795E1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5631" uniqueCount="1085">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5648" uniqueCount="1088">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3278,6 +3278,15 @@
   </si>
   <si>
     <t>Merrell</t>
+  </si>
+  <si>
+    <t>02:27:06.0</t>
+  </si>
+  <si>
+    <t>Troubles mit Nicoles von Annelis ausgeliehenem Tourenski</t>
+  </si>
+  <si>
+    <t>01:51:54.0</t>
   </si>
 </sst>
 </file>
@@ -3805,11 +3814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:V1003"/>
+  <dimension ref="A1:V1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A979" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1004" sqref="M1004"/>
+      <selection pane="bottomLeft" activeCell="F1024" sqref="F1024"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -27009,7 +27018,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="993" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A993" s="7" t="s">
         <v>71</v>
       </c>
@@ -27035,7 +27044,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="994" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A994" s="7" t="s">
         <v>71</v>
       </c>
@@ -27061,7 +27070,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="995" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A995" s="7" t="s">
         <v>71</v>
       </c>
@@ -27093,7 +27102,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="996" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A996" s="7" t="s">
         <v>369</v>
       </c>
@@ -27122,7 +27131,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="997" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A997" s="7" t="s">
         <v>71</v>
       </c>
@@ -27151,7 +27160,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="998" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A998" s="7" t="s">
         <v>71</v>
       </c>
@@ -27177,7 +27186,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="999" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A999" s="7" t="s">
         <v>71</v>
       </c>
@@ -27203,7 +27212,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1000" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1000" s="7" t="s">
         <v>369</v>
       </c>
@@ -27223,7 +27232,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1001" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1001" s="7" t="s">
         <v>71</v>
       </c>
@@ -27249,7 +27258,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1002" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1002" s="7" t="s">
         <v>52</v>
       </c>
@@ -27269,7 +27278,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="1003" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1003" s="7" t="s">
         <v>52</v>
       </c>
@@ -27293,6 +27302,67 @@
       </c>
       <c r="M1003" s="7" t="s">
         <v>1084</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1004" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1004" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1004" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1004" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1004" s="1">
+        <v>45669</v>
+      </c>
+      <c r="H1004" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="L1004" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="M1004" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q1004" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="V1004" s="9" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1005" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1005" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1005" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1005" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1005" s="1">
+        <v>45670</v>
+      </c>
+      <c r="H1005" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="L1005" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="M1005" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q1005" s="7" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923D08AD-BA9B-451F-BC6E-3B9C795E1CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED9D8A5-69E7-43CB-9010-DE077E4A2B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15370" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5648" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5656" uniqueCount="1089">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3287,6 +3287,9 @@
   </si>
   <si>
     <t>01:51:54.0</t>
+  </si>
+  <si>
+    <t>02:32:16.0</t>
   </si>
 </sst>
 </file>
@@ -3814,11 +3817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:V1005"/>
+  <dimension ref="A1:V1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A979" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1024" sqref="F1024"/>
+      <selection pane="bottomLeft" activeCell="Q1007" sqref="Q1007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -27365,6 +27368,35 @@
         <v>386</v>
       </c>
     </row>
+    <row r="1006" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1006" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1006" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1006" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="F1006" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="G1006" s="1">
+        <v>45671</v>
+      </c>
+      <c r="H1006" s="7" t="s">
+        <v>1088</v>
+      </c>
+      <c r="L1006" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="M1006" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q1006" s="7" t="s">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V994">
     <sortCondition ref="G2:G994"/>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED9D8A5-69E7-43CB-9010-DE077E4A2B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83771C2-69AC-4885-92EE-2E2A9285D7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3800" windowWidth="28800" windowHeight="15370" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5656" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5667" uniqueCount="1089">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3817,11 +3817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:V1006"/>
+  <dimension ref="A1:V1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A979" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1007" sqref="Q1007"/>
+      <selection pane="bottomLeft" activeCell="Q1008" sqref="Q1008:R1008"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -27397,6 +27397,49 @@
         <v>386</v>
       </c>
     </row>
+    <row r="1007" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1007" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1007" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1007" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1007" s="1">
+        <v>45674</v>
+      </c>
+      <c r="Q1007" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="R1007" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="S1007" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1008" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1008" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1008" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1008" s="1">
+        <v>45674</v>
+      </c>
+      <c r="Q1008" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="R1008" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V994">
     <sortCondition ref="G2:G994"/>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83771C2-69AC-4885-92EE-2E2A9285D7B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95E0EB9-9B70-4430-B18F-E6530CFA947C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5667" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5662" uniqueCount="1089">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3819,7 +3819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
   <dimension ref="A1:V1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A979" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q1008" sqref="Q1008:R1008"/>
     </sheetView>
@@ -27421,24 +27421,7 @@
       </c>
     </row>
     <row r="1008" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1008" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1008" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1008" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="G1008" s="1">
-        <v>45674</v>
-      </c>
-      <c r="Q1008" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="R1008" s="7" t="s">
-        <v>372</v>
-      </c>
+      <c r="G1008" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V994">

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95E0EB9-9B70-4430-B18F-E6530CFA947C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70461779-D005-40EB-8101-9091E6C181C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="28800" windowHeight="15370" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5662" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5666" uniqueCount="1089">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3821,7 +3821,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A979" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1008" sqref="Q1008:R1008"/>
+      <selection pane="bottomLeft" activeCell="O1007" sqref="O1007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -27410,6 +27410,9 @@
       <c r="G1007" s="1">
         <v>45674</v>
       </c>
+      <c r="O1007" s="7">
+        <v>1</v>
+      </c>
       <c r="Q1007" s="7" t="s">
         <v>386</v>
       </c>
@@ -27421,7 +27424,24 @@
       </c>
     </row>
     <row r="1008" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="G1008" s="1"/>
+      <c r="A1008" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1008" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1008" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1008" s="1">
+        <v>45676</v>
+      </c>
+      <c r="O1008" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q1008" s="7" t="s">
+        <v>372</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V994">

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70461779-D005-40EB-8101-9091E6C181C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF00FD0-5B6F-4F55-A92A-B07971D7FCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5666" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5677" uniqueCount="1092">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3290,6 +3290,15 @@
   </si>
   <si>
     <t>02:32:16.0</t>
+  </si>
+  <si>
+    <t>Langlauf</t>
+  </si>
+  <si>
+    <t>Rossignol</t>
+  </si>
+  <si>
+    <t>Miete</t>
   </si>
 </sst>
 </file>
@@ -3369,7 +3378,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3817,41 +3826,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:V1008"/>
+  <dimension ref="A1:V1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A979" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1007" sqref="O1007"/>
+      <pane ySplit="1" topLeftCell="A994" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1010" sqref="K1010"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.81640625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="138.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="138.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="204" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
@@ -3919,7 +3928,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -3947,7 +3956,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3967,7 +3976,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3981,7 +3990,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
@@ -3998,7 +4007,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -4015,7 +4024,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
@@ -4035,7 +4044,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>71</v>
       </c>
@@ -4055,7 +4064,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -4083,7 +4092,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -4103,7 +4112,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
@@ -4126,7 +4135,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
@@ -4143,7 +4152,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -4175,7 +4184,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -4195,7 +4204,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -4218,7 +4227,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -4240,7 +4249,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -4266,7 +4275,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -4288,7 +4297,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -4312,7 +4321,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -4334,7 +4343,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4356,7 +4365,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -4378,7 +4387,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -4404,7 +4413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -4426,7 +4435,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
@@ -4449,7 +4458,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -4472,7 +4481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>71</v>
       </c>
@@ -4492,7 +4501,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>71</v>
       </c>
@@ -4523,7 +4532,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -4540,7 +4549,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
@@ -4569,7 +4578,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>71</v>
       </c>
@@ -4589,7 +4598,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>71</v>
       </c>
@@ -4609,7 +4618,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
@@ -4641,7 +4650,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -4671,7 +4680,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -4694,7 +4703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -4722,7 +4731,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
@@ -4750,7 +4759,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
@@ -4779,7 +4788,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -4810,7 +4819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -4830,7 +4839,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4858,7 +4867,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -4886,7 +4895,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4916,7 +4925,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -4938,7 +4947,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4964,7 +4973,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -4986,7 +4995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -5016,7 +5025,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -5049,7 +5058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -5077,7 +5086,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -5110,7 +5119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>71</v>
       </c>
@@ -5136,7 +5145,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
@@ -5156,7 +5165,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>71</v>
       </c>
@@ -5188,7 +5197,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>71</v>
       </c>
@@ -5222,7 +5231,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
@@ -5250,7 +5259,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
@@ -5278,7 +5287,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -5311,7 +5320,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>52</v>
       </c>
@@ -5339,7 +5348,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -5372,7 +5381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -5400,7 +5409,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5433,7 +5442,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>71</v>
       </c>
@@ -5467,7 +5476,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>71</v>
       </c>
@@ -5493,7 +5502,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5526,7 +5535,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
@@ -5546,7 +5555,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>52</v>
       </c>
@@ -5574,7 +5583,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>52</v>
       </c>
@@ -5602,7 +5611,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>52</v>
       </c>
@@ -5630,7 +5639,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>52</v>
       </c>
@@ -5658,7 +5667,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
@@ -5684,7 +5693,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
@@ -5710,7 +5719,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
@@ -5736,7 +5745,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>52</v>
       </c>
@@ -5764,7 +5773,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>52</v>
       </c>
@@ -5792,7 +5801,7 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>52</v>
       </c>
@@ -5812,7 +5821,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
@@ -5832,7 +5841,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -5852,7 +5861,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
@@ -5872,7 +5881,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
@@ -5900,7 +5909,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>52</v>
       </c>
@@ -5920,7 +5929,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
@@ -5942,7 +5951,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
@@ -5966,7 +5975,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>52</v>
       </c>
@@ -5994,7 +6003,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>44</v>
       </c>
@@ -6014,7 +6023,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>52</v>
       </c>
@@ -6042,7 +6051,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>52</v>
       </c>
@@ -6062,7 +6071,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
@@ -6082,7 +6091,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>52</v>
       </c>
@@ -6102,7 +6111,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
@@ -6122,7 +6131,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>52</v>
       </c>
@@ -6142,7 +6151,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
@@ -6162,7 +6171,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>71</v>
       </c>
@@ -6188,7 +6197,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>52</v>
       </c>
@@ -6216,7 +6225,7 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
@@ -6247,7 +6256,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>52</v>
       </c>
@@ -6267,7 +6276,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>52</v>
       </c>
@@ -6287,7 +6296,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>52</v>
       </c>
@@ -6307,7 +6316,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>71</v>
       </c>
@@ -6333,7 +6342,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>52</v>
       </c>
@@ -6353,7 +6362,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>52</v>
       </c>
@@ -6373,7 +6382,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>52</v>
       </c>
@@ -6393,7 +6402,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>52</v>
       </c>
@@ -6413,7 +6422,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>52</v>
       </c>
@@ -6433,7 +6442,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>52</v>
       </c>
@@ -6461,7 +6470,7 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -6492,7 +6501,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>52</v>
       </c>
@@ -6512,7 +6521,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>52</v>
       </c>
@@ -6540,7 +6549,7 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>52</v>
       </c>
@@ -6571,7 +6580,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>52</v>
       </c>
@@ -6591,7 +6600,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -6621,7 +6630,7 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>149</v>
@@ -6647,7 +6656,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>52</v>
       </c>
@@ -6678,7 +6687,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -6703,7 +6712,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>52</v>
       </c>
@@ -6723,7 +6732,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>52</v>
       </c>
@@ -6743,7 +6752,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>52</v>
       </c>
@@ -6763,7 +6772,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>71</v>
       </c>
@@ -6789,7 +6798,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -6811,7 +6820,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -6839,7 +6848,7 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -6869,7 +6878,7 @@
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -6893,7 +6902,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -6923,7 +6932,7 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>149</v>
@@ -6949,7 +6958,7 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>52</v>
       </c>
@@ -6977,7 +6986,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -7007,7 +7016,7 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -7037,7 +7046,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -7063,7 +7072,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -7089,7 +7098,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>52</v>
       </c>
@@ -7109,7 +7118,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -7139,7 +7148,7 @@
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
@@ -7165,7 +7174,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>52</v>
       </c>
@@ -7185,7 +7194,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>56</v>
       </c>
@@ -7213,7 +7222,7 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>56</v>
       </c>
@@ -7239,7 +7248,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>56</v>
       </c>
@@ -7261,7 +7270,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>56</v>
       </c>
@@ -7283,7 +7292,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>56</v>
       </c>
@@ -7307,7 +7316,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>56</v>
       </c>
@@ -7333,7 +7342,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>56</v>
       </c>
@@ -7357,7 +7366,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>52</v>
       </c>
@@ -7380,7 +7389,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>52</v>
       </c>
@@ -7403,7 +7412,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>56</v>
       </c>
@@ -7433,7 +7442,7 @@
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>56</v>
       </c>
@@ -7455,7 +7464,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>56</v>
       </c>
@@ -7479,7 +7488,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>56</v>
       </c>
@@ -7505,7 +7514,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>56</v>
       </c>
@@ -7527,7 +7536,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>56</v>
       </c>
@@ -7551,7 +7560,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>52</v>
       </c>
@@ -7574,7 +7583,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>52</v>
       </c>
@@ -7597,7 +7606,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>52</v>
       </c>
@@ -7620,7 +7629,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>71</v>
       </c>
@@ -7646,7 +7655,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>71</v>
       </c>
@@ -7677,7 +7686,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>71</v>
       </c>
@@ -7705,7 +7714,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>71</v>
       </c>
@@ -7734,7 +7743,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>71</v>
       </c>
@@ -7765,7 +7774,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>71</v>
       </c>
@@ -7796,7 +7805,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>52</v>
       </c>
@@ -7816,7 +7825,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>71</v>
       </c>
@@ -7847,7 +7856,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>52</v>
       </c>
@@ -7867,7 +7876,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>52</v>
       </c>
@@ -7890,7 +7899,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>71</v>
       </c>
@@ -7921,7 +7930,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>71</v>
       </c>
@@ -7949,7 +7958,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>71</v>
       </c>
@@ -7980,7 +7989,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>52</v>
       </c>
@@ -8003,7 +8012,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>52</v>
       </c>
@@ -8023,7 +8032,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>52</v>
       </c>
@@ -8046,7 +8055,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>52</v>
       </c>
@@ -8069,7 +8078,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>71</v>
       </c>
@@ -8100,7 +8109,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>71</v>
       </c>
@@ -8134,7 +8143,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>71</v>
       </c>
@@ -8168,7 +8177,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>56</v>
       </c>
@@ -8190,7 +8199,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>56</v>
       </c>
@@ -8214,7 +8223,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>149</v>
@@ -8232,7 +8241,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>52</v>
       </c>
@@ -8252,7 +8261,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>52</v>
       </c>
@@ -8272,7 +8281,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>52</v>
       </c>
@@ -8295,7 +8304,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>52</v>
       </c>
@@ -8317,7 +8326,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>56</v>
       </c>
@@ -8337,7 +8346,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>225</v>
       </c>
@@ -8359,7 +8368,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>56</v>
       </c>
@@ -8389,7 +8398,7 @@
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>56</v>
       </c>
@@ -8415,7 +8424,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>52</v>
       </c>
@@ -8438,7 +8447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>56</v>
       </c>
@@ -8466,7 +8475,7 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>56</v>
       </c>
@@ -8494,7 +8503,7 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>56</v>
       </c>
@@ -8522,7 +8531,7 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>56</v>
       </c>
@@ -8552,7 +8561,7 @@
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>56</v>
       </c>
@@ -8578,7 +8587,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>56</v>
       </c>
@@ -8602,7 +8611,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>56</v>
       </c>
@@ -8628,7 +8637,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>52</v>
       </c>
@@ -8650,7 +8659,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>56</v>
       </c>
@@ -8672,7 +8681,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>225</v>
       </c>
@@ -8694,7 +8703,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>56</v>
       </c>
@@ -8716,7 +8725,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>52</v>
       </c>
@@ -8738,7 +8747,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>225</v>
       </c>
@@ -8763,7 +8772,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>52</v>
       </c>
@@ -8786,7 +8795,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>52</v>
       </c>
@@ -8806,7 +8815,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>71</v>
       </c>
@@ -8840,7 +8849,7 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>71</v>
       </c>
@@ -8877,7 +8886,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>71</v>
       </c>
@@ -8914,7 +8923,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>71</v>
       </c>
@@ -8942,7 +8951,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>52</v>
       </c>
@@ -8962,7 +8971,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>52</v>
       </c>
@@ -8985,7 +8994,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>56</v>
       </c>
@@ -9016,7 +9025,7 @@
       <c r="P204" s="6"/>
       <c r="V204" s="11"/>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>56</v>
       </c>
@@ -9040,7 +9049,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>56</v>
       </c>
@@ -9068,7 +9077,7 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>56</v>
       </c>
@@ -9096,7 +9105,7 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>56</v>
       </c>
@@ -9118,7 +9127,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>56</v>
       </c>
@@ -9142,7 +9151,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>56</v>
       </c>
@@ -9162,7 +9171,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>56</v>
       </c>
@@ -9182,7 +9191,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>52</v>
       </c>
@@ -9204,7 +9213,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>56</v>
       </c>
@@ -9229,7 +9238,7 @@
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -9254,7 +9263,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>56</v>
       </c>
@@ -9274,7 +9283,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>56</v>
       </c>
@@ -9294,7 +9303,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>225</v>
       </c>
@@ -9319,7 +9328,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>56</v>
       </c>
@@ -9341,7 +9350,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>56</v>
       </c>
@@ -9363,7 +9372,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>56</v>
       </c>
@@ -9385,7 +9394,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>56</v>
       </c>
@@ -9408,7 +9417,7 @@
       </c>
       <c r="V221" s="11"/>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>56</v>
       </c>
@@ -9440,7 +9449,7 @@
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>56</v>
       </c>
@@ -9462,7 +9471,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>56</v>
       </c>
@@ -9484,7 +9493,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>56</v>
       </c>
@@ -9508,7 +9517,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>56</v>
       </c>
@@ -9530,7 +9539,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>56</v>
       </c>
@@ -9554,7 +9563,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>56</v>
       </c>
@@ -9576,7 +9585,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>56</v>
       </c>
@@ -9598,7 +9607,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>56</v>
       </c>
@@ -9620,7 +9629,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>56</v>
       </c>
@@ -9642,7 +9651,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>56</v>
       </c>
@@ -9664,7 +9673,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>56</v>
       </c>
@@ -9686,7 +9695,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>56</v>
       </c>
@@ -9708,7 +9717,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>225</v>
       </c>
@@ -9730,7 +9739,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>56</v>
       </c>
@@ -9756,7 +9765,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>56</v>
       </c>
@@ -9778,7 +9787,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>56</v>
       </c>
@@ -9800,7 +9809,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>56</v>
       </c>
@@ -9822,7 +9831,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>56</v>
       </c>
@@ -9846,7 +9855,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>56</v>
       </c>
@@ -9872,7 +9881,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>56</v>
       </c>
@@ -9892,7 +9901,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>56</v>
       </c>
@@ -9912,7 +9921,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>56</v>
       </c>
@@ -9932,7 +9941,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>56</v>
       </c>
@@ -9956,7 +9965,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>56</v>
       </c>
@@ -9982,7 +9991,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>56</v>
       </c>
@@ -10008,7 +10017,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>52</v>
       </c>
@@ -10030,7 +10039,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>56</v>
       </c>
@@ -10052,7 +10061,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>225</v>
       </c>
@@ -10077,7 +10086,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>56</v>
       </c>
@@ -10099,7 +10108,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>56</v>
       </c>
@@ -10121,7 +10130,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>56</v>
       </c>
@@ -10143,7 +10152,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>56</v>
       </c>
@@ -10165,7 +10174,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>56</v>
       </c>
@@ -10191,7 +10200,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>52</v>
       </c>
@@ -10211,7 +10220,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>56</v>
       </c>
@@ -10233,7 +10242,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>56</v>
       </c>
@@ -10257,7 +10266,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>56</v>
       </c>
@@ -10277,7 +10286,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>56</v>
       </c>
@@ -10297,7 +10306,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>56</v>
       </c>
@@ -10317,7 +10326,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>56</v>
       </c>
@@ -10339,7 +10348,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>56</v>
       </c>
@@ -10363,7 +10372,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>56</v>
       </c>
@@ -10385,7 +10394,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>52</v>
       </c>
@@ -10407,7 +10416,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>225</v>
       </c>
@@ -10429,7 +10438,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>56</v>
       </c>
@@ -10449,7 +10458,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>56</v>
       </c>
@@ -10471,7 +10480,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>56</v>
       </c>
@@ -10495,7 +10504,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>56</v>
       </c>
@@ -10519,7 +10528,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>56</v>
       </c>
@@ -10545,7 +10554,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>56</v>
       </c>
@@ -10567,7 +10576,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>56</v>
       </c>
@@ -10591,7 +10600,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>56</v>
       </c>
@@ -10610,7 +10619,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>56</v>
       </c>
@@ -10633,7 +10642,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>56</v>
       </c>
@@ -10657,7 +10666,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>56</v>
       </c>
@@ -10683,7 +10692,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>56</v>
       </c>
@@ -10702,7 +10711,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>52</v>
       </c>
@@ -10726,7 +10735,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>56</v>
       </c>
@@ -10749,7 +10758,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>56</v>
       </c>
@@ -10772,7 +10781,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>56</v>
       </c>
@@ -10794,7 +10803,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>56</v>
       </c>
@@ -10816,7 +10825,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>56</v>
       </c>
@@ -10835,7 +10844,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>56</v>
       </c>
@@ -10858,7 +10867,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>56</v>
       </c>
@@ -10884,7 +10893,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>56</v>
       </c>
@@ -10910,7 +10919,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>56</v>
       </c>
@@ -10933,7 +10942,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>52</v>
       </c>
@@ -10956,7 +10965,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>52</v>
       </c>
@@ -10979,7 +10988,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>56</v>
       </c>
@@ -11003,7 +11012,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>56</v>
       </c>
@@ -11025,7 +11034,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>56</v>
       </c>
@@ -11049,7 +11058,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>52</v>
       </c>
@@ -11075,7 +11084,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>52</v>
       </c>
@@ -11098,7 +11107,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>52</v>
       </c>
@@ -11121,7 +11130,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>52</v>
       </c>
@@ -11144,7 +11153,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>56</v>
       </c>
@@ -11166,7 +11175,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>56</v>
       </c>
@@ -11190,7 +11199,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>56</v>
       </c>
@@ -11210,7 +11219,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>56</v>
       </c>
@@ -11230,7 +11239,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>56</v>
       </c>
@@ -11252,7 +11261,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>56</v>
       </c>
@@ -11276,7 +11285,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
         <v>52</v>
       </c>
@@ -11296,7 +11305,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>56</v>
       </c>
@@ -11330,7 +11339,7 @@
       <c r="O305" s="4"/>
       <c r="P305" s="4"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>56</v>
       </c>
@@ -11352,7 +11361,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>56</v>
       </c>
@@ -11376,7 +11385,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>56</v>
       </c>
@@ -11398,7 +11407,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>56</v>
       </c>
@@ -11422,7 +11431,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>56</v>
       </c>
@@ -11442,7 +11451,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>225</v>
       </c>
@@ -11464,7 +11473,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
         <v>71</v>
       </c>
@@ -11490,7 +11499,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
         <v>71</v>
       </c>
@@ -11519,7 +11528,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
         <v>71</v>
       </c>
@@ -11551,7 +11560,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
         <v>369</v>
       </c>
@@ -11577,7 +11586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A316" s="7" t="s">
         <v>71</v>
       </c>
@@ -11611,7 +11620,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
         <v>369</v>
       </c>
@@ -11637,7 +11646,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
         <v>369</v>
       </c>
@@ -11657,7 +11666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
         <v>369</v>
       </c>
@@ -11680,7 +11689,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
         <v>71</v>
       </c>
@@ -11706,7 +11715,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>369</v>
       </c>
@@ -11723,7 +11732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
         <v>71</v>
       </c>
@@ -11752,7 +11761,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>369</v>
       </c>
@@ -11775,7 +11784,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>369</v>
       </c>
@@ -11795,7 +11804,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
         <v>369</v>
       </c>
@@ -11815,7 +11824,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
         <v>369</v>
       </c>
@@ -11835,7 +11844,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
         <v>369</v>
       </c>
@@ -11858,7 +11867,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
         <v>52</v>
       </c>
@@ -11881,7 +11890,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
         <v>369</v>
       </c>
@@ -11904,7 +11913,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
         <v>369</v>
       </c>
@@ -11927,7 +11936,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
         <v>369</v>
       </c>
@@ -11944,7 +11953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
         <v>369</v>
       </c>
@@ -11961,7 +11970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
         <v>369</v>
       </c>
@@ -11981,7 +11990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
         <v>369</v>
       </c>
@@ -12001,7 +12010,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>369</v>
       </c>
@@ -12018,7 +12027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
         <v>71</v>
       </c>
@@ -12050,7 +12059,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>369</v>
       </c>
@@ -12070,7 +12079,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
         <v>71</v>
       </c>
@@ -12099,7 +12108,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
         <v>369</v>
       </c>
@@ -12122,7 +12131,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
         <v>71</v>
       </c>
@@ -12151,7 +12160,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
         <v>369</v>
       </c>
@@ -12177,7 +12186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
         <v>369</v>
       </c>
@@ -12194,7 +12203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
         <v>369</v>
       </c>
@@ -12217,7 +12226,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
         <v>369</v>
       </c>
@@ -12234,7 +12243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A345" s="7" t="s">
         <v>71</v>
       </c>
@@ -12262,7 +12271,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A346" s="7" t="s">
         <v>369</v>
       </c>
@@ -12285,7 +12294,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A347" s="7" t="s">
         <v>71</v>
       </c>
@@ -12314,7 +12323,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A348" s="7" t="s">
         <v>369</v>
       </c>
@@ -12331,7 +12340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="s">
         <v>369</v>
       </c>
@@ -12354,7 +12363,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
         <v>71</v>
       </c>
@@ -12386,7 +12395,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
         <v>71</v>
       </c>
@@ -12415,7 +12424,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
         <v>369</v>
       </c>
@@ -12441,7 +12450,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
         <v>71</v>
       </c>
@@ -12473,7 +12482,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
         <v>369</v>
       </c>
@@ -12493,7 +12502,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
         <v>369</v>
       </c>
@@ -12522,7 +12531,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
         <v>369</v>
       </c>
@@ -12551,7 +12560,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="s">
         <v>71</v>
       </c>
@@ -12577,7 +12586,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A358" s="7" t="s">
         <v>71</v>
       </c>
@@ -12608,7 +12617,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="s">
         <v>71</v>
       </c>
@@ -12637,7 +12646,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A360" s="7" t="s">
         <v>71</v>
       </c>
@@ -12668,7 +12677,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
         <v>369</v>
       </c>
@@ -12691,7 +12700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A362" s="7" t="s">
         <v>71</v>
       </c>
@@ -12720,7 +12729,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
         <v>56</v>
       </c>
@@ -12740,7 +12749,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
         <v>369</v>
       </c>
@@ -12766,7 +12775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="s">
         <v>71</v>
       </c>
@@ -12792,7 +12801,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A366" s="7" t="s">
         <v>71</v>
       </c>
@@ -12823,7 +12832,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A367" s="7" t="s">
         <v>52</v>
       </c>
@@ -12843,7 +12852,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A368" s="7" t="s">
         <v>71</v>
       </c>
@@ -12869,7 +12878,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
         <v>71</v>
       </c>
@@ -12898,7 +12907,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
         <v>369</v>
       </c>
@@ -12918,7 +12927,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
         <v>71</v>
       </c>
@@ -12950,7 +12959,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
         <v>369</v>
       </c>
@@ -12967,7 +12976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
         <v>71</v>
       </c>
@@ -12993,7 +13002,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
         <v>369</v>
       </c>
@@ -13016,7 +13025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
         <v>71</v>
       </c>
@@ -13044,7 +13053,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
         <v>71</v>
       </c>
@@ -13073,7 +13082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
         <v>71</v>
       </c>
@@ -13099,7 +13108,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
         <v>71</v>
       </c>
@@ -13128,7 +13137,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
         <v>71</v>
       </c>
@@ -13154,7 +13163,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
         <v>71</v>
       </c>
@@ -13188,7 +13197,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
         <v>71</v>
       </c>
@@ -13217,7 +13226,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
         <v>71</v>
       </c>
@@ -13248,7 +13257,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
         <v>71</v>
       </c>
@@ -13276,7 +13285,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
         <v>71</v>
       </c>
@@ -13302,7 +13311,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>56</v>
       </c>
@@ -13322,7 +13331,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>56</v>
       </c>
@@ -13344,7 +13353,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>56</v>
       </c>
@@ -13368,7 +13377,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A388" s="7" t="s">
         <v>71</v>
       </c>
@@ -13397,7 +13406,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A389" s="7" t="s">
         <v>71</v>
       </c>
@@ -13429,7 +13438,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>56</v>
       </c>
@@ -13452,7 +13461,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>56</v>
       </c>
@@ -13474,7 +13483,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>56</v>
       </c>
@@ -13498,7 +13507,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A393" s="7" t="s">
         <v>71</v>
       </c>
@@ -13536,7 +13545,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A394" s="7" t="s">
         <v>56</v>
       </c>
@@ -13556,7 +13565,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A395" s="7" t="s">
         <v>71</v>
       </c>
@@ -13585,7 +13594,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>56</v>
       </c>
@@ -13608,7 +13617,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>56</v>
       </c>
@@ -13631,7 +13640,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>56</v>
       </c>
@@ -13651,7 +13660,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>56</v>
       </c>
@@ -13674,7 +13683,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A400" s="7" t="s">
         <v>71</v>
       </c>
@@ -13703,7 +13712,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
         <v>71</v>
       </c>
@@ -13732,7 +13741,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A402" s="7" t="s">
         <v>56</v>
       </c>
@@ -13749,7 +13758,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A403" s="7" t="s">
         <v>71</v>
       </c>
@@ -13778,7 +13787,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A404" s="7" t="s">
         <v>56</v>
       </c>
@@ -13801,7 +13810,7 @@
         <v>44332</v>
       </c>
     </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A405" s="7" t="s">
         <v>56</v>
       </c>
@@ -13821,7 +13830,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A406" s="7" t="s">
         <v>56</v>
       </c>
@@ -13838,7 +13847,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A407" s="7" t="s">
         <v>56</v>
       </c>
@@ -13858,7 +13867,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="408" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A408" s="7" t="s">
         <v>56</v>
       </c>
@@ -13878,7 +13887,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A409" s="7" t="s">
         <v>56</v>
       </c>
@@ -13898,7 +13907,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="410" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A410" s="7" t="s">
         <v>52</v>
       </c>
@@ -13918,7 +13927,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A411" s="7" t="s">
         <v>56</v>
       </c>
@@ -13935,7 +13944,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="412" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A412" s="7" t="s">
         <v>56</v>
       </c>
@@ -13955,7 +13964,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
         <v>71</v>
       </c>
@@ -13984,7 +13993,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="414" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A414" s="7" t="s">
         <v>56</v>
       </c>
@@ -14004,7 +14013,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A415" s="7" t="s">
         <v>56</v>
       </c>
@@ -14024,7 +14033,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="416" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A416" s="7" t="s">
         <v>71</v>
       </c>
@@ -14053,7 +14062,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A417" s="7" t="s">
         <v>71</v>
       </c>
@@ -14082,7 +14091,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
         <v>71</v>
       </c>
@@ -14117,7 +14126,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>56</v>
       </c>
@@ -14137,7 +14146,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
         <v>56</v>
       </c>
@@ -14157,7 +14166,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>56</v>
       </c>
@@ -14177,7 +14186,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
         <v>56</v>
       </c>
@@ -14197,7 +14206,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>56</v>
       </c>
@@ -14220,7 +14229,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
         <v>56</v>
       </c>
@@ -14251,7 +14260,7 @@
       <c r="L424" s="12"/>
       <c r="M424" s="12"/>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>56</v>
       </c>
@@ -14268,7 +14277,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
         <v>56</v>
       </c>
@@ -14288,7 +14297,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
         <v>56</v>
       </c>
@@ -14308,7 +14317,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>56</v>
       </c>
@@ -14330,7 +14339,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>56</v>
       </c>
@@ -14353,7 +14362,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>56</v>
       </c>
@@ -14379,7 +14388,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>56</v>
       </c>
@@ -14396,7 +14405,7 @@
         <v>44360</v>
       </c>
     </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
         <v>56</v>
       </c>
@@ -14419,7 +14428,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
         <v>56</v>
       </c>
@@ -14441,7 +14450,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A434" s="7" t="s">
         <v>56</v>
       </c>
@@ -14463,7 +14472,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
         <v>56</v>
       </c>
@@ -14485,7 +14494,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A436" s="7" t="s">
         <v>56</v>
       </c>
@@ -14509,7 +14518,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A437" s="7" t="s">
         <v>56</v>
       </c>
@@ -14535,7 +14544,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>56</v>
       </c>
@@ -14555,7 +14564,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>56</v>
       </c>
@@ -14572,7 +14581,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>56</v>
       </c>
@@ -14594,7 +14603,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="441" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>56</v>
       </c>
@@ -14618,7 +14627,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A442" s="7" t="s">
         <v>56</v>
       </c>
@@ -14638,7 +14647,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="443" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A443" s="7" t="s">
         <v>56</v>
       </c>
@@ -14655,7 +14664,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A444" s="7" t="s">
         <v>56</v>
       </c>
@@ -14675,7 +14684,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="445" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>56</v>
       </c>
@@ -14699,7 +14708,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>56</v>
       </c>
@@ -14719,7 +14728,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>56</v>
       </c>
@@ -14741,7 +14750,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>56</v>
       </c>
@@ -14763,7 +14772,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="449" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A449" s="7" t="s">
         <v>56</v>
       </c>
@@ -14783,7 +14792,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A450" s="7" t="s">
         <v>56</v>
       </c>
@@ -14809,7 +14818,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>56</v>
       </c>
@@ -14831,7 +14840,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>56</v>
       </c>
@@ -14855,7 +14864,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="453" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A453" s="7" t="s">
         <v>56</v>
       </c>
@@ -14879,7 +14888,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="454" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A454" s="7" t="s">
         <v>56</v>
       </c>
@@ -14905,7 +14914,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="455" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
         <v>56</v>
       </c>
@@ -14925,7 +14934,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="456" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
         <v>56</v>
       </c>
@@ -14945,7 +14954,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="457" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A457" s="7" t="s">
         <v>56</v>
       </c>
@@ -14968,7 +14977,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="458" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>56</v>
       </c>
@@ -14990,7 +14999,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="459" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>56</v>
       </c>
@@ -15012,7 +15021,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="460" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>56</v>
       </c>
@@ -15035,7 +15044,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="461" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A461" s="7" t="s">
         <v>52</v>
       </c>
@@ -15055,7 +15064,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="462" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A462" s="7" t="s">
         <v>56</v>
       </c>
@@ -15072,7 +15081,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="463" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A463" s="7" t="s">
         <v>52</v>
       </c>
@@ -15089,7 +15098,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="464" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A464" s="7" t="s">
         <v>56</v>
       </c>
@@ -15118,7 +15127,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>56</v>
       </c>
@@ -15140,7 +15149,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>56</v>
       </c>
@@ -15164,7 +15173,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>56</v>
       </c>
@@ -15190,7 +15199,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="7" t="s">
         <v>56</v>
       </c>
@@ -15210,7 +15219,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="7" t="s">
         <v>52</v>
       </c>
@@ -15233,7 +15242,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="7" t="s">
         <v>52</v>
       </c>
@@ -15253,7 +15262,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>56</v>
       </c>
@@ -15272,7 +15281,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>56</v>
       </c>
@@ -15294,7 +15303,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>56</v>
       </c>
@@ -15318,7 +15327,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="7" t="s">
         <v>52</v>
       </c>
@@ -15338,7 +15347,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="7" t="s">
         <v>52</v>
       </c>
@@ -15358,7 +15367,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>56</v>
       </c>
@@ -15378,7 +15387,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="7" t="s">
         <v>52</v>
       </c>
@@ -15395,7 +15404,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="7" t="s">
         <v>56</v>
       </c>
@@ -15417,7 +15426,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>56</v>
       </c>
@@ -15439,7 +15448,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>56</v>
       </c>
@@ -15463,7 +15472,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>56</v>
       </c>
@@ -15485,7 +15494,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>56</v>
       </c>
@@ -15511,7 +15520,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" s="7" t="s">
         <v>52</v>
       </c>
@@ -15531,7 +15540,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484" s="7" t="s">
         <v>52</v>
       </c>
@@ -15554,7 +15563,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>56</v>
       </c>
@@ -15576,7 +15585,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A486" s="7" t="s">
         <v>56</v>
       </c>
@@ -15593,7 +15602,7 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A487" s="7" t="s">
         <v>52</v>
       </c>
@@ -15616,7 +15625,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>56</v>
       </c>
@@ -15638,7 +15647,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>56</v>
       </c>
@@ -15660,7 +15669,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>56</v>
       </c>
@@ -15682,7 +15691,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>56</v>
       </c>
@@ -15706,7 +15715,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A492" s="7" t="s">
         <v>52</v>
       </c>
@@ -15731,7 +15740,7 @@
       <c r="L492" s="4"/>
       <c r="M492" s="4"/>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
         <v>44</v>
       </c>
@@ -15766,7 +15775,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A494" s="7" t="s">
         <v>52</v>
       </c>
@@ -15783,7 +15792,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>56</v>
       </c>
@@ -15805,7 +15814,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A496" s="7" t="s">
         <v>56</v>
       </c>
@@ -15822,7 +15831,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A497" s="7" t="s">
         <v>44</v>
       </c>
@@ -15854,7 +15863,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A498" s="7" t="s">
         <v>44</v>
       </c>
@@ -15880,7 +15889,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A499" s="7" t="s">
         <v>56</v>
       </c>
@@ -15906,7 +15915,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A500" s="7" t="s">
         <v>44</v>
       </c>
@@ -15928,7 +15937,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>56</v>
       </c>
@@ -15947,7 +15956,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>56</v>
       </c>
@@ -15968,7 +15977,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A503" s="7" t="s">
         <v>56</v>
       </c>
@@ -15990,7 +15999,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A504" s="7" t="s">
         <v>56</v>
       </c>
@@ -16012,7 +16021,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A505" s="7" t="s">
         <v>56</v>
       </c>
@@ -16034,7 +16043,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A506" s="7" t="s">
         <v>56</v>
       </c>
@@ -16056,7 +16065,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A507" s="7" t="s">
         <v>44</v>
       </c>
@@ -16079,7 +16088,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>56</v>
       </c>
@@ -16101,7 +16110,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>56</v>
       </c>
@@ -16122,7 +16131,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A510" s="7" t="s">
         <v>56</v>
       </c>
@@ -16148,7 +16157,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A511" s="7" t="s">
         <v>56</v>
       </c>
@@ -16168,7 +16177,7 @@
         <v>44506</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>56</v>
       </c>
@@ -16189,7 +16198,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513" s="7" t="s">
         <v>52</v>
       </c>
@@ -16209,7 +16218,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514" s="7" t="s">
         <v>56</v>
       </c>
@@ -16235,7 +16244,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" s="7" t="s">
         <v>56</v>
       </c>
@@ -16255,7 +16264,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516" s="7" t="s">
         <v>52</v>
       </c>
@@ -16277,7 +16286,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>56</v>
       </c>
@@ -16301,7 +16310,7 @@
       <c r="L517" s="9"/>
       <c r="M517" s="9"/>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>225</v>
       </c>
@@ -16323,7 +16332,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>56</v>
       </c>
@@ -16340,7 +16349,7 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A520" s="7" t="s">
         <v>52</v>
       </c>
@@ -16360,7 +16369,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521" s="7" t="s">
         <v>71</v>
       </c>
@@ -16389,7 +16398,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A522" s="7" t="s">
         <v>369</v>
       </c>
@@ -16409,7 +16418,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523" s="7" t="s">
         <v>369</v>
       </c>
@@ -16435,7 +16444,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A524" s="7" t="s">
         <v>71</v>
       </c>
@@ -16461,7 +16470,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A525" s="7" t="s">
         <v>71</v>
       </c>
@@ -16487,7 +16496,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A526" s="7" t="s">
         <v>369</v>
       </c>
@@ -16510,7 +16519,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A527" s="7" t="s">
         <v>71</v>
       </c>
@@ -16536,7 +16545,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A528" s="7" t="s">
         <v>71</v>
       </c>
@@ -16571,7 +16580,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="529" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A529" s="7" t="s">
         <v>71</v>
       </c>
@@ -16600,7 +16609,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="530" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A530" s="7" t="s">
         <v>71</v>
       </c>
@@ -16626,7 +16635,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="531" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
         <v>52</v>
       </c>
@@ -16646,7 +16655,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="532" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A532" s="7" t="s">
         <v>369</v>
       </c>
@@ -16669,7 +16678,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="533" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A533" s="7" t="s">
         <v>71</v>
       </c>
@@ -16698,7 +16707,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="534" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A534" s="7" t="s">
         <v>71</v>
       </c>
@@ -16727,7 +16736,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="535" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A535" s="7" t="s">
         <v>369</v>
       </c>
@@ -16750,7 +16759,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="536" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A536" s="7" t="s">
         <v>71</v>
       </c>
@@ -16782,7 +16791,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="537" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A537" s="7" t="s">
         <v>52</v>
       </c>
@@ -16802,7 +16811,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="538" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A538" s="7" t="s">
         <v>52</v>
       </c>
@@ -16822,7 +16831,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="539" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A539" s="7" t="s">
         <v>369</v>
       </c>
@@ -16845,7 +16854,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="540" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A540" s="7" t="s">
         <v>71</v>
       </c>
@@ -16879,7 +16888,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="541" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A541" s="7" t="s">
         <v>71</v>
       </c>
@@ -16910,7 +16919,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="542" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A542" s="7" t="s">
         <v>71</v>
       </c>
@@ -16936,7 +16945,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="543" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A543" s="7" t="s">
         <v>71</v>
       </c>
@@ -16962,7 +16971,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="544" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A544" s="7" t="s">
         <v>369</v>
       </c>
@@ -16985,7 +16994,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="545" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A545" s="7" t="s">
         <v>71</v>
       </c>
@@ -17011,7 +17020,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="546" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A546" s="7" t="s">
         <v>71</v>
       </c>
@@ -17043,7 +17052,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="547" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A547" s="7" t="s">
         <v>369</v>
       </c>
@@ -17072,7 +17081,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="548" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A548" s="7" t="s">
         <v>71</v>
       </c>
@@ -17101,7 +17110,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="549" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A549" s="7" t="s">
         <v>369</v>
       </c>
@@ -17118,7 +17127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A550" s="7" t="s">
         <v>71</v>
       </c>
@@ -17144,7 +17153,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="551" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A551" s="7" t="s">
         <v>71</v>
       </c>
@@ -17176,7 +17185,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="552" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A552" s="7" t="s">
         <v>369</v>
       </c>
@@ -17205,7 +17214,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="553" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A553" s="7" t="s">
         <v>71</v>
       </c>
@@ -17234,7 +17243,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="554" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A554" s="7" t="s">
         <v>369</v>
       </c>
@@ -17257,7 +17266,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="555" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A555" s="7" t="s">
         <v>369</v>
       </c>
@@ -17277,7 +17286,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="556" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A556" s="7" t="s">
         <v>71</v>
       </c>
@@ -17306,7 +17315,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="557" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A557" s="7" t="s">
         <v>71</v>
       </c>
@@ -17335,7 +17344,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="558" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A558" s="7" t="s">
         <v>369</v>
       </c>
@@ -17358,7 +17367,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="559" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A559" s="7" t="s">
         <v>71</v>
       </c>
@@ -17387,7 +17396,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="560" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A560" s="7" t="s">
         <v>71</v>
       </c>
@@ -17410,7 +17419,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="561" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A561" s="7" t="s">
         <v>369</v>
       </c>
@@ -17430,7 +17439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A562" s="7" t="s">
         <v>369</v>
       </c>
@@ -17450,7 +17459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A563" s="7" t="s">
         <v>369</v>
       </c>
@@ -17479,7 +17488,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="564" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A564" s="7" t="s">
         <v>71</v>
       </c>
@@ -17507,7 +17516,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="565" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A565" s="7" t="s">
         <v>71</v>
       </c>
@@ -17535,7 +17544,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="566" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A566" s="7" t="s">
         <v>71</v>
       </c>
@@ -17561,7 +17570,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="567" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A567" s="7" t="s">
         <v>71</v>
       </c>
@@ -17601,7 +17610,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="568" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A568" s="7" t="s">
         <v>71</v>
       </c>
@@ -17630,7 +17639,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="569" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A569" s="7" t="s">
         <v>71</v>
       </c>
@@ -17665,7 +17674,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="570" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A570" s="7" t="s">
         <v>369</v>
       </c>
@@ -17691,7 +17700,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="571" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A571" s="7" t="s">
         <v>71</v>
       </c>
@@ -17726,7 +17735,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="572" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A572" s="7" t="s">
         <v>369</v>
       </c>
@@ -17743,7 +17752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A573" s="7" t="s">
         <v>369</v>
       </c>
@@ -17769,7 +17778,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="574" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A574" s="7" t="s">
         <v>369</v>
       </c>
@@ -17786,7 +17795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A575" s="7" t="s">
         <v>71</v>
       </c>
@@ -17812,7 +17821,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="576" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A576" s="7" t="s">
         <v>56</v>
       </c>
@@ -17832,7 +17841,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="577" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A577" s="7" t="s">
         <v>56</v>
       </c>
@@ -17849,7 +17858,7 @@
         <v>44637</v>
       </c>
     </row>
-    <row r="578" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A578" s="7" t="s">
         <v>369</v>
       </c>
@@ -17872,7 +17881,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="579" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A579" s="7" t="s">
         <v>71</v>
       </c>
@@ -17900,7 +17909,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="580" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A580" s="7" t="s">
         <v>56</v>
       </c>
@@ -17923,7 +17932,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="581" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A581" s="7" t="s">
         <v>56</v>
       </c>
@@ -17943,7 +17952,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="582" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A582" s="7" t="s">
         <v>369</v>
       </c>
@@ -17960,7 +17969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A583" s="7" t="s">
         <v>56</v>
       </c>
@@ -17977,7 +17986,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="584" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A584" s="7" t="s">
         <v>71</v>
       </c>
@@ -18003,7 +18012,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="585" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A585" s="7" t="s">
         <v>56</v>
       </c>
@@ -18023,7 +18032,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="586" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A586" s="7" t="s">
         <v>71</v>
       </c>
@@ -18049,7 +18058,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="587" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A587" s="7" t="s">
         <v>71</v>
       </c>
@@ -18075,7 +18084,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="588" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A588" s="7" t="s">
         <v>71</v>
       </c>
@@ -18104,7 +18113,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="589" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A589" s="7" t="s">
         <v>56</v>
       </c>
@@ -18124,7 +18133,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="590" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A590" s="7" t="s">
         <v>52</v>
       </c>
@@ -18144,7 +18153,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="591" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A591" s="7" t="s">
         <v>71</v>
       </c>
@@ -18173,7 +18182,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="592" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A592" s="7" t="s">
         <v>71</v>
       </c>
@@ -18202,7 +18211,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A593" s="7" t="s">
         <v>56</v>
       </c>
@@ -18219,7 +18228,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A594" s="7" t="s">
         <v>56</v>
       </c>
@@ -18236,7 +18245,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>56</v>
       </c>
@@ -18257,7 +18266,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>56</v>
       </c>
@@ -18278,7 +18287,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>56</v>
       </c>
@@ -18299,7 +18308,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>56</v>
       </c>
@@ -18320,7 +18329,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A599" s="7" t="s">
         <v>44</v>
       </c>
@@ -18346,7 +18355,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>56</v>
       </c>
@@ -18368,7 +18377,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>56</v>
       </c>
@@ -18390,7 +18399,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>56</v>
       </c>
@@ -18412,7 +18421,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>56</v>
       </c>
@@ -18436,7 +18445,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>56</v>
       </c>
@@ -18455,7 +18464,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A605" s="7" t="s">
         <v>56</v>
       </c>
@@ -18477,7 +18486,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A606" s="7" t="s">
         <v>56</v>
       </c>
@@ -18494,7 +18503,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A607" s="7" t="s">
         <v>56</v>
       </c>
@@ -18514,7 +18523,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A608" s="7" t="s">
         <v>56</v>
       </c>
@@ -18537,7 +18546,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A609" s="7" t="s">
         <v>56</v>
       </c>
@@ -18560,7 +18569,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A610" s="7" t="s">
         <v>56</v>
       </c>
@@ -18579,7 +18588,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A611" s="7" t="s">
         <v>56</v>
       </c>
@@ -18596,7 +18605,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A612" s="7" t="s">
         <v>56</v>
       </c>
@@ -18622,7 +18631,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A613" s="7" t="s">
         <v>56</v>
       </c>
@@ -18644,7 +18653,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A614" s="7" t="s">
         <v>56</v>
       </c>
@@ -18666,7 +18675,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A615" s="7" t="s">
         <v>56</v>
       </c>
@@ -18688,7 +18697,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A616" s="7" t="s">
         <v>56</v>
       </c>
@@ -18710,7 +18719,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A617" s="7" t="s">
         <v>44</v>
       </c>
@@ -18733,7 +18742,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A618" s="7" t="s">
         <v>56</v>
       </c>
@@ -18750,7 +18759,7 @@
         <v>44871</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A619" s="7" t="s">
         <v>56</v>
       </c>
@@ -18773,7 +18782,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A620" s="7" t="s">
         <v>56</v>
       </c>
@@ -18794,7 +18803,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A621" s="7" t="s">
         <v>56</v>
       </c>
@@ -18818,7 +18827,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>56</v>
       </c>
@@ -18840,7 +18849,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>56</v>
       </c>
@@ -18861,7 +18870,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A624" s="7" t="s">
         <v>44</v>
       </c>
@@ -18881,7 +18890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A625" s="7" t="s">
         <v>44</v>
       </c>
@@ -18901,7 +18910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A626" s="7" t="s">
         <v>44</v>
       </c>
@@ -18918,7 +18927,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="627" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A627" s="7" t="s">
         <v>44</v>
       </c>
@@ -18935,7 +18944,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="628" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A628" s="7" t="s">
         <v>44</v>
       </c>
@@ -18955,7 +18964,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="629" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A629" s="7" t="s">
         <v>44</v>
       </c>
@@ -18972,7 +18981,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="630" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A630" s="7" t="s">
         <v>725</v>
       </c>
@@ -18989,7 +18998,7 @@
         <v>44912</v>
       </c>
     </row>
-    <row r="631" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A631" s="7" t="s">
         <v>44</v>
       </c>
@@ -19009,7 +19018,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="632" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A632" s="7" t="s">
         <v>44</v>
       </c>
@@ -19026,7 +19035,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="633" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A633" s="7" t="s">
         <v>44</v>
       </c>
@@ -19043,7 +19052,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="634" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A634" s="7" t="s">
         <v>44</v>
       </c>
@@ -19066,7 +19075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A635" s="7" t="s">
         <v>44</v>
       </c>
@@ -19086,7 +19095,7 @@
         <v>44920</v>
       </c>
     </row>
-    <row r="636" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A636" s="7" t="s">
         <v>44</v>
       </c>
@@ -19103,7 +19112,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="637" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A637" s="7" t="s">
         <v>44</v>
       </c>
@@ -19120,7 +19129,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="638" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A638" s="7" t="s">
         <v>44</v>
       </c>
@@ -19149,7 +19158,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="639" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A639" s="7" t="s">
         <v>52</v>
       </c>
@@ -19166,7 +19175,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="640" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A640" s="7" t="s">
         <v>44</v>
       </c>
@@ -19198,7 +19207,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="641" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A641" s="7" t="s">
         <v>52</v>
       </c>
@@ -19215,7 +19224,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="642" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A642" s="7" t="s">
         <v>44</v>
       </c>
@@ -19238,7 +19247,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="643" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A643" s="7" t="s">
         <v>44</v>
       </c>
@@ -19261,7 +19270,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="644" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A644" s="7" t="s">
         <v>44</v>
       </c>
@@ -19278,7 +19287,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="645" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A645" s="7" t="s">
         <v>44</v>
       </c>
@@ -19295,7 +19304,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="646" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A646" s="7" t="s">
         <v>44</v>
       </c>
@@ -19312,7 +19321,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="647" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A647" s="7" t="s">
         <v>44</v>
       </c>
@@ -19332,7 +19341,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="648" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A648" s="7" t="s">
         <v>44</v>
       </c>
@@ -19349,7 +19358,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="649" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A649" s="7" t="s">
         <v>44</v>
       </c>
@@ -19366,7 +19375,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="650" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A650" s="7" t="s">
         <v>44</v>
       </c>
@@ -19389,7 +19398,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="651" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A651" s="7" t="s">
         <v>44</v>
       </c>
@@ -19412,7 +19421,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="652" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A652" s="7" t="s">
         <v>44</v>
       </c>
@@ -19429,7 +19438,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="653" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A653" s="7" t="s">
         <v>44</v>
       </c>
@@ -19455,7 +19464,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="654" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A654" s="7" t="s">
         <v>44</v>
       </c>
@@ -19478,7 +19487,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="655" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A655" s="7" t="s">
         <v>44</v>
       </c>
@@ -19501,7 +19510,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="656" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A656" s="7" t="s">
         <v>44</v>
       </c>
@@ -19521,7 +19530,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="657" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A657" s="7" t="s">
         <v>44</v>
       </c>
@@ -19541,7 +19550,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="658" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A658" s="7" t="s">
         <v>44</v>
       </c>
@@ -19561,7 +19570,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="659" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A659" s="7" t="s">
         <v>44</v>
       </c>
@@ -19581,7 +19590,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="660" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A660" s="7" t="s">
         <v>56</v>
       </c>
@@ -19601,7 +19610,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="661" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A661" s="7" t="s">
         <v>56</v>
       </c>
@@ -19621,7 +19630,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="662" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A662" s="7" t="s">
         <v>56</v>
       </c>
@@ -19638,7 +19647,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="663" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>56</v>
       </c>
@@ -19659,7 +19668,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="664" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A664" s="7" t="s">
         <v>44</v>
       </c>
@@ -19676,7 +19685,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="665" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A665" s="7" t="s">
         <v>44</v>
       </c>
@@ -19693,7 +19702,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="666" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A666" s="7" t="s">
         <v>44</v>
       </c>
@@ -19710,7 +19719,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="667" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A667" s="7" t="s">
         <v>44</v>
       </c>
@@ -19727,7 +19736,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="668" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A668" s="7" t="s">
         <v>44</v>
       </c>
@@ -19744,7 +19753,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="669" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A669" s="7" t="s">
         <v>44</v>
       </c>
@@ -19761,7 +19770,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="670" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A670" s="7" t="s">
         <v>56</v>
       </c>
@@ -19781,7 +19790,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="671" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A671" s="7" t="s">
         <v>56</v>
       </c>
@@ -19798,7 +19807,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="672" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A672" s="7" t="s">
         <v>44</v>
       </c>
@@ -19815,7 +19824,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" s="7" t="s">
         <v>56</v>
       </c>
@@ -19835,7 +19844,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" s="7" t="s">
         <v>56</v>
       </c>
@@ -19858,7 +19867,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" s="7" t="s">
         <v>52</v>
       </c>
@@ -19875,7 +19884,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" s="7" t="s">
         <v>52</v>
       </c>
@@ -19895,7 +19904,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" s="7" t="s">
         <v>44</v>
       </c>
@@ -19912,7 +19921,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" s="7" t="s">
         <v>56</v>
       </c>
@@ -19929,7 +19938,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" s="7" t="s">
         <v>44</v>
       </c>
@@ -19946,7 +19955,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" s="7" t="s">
         <v>56</v>
       </c>
@@ -19966,7 +19975,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" s="7" t="s">
         <v>56</v>
       </c>
@@ -19989,7 +19998,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" s="7" t="s">
         <v>52</v>
       </c>
@@ -20006,7 +20015,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" s="7" t="s">
         <v>52</v>
       </c>
@@ -20023,7 +20032,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" s="7" t="s">
         <v>52</v>
       </c>
@@ -20040,7 +20049,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" s="7" t="s">
         <v>56</v>
       </c>
@@ -20057,7 +20066,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" s="7" t="s">
         <v>56</v>
       </c>
@@ -20077,7 +20086,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" s="7" t="s">
         <v>56</v>
       </c>
@@ -20097,7 +20106,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" s="7" t="s">
         <v>52</v>
       </c>
@@ -20117,7 +20126,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="689" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A689" s="7" t="s">
         <v>56</v>
       </c>
@@ -20137,7 +20146,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="690" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A690" s="7" t="s">
         <v>71</v>
       </c>
@@ -20163,7 +20172,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="691" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A691" s="7" t="s">
         <v>52</v>
       </c>
@@ -20183,7 +20192,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="692" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A692" s="7" t="s">
         <v>52</v>
       </c>
@@ -20203,7 +20212,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="693" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A693" s="7" t="s">
         <v>52</v>
       </c>
@@ -20220,7 +20229,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="694" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A694" s="7" t="s">
         <v>52</v>
       </c>
@@ -20237,7 +20246,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="695" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A695" s="7" t="s">
         <v>56</v>
       </c>
@@ -20254,7 +20263,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="696" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A696" s="7" t="s">
         <v>56</v>
       </c>
@@ -20274,7 +20283,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="697" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A697" s="7" t="s">
         <v>56</v>
       </c>
@@ -20294,7 +20303,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="698" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A698" s="7" t="s">
         <v>56</v>
       </c>
@@ -20311,7 +20320,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="699" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A699" s="7" t="s">
         <v>768</v>
       </c>
@@ -20328,7 +20337,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="700" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A700" s="7" t="s">
         <v>56</v>
       </c>
@@ -20348,7 +20357,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="701" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A701" s="7" t="s">
         <v>56</v>
       </c>
@@ -20371,7 +20380,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="702" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A702" s="7" t="s">
         <v>56</v>
       </c>
@@ -20391,7 +20400,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="703" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A703" s="7" t="s">
         <v>56</v>
       </c>
@@ -20411,7 +20420,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="704" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A704" s="7" t="s">
         <v>56</v>
       </c>
@@ -20431,7 +20440,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A705" s="7" t="s">
         <v>56</v>
       </c>
@@ -20454,7 +20463,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A706" s="7" t="s">
         <v>56</v>
       </c>
@@ -20474,7 +20483,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A707" s="7" t="s">
         <v>52</v>
       </c>
@@ -20494,7 +20503,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A708" s="7" t="s">
         <v>56</v>
       </c>
@@ -20514,7 +20523,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
         <v>225</v>
       </c>
@@ -20536,7 +20545,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A710" s="7" t="s">
         <v>56</v>
       </c>
@@ -20556,7 +20565,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A711" s="7" t="s">
         <v>56</v>
       </c>
@@ -20576,7 +20585,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A712" s="7" t="s">
         <v>768</v>
       </c>
@@ -20599,7 +20608,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A713" s="7" t="s">
         <v>768</v>
       </c>
@@ -20622,7 +20631,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
         <v>56</v>
       </c>
@@ -20641,7 +20650,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A715" s="7" t="s">
         <v>56</v>
       </c>
@@ -20661,7 +20670,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A716" s="7" t="s">
         <v>56</v>
       </c>
@@ -20684,7 +20693,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A717" s="7" t="s">
         <v>52</v>
       </c>
@@ -20704,7 +20713,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A718" s="7" t="s">
         <v>44</v>
       </c>
@@ -20724,7 +20733,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A719" s="7" t="s">
         <v>768</v>
       </c>
@@ -20741,7 +20750,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A720" s="7" t="s">
         <v>56</v>
       </c>
@@ -20758,7 +20767,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="721" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A721" s="7" t="s">
         <v>56</v>
       </c>
@@ -20775,7 +20784,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="722" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A722" s="7" t="s">
         <v>56</v>
       </c>
@@ -20792,7 +20801,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="723" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A723" s="7" t="s">
         <v>56</v>
       </c>
@@ -20815,7 +20824,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="724" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A724" s="7" t="s">
         <v>44</v>
       </c>
@@ -20841,7 +20850,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="725" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A725" s="7" t="s">
         <v>52</v>
       </c>
@@ -20861,7 +20870,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="726" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A726" s="7" t="s">
         <v>56</v>
       </c>
@@ -20881,7 +20890,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="727" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A727" s="7" t="s">
         <v>768</v>
       </c>
@@ -20898,7 +20907,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="728" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A728" s="7" t="s">
         <v>56</v>
       </c>
@@ -20915,7 +20924,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="729" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A729" s="7" t="s">
         <v>52</v>
       </c>
@@ -20935,7 +20944,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="730" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A730" s="7" t="s">
         <v>44</v>
       </c>
@@ -20964,7 +20973,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="731" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A731" s="7" t="s">
         <v>44</v>
       </c>
@@ -20993,7 +21002,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="732" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A732" s="7" t="s">
         <v>52</v>
       </c>
@@ -21013,7 +21022,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="733" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A733" s="7" t="s">
         <v>52</v>
       </c>
@@ -21033,7 +21042,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="734" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A734" s="7" t="s">
         <v>56</v>
       </c>
@@ -21053,7 +21062,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="735" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A735" s="7" t="s">
         <v>56</v>
       </c>
@@ -21073,7 +21082,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="736" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A736" s="7" t="s">
         <v>56</v>
       </c>
@@ -21093,7 +21102,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A737" s="7" t="s">
         <v>56</v>
       </c>
@@ -21110,7 +21119,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A738" s="7" t="s">
         <v>56</v>
       </c>
@@ -21127,7 +21136,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" s="7" t="s">
         <v>56</v>
       </c>
@@ -21147,7 +21156,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" s="7" t="s">
         <v>52</v>
       </c>
@@ -21167,7 +21176,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A741" s="7" t="s">
         <v>52</v>
       </c>
@@ -21187,7 +21196,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" s="7" t="s">
         <v>52</v>
       </c>
@@ -21210,7 +21219,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A743" s="7" t="s">
         <v>56</v>
       </c>
@@ -21230,7 +21239,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" s="7" t="s">
         <v>56</v>
       </c>
@@ -21247,7 +21256,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" s="7" t="s">
         <v>52</v>
       </c>
@@ -21267,7 +21276,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A746" s="7" t="s">
         <v>52</v>
       </c>
@@ -21287,7 +21296,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A747" s="7" t="s">
         <v>56</v>
       </c>
@@ -21307,7 +21316,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A748" s="7" t="s">
         <v>56</v>
       </c>
@@ -21324,7 +21333,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A749" s="7" t="s">
         <v>56</v>
       </c>
@@ -21344,7 +21353,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A750" s="7" t="s">
         <v>44</v>
       </c>
@@ -21361,7 +21370,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A751" s="7" t="s">
         <v>56</v>
       </c>
@@ -21381,7 +21390,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A752" s="7" t="s">
         <v>56</v>
       </c>
@@ -21401,7 +21410,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="753" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A753" s="7" t="s">
         <v>56</v>
       </c>
@@ -21421,7 +21430,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="754" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A754" s="7" t="s">
         <v>56</v>
       </c>
@@ -21441,7 +21450,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="755" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A755" s="7" t="s">
         <v>56</v>
       </c>
@@ -21461,7 +21470,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="756" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A756" s="7" t="s">
         <v>56</v>
       </c>
@@ -21481,7 +21490,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="757" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A757" s="7" t="s">
         <v>56</v>
       </c>
@@ -21501,7 +21510,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="758" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A758" s="7" t="s">
         <v>56</v>
       </c>
@@ -21524,7 +21533,7 @@
       <c r="J758" s="4"/>
       <c r="K758" s="4"/>
     </row>
-    <row r="759" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A759" s="7" t="s">
         <v>56</v>
       </c>
@@ -21541,7 +21550,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="760" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A760" s="7" t="s">
         <v>52</v>
       </c>
@@ -21561,7 +21570,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="761" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A761" s="7" t="s">
         <v>768</v>
       </c>
@@ -21578,7 +21587,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="762" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A762" s="7" t="s">
         <v>52</v>
       </c>
@@ -21598,7 +21607,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="763" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A763" s="7" t="s">
         <v>52</v>
       </c>
@@ -21615,7 +21624,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="764" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A764" s="7" t="s">
         <v>52</v>
       </c>
@@ -21632,7 +21641,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="765" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A765" s="7" t="s">
         <v>71</v>
       </c>
@@ -21664,7 +21673,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="766" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A766" s="7" t="s">
         <v>71</v>
       </c>
@@ -21693,7 +21702,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="767" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A767" s="7" t="s">
         <v>71</v>
       </c>
@@ -21719,7 +21728,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="768" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A768" s="7" t="s">
         <v>71</v>
       </c>
@@ -21748,7 +21757,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="769" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A769" s="7" t="s">
         <v>369</v>
       </c>
@@ -21774,7 +21783,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="770" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A770" s="7" t="s">
         <v>52</v>
       </c>
@@ -21791,7 +21800,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="771" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A771" s="7" t="s">
         <v>71</v>
       </c>
@@ -21823,7 +21832,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="772" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A772" s="7" t="s">
         <v>369</v>
       </c>
@@ -21846,7 +21855,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="773" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A773" s="7" t="s">
         <v>52</v>
       </c>
@@ -21866,7 +21875,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="774" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A774" s="7" t="s">
         <v>369</v>
       </c>
@@ -21895,7 +21904,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="775" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A775" s="7" t="s">
         <v>369</v>
       </c>
@@ -21918,7 +21927,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="776" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A776" s="7" t="s">
         <v>71</v>
       </c>
@@ -21947,7 +21956,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="777" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A777" s="7" t="s">
         <v>369</v>
       </c>
@@ -21964,7 +21973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A778" s="7" t="s">
         <v>71</v>
       </c>
@@ -21990,7 +21999,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="779" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A779" s="7" t="s">
         <v>71</v>
       </c>
@@ -22016,7 +22025,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="780" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A780" s="7" t="s">
         <v>44</v>
       </c>
@@ -22042,7 +22051,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="781" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A781" s="7" t="s">
         <v>71</v>
       </c>
@@ -22071,7 +22080,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="782" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A782" s="7" t="s">
         <v>369</v>
       </c>
@@ -22100,7 +22109,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="783" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A783" s="7" t="s">
         <v>369</v>
       </c>
@@ -22123,7 +22132,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="784" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A784" s="7" t="s">
         <v>52</v>
       </c>
@@ -22143,7 +22152,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="785" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A785" s="7" t="s">
         <v>52</v>
       </c>
@@ -22163,7 +22172,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="786" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A786" s="7" t="s">
         <v>71</v>
       </c>
@@ -22192,7 +22201,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="787" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A787" s="7" t="s">
         <v>369</v>
       </c>
@@ -22212,7 +22221,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="788" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A788" s="7" t="s">
         <v>71</v>
       </c>
@@ -22244,7 +22253,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="789" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A789" s="7" t="s">
         <v>52</v>
       </c>
@@ -22264,7 +22273,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="790" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A790" s="7" t="s">
         <v>52</v>
       </c>
@@ -22284,7 +22293,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="791" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A791" s="7" t="s">
         <v>71</v>
       </c>
@@ -22313,7 +22322,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="792" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A792" s="7" t="s">
         <v>71</v>
       </c>
@@ -22345,7 +22354,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="793" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A793" s="7" t="s">
         <v>71</v>
       </c>
@@ -22374,7 +22383,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="794" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A794" s="7" t="s">
         <v>52</v>
       </c>
@@ -22394,7 +22403,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="795" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A795" s="7" t="s">
         <v>369</v>
       </c>
@@ -22414,7 +22423,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="796" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A796" s="7" t="s">
         <v>52</v>
       </c>
@@ -22434,7 +22443,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="797" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A797" s="7" t="s">
         <v>369</v>
       </c>
@@ -22451,7 +22460,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="798" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A798" s="7" t="s">
         <v>71</v>
       </c>
@@ -22483,7 +22492,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="799" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A799" s="7" t="s">
         <v>71</v>
       </c>
@@ -22509,7 +22518,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="800" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A800" s="7" t="s">
         <v>71</v>
       </c>
@@ -22538,7 +22547,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="801" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A801" s="7" t="s">
         <v>71</v>
       </c>
@@ -22567,7 +22576,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="802" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A802" s="7" t="s">
         <v>44</v>
       </c>
@@ -22584,7 +22593,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="803" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A803" s="7" t="s">
         <v>71</v>
       </c>
@@ -22616,7 +22625,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="804" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A804" s="7" t="s">
         <v>71</v>
       </c>
@@ -22651,7 +22660,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="805" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A805" s="7" t="s">
         <v>56</v>
       </c>
@@ -22671,7 +22680,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="806" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A806" s="7" t="s">
         <v>56</v>
       </c>
@@ -22688,7 +22697,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="807" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A807" s="7" t="s">
         <v>369</v>
       </c>
@@ -22702,7 +22711,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="808" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A808" s="7" t="s">
         <v>369</v>
       </c>
@@ -22713,7 +22722,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="809" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A809" s="7" t="s">
         <v>52</v>
       </c>
@@ -22733,7 +22742,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="810" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A810" s="7" t="s">
         <v>56</v>
       </c>
@@ -22753,7 +22762,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="811" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A811" s="7" t="s">
         <v>71</v>
       </c>
@@ -22782,7 +22791,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="812" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A812" s="7" t="s">
         <v>369</v>
       </c>
@@ -22802,7 +22811,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="813" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A813" s="7" t="s">
         <v>369</v>
       </c>
@@ -22819,7 +22828,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="814" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A814" s="7" t="s">
         <v>71</v>
       </c>
@@ -22845,7 +22854,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="815" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A815" s="7" t="s">
         <v>71</v>
       </c>
@@ -22868,7 +22877,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="816" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A816" s="7" t="s">
         <v>369</v>
       </c>
@@ -22888,7 +22897,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="817" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A817" s="7" t="s">
         <v>44</v>
       </c>
@@ -22908,7 +22917,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="818" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A818" s="7" t="s">
         <v>52</v>
       </c>
@@ -22928,7 +22937,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="819" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A819" s="7" t="s">
         <v>71</v>
       </c>
@@ -22957,7 +22966,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="820" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A820" s="7" t="s">
         <v>369</v>
       </c>
@@ -22980,7 +22989,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="821" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A821" s="7" t="s">
         <v>71</v>
       </c>
@@ -23009,7 +23018,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="822" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A822" s="7" t="s">
         <v>52</v>
       </c>
@@ -23029,7 +23038,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="823" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A823" s="7" t="s">
         <v>56</v>
       </c>
@@ -23049,7 +23058,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="824" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A824" s="7" t="s">
         <v>56</v>
       </c>
@@ -23066,7 +23075,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="825" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A825" s="7" t="s">
         <v>56</v>
       </c>
@@ -23086,7 +23095,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="826" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A826" s="7" t="s">
         <v>52</v>
       </c>
@@ -23106,7 +23115,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="827" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
         <v>56</v>
       </c>
@@ -23128,7 +23137,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="828" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
         <v>56</v>
       </c>
@@ -23152,7 +23161,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="829" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A829" s="7" t="s">
         <v>52</v>
       </c>
@@ -23172,7 +23181,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="830" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>56</v>
       </c>
@@ -23194,7 +23203,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="831" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
         <v>56</v>
       </c>
@@ -23218,7 +23227,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="832" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A832" s="7" t="s">
         <v>883</v>
       </c>
@@ -23235,7 +23244,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="833" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A833" s="7" t="s">
         <v>44</v>
       </c>
@@ -23252,7 +23261,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="834" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A834" s="7" t="s">
         <v>52</v>
       </c>
@@ -23272,7 +23281,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="835" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A835" s="7" t="s">
         <v>56</v>
       </c>
@@ -23292,7 +23301,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="836" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A836" s="7" t="s">
         <v>56</v>
       </c>
@@ -23309,7 +23318,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="837" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A837" s="7" t="s">
         <v>56</v>
       </c>
@@ -23329,7 +23338,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="838" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A838" s="7" t="s">
         <v>56</v>
       </c>
@@ -23346,7 +23355,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="839" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A839" s="7" t="s">
         <v>56</v>
       </c>
@@ -23368,7 +23377,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="840" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A840" s="7" t="s">
         <v>56</v>
       </c>
@@ -23392,7 +23401,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="841" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A841" s="7" t="s">
         <v>56</v>
       </c>
@@ -23412,7 +23421,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="842" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A842" s="7" t="s">
         <v>56</v>
       </c>
@@ -23429,7 +23438,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="843" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A843" s="7" t="s">
         <v>56</v>
       </c>
@@ -23446,7 +23455,7 @@
         <v>45409</v>
       </c>
     </row>
-    <row r="844" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A844" s="7" t="s">
         <v>56</v>
       </c>
@@ -23466,7 +23475,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="845" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A845" s="7" t="s">
         <v>56</v>
       </c>
@@ -23486,7 +23495,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="846" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
         <v>56</v>
       </c>
@@ -23508,7 +23517,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="847" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
         <v>56</v>
       </c>
@@ -23532,7 +23541,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="848" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A848" s="7" t="s">
         <v>71</v>
       </c>
@@ -23567,7 +23576,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="849" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A849" s="7" t="s">
         <v>71</v>
       </c>
@@ -23596,7 +23605,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="850" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A850" s="7" t="s">
         <v>71</v>
       </c>
@@ -23622,7 +23631,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="851" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A851" s="7" t="s">
         <v>71</v>
       </c>
@@ -23651,7 +23660,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="852" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A852" s="7" t="s">
         <v>56</v>
       </c>
@@ -23671,7 +23680,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="853" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A853" s="7" t="s">
         <v>52</v>
       </c>
@@ -23691,7 +23700,7 @@
         <v>45428</v>
       </c>
     </row>
-    <row r="854" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A854" s="7" t="s">
         <v>56</v>
       </c>
@@ -23708,7 +23717,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="855" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A855" s="7" t="s">
         <v>56</v>
       </c>
@@ -23731,7 +23740,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A856" s="7" t="s">
         <v>56</v>
       </c>
@@ -23751,7 +23760,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="857" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A857" s="7" t="s">
         <v>56</v>
       </c>
@@ -23771,7 +23780,7 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="858" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A858" s="7" t="s">
         <v>56</v>
       </c>
@@ -23794,7 +23803,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="859" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A859" s="7" t="s">
         <v>52</v>
       </c>
@@ -23814,7 +23823,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="860" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A860" s="7" t="s">
         <v>56</v>
       </c>
@@ -23834,7 +23843,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="861" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A861" s="7" t="s">
         <v>52</v>
       </c>
@@ -23854,7 +23863,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="862" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A862" s="7" t="s">
         <v>56</v>
       </c>
@@ -23874,7 +23883,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="863" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A863" s="7" t="s">
         <v>56</v>
       </c>
@@ -23894,7 +23903,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="864" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A864" s="7" t="s">
         <v>56</v>
       </c>
@@ -23914,7 +23923,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="865" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A865" s="7" t="s">
         <v>56</v>
       </c>
@@ -23934,7 +23943,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="866" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A866" s="7" t="s">
         <v>44</v>
       </c>
@@ -23960,7 +23969,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="867" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A867" s="7" t="s">
         <v>52</v>
       </c>
@@ -23980,7 +23989,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="868" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A868" s="7" t="s">
         <v>56</v>
       </c>
@@ -23997,7 +24006,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="869" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A869" s="7" t="s">
         <v>56</v>
       </c>
@@ -24019,7 +24028,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="870" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A870" s="7" t="s">
         <v>56</v>
       </c>
@@ -24042,7 +24051,7 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="871" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A871" s="7" t="s">
         <v>56</v>
       </c>
@@ -24059,7 +24068,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="872" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A872" s="7" t="s">
         <v>52</v>
       </c>
@@ -24079,7 +24088,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="873" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A873" s="7" t="s">
         <v>56</v>
       </c>
@@ -24096,7 +24105,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="874" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A874" s="7" t="s">
         <v>56</v>
       </c>
@@ -24116,7 +24125,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="875" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A875" s="7" t="s">
         <v>56</v>
       </c>
@@ -24136,7 +24145,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="876" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A876" s="7" t="s">
         <v>56</v>
       </c>
@@ -24153,7 +24162,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="877" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A877" s="7" t="s">
         <v>52</v>
       </c>
@@ -24170,7 +24179,7 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="878" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A878" s="7" t="s">
         <v>52</v>
       </c>
@@ -24193,7 +24202,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="879" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A879" s="7" t="s">
         <v>52</v>
       </c>
@@ -24213,7 +24222,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="880" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A880" s="7" t="s">
         <v>56</v>
       </c>
@@ -24230,7 +24239,7 @@
         <v>45477</v>
       </c>
     </row>
-    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A881" s="7" t="s">
         <v>71</v>
       </c>
@@ -24256,7 +24265,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A882" s="7" t="s">
         <v>44</v>
       </c>
@@ -24276,7 +24285,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A883" s="7" t="s">
         <v>768</v>
       </c>
@@ -24296,7 +24305,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A884" s="7" t="s">
         <v>44</v>
       </c>
@@ -24313,7 +24322,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A885" s="7" t="s">
         <v>44</v>
       </c>
@@ -24330,7 +24339,7 @@
         <v>45484</v>
       </c>
     </row>
-    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A886" s="7" t="s">
         <v>941</v>
       </c>
@@ -24347,7 +24356,7 @@
         <v>45487</v>
       </c>
     </row>
-    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A887" s="7" t="s">
         <v>44</v>
       </c>
@@ -24370,7 +24379,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A888" s="7" t="s">
         <v>52</v>
       </c>
@@ -24387,7 +24396,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A889" s="7" t="s">
         <v>44</v>
       </c>
@@ -24410,7 +24419,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="890" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A890" s="7" t="s">
         <v>52</v>
       </c>
@@ -24439,7 +24448,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A891" s="7" t="s">
         <v>52</v>
       </c>
@@ -24471,7 +24480,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A892" s="7" t="s">
         <v>44</v>
       </c>
@@ -24500,7 +24509,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A893" s="7" t="s">
         <v>56</v>
       </c>
@@ -24517,7 +24526,7 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="894" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A894" s="7" t="s">
         <v>56</v>
       </c>
@@ -24537,7 +24546,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="895" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A895" s="7" t="s">
         <v>44</v>
       </c>
@@ -24557,7 +24566,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="896" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A896" s="7" t="s">
         <v>941</v>
       </c>
@@ -24586,7 +24595,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="897" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A897" s="7" t="s">
         <v>56</v>
       </c>
@@ -24606,7 +24615,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="898" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A898" s="7" t="s">
         <v>52</v>
       </c>
@@ -24638,7 +24647,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="899" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A899" s="7" t="s">
         <v>44</v>
       </c>
@@ -24661,7 +24670,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="900" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A900" s="7" t="s">
         <v>56</v>
       </c>
@@ -24684,7 +24693,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="901" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A901" s="7" t="s">
         <v>56</v>
       </c>
@@ -24704,7 +24713,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="902" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A902" s="7" t="s">
         <v>56</v>
       </c>
@@ -24721,7 +24730,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="903" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A903" s="7" t="s">
         <v>44</v>
       </c>
@@ -24744,7 +24753,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="904" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A904" s="7" t="s">
         <v>44</v>
       </c>
@@ -24767,7 +24776,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="905" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A905" s="7" t="s">
         <v>44</v>
       </c>
@@ -24793,7 +24802,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="906" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A906" s="7" t="s">
         <v>56</v>
       </c>
@@ -24813,7 +24822,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="907" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A907" s="7" t="s">
         <v>44</v>
       </c>
@@ -24833,7 +24842,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="908" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A908" s="7" t="s">
         <v>52</v>
       </c>
@@ -24868,7 +24877,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="909" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A909" s="7" t="s">
         <v>52</v>
       </c>
@@ -24897,7 +24906,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="910" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A910" s="7" t="s">
         <v>52</v>
       </c>
@@ -24926,7 +24935,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="911" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A911" s="7" t="s">
         <v>225</v>
       </c>
@@ -24946,7 +24955,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="912" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A912" s="7" t="s">
         <v>44</v>
       </c>
@@ -24966,7 +24975,7 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="913" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A913" s="7" t="s">
         <v>52</v>
       </c>
@@ -24986,7 +24995,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="914" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A914" s="7" t="s">
         <v>52</v>
       </c>
@@ -25012,7 +25021,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="915" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A915" s="7" t="s">
         <v>56</v>
       </c>
@@ -25032,7 +25041,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="916" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A916" s="7" t="s">
         <v>52</v>
       </c>
@@ -25052,7 +25061,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="917" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A917" s="7" t="s">
         <v>52</v>
       </c>
@@ -25078,7 +25087,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="918" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A918" s="7" t="s">
         <v>44</v>
       </c>
@@ -25107,7 +25116,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="919" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A919" s="7" t="s">
         <v>56</v>
       </c>
@@ -25127,7 +25136,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="920" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A920" s="7" t="s">
         <v>56</v>
       </c>
@@ -25147,7 +25156,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="921" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A921" s="7" t="s">
         <v>56</v>
       </c>
@@ -25167,7 +25176,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="922" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A922" s="7" t="s">
         <v>56</v>
       </c>
@@ -25187,7 +25196,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="923" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A923" s="7" t="s">
         <v>52</v>
       </c>
@@ -25219,7 +25228,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="924" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A924" s="7" t="s">
         <v>56</v>
       </c>
@@ -25236,7 +25245,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="925" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A925" s="7" t="s">
         <v>56</v>
       </c>
@@ -25258,7 +25267,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="926" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A926" s="7" t="s">
         <v>56</v>
       </c>
@@ -25280,7 +25289,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="927" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A927" s="7" t="s">
         <v>56</v>
       </c>
@@ -25302,7 +25311,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="928" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A928" s="7" t="s">
         <v>56</v>
       </c>
@@ -25324,7 +25333,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="929" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A929" s="7" t="s">
         <v>52</v>
       </c>
@@ -25356,7 +25365,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="930" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A930" s="7" t="s">
         <v>52</v>
       </c>
@@ -25388,7 +25397,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="931" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A931" s="7" t="s">
         <v>52</v>
       </c>
@@ -25408,7 +25417,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="932" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A932" s="7" t="s">
         <v>52</v>
       </c>
@@ -25428,7 +25437,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="933" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A933" s="7" t="s">
         <v>52</v>
       </c>
@@ -25460,7 +25469,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="934" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A934" s="7" t="s">
         <v>56</v>
       </c>
@@ -25480,7 +25489,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="935" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A935" s="7" t="s">
         <v>56</v>
       </c>
@@ -25497,7 +25506,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="936" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A936" s="7" t="s">
         <v>52</v>
       </c>
@@ -25532,7 +25541,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="937" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A937" s="7" t="s">
         <v>52</v>
       </c>
@@ -25558,7 +25567,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="938" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A938" s="7" t="s">
         <v>52</v>
       </c>
@@ -25596,7 +25605,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="939" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A939" s="7" t="s">
         <v>56</v>
       </c>
@@ -25619,7 +25628,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="940" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A940" s="7" t="s">
         <v>52</v>
       </c>
@@ -25639,7 +25648,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="941" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A941" s="7" t="s">
         <v>52</v>
       </c>
@@ -25671,7 +25680,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="942" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A942" s="7" t="s">
         <v>52</v>
       </c>
@@ -25706,7 +25715,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="943" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A943" s="7" t="s">
         <v>52</v>
       </c>
@@ -25729,7 +25738,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="944" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A944" s="7" t="s">
         <v>52</v>
       </c>
@@ -25764,7 +25773,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A945" s="7" t="s">
         <v>52</v>
       </c>
@@ -25793,7 +25802,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A946" s="7" t="s">
         <v>44</v>
       </c>
@@ -25813,7 +25822,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A947" s="7" t="s">
         <v>56</v>
       </c>
@@ -25830,7 +25839,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A948" s="7" t="s">
         <v>56</v>
       </c>
@@ -25850,7 +25859,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A949" s="7" t="s">
         <v>56</v>
       </c>
@@ -25870,7 +25879,7 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A950" s="7" t="s">
         <v>52</v>
       </c>
@@ -25902,7 +25911,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A951" s="7" t="s">
         <v>52</v>
       </c>
@@ -25934,7 +25943,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A952" s="7" t="s">
         <v>56</v>
       </c>
@@ -25954,7 +25963,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A953" s="7" t="s">
         <v>56</v>
       </c>
@@ -25974,7 +25983,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A954" s="7" t="s">
         <v>52</v>
       </c>
@@ -26006,7 +26015,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A955" s="7" t="s">
         <v>56</v>
       </c>
@@ -26026,7 +26035,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A956" s="7" t="s">
         <v>56</v>
       </c>
@@ -26049,7 +26058,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A957" s="7" t="s">
         <v>56</v>
       </c>
@@ -26069,7 +26078,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A958" s="7" t="s">
         <v>56</v>
       </c>
@@ -26089,7 +26098,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A959" s="7" t="s">
         <v>52</v>
       </c>
@@ -26115,7 +26124,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A960" s="7" t="s">
         <v>52</v>
       </c>
@@ -26150,7 +26159,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="961" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A961" s="7" t="s">
         <v>52</v>
       </c>
@@ -26179,7 +26188,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="962" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A962" s="7" t="s">
         <v>52</v>
       </c>
@@ -26214,7 +26223,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="963" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A963" s="7" t="s">
         <v>56</v>
       </c>
@@ -26234,7 +26243,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="964" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A964" s="7" t="s">
         <v>56</v>
       </c>
@@ -26257,7 +26266,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="965" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A965" s="7" t="s">
         <v>56</v>
       </c>
@@ -26283,7 +26292,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="966" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A966" s="7" t="s">
         <v>52</v>
       </c>
@@ -26315,7 +26324,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="967" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A967" s="7" t="s">
         <v>44</v>
       </c>
@@ -26335,7 +26344,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="968" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A968" s="7" t="s">
         <v>52</v>
       </c>
@@ -26370,7 +26379,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="969" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A969" s="7" t="s">
         <v>52</v>
       </c>
@@ -26402,7 +26411,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="970" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A970" s="7" t="s">
         <v>52</v>
       </c>
@@ -26434,7 +26443,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="971" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A971" s="7" t="s">
         <v>71</v>
       </c>
@@ -26460,7 +26469,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="972" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A972" s="7" t="s">
         <v>52</v>
       </c>
@@ -26489,7 +26498,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="973" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A973" s="7" t="s">
         <v>52</v>
       </c>
@@ -26521,7 +26530,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="974" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A974" s="7" t="s">
         <v>52</v>
       </c>
@@ -26556,7 +26565,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="975" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A975" s="7" t="s">
         <v>52</v>
       </c>
@@ -26585,7 +26594,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="976" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A976" s="7" t="s">
         <v>369</v>
       </c>
@@ -26605,7 +26614,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="977" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A977" s="7" t="s">
         <v>52</v>
       </c>
@@ -26619,7 +26628,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="978" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A978" s="7" t="s">
         <v>52</v>
       </c>
@@ -26633,7 +26642,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="979" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A979" s="7" t="s">
         <v>52</v>
       </c>
@@ -26668,7 +26677,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="980" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A980" s="7" t="s">
         <v>369</v>
       </c>
@@ -26691,7 +26700,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="981" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A981" s="7" t="s">
         <v>52</v>
       </c>
@@ -26723,7 +26732,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="982" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A982" s="7" t="s">
         <v>71</v>
       </c>
@@ -26752,7 +26761,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="983" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A983" s="7" t="s">
         <v>369</v>
       </c>
@@ -26772,7 +26781,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="984" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A984" s="7" t="s">
         <v>71</v>
       </c>
@@ -26798,7 +26807,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="985" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A985" s="7" t="s">
         <v>52</v>
       </c>
@@ -26830,7 +26839,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="986" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A986" s="7" t="s">
         <v>369</v>
       </c>
@@ -26862,7 +26871,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="987" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A987" s="7" t="s">
         <v>52</v>
       </c>
@@ -26894,7 +26903,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="988" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A988" s="7" t="s">
         <v>369</v>
       </c>
@@ -26917,7 +26926,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="989" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A989" s="7" t="s">
         <v>369</v>
       </c>
@@ -26940,7 +26949,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="990" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A990" s="7" t="s">
         <v>369</v>
       </c>
@@ -26963,7 +26972,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="991" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A991" s="7" t="s">
         <v>52</v>
       </c>
@@ -26995,7 +27004,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="992" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A992" s="7" t="s">
         <v>71</v>
       </c>
@@ -27021,7 +27030,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="993" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A993" s="7" t="s">
         <v>71</v>
       </c>
@@ -27047,7 +27056,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="994" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A994" s="7" t="s">
         <v>71</v>
       </c>
@@ -27073,7 +27082,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="995" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A995" s="7" t="s">
         <v>71</v>
       </c>
@@ -27105,7 +27114,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="996" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A996" s="7" t="s">
         <v>369</v>
       </c>
@@ -27134,7 +27143,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="997" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A997" s="7" t="s">
         <v>71</v>
       </c>
@@ -27163,7 +27172,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="998" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A998" s="7" t="s">
         <v>71</v>
       </c>
@@ -27189,7 +27198,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="999" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A999" s="7" t="s">
         <v>71</v>
       </c>
@@ -27215,7 +27224,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1000" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1000" s="7" t="s">
         <v>369</v>
       </c>
@@ -27235,7 +27244,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1001" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1001" s="7" t="s">
         <v>71</v>
       </c>
@@ -27261,7 +27270,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1002" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1002" s="7" t="s">
         <v>52</v>
       </c>
@@ -27281,7 +27290,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="1003" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1003" s="7" t="s">
         <v>52</v>
       </c>
@@ -27307,7 +27316,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="1004" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1004" s="7" t="s">
         <v>71</v>
       </c>
@@ -27339,7 +27348,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="1005" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1005" s="7" t="s">
         <v>71</v>
       </c>
@@ -27368,7 +27377,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1006" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1006" s="7" t="s">
         <v>71</v>
       </c>
@@ -27397,7 +27406,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1007" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1007" s="7" t="s">
         <v>369</v>
       </c>
@@ -27423,7 +27432,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1008" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1008" s="7" t="s">
         <v>369</v>
       </c>
@@ -27441,6 +27450,61 @@
       </c>
       <c r="Q1008" s="7" t="s">
         <v>372</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1009" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1009" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1009" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1009" s="1">
+        <v>45677</v>
+      </c>
+      <c r="I1009" s="7">
+        <v>382</v>
+      </c>
+      <c r="K1009" s="7">
+        <v>14.44</v>
+      </c>
+      <c r="L1009" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="M1009" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="Q1009" s="7" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1010" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B1010" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1010" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G1010" s="1">
+        <v>45678</v>
+      </c>
+      <c r="I1010" s="7">
+        <v>234</v>
+      </c>
+      <c r="K1010" s="7">
+        <v>14.27</v>
+      </c>
+      <c r="L1010" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M1010" s="7" t="s">
+        <v>670</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF00FD0-5B6F-4F55-A92A-B07971D7FCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C79DA2-1469-4F14-B77D-DA5D47BEFB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5677" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5684" uniqueCount="1093">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3299,6 +3299,9 @@
   </si>
   <si>
     <t>Miete</t>
+  </si>
+  <si>
+    <t>01:43:07.0</t>
   </si>
 </sst>
 </file>
@@ -3378,7 +3381,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -3826,41 +3829,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:V1010"/>
+  <dimension ref="A1:V1011"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A994" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1010" sqref="K1010"/>
+      <pane ySplit="1" topLeftCell="A971" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1012" sqref="M1012"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="138.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="138.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="204" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
@@ -3928,7 +3931,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -3956,7 +3959,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3976,7 +3979,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
@@ -4007,7 +4010,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -4024,7 +4027,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>71</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -4092,7 +4095,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -4112,7 +4115,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
@@ -4135,7 +4138,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -4184,7 +4187,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -4204,7 +4207,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -4227,7 +4230,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -4249,7 +4252,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -4275,7 +4278,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -4297,7 +4300,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -4321,7 +4324,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -4343,7 +4346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4365,7 +4368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -4387,7 +4390,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -4413,7 +4416,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -4435,7 +4438,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -4481,7 +4484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>71</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>71</v>
       </c>
@@ -4532,7 +4535,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
@@ -4578,7 +4581,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>71</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>71</v>
       </c>
@@ -4618,7 +4621,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -4680,7 +4683,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -4703,7 +4706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -4731,7 +4734,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
@@ -4759,7 +4762,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
@@ -4788,7 +4791,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -4819,7 +4822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -4839,7 +4842,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4867,7 +4870,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -4895,7 +4898,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4925,7 +4928,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -4947,7 +4950,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4973,7 +4976,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -4995,7 +4998,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -5025,7 +5028,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -5086,7 +5089,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -5119,7 +5122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>71</v>
       </c>
@@ -5145,7 +5148,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
@@ -5165,7 +5168,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>71</v>
       </c>
@@ -5197,7 +5200,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>71</v>
       </c>
@@ -5231,7 +5234,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
@@ -5259,7 +5262,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
@@ -5287,7 +5290,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -5320,7 +5323,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>52</v>
       </c>
@@ -5348,7 +5351,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -5409,7 +5412,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5442,7 +5445,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>71</v>
       </c>
@@ -5476,7 +5479,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>71</v>
       </c>
@@ -5502,7 +5505,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
@@ -5555,7 +5558,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>52</v>
       </c>
@@ -5583,7 +5586,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>52</v>
       </c>
@@ -5611,7 +5614,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>52</v>
       </c>
@@ -5639,7 +5642,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>52</v>
       </c>
@@ -5667,7 +5670,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
@@ -5693,7 +5696,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
@@ -5719,7 +5722,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>52</v>
       </c>
@@ -5773,7 +5776,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>52</v>
       </c>
@@ -5801,7 +5804,7 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>52</v>
       </c>
@@ -5821,7 +5824,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
@@ -5841,7 +5844,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -5861,7 +5864,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
@@ -5909,7 +5912,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>52</v>
       </c>
@@ -5929,7 +5932,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
@@ -5951,7 +5954,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
@@ -5975,7 +5978,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>52</v>
       </c>
@@ -6003,7 +6006,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>44</v>
       </c>
@@ -6023,7 +6026,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>52</v>
       </c>
@@ -6051,7 +6054,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>52</v>
       </c>
@@ -6071,7 +6074,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
@@ -6091,7 +6094,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>52</v>
       </c>
@@ -6111,7 +6114,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
@@ -6131,7 +6134,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>52</v>
       </c>
@@ -6151,7 +6154,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
@@ -6171,7 +6174,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>71</v>
       </c>
@@ -6197,7 +6200,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>52</v>
       </c>
@@ -6225,7 +6228,7 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
@@ -6256,7 +6259,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>52</v>
       </c>
@@ -6276,7 +6279,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>52</v>
       </c>
@@ -6296,7 +6299,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>52</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>71</v>
       </c>
@@ -6342,7 +6345,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>52</v>
       </c>
@@ -6362,7 +6365,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>52</v>
       </c>
@@ -6382,7 +6385,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>52</v>
       </c>
@@ -6402,7 +6405,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>52</v>
       </c>
@@ -6422,7 +6425,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>52</v>
       </c>
@@ -6442,7 +6445,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>52</v>
       </c>
@@ -6470,7 +6473,7 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -6501,7 +6504,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>52</v>
       </c>
@@ -6521,7 +6524,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>52</v>
       </c>
@@ -6549,7 +6552,7 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>52</v>
       </c>
@@ -6580,7 +6583,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>52</v>
       </c>
@@ -6600,7 +6603,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -6630,7 +6633,7 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>149</v>
@@ -6656,7 +6659,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>52</v>
       </c>
@@ -6687,7 +6690,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -6712,7 +6715,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>52</v>
       </c>
@@ -6732,7 +6735,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>52</v>
       </c>
@@ -6752,7 +6755,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>52</v>
       </c>
@@ -6772,7 +6775,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>71</v>
       </c>
@@ -6798,7 +6801,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -6820,7 +6823,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -6848,7 +6851,7 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -6878,7 +6881,7 @@
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -6902,7 +6905,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -6932,7 +6935,7 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>149</v>
@@ -6958,7 +6961,7 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>52</v>
       </c>
@@ -6986,7 +6989,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -7016,7 +7019,7 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -7046,7 +7049,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -7072,7 +7075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -7098,7 +7101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>52</v>
       </c>
@@ -7118,7 +7121,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -7148,7 +7151,7 @@
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
@@ -7174,7 +7177,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>52</v>
       </c>
@@ -7194,7 +7197,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>56</v>
       </c>
@@ -7222,7 +7225,7 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>56</v>
       </c>
@@ -7248,7 +7251,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>56</v>
       </c>
@@ -7270,7 +7273,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>56</v>
       </c>
@@ -7292,7 +7295,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>56</v>
       </c>
@@ -7316,7 +7319,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>56</v>
       </c>
@@ -7342,7 +7345,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>56</v>
       </c>
@@ -7366,7 +7369,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>52</v>
       </c>
@@ -7389,7 +7392,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>52</v>
       </c>
@@ -7412,7 +7415,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>56</v>
       </c>
@@ -7442,7 +7445,7 @@
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>56</v>
       </c>
@@ -7464,7 +7467,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>56</v>
       </c>
@@ -7488,7 +7491,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>56</v>
       </c>
@@ -7514,7 +7517,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>56</v>
       </c>
@@ -7536,7 +7539,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>56</v>
       </c>
@@ -7560,7 +7563,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>52</v>
       </c>
@@ -7583,7 +7586,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>52</v>
       </c>
@@ -7606,7 +7609,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>52</v>
       </c>
@@ -7629,7 +7632,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>71</v>
       </c>
@@ -7655,7 +7658,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>71</v>
       </c>
@@ -7686,7 +7689,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>71</v>
       </c>
@@ -7714,7 +7717,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>71</v>
       </c>
@@ -7743,7 +7746,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>71</v>
       </c>
@@ -7774,7 +7777,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>71</v>
       </c>
@@ -7805,7 +7808,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>52</v>
       </c>
@@ -7825,7 +7828,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>71</v>
       </c>
@@ -7856,7 +7859,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>52</v>
       </c>
@@ -7876,7 +7879,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>52</v>
       </c>
@@ -7899,7 +7902,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>71</v>
       </c>
@@ -7930,7 +7933,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>71</v>
       </c>
@@ -7958,7 +7961,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>71</v>
       </c>
@@ -7989,7 +7992,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>52</v>
       </c>
@@ -8012,7 +8015,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>52</v>
       </c>
@@ -8032,7 +8035,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>52</v>
       </c>
@@ -8055,7 +8058,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>52</v>
       </c>
@@ -8078,7 +8081,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>71</v>
       </c>
@@ -8109,7 +8112,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>71</v>
       </c>
@@ -8143,7 +8146,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>71</v>
       </c>
@@ -8177,7 +8180,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>56</v>
       </c>
@@ -8199,7 +8202,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>56</v>
       </c>
@@ -8223,7 +8226,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>149</v>
@@ -8241,7 +8244,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>52</v>
       </c>
@@ -8261,7 +8264,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>52</v>
       </c>
@@ -8281,7 +8284,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>52</v>
       </c>
@@ -8304,7 +8307,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>52</v>
       </c>
@@ -8326,7 +8329,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>56</v>
       </c>
@@ -8346,7 +8349,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>225</v>
       </c>
@@ -8368,7 +8371,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>56</v>
       </c>
@@ -8398,7 +8401,7 @@
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>56</v>
       </c>
@@ -8424,7 +8427,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>52</v>
       </c>
@@ -8447,7 +8450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>56</v>
       </c>
@@ -8475,7 +8478,7 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>56</v>
       </c>
@@ -8503,7 +8506,7 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>56</v>
       </c>
@@ -8531,7 +8534,7 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>56</v>
       </c>
@@ -8561,7 +8564,7 @@
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>56</v>
       </c>
@@ -8587,7 +8590,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>56</v>
       </c>
@@ -8611,7 +8614,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>56</v>
       </c>
@@ -8637,7 +8640,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>52</v>
       </c>
@@ -8659,7 +8662,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>56</v>
       </c>
@@ -8681,7 +8684,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>225</v>
       </c>
@@ -8703,7 +8706,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>56</v>
       </c>
@@ -8725,7 +8728,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>52</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>225</v>
       </c>
@@ -8772,7 +8775,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>52</v>
       </c>
@@ -8795,7 +8798,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>52</v>
       </c>
@@ -8815,7 +8818,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>71</v>
       </c>
@@ -8849,7 +8852,7 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>71</v>
       </c>
@@ -8886,7 +8889,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>71</v>
       </c>
@@ -8923,7 +8926,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>71</v>
       </c>
@@ -8951,7 +8954,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>52</v>
       </c>
@@ -8971,7 +8974,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>52</v>
       </c>
@@ -8994,7 +8997,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>56</v>
       </c>
@@ -9025,7 +9028,7 @@
       <c r="P204" s="6"/>
       <c r="V204" s="11"/>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>56</v>
       </c>
@@ -9049,7 +9052,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>56</v>
       </c>
@@ -9077,7 +9080,7 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>56</v>
       </c>
@@ -9105,7 +9108,7 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>56</v>
       </c>
@@ -9127,7 +9130,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>56</v>
       </c>
@@ -9151,7 +9154,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>56</v>
       </c>
@@ -9171,7 +9174,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>56</v>
       </c>
@@ -9191,7 +9194,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>52</v>
       </c>
@@ -9213,7 +9216,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>56</v>
       </c>
@@ -9238,7 +9241,7 @@
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -9263,7 +9266,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>56</v>
       </c>
@@ -9283,7 +9286,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>56</v>
       </c>
@@ -9303,7 +9306,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>225</v>
       </c>
@@ -9328,7 +9331,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>56</v>
       </c>
@@ -9350,7 +9353,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>56</v>
       </c>
@@ -9372,7 +9375,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>56</v>
       </c>
@@ -9394,7 +9397,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>56</v>
       </c>
@@ -9417,7 +9420,7 @@
       </c>
       <c r="V221" s="11"/>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>56</v>
       </c>
@@ -9449,7 +9452,7 @@
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>56</v>
       </c>
@@ -9471,7 +9474,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>56</v>
       </c>
@@ -9493,7 +9496,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>56</v>
       </c>
@@ -9517,7 +9520,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>56</v>
       </c>
@@ -9539,7 +9542,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>56</v>
       </c>
@@ -9563,7 +9566,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>56</v>
       </c>
@@ -9585,7 +9588,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>56</v>
       </c>
@@ -9607,7 +9610,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>56</v>
       </c>
@@ -9629,7 +9632,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>56</v>
       </c>
@@ -9651,7 +9654,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>56</v>
       </c>
@@ -9673,7 +9676,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>56</v>
       </c>
@@ -9695,7 +9698,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>56</v>
       </c>
@@ -9717,7 +9720,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>225</v>
       </c>
@@ -9739,7 +9742,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>56</v>
       </c>
@@ -9765,7 +9768,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>56</v>
       </c>
@@ -9787,7 +9790,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>56</v>
       </c>
@@ -9809,7 +9812,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>56</v>
       </c>
@@ -9831,7 +9834,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>56</v>
       </c>
@@ -9855,7 +9858,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>56</v>
       </c>
@@ -9881,7 +9884,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>56</v>
       </c>
@@ -9901,7 +9904,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>56</v>
       </c>
@@ -9921,7 +9924,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>56</v>
       </c>
@@ -9941,7 +9944,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>56</v>
       </c>
@@ -9965,7 +9968,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>56</v>
       </c>
@@ -9991,7 +9994,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>56</v>
       </c>
@@ -10017,7 +10020,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>52</v>
       </c>
@@ -10039,7 +10042,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>56</v>
       </c>
@@ -10061,7 +10064,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>225</v>
       </c>
@@ -10086,7 +10089,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>56</v>
       </c>
@@ -10108,7 +10111,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>56</v>
       </c>
@@ -10130,7 +10133,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>56</v>
       </c>
@@ -10152,7 +10155,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>56</v>
       </c>
@@ -10174,7 +10177,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>56</v>
       </c>
@@ -10200,7 +10203,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>52</v>
       </c>
@@ -10220,7 +10223,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>56</v>
       </c>
@@ -10242,7 +10245,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>56</v>
       </c>
@@ -10266,7 +10269,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>56</v>
       </c>
@@ -10286,7 +10289,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>56</v>
       </c>
@@ -10306,7 +10309,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>56</v>
       </c>
@@ -10326,7 +10329,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>56</v>
       </c>
@@ -10348,7 +10351,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>56</v>
       </c>
@@ -10372,7 +10375,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>56</v>
       </c>
@@ -10394,7 +10397,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>52</v>
       </c>
@@ -10416,7 +10419,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>225</v>
       </c>
@@ -10438,7 +10441,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>56</v>
       </c>
@@ -10458,7 +10461,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>56</v>
       </c>
@@ -10480,7 +10483,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>56</v>
       </c>
@@ -10504,7 +10507,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>56</v>
       </c>
@@ -10528,7 +10531,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>56</v>
       </c>
@@ -10554,7 +10557,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>56</v>
       </c>
@@ -10576,7 +10579,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>56</v>
       </c>
@@ -10600,7 +10603,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>56</v>
       </c>
@@ -10619,7 +10622,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>56</v>
       </c>
@@ -10642,7 +10645,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>56</v>
       </c>
@@ -10666,7 +10669,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>56</v>
       </c>
@@ -10692,7 +10695,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>56</v>
       </c>
@@ -10711,7 +10714,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>52</v>
       </c>
@@ -10735,7 +10738,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>56</v>
       </c>
@@ -10758,7 +10761,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>56</v>
       </c>
@@ -10781,7 +10784,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>56</v>
       </c>
@@ -10803,7 +10806,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>56</v>
       </c>
@@ -10825,7 +10828,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>56</v>
       </c>
@@ -10844,7 +10847,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>56</v>
       </c>
@@ -10867,7 +10870,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>56</v>
       </c>
@@ -10893,7 +10896,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>56</v>
       </c>
@@ -10919,7 +10922,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>56</v>
       </c>
@@ -10942,7 +10945,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>52</v>
       </c>
@@ -10965,7 +10968,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>52</v>
       </c>
@@ -10988,7 +10991,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>56</v>
       </c>
@@ -11012,7 +11015,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>56</v>
       </c>
@@ -11034,7 +11037,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>56</v>
       </c>
@@ -11058,7 +11061,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>52</v>
       </c>
@@ -11084,7 +11087,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>52</v>
       </c>
@@ -11107,7 +11110,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>52</v>
       </c>
@@ -11130,7 +11133,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>52</v>
       </c>
@@ -11153,7 +11156,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>56</v>
       </c>
@@ -11175,7 +11178,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>56</v>
       </c>
@@ -11199,7 +11202,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>56</v>
       </c>
@@ -11219,7 +11222,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>56</v>
       </c>
@@ -11239,7 +11242,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>56</v>
       </c>
@@ -11261,7 +11264,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>56</v>
       </c>
@@ -11285,7 +11288,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>52</v>
       </c>
@@ -11305,7 +11308,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>56</v>
       </c>
@@ -11339,7 +11342,7 @@
       <c r="O305" s="4"/>
       <c r="P305" s="4"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>56</v>
       </c>
@@ -11361,7 +11364,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>56</v>
       </c>
@@ -11385,7 +11388,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>56</v>
       </c>
@@ -11407,7 +11410,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>56</v>
       </c>
@@ -11431,7 +11434,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>56</v>
       </c>
@@ -11451,7 +11454,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>225</v>
       </c>
@@ -11473,7 +11476,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>71</v>
       </c>
@@ -11499,7 +11502,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>71</v>
       </c>
@@ -11528,7 +11531,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>71</v>
       </c>
@@ -11560,7 +11563,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>369</v>
       </c>
@@ -11586,7 +11589,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>71</v>
       </c>
@@ -11620,7 +11623,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>369</v>
       </c>
@@ -11646,7 +11649,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>369</v>
       </c>
@@ -11666,7 +11669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>369</v>
       </c>
@@ -11689,7 +11692,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>71</v>
       </c>
@@ -11715,7 +11718,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>369</v>
       </c>
@@ -11732,7 +11735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>71</v>
       </c>
@@ -11761,7 +11764,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>369</v>
       </c>
@@ -11784,7 +11787,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
         <v>369</v>
       </c>
@@ -11804,7 +11807,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>369</v>
       </c>
@@ -11824,7 +11827,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>369</v>
       </c>
@@ -11844,7 +11847,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>369</v>
       </c>
@@ -11867,7 +11870,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>52</v>
       </c>
@@ -11890,7 +11893,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>369</v>
       </c>
@@ -11913,7 +11916,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
         <v>369</v>
       </c>
@@ -11936,7 +11939,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>369</v>
       </c>
@@ -11953,7 +11956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>369</v>
       </c>
@@ -11970,7 +11973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>369</v>
       </c>
@@ -11990,7 +11993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>369</v>
       </c>
@@ -12010,7 +12013,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>369</v>
       </c>
@@ -12027,7 +12030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>71</v>
       </c>
@@ -12059,7 +12062,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>369</v>
       </c>
@@ -12079,7 +12082,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>71</v>
       </c>
@@ -12108,7 +12111,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>369</v>
       </c>
@@ -12131,7 +12134,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>71</v>
       </c>
@@ -12160,7 +12163,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>369</v>
       </c>
@@ -12186,7 +12189,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
         <v>369</v>
       </c>
@@ -12203,7 +12206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>369</v>
       </c>
@@ -12226,7 +12229,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
         <v>369</v>
       </c>
@@ -12243,7 +12246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>71</v>
       </c>
@@ -12271,7 +12274,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
         <v>369</v>
       </c>
@@ -12294,7 +12297,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>71</v>
       </c>
@@ -12323,7 +12326,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>369</v>
       </c>
@@ -12340,7 +12343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>369</v>
       </c>
@@ -12363,7 +12366,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
         <v>71</v>
       </c>
@@ -12395,7 +12398,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>71</v>
       </c>
@@ -12424,7 +12427,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
         <v>369</v>
       </c>
@@ -12450,7 +12453,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>71</v>
       </c>
@@ -12482,7 +12485,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>369</v>
       </c>
@@ -12502,7 +12505,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>369</v>
       </c>
@@ -12531,7 +12534,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>369</v>
       </c>
@@ -12560,7 +12563,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>71</v>
       </c>
@@ -12586,7 +12589,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>71</v>
       </c>
@@ -12617,7 +12620,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
         <v>71</v>
       </c>
@@ -12646,7 +12649,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>71</v>
       </c>
@@ -12677,7 +12680,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>369</v>
       </c>
@@ -12700,7 +12703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
         <v>71</v>
       </c>
@@ -12729,7 +12732,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>56</v>
       </c>
@@ -12749,7 +12752,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>369</v>
       </c>
@@ -12775,7 +12778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>71</v>
       </c>
@@ -12801,7 +12804,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>71</v>
       </c>
@@ -12832,7 +12835,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>52</v>
       </c>
@@ -12852,7 +12855,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>71</v>
       </c>
@@ -12878,7 +12881,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>71</v>
       </c>
@@ -12907,7 +12910,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>369</v>
       </c>
@@ -12927,7 +12930,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
         <v>71</v>
       </c>
@@ -12959,7 +12962,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>369</v>
       </c>
@@ -12976,7 +12979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
         <v>71</v>
       </c>
@@ -13002,7 +13005,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
         <v>369</v>
       </c>
@@ -13025,7 +13028,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>71</v>
       </c>
@@ -13053,7 +13056,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>71</v>
       </c>
@@ -13082,7 +13085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>71</v>
       </c>
@@ -13108,7 +13111,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
         <v>71</v>
       </c>
@@ -13137,7 +13140,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>71</v>
       </c>
@@ -13163,7 +13166,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t="s">
         <v>71</v>
       </c>
@@ -13197,7 +13200,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A381" s="7" t="s">
         <v>71</v>
       </c>
@@ -13226,7 +13229,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A382" s="7" t="s">
         <v>71</v>
       </c>
@@ -13257,7 +13260,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A383" s="7" t="s">
         <v>71</v>
       </c>
@@ -13285,7 +13288,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A384" s="7" t="s">
         <v>71</v>
       </c>
@@ -13311,7 +13314,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>56</v>
       </c>
@@ -13331,7 +13334,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>56</v>
       </c>
@@ -13353,7 +13356,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>56</v>
       </c>
@@ -13377,7 +13380,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A388" s="7" t="s">
         <v>71</v>
       </c>
@@ -13406,7 +13409,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A389" s="7" t="s">
         <v>71</v>
       </c>
@@ -13438,7 +13441,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>56</v>
       </c>
@@ -13461,7 +13464,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>56</v>
       </c>
@@ -13483,7 +13486,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>56</v>
       </c>
@@ -13507,7 +13510,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A393" s="7" t="s">
         <v>71</v>
       </c>
@@ -13545,7 +13548,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A394" s="7" t="s">
         <v>56</v>
       </c>
@@ -13565,7 +13568,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A395" s="7" t="s">
         <v>71</v>
       </c>
@@ -13594,7 +13597,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>56</v>
       </c>
@@ -13617,7 +13620,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>56</v>
       </c>
@@ -13640,7 +13643,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>56</v>
       </c>
@@ -13660,7 +13663,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>56</v>
       </c>
@@ -13683,7 +13686,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A400" s="7" t="s">
         <v>71</v>
       </c>
@@ -13712,7 +13715,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A401" s="7" t="s">
         <v>71</v>
       </c>
@@ -13741,7 +13744,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A402" s="7" t="s">
         <v>56</v>
       </c>
@@ -13758,7 +13761,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A403" s="7" t="s">
         <v>71</v>
       </c>
@@ -13787,7 +13790,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A404" s="7" t="s">
         <v>56</v>
       </c>
@@ -13810,7 +13813,7 @@
         <v>44332</v>
       </c>
     </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A405" s="7" t="s">
         <v>56</v>
       </c>
@@ -13830,7 +13833,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A406" s="7" t="s">
         <v>56</v>
       </c>
@@ -13847,7 +13850,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A407" s="7" t="s">
         <v>56</v>
       </c>
@@ -13867,7 +13870,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="408" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A408" s="7" t="s">
         <v>56</v>
       </c>
@@ -13887,7 +13890,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A409" s="7" t="s">
         <v>56</v>
       </c>
@@ -13907,7 +13910,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="410" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A410" s="7" t="s">
         <v>52</v>
       </c>
@@ -13927,7 +13930,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A411" s="7" t="s">
         <v>56</v>
       </c>
@@ -13944,7 +13947,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="412" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A412" s="7" t="s">
         <v>56</v>
       </c>
@@ -13964,7 +13967,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A413" s="7" t="s">
         <v>71</v>
       </c>
@@ -13993,7 +13996,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="414" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A414" s="7" t="s">
         <v>56</v>
       </c>
@@ -14013,7 +14016,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A415" s="7" t="s">
         <v>56</v>
       </c>
@@ -14033,7 +14036,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="416" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A416" s="7" t="s">
         <v>71</v>
       </c>
@@ -14062,7 +14065,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A417" s="7" t="s">
         <v>71</v>
       </c>
@@ -14091,7 +14094,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A418" s="7" t="s">
         <v>71</v>
       </c>
@@ -14126,7 +14129,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A419" s="7" t="s">
         <v>56</v>
       </c>
@@ -14146,7 +14149,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A420" s="7" t="s">
         <v>56</v>
       </c>
@@ -14166,7 +14169,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A421" s="7" t="s">
         <v>56</v>
       </c>
@@ -14186,7 +14189,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A422" s="7" t="s">
         <v>56</v>
       </c>
@@ -14206,7 +14209,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A423" s="7" t="s">
         <v>56</v>
       </c>
@@ -14229,7 +14232,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A424" s="7" t="s">
         <v>56</v>
       </c>
@@ -14260,7 +14263,7 @@
       <c r="L424" s="12"/>
       <c r="M424" s="12"/>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A425" s="7" t="s">
         <v>56</v>
       </c>
@@ -14277,7 +14280,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A426" s="7" t="s">
         <v>56</v>
       </c>
@@ -14297,7 +14300,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A427" s="7" t="s">
         <v>56</v>
       </c>
@@ -14317,7 +14320,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>56</v>
       </c>
@@ -14339,7 +14342,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>56</v>
       </c>
@@ -14362,7 +14365,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>56</v>
       </c>
@@ -14388,7 +14391,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A431" s="7" t="s">
         <v>56</v>
       </c>
@@ -14405,7 +14408,7 @@
         <v>44360</v>
       </c>
     </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A432" s="7" t="s">
         <v>56</v>
       </c>
@@ -14428,7 +14431,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A433" s="7" t="s">
         <v>56</v>
       </c>
@@ -14450,7 +14453,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A434" s="7" t="s">
         <v>56</v>
       </c>
@@ -14472,7 +14475,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A435" s="7" t="s">
         <v>56</v>
       </c>
@@ -14494,7 +14497,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A436" s="7" t="s">
         <v>56</v>
       </c>
@@ -14518,7 +14521,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A437" s="7" t="s">
         <v>56</v>
       </c>
@@ -14544,7 +14547,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
         <v>56</v>
       </c>
@@ -14564,7 +14567,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>56</v>
       </c>
@@ -14581,7 +14584,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>56</v>
       </c>
@@ -14603,7 +14606,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="441" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>56</v>
       </c>
@@ -14627,7 +14630,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A442" s="7" t="s">
         <v>56</v>
       </c>
@@ -14647,7 +14650,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="443" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A443" s="7" t="s">
         <v>56</v>
       </c>
@@ -14664,7 +14667,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A444" s="7" t="s">
         <v>56</v>
       </c>
@@ -14684,7 +14687,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="445" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
         <v>56</v>
       </c>
@@ -14708,7 +14711,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
         <v>56</v>
       </c>
@@ -14728,7 +14731,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>56</v>
       </c>
@@ -14750,7 +14753,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>56</v>
       </c>
@@ -14772,7 +14775,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="449" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A449" s="7" t="s">
         <v>56</v>
       </c>
@@ -14792,7 +14795,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A450" s="7" t="s">
         <v>56</v>
       </c>
@@ -14818,7 +14821,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>56</v>
       </c>
@@ -14840,7 +14843,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>56</v>
       </c>
@@ -14864,7 +14867,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="453" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A453" s="7" t="s">
         <v>56</v>
       </c>
@@ -14888,7 +14891,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="454" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A454" s="7" t="s">
         <v>56</v>
       </c>
@@ -14914,7 +14917,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="455" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A455" s="7" t="s">
         <v>56</v>
       </c>
@@ -14934,7 +14937,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="456" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A456" s="7" t="s">
         <v>56</v>
       </c>
@@ -14954,7 +14957,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="457" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A457" s="7" t="s">
         <v>56</v>
       </c>
@@ -14977,7 +14980,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="458" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
         <v>56</v>
       </c>
@@ -14999,7 +15002,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="459" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>56</v>
       </c>
@@ -15021,7 +15024,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="460" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>56</v>
       </c>
@@ -15044,7 +15047,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="461" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A461" s="7" t="s">
         <v>52</v>
       </c>
@@ -15064,7 +15067,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="462" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A462" s="7" t="s">
         <v>56</v>
       </c>
@@ -15081,7 +15084,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="463" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A463" s="7" t="s">
         <v>52</v>
       </c>
@@ -15098,7 +15101,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="464" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A464" s="7" t="s">
         <v>56</v>
       </c>
@@ -15127,7 +15130,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>56</v>
       </c>
@@ -15149,7 +15152,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>56</v>
       </c>
@@ -15173,7 +15176,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>56</v>
       </c>
@@ -15199,7 +15202,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="7" t="s">
         <v>56</v>
       </c>
@@ -15219,7 +15222,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="7" t="s">
         <v>52</v>
       </c>
@@ -15242,7 +15245,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="7" t="s">
         <v>52</v>
       </c>
@@ -15262,7 +15265,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>56</v>
       </c>
@@ -15281,7 +15284,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>56</v>
       </c>
@@ -15303,7 +15306,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>56</v>
       </c>
@@ -15327,7 +15330,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="7" t="s">
         <v>52</v>
       </c>
@@ -15347,7 +15350,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="7" t="s">
         <v>52</v>
       </c>
@@ -15367,7 +15370,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
         <v>56</v>
       </c>
@@ -15387,7 +15390,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="7" t="s">
         <v>52</v>
       </c>
@@ -15404,7 +15407,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="7" t="s">
         <v>56</v>
       </c>
@@ -15426,7 +15429,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
         <v>56</v>
       </c>
@@ -15448,7 +15451,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
         <v>56</v>
       </c>
@@ -15472,7 +15475,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
         <v>56</v>
       </c>
@@ -15494,7 +15497,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
         <v>56</v>
       </c>
@@ -15520,7 +15523,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A483" s="7" t="s">
         <v>52</v>
       </c>
@@ -15540,7 +15543,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A484" s="7" t="s">
         <v>52</v>
       </c>
@@ -15563,7 +15566,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>56</v>
       </c>
@@ -15585,7 +15588,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A486" s="7" t="s">
         <v>56</v>
       </c>
@@ -15602,7 +15605,7 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A487" s="7" t="s">
         <v>52</v>
       </c>
@@ -15625,7 +15628,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
         <v>56</v>
       </c>
@@ -15647,7 +15650,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
         <v>56</v>
       </c>
@@ -15669,7 +15672,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>56</v>
       </c>
@@ -15691,7 +15694,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>56</v>
       </c>
@@ -15715,7 +15718,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A492" s="7" t="s">
         <v>52</v>
       </c>
@@ -15740,7 +15743,7 @@
       <c r="L492" s="4"/>
       <c r="M492" s="4"/>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A493" s="7" t="s">
         <v>44</v>
       </c>
@@ -15775,7 +15778,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A494" s="7" t="s">
         <v>52</v>
       </c>
@@ -15792,7 +15795,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
         <v>56</v>
       </c>
@@ -15814,7 +15817,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A496" s="7" t="s">
         <v>56</v>
       </c>
@@ -15831,7 +15834,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497" s="7" t="s">
         <v>44</v>
       </c>
@@ -15863,7 +15866,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" s="7" t="s">
         <v>44</v>
       </c>
@@ -15889,7 +15892,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499" s="7" t="s">
         <v>56</v>
       </c>
@@ -15915,7 +15918,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" s="7" t="s">
         <v>44</v>
       </c>
@@ -15937,7 +15940,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>56</v>
       </c>
@@ -15956,7 +15959,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>56</v>
       </c>
@@ -15977,7 +15980,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" s="7" t="s">
         <v>56</v>
       </c>
@@ -15999,7 +16002,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A504" s="7" t="s">
         <v>56</v>
       </c>
@@ -16021,7 +16024,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A505" s="7" t="s">
         <v>56</v>
       </c>
@@ -16043,7 +16046,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A506" s="7" t="s">
         <v>56</v>
       </c>
@@ -16065,7 +16068,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A507" s="7" t="s">
         <v>44</v>
       </c>
@@ -16088,7 +16091,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
         <v>56</v>
       </c>
@@ -16110,7 +16113,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
         <v>56</v>
       </c>
@@ -16131,7 +16134,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A510" s="7" t="s">
         <v>56</v>
       </c>
@@ -16157,7 +16160,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A511" s="7" t="s">
         <v>56</v>
       </c>
@@ -16177,7 +16180,7 @@
         <v>44506</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
         <v>56</v>
       </c>
@@ -16198,7 +16201,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A513" s="7" t="s">
         <v>52</v>
       </c>
@@ -16218,7 +16221,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A514" s="7" t="s">
         <v>56</v>
       </c>
@@ -16244,7 +16247,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A515" s="7" t="s">
         <v>56</v>
       </c>
@@ -16264,7 +16267,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A516" s="7" t="s">
         <v>52</v>
       </c>
@@ -16286,7 +16289,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>56</v>
       </c>
@@ -16310,7 +16313,7 @@
       <c r="L517" s="9"/>
       <c r="M517" s="9"/>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>225</v>
       </c>
@@ -16332,7 +16335,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
         <v>56</v>
       </c>
@@ -16349,7 +16352,7 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A520" s="7" t="s">
         <v>52</v>
       </c>
@@ -16369,7 +16372,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" s="7" t="s">
         <v>71</v>
       </c>
@@ -16398,7 +16401,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A522" s="7" t="s">
         <v>369</v>
       </c>
@@ -16418,7 +16421,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A523" s="7" t="s">
         <v>369</v>
       </c>
@@ -16444,7 +16447,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A524" s="7" t="s">
         <v>71</v>
       </c>
@@ -16470,7 +16473,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A525" s="7" t="s">
         <v>71</v>
       </c>
@@ -16496,7 +16499,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A526" s="7" t="s">
         <v>369</v>
       </c>
@@ -16519,7 +16522,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A527" s="7" t="s">
         <v>71</v>
       </c>
@@ -16545,7 +16548,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A528" s="7" t="s">
         <v>71</v>
       </c>
@@ -16580,7 +16583,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="529" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A529" s="7" t="s">
         <v>71</v>
       </c>
@@ -16609,7 +16612,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="530" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A530" s="7" t="s">
         <v>71</v>
       </c>
@@ -16635,7 +16638,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="531" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A531" s="7" t="s">
         <v>52</v>
       </c>
@@ -16655,7 +16658,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="532" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A532" s="7" t="s">
         <v>369</v>
       </c>
@@ -16678,7 +16681,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="533" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A533" s="7" t="s">
         <v>71</v>
       </c>
@@ -16707,7 +16710,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="534" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A534" s="7" t="s">
         <v>71</v>
       </c>
@@ -16736,7 +16739,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="535" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A535" s="7" t="s">
         <v>369</v>
       </c>
@@ -16759,7 +16762,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="536" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A536" s="7" t="s">
         <v>71</v>
       </c>
@@ -16791,7 +16794,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="537" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A537" s="7" t="s">
         <v>52</v>
       </c>
@@ -16811,7 +16814,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="538" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A538" s="7" t="s">
         <v>52</v>
       </c>
@@ -16831,7 +16834,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="539" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A539" s="7" t="s">
         <v>369</v>
       </c>
@@ -16854,7 +16857,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="540" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A540" s="7" t="s">
         <v>71</v>
       </c>
@@ -16888,7 +16891,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="541" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A541" s="7" t="s">
         <v>71</v>
       </c>
@@ -16919,7 +16922,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="542" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A542" s="7" t="s">
         <v>71</v>
       </c>
@@ -16945,7 +16948,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="543" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A543" s="7" t="s">
         <v>71</v>
       </c>
@@ -16971,7 +16974,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="544" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A544" s="7" t="s">
         <v>369</v>
       </c>
@@ -16994,7 +16997,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="545" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A545" s="7" t="s">
         <v>71</v>
       </c>
@@ -17020,7 +17023,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="546" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A546" s="7" t="s">
         <v>71</v>
       </c>
@@ -17052,7 +17055,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="547" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A547" s="7" t="s">
         <v>369</v>
       </c>
@@ -17081,7 +17084,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="548" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A548" s="7" t="s">
         <v>71</v>
       </c>
@@ -17110,7 +17113,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="549" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A549" s="7" t="s">
         <v>369</v>
       </c>
@@ -17127,7 +17130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A550" s="7" t="s">
         <v>71</v>
       </c>
@@ -17153,7 +17156,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="551" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A551" s="7" t="s">
         <v>71</v>
       </c>
@@ -17185,7 +17188,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="552" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A552" s="7" t="s">
         <v>369</v>
       </c>
@@ -17214,7 +17217,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="553" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A553" s="7" t="s">
         <v>71</v>
       </c>
@@ -17243,7 +17246,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="554" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A554" s="7" t="s">
         <v>369</v>
       </c>
@@ -17266,7 +17269,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="555" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A555" s="7" t="s">
         <v>369</v>
       </c>
@@ -17286,7 +17289,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="556" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A556" s="7" t="s">
         <v>71</v>
       </c>
@@ -17315,7 +17318,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="557" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A557" s="7" t="s">
         <v>71</v>
       </c>
@@ -17344,7 +17347,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="558" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A558" s="7" t="s">
         <v>369</v>
       </c>
@@ -17367,7 +17370,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="559" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A559" s="7" t="s">
         <v>71</v>
       </c>
@@ -17396,7 +17399,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="560" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A560" s="7" t="s">
         <v>71</v>
       </c>
@@ -17419,7 +17422,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="561" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A561" s="7" t="s">
         <v>369</v>
       </c>
@@ -17439,7 +17442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A562" s="7" t="s">
         <v>369</v>
       </c>
@@ -17459,7 +17462,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A563" s="7" t="s">
         <v>369</v>
       </c>
@@ -17488,7 +17491,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="564" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A564" s="7" t="s">
         <v>71</v>
       </c>
@@ -17516,7 +17519,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="565" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A565" s="7" t="s">
         <v>71</v>
       </c>
@@ -17544,7 +17547,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="566" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A566" s="7" t="s">
         <v>71</v>
       </c>
@@ -17570,7 +17573,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="567" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A567" s="7" t="s">
         <v>71</v>
       </c>
@@ -17610,7 +17613,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="568" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A568" s="7" t="s">
         <v>71</v>
       </c>
@@ -17639,7 +17642,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="569" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A569" s="7" t="s">
         <v>71</v>
       </c>
@@ -17674,7 +17677,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="570" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A570" s="7" t="s">
         <v>369</v>
       </c>
@@ -17700,7 +17703,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="571" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A571" s="7" t="s">
         <v>71</v>
       </c>
@@ -17735,7 +17738,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="572" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A572" s="7" t="s">
         <v>369</v>
       </c>
@@ -17752,7 +17755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A573" s="7" t="s">
         <v>369</v>
       </c>
@@ -17778,7 +17781,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="574" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A574" s="7" t="s">
         <v>369</v>
       </c>
@@ -17795,7 +17798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A575" s="7" t="s">
         <v>71</v>
       </c>
@@ -17821,7 +17824,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="576" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A576" s="7" t="s">
         <v>56</v>
       </c>
@@ -17841,7 +17844,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="577" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A577" s="7" t="s">
         <v>56</v>
       </c>
@@ -17858,7 +17861,7 @@
         <v>44637</v>
       </c>
     </row>
-    <row r="578" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A578" s="7" t="s">
         <v>369</v>
       </c>
@@ -17881,7 +17884,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="579" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A579" s="7" t="s">
         <v>71</v>
       </c>
@@ -17909,7 +17912,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="580" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A580" s="7" t="s">
         <v>56</v>
       </c>
@@ -17932,7 +17935,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="581" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A581" s="7" t="s">
         <v>56</v>
       </c>
@@ -17952,7 +17955,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="582" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A582" s="7" t="s">
         <v>369</v>
       </c>
@@ -17969,7 +17972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A583" s="7" t="s">
         <v>56</v>
       </c>
@@ -17986,7 +17989,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="584" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A584" s="7" t="s">
         <v>71</v>
       </c>
@@ -18012,7 +18015,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="585" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A585" s="7" t="s">
         <v>56</v>
       </c>
@@ -18032,7 +18035,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="586" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A586" s="7" t="s">
         <v>71</v>
       </c>
@@ -18058,7 +18061,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="587" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A587" s="7" t="s">
         <v>71</v>
       </c>
@@ -18084,7 +18087,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="588" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A588" s="7" t="s">
         <v>71</v>
       </c>
@@ -18113,7 +18116,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="589" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A589" s="7" t="s">
         <v>56</v>
       </c>
@@ -18133,7 +18136,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A590" s="7" t="s">
         <v>52</v>
       </c>
@@ -18153,7 +18156,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="591" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A591" s="7" t="s">
         <v>71</v>
       </c>
@@ -18182,7 +18185,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="592" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A592" s="7" t="s">
         <v>71</v>
       </c>
@@ -18211,7 +18214,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A593" s="7" t="s">
         <v>56</v>
       </c>
@@ -18228,7 +18231,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A594" s="7" t="s">
         <v>56</v>
       </c>
@@ -18245,7 +18248,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>56</v>
       </c>
@@ -18266,7 +18269,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>56</v>
       </c>
@@ -18287,7 +18290,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>56</v>
       </c>
@@ -18308,7 +18311,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>56</v>
       </c>
@@ -18329,7 +18332,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A599" s="7" t="s">
         <v>44</v>
       </c>
@@ -18355,7 +18358,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>56</v>
       </c>
@@ -18377,7 +18380,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>56</v>
       </c>
@@ -18399,7 +18402,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>56</v>
       </c>
@@ -18421,7 +18424,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>56</v>
       </c>
@@ -18445,7 +18448,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>56</v>
       </c>
@@ -18464,7 +18467,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A605" s="7" t="s">
         <v>56</v>
       </c>
@@ -18486,7 +18489,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A606" s="7" t="s">
         <v>56</v>
       </c>
@@ -18503,7 +18506,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A607" s="7" t="s">
         <v>56</v>
       </c>
@@ -18523,7 +18526,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A608" s="7" t="s">
         <v>56</v>
       </c>
@@ -18546,7 +18549,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A609" s="7" t="s">
         <v>56</v>
       </c>
@@ -18569,7 +18572,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A610" s="7" t="s">
         <v>56</v>
       </c>
@@ -18588,7 +18591,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A611" s="7" t="s">
         <v>56</v>
       </c>
@@ -18605,7 +18608,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A612" s="7" t="s">
         <v>56</v>
       </c>
@@ -18631,7 +18634,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A613" s="7" t="s">
         <v>56</v>
       </c>
@@ -18653,7 +18656,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A614" s="7" t="s">
         <v>56</v>
       </c>
@@ -18675,7 +18678,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A615" s="7" t="s">
         <v>56</v>
       </c>
@@ -18697,7 +18700,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A616" s="7" t="s">
         <v>56</v>
       </c>
@@ -18719,7 +18722,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A617" s="7" t="s">
         <v>44</v>
       </c>
@@ -18742,7 +18745,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A618" s="7" t="s">
         <v>56</v>
       </c>
@@ -18759,7 +18762,7 @@
         <v>44871</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A619" s="7" t="s">
         <v>56</v>
       </c>
@@ -18782,7 +18785,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A620" s="7" t="s">
         <v>56</v>
       </c>
@@ -18803,7 +18806,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A621" s="7" t="s">
         <v>56</v>
       </c>
@@ -18827,7 +18830,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>56</v>
       </c>
@@ -18849,7 +18852,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>56</v>
       </c>
@@ -18870,7 +18873,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A624" s="7" t="s">
         <v>44</v>
       </c>
@@ -18890,7 +18893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A625" s="7" t="s">
         <v>44</v>
       </c>
@@ -18910,7 +18913,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A626" s="7" t="s">
         <v>44</v>
       </c>
@@ -18927,7 +18930,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A627" s="7" t="s">
         <v>44</v>
       </c>
@@ -18944,7 +18947,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="628" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A628" s="7" t="s">
         <v>44</v>
       </c>
@@ -18964,7 +18967,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="629" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A629" s="7" t="s">
         <v>44</v>
       </c>
@@ -18981,7 +18984,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="630" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A630" s="7" t="s">
         <v>725</v>
       </c>
@@ -18998,7 +19001,7 @@
         <v>44912</v>
       </c>
     </row>
-    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A631" s="7" t="s">
         <v>44</v>
       </c>
@@ -19018,7 +19021,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="632" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A632" s="7" t="s">
         <v>44</v>
       </c>
@@ -19035,7 +19038,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="633" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A633" s="7" t="s">
         <v>44</v>
       </c>
@@ -19052,7 +19055,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="634" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A634" s="7" t="s">
         <v>44</v>
       </c>
@@ -19075,7 +19078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A635" s="7" t="s">
         <v>44</v>
       </c>
@@ -19095,7 +19098,7 @@
         <v>44920</v>
       </c>
     </row>
-    <row r="636" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A636" s="7" t="s">
         <v>44</v>
       </c>
@@ -19112,7 +19115,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="637" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A637" s="7" t="s">
         <v>44</v>
       </c>
@@ -19129,7 +19132,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="638" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A638" s="7" t="s">
         <v>44</v>
       </c>
@@ -19158,7 +19161,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="639" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A639" s="7" t="s">
         <v>52</v>
       </c>
@@ -19175,7 +19178,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="640" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A640" s="7" t="s">
         <v>44</v>
       </c>
@@ -19207,7 +19210,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="641" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A641" s="7" t="s">
         <v>52</v>
       </c>
@@ -19224,7 +19227,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="642" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A642" s="7" t="s">
         <v>44</v>
       </c>
@@ -19247,7 +19250,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="643" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A643" s="7" t="s">
         <v>44</v>
       </c>
@@ -19270,7 +19273,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="644" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A644" s="7" t="s">
         <v>44</v>
       </c>
@@ -19287,7 +19290,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="645" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A645" s="7" t="s">
         <v>44</v>
       </c>
@@ -19304,7 +19307,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="646" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A646" s="7" t="s">
         <v>44</v>
       </c>
@@ -19321,7 +19324,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="647" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A647" s="7" t="s">
         <v>44</v>
       </c>
@@ -19341,7 +19344,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="648" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A648" s="7" t="s">
         <v>44</v>
       </c>
@@ -19358,7 +19361,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="649" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A649" s="7" t="s">
         <v>44</v>
       </c>
@@ -19375,7 +19378,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="650" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A650" s="7" t="s">
         <v>44</v>
       </c>
@@ -19398,7 +19401,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="651" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A651" s="7" t="s">
         <v>44</v>
       </c>
@@ -19421,7 +19424,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="652" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A652" s="7" t="s">
         <v>44</v>
       </c>
@@ -19438,7 +19441,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="653" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A653" s="7" t="s">
         <v>44</v>
       </c>
@@ -19464,7 +19467,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="654" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A654" s="7" t="s">
         <v>44</v>
       </c>
@@ -19487,7 +19490,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="655" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A655" s="7" t="s">
         <v>44</v>
       </c>
@@ -19510,7 +19513,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="656" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A656" s="7" t="s">
         <v>44</v>
       </c>
@@ -19530,7 +19533,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="657" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A657" s="7" t="s">
         <v>44</v>
       </c>
@@ -19550,7 +19553,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="658" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A658" s="7" t="s">
         <v>44</v>
       </c>
@@ -19570,7 +19573,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="659" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A659" s="7" t="s">
         <v>44</v>
       </c>
@@ -19590,7 +19593,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="660" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A660" s="7" t="s">
         <v>56</v>
       </c>
@@ -19610,7 +19613,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="661" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A661" s="7" t="s">
         <v>56</v>
       </c>
@@ -19630,7 +19633,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="662" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A662" s="7" t="s">
         <v>56</v>
       </c>
@@ -19647,7 +19650,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="663" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>56</v>
       </c>
@@ -19668,7 +19671,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="664" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A664" s="7" t="s">
         <v>44</v>
       </c>
@@ -19685,7 +19688,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="665" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A665" s="7" t="s">
         <v>44</v>
       </c>
@@ -19702,7 +19705,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="666" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A666" s="7" t="s">
         <v>44</v>
       </c>
@@ -19719,7 +19722,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="667" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A667" s="7" t="s">
         <v>44</v>
       </c>
@@ -19736,7 +19739,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="668" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A668" s="7" t="s">
         <v>44</v>
       </c>
@@ -19753,7 +19756,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="669" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A669" s="7" t="s">
         <v>44</v>
       </c>
@@ -19770,7 +19773,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="670" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A670" s="7" t="s">
         <v>56</v>
       </c>
@@ -19790,7 +19793,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="671" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A671" s="7" t="s">
         <v>56</v>
       </c>
@@ -19807,7 +19810,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="672" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A672" s="7" t="s">
         <v>44</v>
       </c>
@@ -19824,7 +19827,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" s="7" t="s">
         <v>56</v>
       </c>
@@ -19844,7 +19847,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" s="7" t="s">
         <v>56</v>
       </c>
@@ -19867,7 +19870,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" s="7" t="s">
         <v>52</v>
       </c>
@@ -19884,7 +19887,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" s="7" t="s">
         <v>52</v>
       </c>
@@ -19904,7 +19907,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="7" t="s">
         <v>44</v>
       </c>
@@ -19921,7 +19924,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" s="7" t="s">
         <v>56</v>
       </c>
@@ -19938,7 +19941,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" s="7" t="s">
         <v>44</v>
       </c>
@@ -19955,7 +19958,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" s="7" t="s">
         <v>56</v>
       </c>
@@ -19975,7 +19978,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" s="7" t="s">
         <v>56</v>
       </c>
@@ -19998,7 +20001,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="7" t="s">
         <v>52</v>
       </c>
@@ -20015,7 +20018,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" s="7" t="s">
         <v>52</v>
       </c>
@@ -20032,7 +20035,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" s="7" t="s">
         <v>52</v>
       </c>
@@ -20049,7 +20052,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" s="7" t="s">
         <v>56</v>
       </c>
@@ -20066,7 +20069,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" s="7" t="s">
         <v>56</v>
       </c>
@@ -20086,7 +20089,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="7" t="s">
         <v>56</v>
       </c>
@@ -20106,7 +20109,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" s="7" t="s">
         <v>52</v>
       </c>
@@ -20126,7 +20129,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="689" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A689" s="7" t="s">
         <v>56</v>
       </c>
@@ -20146,7 +20149,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="690" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A690" s="7" t="s">
         <v>71</v>
       </c>
@@ -20172,7 +20175,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="691" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A691" s="7" t="s">
         <v>52</v>
       </c>
@@ -20192,7 +20195,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="692" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A692" s="7" t="s">
         <v>52</v>
       </c>
@@ -20212,7 +20215,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="693" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A693" s="7" t="s">
         <v>52</v>
       </c>
@@ -20229,7 +20232,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="694" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A694" s="7" t="s">
         <v>52</v>
       </c>
@@ -20246,7 +20249,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="695" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A695" s="7" t="s">
         <v>56</v>
       </c>
@@ -20263,7 +20266,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="696" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A696" s="7" t="s">
         <v>56</v>
       </c>
@@ -20283,7 +20286,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="697" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A697" s="7" t="s">
         <v>56</v>
       </c>
@@ -20303,7 +20306,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="698" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A698" s="7" t="s">
         <v>56</v>
       </c>
@@ -20320,7 +20323,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="699" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A699" s="7" t="s">
         <v>768</v>
       </c>
@@ -20337,7 +20340,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="700" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A700" s="7" t="s">
         <v>56</v>
       </c>
@@ -20357,7 +20360,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="701" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A701" s="7" t="s">
         <v>56</v>
       </c>
@@ -20380,7 +20383,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="702" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A702" s="7" t="s">
         <v>56</v>
       </c>
@@ -20400,7 +20403,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="703" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A703" s="7" t="s">
         <v>56</v>
       </c>
@@ -20420,7 +20423,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="704" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A704" s="7" t="s">
         <v>56</v>
       </c>
@@ -20440,7 +20443,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A705" s="7" t="s">
         <v>56</v>
       </c>
@@ -20463,7 +20466,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A706" s="7" t="s">
         <v>56</v>
       </c>
@@ -20483,7 +20486,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A707" s="7" t="s">
         <v>52</v>
       </c>
@@ -20503,7 +20506,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A708" s="7" t="s">
         <v>56</v>
       </c>
@@ -20523,7 +20526,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>225</v>
       </c>
@@ -20545,7 +20548,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A710" s="7" t="s">
         <v>56</v>
       </c>
@@ -20565,7 +20568,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A711" s="7" t="s">
         <v>56</v>
       </c>
@@ -20585,7 +20588,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A712" s="7" t="s">
         <v>768</v>
       </c>
@@ -20608,7 +20611,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A713" s="7" t="s">
         <v>768</v>
       </c>
@@ -20631,7 +20634,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>56</v>
       </c>
@@ -20650,7 +20653,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A715" s="7" t="s">
         <v>56</v>
       </c>
@@ -20670,7 +20673,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A716" s="7" t="s">
         <v>56</v>
       </c>
@@ -20693,7 +20696,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A717" s="7" t="s">
         <v>52</v>
       </c>
@@ -20713,7 +20716,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A718" s="7" t="s">
         <v>44</v>
       </c>
@@ -20733,7 +20736,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A719" s="7" t="s">
         <v>768</v>
       </c>
@@ -20750,7 +20753,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A720" s="7" t="s">
         <v>56</v>
       </c>
@@ -20767,7 +20770,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="721" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A721" s="7" t="s">
         <v>56</v>
       </c>
@@ -20784,7 +20787,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="722" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A722" s="7" t="s">
         <v>56</v>
       </c>
@@ -20801,7 +20804,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="723" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A723" s="7" t="s">
         <v>56</v>
       </c>
@@ -20824,7 +20827,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="724" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A724" s="7" t="s">
         <v>44</v>
       </c>
@@ -20850,7 +20853,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="725" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A725" s="7" t="s">
         <v>52</v>
       </c>
@@ -20870,7 +20873,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="726" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A726" s="7" t="s">
         <v>56</v>
       </c>
@@ -20890,7 +20893,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="727" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A727" s="7" t="s">
         <v>768</v>
       </c>
@@ -20907,7 +20910,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="728" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A728" s="7" t="s">
         <v>56</v>
       </c>
@@ -20924,7 +20927,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="729" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A729" s="7" t="s">
         <v>52</v>
       </c>
@@ -20944,7 +20947,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="730" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A730" s="7" t="s">
         <v>44</v>
       </c>
@@ -20973,7 +20976,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="731" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A731" s="7" t="s">
         <v>44</v>
       </c>
@@ -21002,7 +21005,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="732" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A732" s="7" t="s">
         <v>52</v>
       </c>
@@ -21022,7 +21025,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="733" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A733" s="7" t="s">
         <v>52</v>
       </c>
@@ -21042,7 +21045,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="734" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A734" s="7" t="s">
         <v>56</v>
       </c>
@@ -21062,7 +21065,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="735" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A735" s="7" t="s">
         <v>56</v>
       </c>
@@ -21082,7 +21085,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="736" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A736" s="7" t="s">
         <v>56</v>
       </c>
@@ -21102,7 +21105,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737" s="7" t="s">
         <v>56</v>
       </c>
@@ -21119,7 +21122,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738" s="7" t="s">
         <v>56</v>
       </c>
@@ -21136,7 +21139,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" s="7" t="s">
         <v>56</v>
       </c>
@@ -21156,7 +21159,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" s="7" t="s">
         <v>52</v>
       </c>
@@ -21176,7 +21179,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741" s="7" t="s">
         <v>52</v>
       </c>
@@ -21196,7 +21199,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" s="7" t="s">
         <v>52</v>
       </c>
@@ -21219,7 +21222,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743" s="7" t="s">
         <v>56</v>
       </c>
@@ -21239,7 +21242,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" s="7" t="s">
         <v>56</v>
       </c>
@@ -21256,7 +21259,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745" s="7" t="s">
         <v>52</v>
       </c>
@@ -21276,7 +21279,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746" s="7" t="s">
         <v>52</v>
       </c>
@@ -21296,7 +21299,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747" s="7" t="s">
         <v>56</v>
       </c>
@@ -21316,7 +21319,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748" s="7" t="s">
         <v>56</v>
       </c>
@@ -21333,7 +21336,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749" s="7" t="s">
         <v>56</v>
       </c>
@@ -21353,7 +21356,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750" s="7" t="s">
         <v>44</v>
       </c>
@@ -21370,7 +21373,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A751" s="7" t="s">
         <v>56</v>
       </c>
@@ -21390,7 +21393,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A752" s="7" t="s">
         <v>56</v>
       </c>
@@ -21410,7 +21413,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="753" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A753" s="7" t="s">
         <v>56</v>
       </c>
@@ -21430,7 +21433,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="754" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A754" s="7" t="s">
         <v>56</v>
       </c>
@@ -21450,7 +21453,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="755" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A755" s="7" t="s">
         <v>56</v>
       </c>
@@ -21470,7 +21473,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="756" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A756" s="7" t="s">
         <v>56</v>
       </c>
@@ -21490,7 +21493,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="757" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A757" s="7" t="s">
         <v>56</v>
       </c>
@@ -21510,7 +21513,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="758" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A758" s="7" t="s">
         <v>56</v>
       </c>
@@ -21533,7 +21536,7 @@
       <c r="J758" s="4"/>
       <c r="K758" s="4"/>
     </row>
-    <row r="759" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A759" s="7" t="s">
         <v>56</v>
       </c>
@@ -21550,7 +21553,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="760" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A760" s="7" t="s">
         <v>52</v>
       </c>
@@ -21570,7 +21573,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="761" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A761" s="7" t="s">
         <v>768</v>
       </c>
@@ -21587,7 +21590,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="762" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A762" s="7" t="s">
         <v>52</v>
       </c>
@@ -21607,7 +21610,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="763" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A763" s="7" t="s">
         <v>52</v>
       </c>
@@ -21624,7 +21627,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="764" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A764" s="7" t="s">
         <v>52</v>
       </c>
@@ -21641,7 +21644,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="765" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A765" s="7" t="s">
         <v>71</v>
       </c>
@@ -21673,7 +21676,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="766" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A766" s="7" t="s">
         <v>71</v>
       </c>
@@ -21702,7 +21705,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="767" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A767" s="7" t="s">
         <v>71</v>
       </c>
@@ -21728,7 +21731,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="768" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A768" s="7" t="s">
         <v>71</v>
       </c>
@@ -21757,7 +21760,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="769" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A769" s="7" t="s">
         <v>369</v>
       </c>
@@ -21783,7 +21786,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="770" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A770" s="7" t="s">
         <v>52</v>
       </c>
@@ -21800,7 +21803,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="771" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A771" s="7" t="s">
         <v>71</v>
       </c>
@@ -21832,7 +21835,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="772" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A772" s="7" t="s">
         <v>369</v>
       </c>
@@ -21855,7 +21858,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="773" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A773" s="7" t="s">
         <v>52</v>
       </c>
@@ -21875,7 +21878,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="774" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A774" s="7" t="s">
         <v>369</v>
       </c>
@@ -21904,7 +21907,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="775" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A775" s="7" t="s">
         <v>369</v>
       </c>
@@ -21927,7 +21930,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="776" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A776" s="7" t="s">
         <v>71</v>
       </c>
@@ -21956,7 +21959,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="777" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A777" s="7" t="s">
         <v>369</v>
       </c>
@@ -21973,7 +21976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A778" s="7" t="s">
         <v>71</v>
       </c>
@@ -21999,7 +22002,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="779" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A779" s="7" t="s">
         <v>71</v>
       </c>
@@ -22025,7 +22028,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="780" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A780" s="7" t="s">
         <v>44</v>
       </c>
@@ -22051,7 +22054,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="781" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A781" s="7" t="s">
         <v>71</v>
       </c>
@@ -22080,7 +22083,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="782" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A782" s="7" t="s">
         <v>369</v>
       </c>
@@ -22109,7 +22112,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="783" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A783" s="7" t="s">
         <v>369</v>
       </c>
@@ -22132,7 +22135,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="784" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A784" s="7" t="s">
         <v>52</v>
       </c>
@@ -22152,7 +22155,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="785" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A785" s="7" t="s">
         <v>52</v>
       </c>
@@ -22172,7 +22175,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="786" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A786" s="7" t="s">
         <v>71</v>
       </c>
@@ -22201,7 +22204,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="787" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A787" s="7" t="s">
         <v>369</v>
       </c>
@@ -22221,7 +22224,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="788" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A788" s="7" t="s">
         <v>71</v>
       </c>
@@ -22253,7 +22256,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="789" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A789" s="7" t="s">
         <v>52</v>
       </c>
@@ -22273,7 +22276,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="790" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A790" s="7" t="s">
         <v>52</v>
       </c>
@@ -22293,7 +22296,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="791" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A791" s="7" t="s">
         <v>71</v>
       </c>
@@ -22322,7 +22325,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="792" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A792" s="7" t="s">
         <v>71</v>
       </c>
@@ -22354,7 +22357,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="793" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A793" s="7" t="s">
         <v>71</v>
       </c>
@@ -22383,7 +22386,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="794" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A794" s="7" t="s">
         <v>52</v>
       </c>
@@ -22403,7 +22406,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="795" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A795" s="7" t="s">
         <v>369</v>
       </c>
@@ -22423,7 +22426,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="796" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A796" s="7" t="s">
         <v>52</v>
       </c>
@@ -22443,7 +22446,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="797" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A797" s="7" t="s">
         <v>369</v>
       </c>
@@ -22460,7 +22463,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="798" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A798" s="7" t="s">
         <v>71</v>
       </c>
@@ -22492,7 +22495,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="799" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A799" s="7" t="s">
         <v>71</v>
       </c>
@@ -22518,7 +22521,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="800" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A800" s="7" t="s">
         <v>71</v>
       </c>
@@ -22547,7 +22550,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="801" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A801" s="7" t="s">
         <v>71</v>
       </c>
@@ -22576,7 +22579,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="802" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A802" s="7" t="s">
         <v>44</v>
       </c>
@@ -22593,7 +22596,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="803" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A803" s="7" t="s">
         <v>71</v>
       </c>
@@ -22625,7 +22628,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="804" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A804" s="7" t="s">
         <v>71</v>
       </c>
@@ -22660,7 +22663,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="805" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A805" s="7" t="s">
         <v>56</v>
       </c>
@@ -22680,7 +22683,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="806" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A806" s="7" t="s">
         <v>56</v>
       </c>
@@ -22697,7 +22700,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="807" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A807" s="7" t="s">
         <v>369</v>
       </c>
@@ -22711,7 +22714,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="808" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A808" s="7" t="s">
         <v>369</v>
       </c>
@@ -22722,7 +22725,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="809" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A809" s="7" t="s">
         <v>52</v>
       </c>
@@ -22742,7 +22745,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="810" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A810" s="7" t="s">
         <v>56</v>
       </c>
@@ -22762,7 +22765,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="811" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A811" s="7" t="s">
         <v>71</v>
       </c>
@@ -22791,7 +22794,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="812" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A812" s="7" t="s">
         <v>369</v>
       </c>
@@ -22811,7 +22814,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="813" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A813" s="7" t="s">
         <v>369</v>
       </c>
@@ -22828,7 +22831,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="814" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A814" s="7" t="s">
         <v>71</v>
       </c>
@@ -22854,7 +22857,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="815" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A815" s="7" t="s">
         <v>71</v>
       </c>
@@ -22877,7 +22880,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="816" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A816" s="7" t="s">
         <v>369</v>
       </c>
@@ -22897,7 +22900,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="817" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A817" s="7" t="s">
         <v>44</v>
       </c>
@@ -22917,7 +22920,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="818" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A818" s="7" t="s">
         <v>52</v>
       </c>
@@ -22937,7 +22940,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="819" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A819" s="7" t="s">
         <v>71</v>
       </c>
@@ -22966,7 +22969,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="820" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A820" s="7" t="s">
         <v>369</v>
       </c>
@@ -22989,7 +22992,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="821" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A821" s="7" t="s">
         <v>71</v>
       </c>
@@ -23018,7 +23021,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="822" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A822" s="7" t="s">
         <v>52</v>
       </c>
@@ -23038,7 +23041,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="823" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A823" s="7" t="s">
         <v>56</v>
       </c>
@@ -23058,7 +23061,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="824" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A824" s="7" t="s">
         <v>56</v>
       </c>
@@ -23075,7 +23078,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="825" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A825" s="7" t="s">
         <v>56</v>
       </c>
@@ -23095,7 +23098,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="826" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A826" s="7" t="s">
         <v>52</v>
       </c>
@@ -23115,7 +23118,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="827" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>56</v>
       </c>
@@ -23137,7 +23140,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="828" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>56</v>
       </c>
@@ -23161,7 +23164,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="829" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A829" s="7" t="s">
         <v>52</v>
       </c>
@@ -23181,7 +23184,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="830" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
         <v>56</v>
       </c>
@@ -23203,7 +23206,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="831" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>56</v>
       </c>
@@ -23227,7 +23230,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="832" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A832" s="7" t="s">
         <v>883</v>
       </c>
@@ -23244,7 +23247,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="833" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A833" s="7" t="s">
         <v>44</v>
       </c>
@@ -23261,7 +23264,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="834" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A834" s="7" t="s">
         <v>52</v>
       </c>
@@ -23281,7 +23284,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="835" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A835" s="7" t="s">
         <v>56</v>
       </c>
@@ -23301,7 +23304,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="836" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A836" s="7" t="s">
         <v>56</v>
       </c>
@@ -23318,7 +23321,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="837" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A837" s="7" t="s">
         <v>56</v>
       </c>
@@ -23338,7 +23341,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="838" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A838" s="7" t="s">
         <v>56</v>
       </c>
@@ -23355,7 +23358,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="839" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A839" s="7" t="s">
         <v>56</v>
       </c>
@@ -23377,7 +23380,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="840" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A840" s="7" t="s">
         <v>56</v>
       </c>
@@ -23401,7 +23404,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="841" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A841" s="7" t="s">
         <v>56</v>
       </c>
@@ -23421,7 +23424,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="842" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A842" s="7" t="s">
         <v>56</v>
       </c>
@@ -23438,7 +23441,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="843" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A843" s="7" t="s">
         <v>56</v>
       </c>
@@ -23455,7 +23458,7 @@
         <v>45409</v>
       </c>
     </row>
-    <row r="844" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A844" s="7" t="s">
         <v>56</v>
       </c>
@@ -23475,7 +23478,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="845" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A845" s="7" t="s">
         <v>56</v>
       </c>
@@ -23495,7 +23498,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="846" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>56</v>
       </c>
@@ -23517,7 +23520,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="847" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>56</v>
       </c>
@@ -23541,7 +23544,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="848" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A848" s="7" t="s">
         <v>71</v>
       </c>
@@ -23576,7 +23579,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="849" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A849" s="7" t="s">
         <v>71</v>
       </c>
@@ -23605,7 +23608,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="850" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A850" s="7" t="s">
         <v>71</v>
       </c>
@@ -23631,7 +23634,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="851" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A851" s="7" t="s">
         <v>71</v>
       </c>
@@ -23660,7 +23663,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="852" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A852" s="7" t="s">
         <v>56</v>
       </c>
@@ -23680,7 +23683,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="853" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A853" s="7" t="s">
         <v>52</v>
       </c>
@@ -23700,7 +23703,7 @@
         <v>45428</v>
       </c>
     </row>
-    <row r="854" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A854" s="7" t="s">
         <v>56</v>
       </c>
@@ -23717,7 +23720,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="855" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A855" s="7" t="s">
         <v>56</v>
       </c>
@@ -23740,7 +23743,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A856" s="7" t="s">
         <v>56</v>
       </c>
@@ -23760,7 +23763,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="857" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A857" s="7" t="s">
         <v>56</v>
       </c>
@@ -23780,7 +23783,7 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="858" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A858" s="7" t="s">
         <v>56</v>
       </c>
@@ -23803,7 +23806,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="859" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A859" s="7" t="s">
         <v>52</v>
       </c>
@@ -23823,7 +23826,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="860" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A860" s="7" t="s">
         <v>56</v>
       </c>
@@ -23843,7 +23846,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="861" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A861" s="7" t="s">
         <v>52</v>
       </c>
@@ -23863,7 +23866,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="862" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A862" s="7" t="s">
         <v>56</v>
       </c>
@@ -23883,7 +23886,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="863" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A863" s="7" t="s">
         <v>56</v>
       </c>
@@ -23903,7 +23906,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="864" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A864" s="7" t="s">
         <v>56</v>
       </c>
@@ -23923,7 +23926,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="865" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A865" s="7" t="s">
         <v>56</v>
       </c>
@@ -23943,7 +23946,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="866" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A866" s="7" t="s">
         <v>44</v>
       </c>
@@ -23969,7 +23972,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="867" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A867" s="7" t="s">
         <v>52</v>
       </c>
@@ -23989,7 +23992,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="868" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A868" s="7" t="s">
         <v>56</v>
       </c>
@@ -24006,7 +24009,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="869" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A869" s="7" t="s">
         <v>56</v>
       </c>
@@ -24028,7 +24031,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="870" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A870" s="7" t="s">
         <v>56</v>
       </c>
@@ -24051,7 +24054,7 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="871" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A871" s="7" t="s">
         <v>56</v>
       </c>
@@ -24068,7 +24071,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="872" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A872" s="7" t="s">
         <v>52</v>
       </c>
@@ -24088,7 +24091,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="873" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A873" s="7" t="s">
         <v>56</v>
       </c>
@@ -24105,7 +24108,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="874" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A874" s="7" t="s">
         <v>56</v>
       </c>
@@ -24125,7 +24128,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="875" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A875" s="7" t="s">
         <v>56</v>
       </c>
@@ -24145,7 +24148,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="876" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A876" s="7" t="s">
         <v>56</v>
       </c>
@@ -24162,7 +24165,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="877" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A877" s="7" t="s">
         <v>52</v>
       </c>
@@ -24179,7 +24182,7 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="878" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A878" s="7" t="s">
         <v>52</v>
       </c>
@@ -24202,7 +24205,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="879" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A879" s="7" t="s">
         <v>52</v>
       </c>
@@ -24222,7 +24225,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="880" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A880" s="7" t="s">
         <v>56</v>
       </c>
@@ -24239,7 +24242,7 @@
         <v>45477</v>
       </c>
     </row>
-    <row r="881" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A881" s="7" t="s">
         <v>71</v>
       </c>
@@ -24265,7 +24268,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="882" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A882" s="7" t="s">
         <v>44</v>
       </c>
@@ -24285,7 +24288,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="883" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A883" s="7" t="s">
         <v>768</v>
       </c>
@@ -24305,7 +24308,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="884" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A884" s="7" t="s">
         <v>44</v>
       </c>
@@ -24322,7 +24325,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="885" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A885" s="7" t="s">
         <v>44</v>
       </c>
@@ -24339,7 +24342,7 @@
         <v>45484</v>
       </c>
     </row>
-    <row r="886" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A886" s="7" t="s">
         <v>941</v>
       </c>
@@ -24356,7 +24359,7 @@
         <v>45487</v>
       </c>
     </row>
-    <row r="887" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A887" s="7" t="s">
         <v>44</v>
       </c>
@@ -24379,7 +24382,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="888" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A888" s="7" t="s">
         <v>52</v>
       </c>
@@ -24396,7 +24399,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="889" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A889" s="7" t="s">
         <v>44</v>
       </c>
@@ -24419,7 +24422,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="890" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A890" s="7" t="s">
         <v>52</v>
       </c>
@@ -24448,7 +24451,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="891" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A891" s="7" t="s">
         <v>52</v>
       </c>
@@ -24480,7 +24483,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="892" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A892" s="7" t="s">
         <v>44</v>
       </c>
@@ -24509,7 +24512,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="893" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A893" s="7" t="s">
         <v>56</v>
       </c>
@@ -24526,7 +24529,7 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="894" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A894" s="7" t="s">
         <v>56</v>
       </c>
@@ -24546,7 +24549,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="895" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A895" s="7" t="s">
         <v>44</v>
       </c>
@@ -24566,7 +24569,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="896" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A896" s="7" t="s">
         <v>941</v>
       </c>
@@ -24595,7 +24598,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="897" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A897" s="7" t="s">
         <v>56</v>
       </c>
@@ -24615,7 +24618,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="898" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A898" s="7" t="s">
         <v>52</v>
       </c>
@@ -24647,7 +24650,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="899" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A899" s="7" t="s">
         <v>44</v>
       </c>
@@ -24670,7 +24673,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="900" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A900" s="7" t="s">
         <v>56</v>
       </c>
@@ -24693,7 +24696,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="901" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A901" s="7" t="s">
         <v>56</v>
       </c>
@@ -24713,7 +24716,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="902" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A902" s="7" t="s">
         <v>56</v>
       </c>
@@ -24730,7 +24733,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="903" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A903" s="7" t="s">
         <v>44</v>
       </c>
@@ -24753,7 +24756,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="904" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A904" s="7" t="s">
         <v>44</v>
       </c>
@@ -24776,7 +24779,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="905" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A905" s="7" t="s">
         <v>44</v>
       </c>
@@ -24802,7 +24805,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="906" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A906" s="7" t="s">
         <v>56</v>
       </c>
@@ -24822,7 +24825,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="907" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A907" s="7" t="s">
         <v>44</v>
       </c>
@@ -24842,7 +24845,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="908" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A908" s="7" t="s">
         <v>52</v>
       </c>
@@ -24877,7 +24880,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="909" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A909" s="7" t="s">
         <v>52</v>
       </c>
@@ -24906,7 +24909,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="910" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A910" s="7" t="s">
         <v>52</v>
       </c>
@@ -24935,7 +24938,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="911" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A911" s="7" t="s">
         <v>225</v>
       </c>
@@ -24955,7 +24958,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="912" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A912" s="7" t="s">
         <v>44</v>
       </c>
@@ -24975,7 +24978,7 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="913" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A913" s="7" t="s">
         <v>52</v>
       </c>
@@ -24995,7 +24998,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="914" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A914" s="7" t="s">
         <v>52</v>
       </c>
@@ -25021,7 +25024,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="915" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A915" s="7" t="s">
         <v>56</v>
       </c>
@@ -25041,7 +25044,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="916" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A916" s="7" t="s">
         <v>52</v>
       </c>
@@ -25061,7 +25064,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="917" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A917" s="7" t="s">
         <v>52</v>
       </c>
@@ -25087,7 +25090,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="918" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A918" s="7" t="s">
         <v>44</v>
       </c>
@@ -25116,7 +25119,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="919" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A919" s="7" t="s">
         <v>56</v>
       </c>
@@ -25136,7 +25139,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="920" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A920" s="7" t="s">
         <v>56</v>
       </c>
@@ -25156,7 +25159,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="921" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A921" s="7" t="s">
         <v>56</v>
       </c>
@@ -25176,7 +25179,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="922" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A922" s="7" t="s">
         <v>56</v>
       </c>
@@ -25196,7 +25199,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="923" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A923" s="7" t="s">
         <v>52</v>
       </c>
@@ -25228,7 +25231,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="924" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A924" s="7" t="s">
         <v>56</v>
       </c>
@@ -25245,7 +25248,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="925" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A925" s="7" t="s">
         <v>56</v>
       </c>
@@ -25267,7 +25270,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="926" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A926" s="7" t="s">
         <v>56</v>
       </c>
@@ -25289,7 +25292,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="927" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A927" s="7" t="s">
         <v>56</v>
       </c>
@@ -25311,7 +25314,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="928" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A928" s="7" t="s">
         <v>56</v>
       </c>
@@ -25333,7 +25336,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="929" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A929" s="7" t="s">
         <v>52</v>
       </c>
@@ -25365,7 +25368,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="930" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A930" s="7" t="s">
         <v>52</v>
       </c>
@@ -25397,7 +25400,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="931" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A931" s="7" t="s">
         <v>52</v>
       </c>
@@ -25417,7 +25420,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="932" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A932" s="7" t="s">
         <v>52</v>
       </c>
@@ -25437,7 +25440,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="933" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A933" s="7" t="s">
         <v>52</v>
       </c>
@@ -25469,7 +25472,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="934" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A934" s="7" t="s">
         <v>56</v>
       </c>
@@ -25489,7 +25492,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="935" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A935" s="7" t="s">
         <v>56</v>
       </c>
@@ -25506,7 +25509,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="936" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A936" s="7" t="s">
         <v>52</v>
       </c>
@@ -25541,7 +25544,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="937" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A937" s="7" t="s">
         <v>52</v>
       </c>
@@ -25567,7 +25570,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="938" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A938" s="7" t="s">
         <v>52</v>
       </c>
@@ -25605,7 +25608,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="939" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A939" s="7" t="s">
         <v>56</v>
       </c>
@@ -25628,7 +25631,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="940" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A940" s="7" t="s">
         <v>52</v>
       </c>
@@ -25648,7 +25651,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="941" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A941" s="7" t="s">
         <v>52</v>
       </c>
@@ -25680,7 +25683,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="942" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A942" s="7" t="s">
         <v>52</v>
       </c>
@@ -25715,7 +25718,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="943" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A943" s="7" t="s">
         <v>52</v>
       </c>
@@ -25738,7 +25741,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="944" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A944" s="7" t="s">
         <v>52</v>
       </c>
@@ -25773,7 +25776,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A945" s="7" t="s">
         <v>52</v>
       </c>
@@ -25802,7 +25805,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A946" s="7" t="s">
         <v>44</v>
       </c>
@@ -25822,7 +25825,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A947" s="7" t="s">
         <v>56</v>
       </c>
@@ -25839,7 +25842,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="948" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A948" s="7" t="s">
         <v>56</v>
       </c>
@@ -25859,7 +25862,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A949" s="7" t="s">
         <v>56</v>
       </c>
@@ -25879,7 +25882,7 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A950" s="7" t="s">
         <v>52</v>
       </c>
@@ -25911,7 +25914,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="951" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A951" s="7" t="s">
         <v>52</v>
       </c>
@@ -25943,7 +25946,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A952" s="7" t="s">
         <v>56</v>
       </c>
@@ -25963,7 +25966,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A953" s="7" t="s">
         <v>56</v>
       </c>
@@ -25983,7 +25986,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A954" s="7" t="s">
         <v>52</v>
       </c>
@@ -26015,7 +26018,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A955" s="7" t="s">
         <v>56</v>
       </c>
@@ -26035,7 +26038,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A956" s="7" t="s">
         <v>56</v>
       </c>
@@ -26058,7 +26061,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A957" s="7" t="s">
         <v>56</v>
       </c>
@@ -26078,7 +26081,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A958" s="7" t="s">
         <v>56</v>
       </c>
@@ -26098,7 +26101,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A959" s="7" t="s">
         <v>52</v>
       </c>
@@ -26124,7 +26127,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A960" s="7" t="s">
         <v>52</v>
       </c>
@@ -26159,7 +26162,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="961" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A961" s="7" t="s">
         <v>52</v>
       </c>
@@ -26188,7 +26191,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="962" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A962" s="7" t="s">
         <v>52</v>
       </c>
@@ -26223,7 +26226,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="963" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A963" s="7" t="s">
         <v>56</v>
       </c>
@@ -26243,7 +26246,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="964" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A964" s="7" t="s">
         <v>56</v>
       </c>
@@ -26266,7 +26269,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="965" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A965" s="7" t="s">
         <v>56</v>
       </c>
@@ -26292,7 +26295,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="966" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A966" s="7" t="s">
         <v>52</v>
       </c>
@@ -26324,7 +26327,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="967" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A967" s="7" t="s">
         <v>44</v>
       </c>
@@ -26344,7 +26347,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="968" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A968" s="7" t="s">
         <v>52</v>
       </c>
@@ -26379,7 +26382,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="969" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A969" s="7" t="s">
         <v>52</v>
       </c>
@@ -26411,7 +26414,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="970" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A970" s="7" t="s">
         <v>52</v>
       </c>
@@ -26443,7 +26446,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="971" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A971" s="7" t="s">
         <v>71</v>
       </c>
@@ -26469,7 +26472,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="972" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A972" s="7" t="s">
         <v>52</v>
       </c>
@@ -26498,7 +26501,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="973" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A973" s="7" t="s">
         <v>52</v>
       </c>
@@ -26530,7 +26533,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="974" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A974" s="7" t="s">
         <v>52</v>
       </c>
@@ -26565,7 +26568,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="975" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A975" s="7" t="s">
         <v>52</v>
       </c>
@@ -26594,7 +26597,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="976" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A976" s="7" t="s">
         <v>369</v>
       </c>
@@ -26614,7 +26617,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="977" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A977" s="7" t="s">
         <v>52</v>
       </c>
@@ -26628,7 +26631,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="978" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A978" s="7" t="s">
         <v>52</v>
       </c>
@@ -26642,7 +26645,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="979" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A979" s="7" t="s">
         <v>52</v>
       </c>
@@ -26677,7 +26680,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="980" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A980" s="7" t="s">
         <v>369</v>
       </c>
@@ -26700,7 +26703,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="981" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A981" s="7" t="s">
         <v>52</v>
       </c>
@@ -26732,7 +26735,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="982" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A982" s="7" t="s">
         <v>71</v>
       </c>
@@ -26761,7 +26764,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="983" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A983" s="7" t="s">
         <v>369</v>
       </c>
@@ -26781,7 +26784,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="984" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A984" s="7" t="s">
         <v>71</v>
       </c>
@@ -26807,7 +26810,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="985" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A985" s="7" t="s">
         <v>52</v>
       </c>
@@ -26839,7 +26842,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="986" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A986" s="7" t="s">
         <v>369</v>
       </c>
@@ -26871,7 +26874,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="987" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A987" s="7" t="s">
         <v>52</v>
       </c>
@@ -26903,7 +26906,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="988" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A988" s="7" t="s">
         <v>369</v>
       </c>
@@ -26926,7 +26929,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="989" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A989" s="7" t="s">
         <v>369</v>
       </c>
@@ -26949,7 +26952,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="990" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A990" s="7" t="s">
         <v>369</v>
       </c>
@@ -26972,7 +26975,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="991" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A991" s="7" t="s">
         <v>52</v>
       </c>
@@ -27004,7 +27007,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="992" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A992" s="7" t="s">
         <v>71</v>
       </c>
@@ -27030,7 +27033,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="993" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A993" s="7" t="s">
         <v>71</v>
       </c>
@@ -27056,7 +27059,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="994" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A994" s="7" t="s">
         <v>71</v>
       </c>
@@ -27082,7 +27085,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="995" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A995" s="7" t="s">
         <v>71</v>
       </c>
@@ -27114,7 +27117,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="996" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A996" s="7" t="s">
         <v>369</v>
       </c>
@@ -27143,7 +27146,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="997" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A997" s="7" t="s">
         <v>71</v>
       </c>
@@ -27172,7 +27175,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="998" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A998" s="7" t="s">
         <v>71</v>
       </c>
@@ -27198,7 +27201,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="999" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A999" s="7" t="s">
         <v>71</v>
       </c>
@@ -27224,7 +27227,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1000" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1000" s="7" t="s">
         <v>369</v>
       </c>
@@ -27244,7 +27247,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1001" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1001" s="7" t="s">
         <v>71</v>
       </c>
@@ -27270,7 +27273,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1002" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1002" s="7" t="s">
         <v>52</v>
       </c>
@@ -27290,7 +27293,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="1003" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1003" s="7" t="s">
         <v>52</v>
       </c>
@@ -27316,7 +27319,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="1004" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1004" s="7" t="s">
         <v>71</v>
       </c>
@@ -27348,7 +27351,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="1005" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1005" s="7" t="s">
         <v>71</v>
       </c>
@@ -27377,7 +27380,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1006" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1006" s="7" t="s">
         <v>71</v>
       </c>
@@ -27406,7 +27409,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1007" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1007" s="7" t="s">
         <v>369</v>
       </c>
@@ -27432,7 +27435,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1008" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1008" s="7" t="s">
         <v>369</v>
       </c>
@@ -27452,7 +27455,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1009" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1009" s="7" t="s">
         <v>1089</v>
       </c>
@@ -27481,7 +27484,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1010" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1010" s="7" t="s">
         <v>1089</v>
       </c>
@@ -27505,6 +27508,32 @@
       </c>
       <c r="M1010" s="7" t="s">
         <v>670</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1011" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1011" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1011" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1011" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1011" s="1">
+        <v>45681</v>
+      </c>
+      <c r="H1011" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="L1011" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1011" s="7" t="s">
+        <v>674</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C79DA2-1469-4F14-B77D-DA5D47BEFB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4163D3-F19F-497F-8B33-CBBD18B6CA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5684" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5692" uniqueCount="1095">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3302,6 +3302,12 @@
   </si>
   <si>
     <t>01:43:07.0</t>
+  </si>
+  <si>
+    <t>01:20:46.0</t>
+  </si>
+  <si>
+    <t>Unterwegs 3x Ski ab wegen Stoggle...</t>
   </si>
 </sst>
 </file>
@@ -3829,41 +3835,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:V1011"/>
+  <dimension ref="A1:V1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A971" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1012" sqref="M1012"/>
+      <pane ySplit="1" topLeftCell="A1001" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1031" sqref="F1031"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="138.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="138.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="204" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
@@ -3931,7 +3937,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -3959,7 +3965,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3979,7 +3985,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3993,7 +3999,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
@@ -4010,7 +4016,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -4027,7 +4033,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
@@ -4047,7 +4053,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>71</v>
       </c>
@@ -4067,7 +4073,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -4095,7 +4101,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -4115,7 +4121,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
@@ -4155,7 +4161,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -4187,7 +4193,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -4207,7 +4213,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -4230,7 +4236,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -4252,7 +4258,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -4278,7 +4284,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -4300,7 +4306,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -4324,7 +4330,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4368,7 +4374,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -4390,7 +4396,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -4416,7 +4422,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -4438,7 +4444,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
@@ -4461,7 +4467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -4484,7 +4490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>71</v>
       </c>
@@ -4504,7 +4510,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>71</v>
       </c>
@@ -4535,7 +4541,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -4552,7 +4558,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
@@ -4581,7 +4587,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>71</v>
       </c>
@@ -4601,7 +4607,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>71</v>
       </c>
@@ -4621,7 +4627,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
@@ -4653,7 +4659,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -4683,7 +4689,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -4706,7 +4712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -4734,7 +4740,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
@@ -4762,7 +4768,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
@@ -4791,7 +4797,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -4822,7 +4828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -4842,7 +4848,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4870,7 +4876,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -4898,7 +4904,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4928,7 +4934,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -4950,7 +4956,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4976,7 +4982,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -4998,7 +5004,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -5028,7 +5034,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -5089,7 +5095,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -5122,7 +5128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>71</v>
       </c>
@@ -5148,7 +5154,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
@@ -5168,7 +5174,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>71</v>
       </c>
@@ -5200,7 +5206,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>71</v>
       </c>
@@ -5234,7 +5240,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
@@ -5262,7 +5268,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
@@ -5290,7 +5296,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -5323,7 +5329,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>52</v>
       </c>
@@ -5351,7 +5357,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -5384,7 +5390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -5412,7 +5418,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5445,7 +5451,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>71</v>
       </c>
@@ -5479,7 +5485,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>71</v>
       </c>
@@ -5505,7 +5511,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5538,7 +5544,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
@@ -5558,7 +5564,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>52</v>
       </c>
@@ -5586,7 +5592,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>52</v>
       </c>
@@ -5614,7 +5620,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>52</v>
       </c>
@@ -5642,7 +5648,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>52</v>
       </c>
@@ -5670,7 +5676,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
@@ -5696,7 +5702,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
@@ -5722,7 +5728,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
@@ -5748,7 +5754,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>52</v>
       </c>
@@ -5776,7 +5782,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>52</v>
       </c>
@@ -5804,7 +5810,7 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>52</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
@@ -5844,7 +5850,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -5864,7 +5870,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
@@ -5884,7 +5890,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
@@ -5912,7 +5918,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>52</v>
       </c>
@@ -5932,7 +5938,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
@@ -5954,7 +5960,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
@@ -5978,7 +5984,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>52</v>
       </c>
@@ -6006,7 +6012,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>44</v>
       </c>
@@ -6026,7 +6032,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>52</v>
       </c>
@@ -6054,7 +6060,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>52</v>
       </c>
@@ -6074,7 +6080,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
@@ -6094,7 +6100,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>52</v>
       </c>
@@ -6114,7 +6120,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
@@ -6134,7 +6140,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>52</v>
       </c>
@@ -6154,7 +6160,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
@@ -6174,7 +6180,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>71</v>
       </c>
@@ -6200,7 +6206,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>52</v>
       </c>
@@ -6228,7 +6234,7 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
@@ -6259,7 +6265,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>52</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>52</v>
       </c>
@@ -6299,7 +6305,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>52</v>
       </c>
@@ -6319,7 +6325,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>71</v>
       </c>
@@ -6345,7 +6351,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>52</v>
       </c>
@@ -6365,7 +6371,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>52</v>
       </c>
@@ -6385,7 +6391,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>52</v>
       </c>
@@ -6405,7 +6411,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>52</v>
       </c>
@@ -6425,7 +6431,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>52</v>
       </c>
@@ -6445,7 +6451,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>52</v>
       </c>
@@ -6473,7 +6479,7 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -6504,7 +6510,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>52</v>
       </c>
@@ -6524,7 +6530,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>52</v>
       </c>
@@ -6552,7 +6558,7 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>52</v>
       </c>
@@ -6583,7 +6589,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>52</v>
       </c>
@@ -6603,7 +6609,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -6633,7 +6639,7 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>149</v>
@@ -6659,7 +6665,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="7" t="s">
         <v>52</v>
       </c>
@@ -6690,7 +6696,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -6715,7 +6721,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="7" t="s">
         <v>52</v>
       </c>
@@ -6735,7 +6741,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="7" t="s">
         <v>52</v>
       </c>
@@ -6755,7 +6761,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
         <v>52</v>
       </c>
@@ -6775,7 +6781,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
         <v>71</v>
       </c>
@@ -6801,7 +6807,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -6823,7 +6829,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -6851,7 +6857,7 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -6881,7 +6887,7 @@
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -6905,7 +6911,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -6935,7 +6941,7 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>149</v>
@@ -6961,7 +6967,7 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="7" t="s">
         <v>52</v>
       </c>
@@ -6989,7 +6995,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -7019,7 +7025,7 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -7049,7 +7055,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -7075,7 +7081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -7101,7 +7107,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>52</v>
       </c>
@@ -7121,7 +7127,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -7151,7 +7157,7 @@
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
@@ -7177,7 +7183,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="7" t="s">
         <v>52</v>
       </c>
@@ -7197,7 +7203,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>56</v>
       </c>
@@ -7225,7 +7231,7 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="7" t="s">
         <v>56</v>
       </c>
@@ -7251,7 +7257,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="7" t="s">
         <v>56</v>
       </c>
@@ -7273,7 +7279,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>56</v>
       </c>
@@ -7295,7 +7301,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>56</v>
       </c>
@@ -7319,7 +7325,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>56</v>
       </c>
@@ -7345,7 +7351,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="7" t="s">
         <v>56</v>
       </c>
@@ -7369,7 +7375,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="7" t="s">
         <v>52</v>
       </c>
@@ -7392,7 +7398,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="7" t="s">
         <v>52</v>
       </c>
@@ -7415,7 +7421,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>56</v>
       </c>
@@ -7445,7 +7451,7 @@
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>56</v>
       </c>
@@ -7467,7 +7473,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>56</v>
       </c>
@@ -7491,7 +7497,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" s="7" t="s">
         <v>56</v>
       </c>
@@ -7517,7 +7523,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>56</v>
       </c>
@@ -7539,7 +7545,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>56</v>
       </c>
@@ -7563,7 +7569,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" s="7" t="s">
         <v>52</v>
       </c>
@@ -7586,7 +7592,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" s="7" t="s">
         <v>52</v>
       </c>
@@ -7609,7 +7615,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" s="7" t="s">
         <v>52</v>
       </c>
@@ -7632,7 +7638,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A151" s="7" t="s">
         <v>71</v>
       </c>
@@ -7658,7 +7664,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" s="7" t="s">
         <v>71</v>
       </c>
@@ -7689,7 +7695,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" s="7" t="s">
         <v>71</v>
       </c>
@@ -7717,7 +7723,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" s="7" t="s">
         <v>71</v>
       </c>
@@ -7746,7 +7752,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" s="7" t="s">
         <v>71</v>
       </c>
@@ -7777,7 +7783,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" s="7" t="s">
         <v>71</v>
       </c>
@@ -7808,7 +7814,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" s="7" t="s">
         <v>52</v>
       </c>
@@ -7828,7 +7834,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" s="7" t="s">
         <v>71</v>
       </c>
@@ -7859,7 +7865,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" s="7" t="s">
         <v>52</v>
       </c>
@@ -7879,7 +7885,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" s="7" t="s">
         <v>52</v>
       </c>
@@ -7902,7 +7908,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A161" s="7" t="s">
         <v>71</v>
       </c>
@@ -7933,7 +7939,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A162" s="7" t="s">
         <v>71</v>
       </c>
@@ -7961,7 +7967,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A163" s="7" t="s">
         <v>71</v>
       </c>
@@ -7992,7 +7998,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A164" s="7" t="s">
         <v>52</v>
       </c>
@@ -8015,7 +8021,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>52</v>
       </c>
@@ -8035,7 +8041,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A166" s="7" t="s">
         <v>52</v>
       </c>
@@ -8058,7 +8064,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A167" s="7" t="s">
         <v>52</v>
       </c>
@@ -8081,7 +8087,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A168" s="7" t="s">
         <v>71</v>
       </c>
@@ -8112,7 +8118,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A169" s="7" t="s">
         <v>71</v>
       </c>
@@ -8146,7 +8152,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A170" s="7" t="s">
         <v>71</v>
       </c>
@@ -8180,7 +8186,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>56</v>
       </c>
@@ -8202,7 +8208,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>56</v>
       </c>
@@ -8226,7 +8232,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>149</v>
@@ -8244,7 +8250,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A174" s="7" t="s">
         <v>52</v>
       </c>
@@ -8264,7 +8270,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>52</v>
       </c>
@@ -8284,7 +8290,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A176" s="7" t="s">
         <v>52</v>
       </c>
@@ -8307,7 +8313,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="7" t="s">
         <v>52</v>
       </c>
@@ -8329,7 +8335,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>56</v>
       </c>
@@ -8349,7 +8355,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>225</v>
       </c>
@@ -8371,7 +8377,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>56</v>
       </c>
@@ -8401,7 +8407,7 @@
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>56</v>
       </c>
@@ -8427,7 +8433,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>52</v>
       </c>
@@ -8450,7 +8456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>56</v>
       </c>
@@ -8478,7 +8484,7 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>56</v>
       </c>
@@ -8506,7 +8512,7 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>56</v>
       </c>
@@ -8534,7 +8540,7 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>56</v>
       </c>
@@ -8564,7 +8570,7 @@
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="7" t="s">
         <v>56</v>
       </c>
@@ -8590,7 +8596,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>56</v>
       </c>
@@ -8614,7 +8620,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>56</v>
       </c>
@@ -8640,7 +8646,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="7" t="s">
         <v>52</v>
       </c>
@@ -8662,7 +8668,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>56</v>
       </c>
@@ -8684,7 +8690,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>225</v>
       </c>
@@ -8706,7 +8712,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>56</v>
       </c>
@@ -8728,7 +8734,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194" s="7" t="s">
         <v>52</v>
       </c>
@@ -8750,7 +8756,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>225</v>
       </c>
@@ -8775,7 +8781,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>52</v>
       </c>
@@ -8798,7 +8804,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A197" s="7" t="s">
         <v>52</v>
       </c>
@@ -8818,7 +8824,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A198" s="7" t="s">
         <v>71</v>
       </c>
@@ -8852,7 +8858,7 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A199" s="7" t="s">
         <v>71</v>
       </c>
@@ -8889,7 +8895,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A200" s="7" t="s">
         <v>71</v>
       </c>
@@ -8926,7 +8932,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A201" s="7" t="s">
         <v>71</v>
       </c>
@@ -8954,7 +8960,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A202" s="7" t="s">
         <v>52</v>
       </c>
@@ -8974,7 +8980,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>52</v>
       </c>
@@ -8997,7 +9003,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>56</v>
       </c>
@@ -9028,7 +9034,7 @@
       <c r="P204" s="6"/>
       <c r="V204" s="11"/>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>56</v>
       </c>
@@ -9052,7 +9058,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>56</v>
       </c>
@@ -9080,7 +9086,7 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>56</v>
       </c>
@@ -9108,7 +9114,7 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>56</v>
       </c>
@@ -9130,7 +9136,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>56</v>
       </c>
@@ -9154,7 +9160,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>56</v>
       </c>
@@ -9174,7 +9180,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>56</v>
       </c>
@@ -9194,7 +9200,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A212" s="7" t="s">
         <v>52</v>
       </c>
@@ -9216,7 +9222,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>56</v>
       </c>
@@ -9241,7 +9247,7 @@
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -9266,7 +9272,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>56</v>
       </c>
@@ -9286,7 +9292,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>56</v>
       </c>
@@ -9306,7 +9312,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>225</v>
       </c>
@@ -9331,7 +9337,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>56</v>
       </c>
@@ -9353,7 +9359,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A219" s="7" t="s">
         <v>56</v>
       </c>
@@ -9375,7 +9381,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A220" s="7" t="s">
         <v>56</v>
       </c>
@@ -9397,7 +9403,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>56</v>
       </c>
@@ -9420,7 +9426,7 @@
       </c>
       <c r="V221" s="11"/>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>56</v>
       </c>
@@ -9452,7 +9458,7 @@
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A223" s="7" t="s">
         <v>56</v>
       </c>
@@ -9474,7 +9480,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>56</v>
       </c>
@@ -9496,7 +9502,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>56</v>
       </c>
@@ -9520,7 +9526,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="7" t="s">
         <v>56</v>
       </c>
@@ -9542,7 +9548,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="7" t="s">
         <v>56</v>
       </c>
@@ -9566,7 +9572,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="7" t="s">
         <v>56</v>
       </c>
@@ -9588,7 +9594,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="7" t="s">
         <v>56</v>
       </c>
@@ -9610,7 +9616,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="7" t="s">
         <v>56</v>
       </c>
@@ -9632,7 +9638,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="7" t="s">
         <v>56</v>
       </c>
@@ -9654,7 +9660,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="7" t="s">
         <v>56</v>
       </c>
@@ -9676,7 +9682,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="7" t="s">
         <v>56</v>
       </c>
@@ -9698,7 +9704,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="7" t="s">
         <v>56</v>
       </c>
@@ -9720,7 +9726,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="7" t="s">
         <v>225</v>
       </c>
@@ -9742,7 +9748,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="7" t="s">
         <v>56</v>
       </c>
@@ -9768,7 +9774,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="7" t="s">
         <v>56</v>
       </c>
@@ -9790,7 +9796,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="7" t="s">
         <v>56</v>
       </c>
@@ -9812,7 +9818,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="7" t="s">
         <v>56</v>
       </c>
@@ -9834,7 +9840,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="7" t="s">
         <v>56</v>
       </c>
@@ -9858,7 +9864,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A241" s="7" t="s">
         <v>56</v>
       </c>
@@ -9884,7 +9890,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>56</v>
       </c>
@@ -9904,7 +9910,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>56</v>
       </c>
@@ -9924,7 +9930,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>56</v>
       </c>
@@ -9944,7 +9950,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A245" s="7" t="s">
         <v>56</v>
       </c>
@@ -9968,7 +9974,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A246" s="7" t="s">
         <v>56</v>
       </c>
@@ -9994,7 +10000,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A247" s="7" t="s">
         <v>56</v>
       </c>
@@ -10020,7 +10026,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A248" s="7" t="s">
         <v>52</v>
       </c>
@@ -10042,7 +10048,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A249" s="7" t="s">
         <v>56</v>
       </c>
@@ -10064,7 +10070,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>225</v>
       </c>
@@ -10089,7 +10095,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A251" s="7" t="s">
         <v>56</v>
       </c>
@@ -10111,7 +10117,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A252" s="7" t="s">
         <v>56</v>
       </c>
@@ -10133,7 +10139,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A253" s="7" t="s">
         <v>56</v>
       </c>
@@ -10155,7 +10161,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A254" s="7" t="s">
         <v>56</v>
       </c>
@@ -10177,7 +10183,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A255" s="7" t="s">
         <v>56</v>
       </c>
@@ -10203,7 +10209,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A256" s="7" t="s">
         <v>52</v>
       </c>
@@ -10223,7 +10229,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>56</v>
       </c>
@@ -10245,7 +10251,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>56</v>
       </c>
@@ -10269,7 +10275,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>56</v>
       </c>
@@ -10289,7 +10295,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>56</v>
       </c>
@@ -10309,7 +10315,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>56</v>
       </c>
@@ -10329,7 +10335,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>56</v>
       </c>
@@ -10351,7 +10357,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>56</v>
       </c>
@@ -10375,7 +10381,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>56</v>
       </c>
@@ -10397,7 +10403,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="7" t="s">
         <v>52</v>
       </c>
@@ -10419,7 +10425,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>225</v>
       </c>
@@ -10441,7 +10447,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>56</v>
       </c>
@@ -10461,7 +10467,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>56</v>
       </c>
@@ -10483,7 +10489,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>56</v>
       </c>
@@ -10507,7 +10513,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="7" t="s">
         <v>56</v>
       </c>
@@ -10531,7 +10537,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="7" t="s">
         <v>56</v>
       </c>
@@ -10557,7 +10563,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="7" t="s">
         <v>56</v>
       </c>
@@ -10579,7 +10585,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="7" t="s">
         <v>56</v>
       </c>
@@ -10603,7 +10609,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="7" t="s">
         <v>56</v>
       </c>
@@ -10622,7 +10628,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="7" t="s">
         <v>56</v>
       </c>
@@ -10645,7 +10651,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="7" t="s">
         <v>56</v>
       </c>
@@ -10669,7 +10675,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="7" t="s">
         <v>56</v>
       </c>
@@ -10695,7 +10701,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="7" t="s">
         <v>56</v>
       </c>
@@ -10714,7 +10720,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="7" t="s">
         <v>52</v>
       </c>
@@ -10738,7 +10744,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="7" t="s">
         <v>56</v>
       </c>
@@ -10761,7 +10767,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="7" t="s">
         <v>56</v>
       </c>
@@ -10784,7 +10790,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="7" t="s">
         <v>56</v>
       </c>
@@ -10806,7 +10812,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="7" t="s">
         <v>56</v>
       </c>
@@ -10828,7 +10834,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="7" t="s">
         <v>56</v>
       </c>
@@ -10847,7 +10853,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="7" t="s">
         <v>56</v>
       </c>
@@ -10870,7 +10876,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="7" t="s">
         <v>56</v>
       </c>
@@ -10896,7 +10902,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="7" t="s">
         <v>56</v>
       </c>
@@ -10922,7 +10928,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="7" t="s">
         <v>56</v>
       </c>
@@ -10945,7 +10951,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>52</v>
       </c>
@@ -10968,7 +10974,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>52</v>
       </c>
@@ -10991,7 +10997,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="7" t="s">
         <v>56</v>
       </c>
@@ -11015,7 +11021,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>56</v>
       </c>
@@ -11037,7 +11043,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>56</v>
       </c>
@@ -11061,7 +11067,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="7" t="s">
         <v>52</v>
       </c>
@@ -11087,7 +11093,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="7" t="s">
         <v>52</v>
       </c>
@@ -11110,7 +11116,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="7" t="s">
         <v>52</v>
       </c>
@@ -11133,7 +11139,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="7" t="s">
         <v>52</v>
       </c>
@@ -11156,7 +11162,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>56</v>
       </c>
@@ -11178,7 +11184,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>56</v>
       </c>
@@ -11202,7 +11208,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>56</v>
       </c>
@@ -11222,7 +11228,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>56</v>
       </c>
@@ -11242,7 +11248,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>56</v>
       </c>
@@ -11264,7 +11270,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>56</v>
       </c>
@@ -11288,7 +11294,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="7" t="s">
         <v>52</v>
       </c>
@@ -11308,7 +11314,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A305" s="7" t="s">
         <v>56</v>
       </c>
@@ -11342,7 +11348,7 @@
       <c r="O305" s="4"/>
       <c r="P305" s="4"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>56</v>
       </c>
@@ -11364,7 +11370,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>56</v>
       </c>
@@ -11388,7 +11394,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>56</v>
       </c>
@@ -11410,7 +11416,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>56</v>
       </c>
@@ -11434,7 +11440,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>56</v>
       </c>
@@ -11454,7 +11460,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>225</v>
       </c>
@@ -11476,7 +11482,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A312" s="7" t="s">
         <v>71</v>
       </c>
@@ -11502,7 +11508,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A313" s="7" t="s">
         <v>71</v>
       </c>
@@ -11531,7 +11537,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A314" s="7" t="s">
         <v>71</v>
       </c>
@@ -11563,7 +11569,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A315" s="7" t="s">
         <v>369</v>
       </c>
@@ -11589,7 +11595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A316" s="7" t="s">
         <v>71</v>
       </c>
@@ -11623,7 +11629,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A317" s="7" t="s">
         <v>369</v>
       </c>
@@ -11649,7 +11655,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A318" s="7" t="s">
         <v>369</v>
       </c>
@@ -11669,7 +11675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A319" s="7" t="s">
         <v>369</v>
       </c>
@@ -11692,7 +11698,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A320" s="7" t="s">
         <v>71</v>
       </c>
@@ -11718,7 +11724,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A321" s="7" t="s">
         <v>369</v>
       </c>
@@ -11735,7 +11741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A322" s="7" t="s">
         <v>71</v>
       </c>
@@ -11764,7 +11770,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A323" s="7" t="s">
         <v>369</v>
       </c>
@@ -11787,7 +11793,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A324" s="7" t="s">
         <v>369</v>
       </c>
@@ -11807,7 +11813,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A325" s="7" t="s">
         <v>369</v>
       </c>
@@ -11827,7 +11833,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A326" s="7" t="s">
         <v>369</v>
       </c>
@@ -11847,7 +11853,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A327" s="7" t="s">
         <v>369</v>
       </c>
@@ -11870,7 +11876,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A328" s="7" t="s">
         <v>52</v>
       </c>
@@ -11893,7 +11899,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A329" s="7" t="s">
         <v>369</v>
       </c>
@@ -11916,7 +11922,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A330" s="7" t="s">
         <v>369</v>
       </c>
@@ -11939,7 +11945,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A331" s="7" t="s">
         <v>369</v>
       </c>
@@ -11956,7 +11962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A332" s="7" t="s">
         <v>369</v>
       </c>
@@ -11973,7 +11979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A333" s="7" t="s">
         <v>369</v>
       </c>
@@ -11993,7 +11999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A334" s="7" t="s">
         <v>369</v>
       </c>
@@ -12013,7 +12019,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A335" s="7" t="s">
         <v>369</v>
       </c>
@@ -12030,7 +12036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A336" s="7" t="s">
         <v>71</v>
       </c>
@@ -12062,7 +12068,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A337" s="7" t="s">
         <v>369</v>
       </c>
@@ -12082,7 +12088,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A338" s="7" t="s">
         <v>71</v>
       </c>
@@ -12111,7 +12117,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A339" s="7" t="s">
         <v>369</v>
       </c>
@@ -12134,7 +12140,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A340" s="7" t="s">
         <v>71</v>
       </c>
@@ -12163,7 +12169,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A341" s="7" t="s">
         <v>369</v>
       </c>
@@ -12189,7 +12195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A342" s="7" t="s">
         <v>369</v>
       </c>
@@ -12206,7 +12212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A343" s="7" t="s">
         <v>369</v>
       </c>
@@ -12229,7 +12235,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A344" s="7" t="s">
         <v>369</v>
       </c>
@@ -12246,7 +12252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A345" s="7" t="s">
         <v>71</v>
       </c>
@@ -12274,7 +12280,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A346" s="7" t="s">
         <v>369</v>
       </c>
@@ -12297,7 +12303,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A347" s="7" t="s">
         <v>71</v>
       </c>
@@ -12326,7 +12332,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A348" s="7" t="s">
         <v>369</v>
       </c>
@@ -12343,7 +12349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A349" s="7" t="s">
         <v>369</v>
       </c>
@@ -12366,7 +12372,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A350" s="7" t="s">
         <v>71</v>
       </c>
@@ -12398,7 +12404,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A351" s="7" t="s">
         <v>71</v>
       </c>
@@ -12427,7 +12433,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A352" s="7" t="s">
         <v>369</v>
       </c>
@@ -12453,7 +12459,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A353" s="7" t="s">
         <v>71</v>
       </c>
@@ -12485,7 +12491,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A354" s="7" t="s">
         <v>369</v>
       </c>
@@ -12505,7 +12511,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A355" s="7" t="s">
         <v>369</v>
       </c>
@@ -12534,7 +12540,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A356" s="7" t="s">
         <v>369</v>
       </c>
@@ -12563,7 +12569,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A357" s="7" t="s">
         <v>71</v>
       </c>
@@ -12589,7 +12595,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A358" s="7" t="s">
         <v>71</v>
       </c>
@@ -12620,7 +12626,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A359" s="7" t="s">
         <v>71</v>
       </c>
@@ -12649,7 +12655,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A360" s="7" t="s">
         <v>71</v>
       </c>
@@ -12680,7 +12686,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A361" s="7" t="s">
         <v>369</v>
       </c>
@@ -12703,7 +12709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A362" s="7" t="s">
         <v>71</v>
       </c>
@@ -12732,7 +12738,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A363" s="7" t="s">
         <v>56</v>
       </c>
@@ -12752,7 +12758,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A364" s="7" t="s">
         <v>369</v>
       </c>
@@ -12778,7 +12784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A365" s="7" t="s">
         <v>71</v>
       </c>
@@ -12804,7 +12810,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A366" s="7" t="s">
         <v>71</v>
       </c>
@@ -12835,7 +12841,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A367" s="7" t="s">
         <v>52</v>
       </c>
@@ -12855,7 +12861,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A368" s="7" t="s">
         <v>71</v>
       </c>
@@ -12881,7 +12887,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A369" s="7" t="s">
         <v>71</v>
       </c>
@@ -12910,7 +12916,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A370" s="7" t="s">
         <v>369</v>
       </c>
@@ -12930,7 +12936,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A371" s="7" t="s">
         <v>71</v>
       </c>
@@ -12962,7 +12968,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A372" s="7" t="s">
         <v>369</v>
       </c>
@@ -12979,7 +12985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A373" s="7" t="s">
         <v>71</v>
       </c>
@@ -13005,7 +13011,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A374" s="7" t="s">
         <v>369</v>
       </c>
@@ -13028,7 +13034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A375" s="7" t="s">
         <v>71</v>
       </c>
@@ -13056,7 +13062,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A376" s="7" t="s">
         <v>71</v>
       </c>
@@ -13085,7 +13091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A377" s="7" t="s">
         <v>71</v>
       </c>
@@ -13111,7 +13117,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A378" s="7" t="s">
         <v>71</v>
       </c>
@@ -13140,7 +13146,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A379" s="7" t="s">
         <v>71</v>
       </c>
@@ -13166,7 +13172,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A380" s="7" t="s">
         <v>71</v>
       </c>
@@ -13200,7 +13206,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="381" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
         <v>71</v>
       </c>
@@ -13229,7 +13235,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="382" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A382" s="7" t="s">
         <v>71</v>
       </c>
@@ -13260,7 +13266,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="383" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A383" s="7" t="s">
         <v>71</v>
       </c>
@@ -13288,7 +13294,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="384" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A384" s="7" t="s">
         <v>71</v>
       </c>
@@ -13314,7 +13320,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="385" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>56</v>
       </c>
@@ -13334,7 +13340,7 @@
         <v>44296</v>
       </c>
     </row>
-    <row r="386" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>56</v>
       </c>
@@ -13356,7 +13362,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="387" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>56</v>
       </c>
@@ -13380,7 +13386,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="388" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A388" s="7" t="s">
         <v>71</v>
       </c>
@@ -13409,7 +13415,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="389" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A389" s="7" t="s">
         <v>71</v>
       </c>
@@ -13441,7 +13447,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="390" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>56</v>
       </c>
@@ -13464,7 +13470,7 @@
         <v>44306</v>
       </c>
     </row>
-    <row r="391" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>56</v>
       </c>
@@ -13486,7 +13492,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="392" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>56</v>
       </c>
@@ -13510,7 +13516,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="393" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A393" s="7" t="s">
         <v>71</v>
       </c>
@@ -13548,7 +13554,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="394" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A394" s="7" t="s">
         <v>56</v>
       </c>
@@ -13568,7 +13574,7 @@
         <v>44310</v>
       </c>
     </row>
-    <row r="395" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A395" s="7" t="s">
         <v>71</v>
       </c>
@@ -13597,7 +13603,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="396" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>56</v>
       </c>
@@ -13620,7 +13626,7 @@
         <v>44313</v>
       </c>
     </row>
-    <row r="397" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>56</v>
       </c>
@@ -13643,7 +13649,7 @@
         <v>44314</v>
       </c>
     </row>
-    <row r="398" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>56</v>
       </c>
@@ -13663,7 +13669,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="399" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>56</v>
       </c>
@@ -13686,7 +13692,7 @@
         <v>44319</v>
       </c>
     </row>
-    <row r="400" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A400" s="7" t="s">
         <v>71</v>
       </c>
@@ -13715,7 +13721,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="401" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A401" s="7" t="s">
         <v>71</v>
       </c>
@@ -13744,7 +13750,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="402" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A402" s="7" t="s">
         <v>56</v>
       </c>
@@ -13761,7 +13767,7 @@
         <v>44329</v>
       </c>
     </row>
-    <row r="403" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A403" s="7" t="s">
         <v>71</v>
       </c>
@@ -13790,7 +13796,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="404" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A404" s="7" t="s">
         <v>56</v>
       </c>
@@ -13813,7 +13819,7 @@
         <v>44332</v>
       </c>
     </row>
-    <row r="405" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A405" s="7" t="s">
         <v>56</v>
       </c>
@@ -13833,7 +13839,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="406" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A406" s="7" t="s">
         <v>56</v>
       </c>
@@ -13850,7 +13856,7 @@
         <v>44333</v>
       </c>
     </row>
-    <row r="407" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A407" s="7" t="s">
         <v>56</v>
       </c>
@@ -13870,7 +13876,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="408" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A408" s="7" t="s">
         <v>56</v>
       </c>
@@ -13890,7 +13896,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="409" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A409" s="7" t="s">
         <v>56</v>
       </c>
@@ -13910,7 +13916,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="410" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A410" s="7" t="s">
         <v>52</v>
       </c>
@@ -13930,7 +13936,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="411" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A411" s="7" t="s">
         <v>56</v>
       </c>
@@ -13947,7 +13953,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="412" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A412" s="7" t="s">
         <v>56</v>
       </c>
@@ -13967,7 +13973,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="413" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A413" s="7" t="s">
         <v>71</v>
       </c>
@@ -13996,7 +14002,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="414" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A414" s="7" t="s">
         <v>56</v>
       </c>
@@ -14016,7 +14022,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="415" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A415" s="7" t="s">
         <v>56</v>
       </c>
@@ -14036,7 +14042,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="416" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A416" s="7" t="s">
         <v>71</v>
       </c>
@@ -14065,7 +14071,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="417" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A417" s="7" t="s">
         <v>71</v>
       </c>
@@ -14094,7 +14100,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="418" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A418" s="7" t="s">
         <v>71</v>
       </c>
@@ -14129,7 +14135,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="419" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A419" s="7" t="s">
         <v>56</v>
       </c>
@@ -14149,7 +14155,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="420" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A420" s="7" t="s">
         <v>56</v>
       </c>
@@ -14169,7 +14175,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="421" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A421" s="7" t="s">
         <v>56</v>
       </c>
@@ -14189,7 +14195,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="422" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A422" s="7" t="s">
         <v>56</v>
       </c>
@@ -14209,7 +14215,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="423" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A423" s="7" t="s">
         <v>56</v>
       </c>
@@ -14232,7 +14238,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="424" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A424" s="7" t="s">
         <v>56</v>
       </c>
@@ -14263,7 +14269,7 @@
       <c r="L424" s="12"/>
       <c r="M424" s="12"/>
     </row>
-    <row r="425" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A425" s="7" t="s">
         <v>56</v>
       </c>
@@ -14280,7 +14286,7 @@
         <v>44355</v>
       </c>
     </row>
-    <row r="426" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A426" s="7" t="s">
         <v>56</v>
       </c>
@@ -14300,7 +14306,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="427" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A427" s="7" t="s">
         <v>56</v>
       </c>
@@ -14320,7 +14326,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="428" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
         <v>56</v>
       </c>
@@ -14342,7 +14348,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="429" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>56</v>
       </c>
@@ -14365,7 +14371,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="430" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>56</v>
       </c>
@@ -14391,7 +14397,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="431" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A431" s="7" t="s">
         <v>56</v>
       </c>
@@ -14408,7 +14414,7 @@
         <v>44360</v>
       </c>
     </row>
-    <row r="432" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A432" s="7" t="s">
         <v>56</v>
       </c>
@@ -14431,7 +14437,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="433" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A433" s="7" t="s">
         <v>56</v>
       </c>
@@ -14453,7 +14459,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="434" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A434" s="7" t="s">
         <v>56</v>
       </c>
@@ -14475,7 +14481,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="435" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A435" s="7" t="s">
         <v>56</v>
       </c>
@@ -14497,7 +14503,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="436" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A436" s="7" t="s">
         <v>56</v>
       </c>
@@ -14521,7 +14527,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="437" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A437" s="7" t="s">
         <v>56</v>
       </c>
@@ -14547,7 +14553,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="438" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
         <v>56</v>
       </c>
@@ -14567,7 +14573,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="439" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
         <v>56</v>
       </c>
@@ -14584,7 +14590,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="440" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
         <v>56</v>
       </c>
@@ -14606,7 +14612,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="441" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
         <v>56</v>
       </c>
@@ -14630,7 +14636,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="442" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A442" s="7" t="s">
         <v>56</v>
       </c>
@@ -14650,7 +14656,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="443" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A443" s="7" t="s">
         <v>56</v>
       </c>
@@ -14667,7 +14673,7 @@
         <v>44376</v>
       </c>
     </row>
-    <row r="444" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A444" s="7" t="s">
         <v>56</v>
       </c>
@@ -14687,7 +14693,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="445" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
         <v>56</v>
       </c>
@@ -14711,7 +14717,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="446" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
         <v>56</v>
       </c>
@@ -14731,7 +14737,7 @@
         <v>44382</v>
       </c>
     </row>
-    <row r="447" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
         <v>56</v>
       </c>
@@ -14753,7 +14759,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="448" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
         <v>56</v>
       </c>
@@ -14775,7 +14781,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="449" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A449" s="7" t="s">
         <v>56</v>
       </c>
@@ -14795,7 +14801,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="450" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A450" s="7" t="s">
         <v>56</v>
       </c>
@@ -14821,7 +14827,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="451" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
         <v>56</v>
       </c>
@@ -14843,7 +14849,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="452" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
         <v>56</v>
       </c>
@@ -14867,7 +14873,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="453" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A453" s="7" t="s">
         <v>56</v>
       </c>
@@ -14891,7 +14897,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="454" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A454" s="7" t="s">
         <v>56</v>
       </c>
@@ -14917,7 +14923,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="455" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A455" s="7" t="s">
         <v>56</v>
       </c>
@@ -14937,7 +14943,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="456" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
         <v>56</v>
       </c>
@@ -14957,7 +14963,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="457" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A457" s="7" t="s">
         <v>56</v>
       </c>
@@ -14980,7 +14986,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="458" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
         <v>56</v>
       </c>
@@ -15002,7 +15008,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="459" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
         <v>56</v>
       </c>
@@ -15024,7 +15030,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="460" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
         <v>56</v>
       </c>
@@ -15047,7 +15053,7 @@
         <v>44404</v>
       </c>
     </row>
-    <row r="461" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A461" s="7" t="s">
         <v>52</v>
       </c>
@@ -15067,7 +15073,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="462" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A462" s="7" t="s">
         <v>56</v>
       </c>
@@ -15084,7 +15090,7 @@
         <v>44411</v>
       </c>
     </row>
-    <row r="463" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A463" s="7" t="s">
         <v>52</v>
       </c>
@@ -15101,7 +15107,7 @@
         <v>44412</v>
       </c>
     </row>
-    <row r="464" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A464" s="7" t="s">
         <v>56</v>
       </c>
@@ -15130,7 +15136,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
         <v>56</v>
       </c>
@@ -15152,7 +15158,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
         <v>56</v>
       </c>
@@ -15176,7 +15182,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
         <v>56</v>
       </c>
@@ -15202,7 +15208,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="7" t="s">
         <v>56</v>
       </c>
@@ -15222,7 +15228,7 @@
         <v>44420</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="7" t="s">
         <v>52</v>
       </c>
@@ -15245,7 +15251,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="7" t="s">
         <v>52</v>
       </c>
@@ -15265,7 +15271,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
         <v>56</v>
       </c>
@@ -15284,7 +15290,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
         <v>56</v>
       </c>
@@ -15306,7 +15312,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
         <v>56</v>
       </c>
@@ -15330,7 +15336,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="7" t="s">
         <v>52</v>
       </c>
@@ -15350,7 +15356,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="7" t="s">
         <v>52</v>
       </c>
@@ -15370,7 +15376,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
         <v>56</v>
       </c>
@@ -15390,7 +15396,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="7" t="s">
         <v>52</v>
       </c>
@@ -15407,7 +15413,7 @@
         <v>44440</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="7" t="s">
         <v>56</v>
       </c>
@@ -15429,7 +15435,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
         <v>56</v>
       </c>
@@ -15451,7 +15457,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
         <v>56</v>
       </c>
@@ -15475,7 +15481,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="481" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
         <v>56</v>
       </c>
@@ -15497,7 +15503,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="482" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
         <v>56</v>
       </c>
@@ -15523,7 +15529,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="483" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A483" s="7" t="s">
         <v>52</v>
       </c>
@@ -15543,7 +15549,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="484" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A484" s="7" t="s">
         <v>52</v>
       </c>
@@ -15566,7 +15572,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="485" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
         <v>56</v>
       </c>
@@ -15588,7 +15594,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="486" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A486" s="7" t="s">
         <v>56</v>
       </c>
@@ -15605,7 +15611,7 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="487" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A487" s="7" t="s">
         <v>52</v>
       </c>
@@ -15628,7 +15634,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="488" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
         <v>56</v>
       </c>
@@ -15650,7 +15656,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="489" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
         <v>56</v>
       </c>
@@ -15672,7 +15678,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="490" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
         <v>56</v>
       </c>
@@ -15694,7 +15700,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="491" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
         <v>56</v>
       </c>
@@ -15718,7 +15724,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="492" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A492" s="7" t="s">
         <v>52</v>
       </c>
@@ -15743,7 +15749,7 @@
       <c r="L492" s="4"/>
       <c r="M492" s="4"/>
     </row>
-    <row r="493" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A493" s="7" t="s">
         <v>44</v>
       </c>
@@ -15778,7 +15784,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="494" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A494" s="7" t="s">
         <v>52</v>
       </c>
@@ -15795,7 +15801,7 @@
         <v>44469</v>
       </c>
     </row>
-    <row r="495" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
         <v>56</v>
       </c>
@@ -15817,7 +15823,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="496" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A496" s="7" t="s">
         <v>56</v>
       </c>
@@ -15834,7 +15840,7 @@
         <v>44471</v>
       </c>
     </row>
-    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A497" s="7" t="s">
         <v>44</v>
       </c>
@@ -15866,7 +15872,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A498" s="7" t="s">
         <v>44</v>
       </c>
@@ -15892,7 +15898,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A499" s="7" t="s">
         <v>56</v>
       </c>
@@ -15918,7 +15924,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A500" s="7" t="s">
         <v>44</v>
       </c>
@@ -15940,7 +15946,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="501" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>56</v>
       </c>
@@ -15959,7 +15965,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
         <v>56</v>
       </c>
@@ -15980,7 +15986,7 @@
         <v>44491</v>
       </c>
     </row>
-    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A503" s="7" t="s">
         <v>56</v>
       </c>
@@ -16002,7 +16008,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A504" s="7" t="s">
         <v>56</v>
       </c>
@@ -16024,7 +16030,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A505" s="7" t="s">
         <v>56</v>
       </c>
@@ -16046,7 +16052,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A506" s="7" t="s">
         <v>56</v>
       </c>
@@ -16068,7 +16074,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A507" s="7" t="s">
         <v>44</v>
       </c>
@@ -16091,7 +16097,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="508" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
         <v>56</v>
       </c>
@@ -16113,7 +16119,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>56</v>
       </c>
@@ -16134,7 +16140,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A510" s="7" t="s">
         <v>56</v>
       </c>
@@ -16160,7 +16166,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A511" s="7" t="s">
         <v>56</v>
       </c>
@@ -16180,7 +16186,7 @@
         <v>44506</v>
       </c>
     </row>
-    <row r="512" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
         <v>56</v>
       </c>
@@ -16201,7 +16207,7 @@
         <v>44512</v>
       </c>
     </row>
-    <row r="513" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A513" s="7" t="s">
         <v>52</v>
       </c>
@@ -16221,7 +16227,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A514" s="7" t="s">
         <v>56</v>
       </c>
@@ -16247,7 +16253,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A515" s="7" t="s">
         <v>56</v>
       </c>
@@ -16267,7 +16273,7 @@
         <v>44519</v>
       </c>
     </row>
-    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A516" s="7" t="s">
         <v>52</v>
       </c>
@@ -16289,7 +16295,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="517" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
         <v>56</v>
       </c>
@@ -16313,7 +16319,7 @@
       <c r="L517" s="9"/>
       <c r="M517" s="9"/>
     </row>
-    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
         <v>225</v>
       </c>
@@ -16335,7 +16341,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
         <v>56</v>
       </c>
@@ -16352,7 +16358,7 @@
         <v>44524</v>
       </c>
     </row>
-    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A520" s="7" t="s">
         <v>52</v>
       </c>
@@ -16372,7 +16378,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A521" s="7" t="s">
         <v>71</v>
       </c>
@@ -16401,7 +16407,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A522" s="7" t="s">
         <v>369</v>
       </c>
@@ -16421,7 +16427,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A523" s="7" t="s">
         <v>369</v>
       </c>
@@ -16447,7 +16453,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A524" s="7" t="s">
         <v>71</v>
       </c>
@@ -16473,7 +16479,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A525" s="7" t="s">
         <v>71</v>
       </c>
@@ -16499,7 +16505,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="526" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A526" s="7" t="s">
         <v>369</v>
       </c>
@@ -16522,7 +16528,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A527" s="7" t="s">
         <v>71</v>
       </c>
@@ -16548,7 +16554,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A528" s="7" t="s">
         <v>71</v>
       </c>
@@ -16583,7 +16589,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="529" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A529" s="7" t="s">
         <v>71</v>
       </c>
@@ -16612,7 +16618,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="530" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A530" s="7" t="s">
         <v>71</v>
       </c>
@@ -16638,7 +16644,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="531" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A531" s="7" t="s">
         <v>52</v>
       </c>
@@ -16658,7 +16664,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="532" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A532" s="7" t="s">
         <v>369</v>
       </c>
@@ -16681,7 +16687,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="533" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A533" s="7" t="s">
         <v>71</v>
       </c>
@@ -16710,7 +16716,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="534" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A534" s="7" t="s">
         <v>71</v>
       </c>
@@ -16739,7 +16745,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="535" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A535" s="7" t="s">
         <v>369</v>
       </c>
@@ -16762,7 +16768,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="536" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A536" s="7" t="s">
         <v>71</v>
       </c>
@@ -16794,7 +16800,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="537" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A537" s="7" t="s">
         <v>52</v>
       </c>
@@ -16814,7 +16820,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="538" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A538" s="7" t="s">
         <v>52</v>
       </c>
@@ -16834,7 +16840,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="539" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A539" s="7" t="s">
         <v>369</v>
       </c>
@@ -16857,7 +16863,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="540" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A540" s="7" t="s">
         <v>71</v>
       </c>
@@ -16891,7 +16897,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="541" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A541" s="7" t="s">
         <v>71</v>
       </c>
@@ -16922,7 +16928,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="542" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A542" s="7" t="s">
         <v>71</v>
       </c>
@@ -16948,7 +16954,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="543" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A543" s="7" t="s">
         <v>71</v>
       </c>
@@ -16974,7 +16980,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="544" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A544" s="7" t="s">
         <v>369</v>
       </c>
@@ -16997,7 +17003,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="545" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A545" s="7" t="s">
         <v>71</v>
       </c>
@@ -17023,7 +17029,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="546" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A546" s="7" t="s">
         <v>71</v>
       </c>
@@ -17055,7 +17061,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="547" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A547" s="7" t="s">
         <v>369</v>
       </c>
@@ -17084,7 +17090,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="548" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A548" s="7" t="s">
         <v>71</v>
       </c>
@@ -17113,7 +17119,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="549" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A549" s="7" t="s">
         <v>369</v>
       </c>
@@ -17130,7 +17136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A550" s="7" t="s">
         <v>71</v>
       </c>
@@ -17156,7 +17162,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="551" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A551" s="7" t="s">
         <v>71</v>
       </c>
@@ -17188,7 +17194,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="552" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A552" s="7" t="s">
         <v>369</v>
       </c>
@@ -17217,7 +17223,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="553" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A553" s="7" t="s">
         <v>71</v>
       </c>
@@ -17246,7 +17252,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="554" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A554" s="7" t="s">
         <v>369</v>
       </c>
@@ -17269,7 +17275,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="555" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A555" s="7" t="s">
         <v>369</v>
       </c>
@@ -17289,7 +17295,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="556" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A556" s="7" t="s">
         <v>71</v>
       </c>
@@ -17318,7 +17324,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="557" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A557" s="7" t="s">
         <v>71</v>
       </c>
@@ -17347,7 +17353,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="558" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A558" s="7" t="s">
         <v>369</v>
       </c>
@@ -17370,7 +17376,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="559" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A559" s="7" t="s">
         <v>71</v>
       </c>
@@ -17399,7 +17405,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="560" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A560" s="7" t="s">
         <v>71</v>
       </c>
@@ -17422,7 +17428,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="561" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A561" s="7" t="s">
         <v>369</v>
       </c>
@@ -17442,7 +17448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="562" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A562" s="7" t="s">
         <v>369</v>
       </c>
@@ -17462,7 +17468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A563" s="7" t="s">
         <v>369</v>
       </c>
@@ -17491,7 +17497,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="564" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A564" s="7" t="s">
         <v>71</v>
       </c>
@@ -17519,7 +17525,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="565" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A565" s="7" t="s">
         <v>71</v>
       </c>
@@ -17547,7 +17553,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="566" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A566" s="7" t="s">
         <v>71</v>
       </c>
@@ -17573,7 +17579,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="567" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A567" s="7" t="s">
         <v>71</v>
       </c>
@@ -17613,7 +17619,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="568" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A568" s="7" t="s">
         <v>71</v>
       </c>
@@ -17642,7 +17648,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="569" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A569" s="7" t="s">
         <v>71</v>
       </c>
@@ -17677,7 +17683,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="570" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A570" s="7" t="s">
         <v>369</v>
       </c>
@@ -17703,7 +17709,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="571" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A571" s="7" t="s">
         <v>71</v>
       </c>
@@ -17738,7 +17744,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="572" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A572" s="7" t="s">
         <v>369</v>
       </c>
@@ -17755,7 +17761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A573" s="7" t="s">
         <v>369</v>
       </c>
@@ -17781,7 +17787,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="574" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A574" s="7" t="s">
         <v>369</v>
       </c>
@@ -17798,7 +17804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="575" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A575" s="7" t="s">
         <v>71</v>
       </c>
@@ -17824,7 +17830,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="576" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A576" s="7" t="s">
         <v>56</v>
       </c>
@@ -17844,7 +17850,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="577" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A577" s="7" t="s">
         <v>56</v>
       </c>
@@ -17861,7 +17867,7 @@
         <v>44637</v>
       </c>
     </row>
-    <row r="578" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A578" s="7" t="s">
         <v>369</v>
       </c>
@@ -17884,7 +17890,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="579" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A579" s="7" t="s">
         <v>71</v>
       </c>
@@ -17912,7 +17918,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="580" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A580" s="7" t="s">
         <v>56</v>
       </c>
@@ -17935,7 +17941,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="581" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A581" s="7" t="s">
         <v>56</v>
       </c>
@@ -17955,7 +17961,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="582" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A582" s="7" t="s">
         <v>369</v>
       </c>
@@ -17972,7 +17978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A583" s="7" t="s">
         <v>56</v>
       </c>
@@ -17989,7 +17995,7 @@
         <v>44649</v>
       </c>
     </row>
-    <row r="584" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A584" s="7" t="s">
         <v>71</v>
       </c>
@@ -18015,7 +18021,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="585" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A585" s="7" t="s">
         <v>56</v>
       </c>
@@ -18035,7 +18041,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="586" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A586" s="7" t="s">
         <v>71</v>
       </c>
@@ -18061,7 +18067,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="587" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A587" s="7" t="s">
         <v>71</v>
       </c>
@@ -18087,7 +18093,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="588" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A588" s="7" t="s">
         <v>71</v>
       </c>
@@ -18116,7 +18122,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="589" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A589" s="7" t="s">
         <v>56</v>
       </c>
@@ -18136,7 +18142,7 @@
         <v>44668</v>
       </c>
     </row>
-    <row r="590" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A590" s="7" t="s">
         <v>52</v>
       </c>
@@ -18156,7 +18162,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="591" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A591" s="7" t="s">
         <v>71</v>
       </c>
@@ -18185,7 +18191,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="592" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A592" s="7" t="s">
         <v>71</v>
       </c>
@@ -18214,7 +18220,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="593" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A593" s="7" t="s">
         <v>56</v>
       </c>
@@ -18231,7 +18237,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="594" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A594" s="7" t="s">
         <v>56</v>
       </c>
@@ -18248,7 +18254,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="595" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
         <v>56</v>
       </c>
@@ -18269,7 +18275,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="596" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
         <v>56</v>
       </c>
@@ -18290,7 +18296,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="597" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>56</v>
       </c>
@@ -18311,7 +18317,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="598" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>56</v>
       </c>
@@ -18332,7 +18338,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="599" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A599" s="7" t="s">
         <v>44</v>
       </c>
@@ -18358,7 +18364,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="600" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
         <v>56</v>
       </c>
@@ -18380,7 +18386,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="601" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
         <v>56</v>
       </c>
@@ -18402,7 +18408,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="602" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
         <v>56</v>
       </c>
@@ -18424,7 +18430,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="603" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
         <v>56</v>
       </c>
@@ -18448,7 +18454,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="604" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
         <v>56</v>
       </c>
@@ -18467,7 +18473,7 @@
         <v>44855</v>
       </c>
     </row>
-    <row r="605" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A605" s="7" t="s">
         <v>56</v>
       </c>
@@ -18489,7 +18495,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="606" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A606" s="7" t="s">
         <v>56</v>
       </c>
@@ -18506,7 +18512,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="607" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A607" s="7" t="s">
         <v>56</v>
       </c>
@@ -18526,7 +18532,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="608" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A608" s="7" t="s">
         <v>56</v>
       </c>
@@ -18549,7 +18555,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="609" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A609" s="7" t="s">
         <v>56</v>
       </c>
@@ -18572,7 +18578,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="610" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A610" s="7" t="s">
         <v>56</v>
       </c>
@@ -18591,7 +18597,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="611" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A611" s="7" t="s">
         <v>56</v>
       </c>
@@ -18608,7 +18614,7 @@
         <v>44863</v>
       </c>
     </row>
-    <row r="612" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A612" s="7" t="s">
         <v>56</v>
       </c>
@@ -18634,7 +18640,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="613" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A613" s="7" t="s">
         <v>56</v>
       </c>
@@ -18656,7 +18662,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="614" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A614" s="7" t="s">
         <v>56</v>
       </c>
@@ -18678,7 +18684,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="615" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A615" s="7" t="s">
         <v>56</v>
       </c>
@@ -18700,7 +18706,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="616" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A616" s="7" t="s">
         <v>56</v>
       </c>
@@ -18722,7 +18728,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="617" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A617" s="7" t="s">
         <v>44</v>
       </c>
@@ -18745,7 +18751,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="618" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A618" s="7" t="s">
         <v>56</v>
       </c>
@@ -18762,7 +18768,7 @@
         <v>44871</v>
       </c>
     </row>
-    <row r="619" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A619" s="7" t="s">
         <v>56</v>
       </c>
@@ -18785,7 +18791,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="620" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A620" s="7" t="s">
         <v>56</v>
       </c>
@@ -18806,7 +18812,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="621" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A621" s="7" t="s">
         <v>56</v>
       </c>
@@ -18830,7 +18836,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="622" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>56</v>
       </c>
@@ -18852,7 +18858,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="623" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
         <v>56</v>
       </c>
@@ -18873,7 +18879,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="624" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A624" s="7" t="s">
         <v>44</v>
       </c>
@@ -18893,7 +18899,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="625" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A625" s="7" t="s">
         <v>44</v>
       </c>
@@ -18913,7 +18919,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A626" s="7" t="s">
         <v>44</v>
       </c>
@@ -18930,7 +18936,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="627" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A627" s="7" t="s">
         <v>44</v>
       </c>
@@ -18947,7 +18953,7 @@
         <v>44905</v>
       </c>
     </row>
-    <row r="628" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A628" s="7" t="s">
         <v>44</v>
       </c>
@@ -18967,7 +18973,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="629" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A629" s="7" t="s">
         <v>44</v>
       </c>
@@ -18984,7 +18990,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="630" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A630" s="7" t="s">
         <v>725</v>
       </c>
@@ -19001,7 +19007,7 @@
         <v>44912</v>
       </c>
     </row>
-    <row r="631" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A631" s="7" t="s">
         <v>44</v>
       </c>
@@ -19021,7 +19027,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="632" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A632" s="7" t="s">
         <v>44</v>
       </c>
@@ -19038,7 +19044,7 @@
         <v>44914</v>
       </c>
     </row>
-    <row r="633" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A633" s="7" t="s">
         <v>44</v>
       </c>
@@ -19055,7 +19061,7 @@
         <v>44915</v>
       </c>
     </row>
-    <row r="634" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A634" s="7" t="s">
         <v>44</v>
       </c>
@@ -19078,7 +19084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="635" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A635" s="7" t="s">
         <v>44</v>
       </c>
@@ -19098,7 +19104,7 @@
         <v>44920</v>
       </c>
     </row>
-    <row r="636" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A636" s="7" t="s">
         <v>44</v>
       </c>
@@ -19115,7 +19121,7 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="637" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A637" s="7" t="s">
         <v>44</v>
       </c>
@@ -19132,7 +19138,7 @@
         <v>44922</v>
       </c>
     </row>
-    <row r="638" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A638" s="7" t="s">
         <v>44</v>
       </c>
@@ -19161,7 +19167,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="639" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A639" s="7" t="s">
         <v>52</v>
       </c>
@@ -19178,7 +19184,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="640" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A640" s="7" t="s">
         <v>44</v>
       </c>
@@ -19210,7 +19216,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="641" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A641" s="7" t="s">
         <v>52</v>
       </c>
@@ -19227,7 +19233,7 @@
         <v>44927</v>
       </c>
     </row>
-    <row r="642" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A642" s="7" t="s">
         <v>44</v>
       </c>
@@ -19250,7 +19256,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="643" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A643" s="7" t="s">
         <v>44</v>
       </c>
@@ -19273,7 +19279,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="644" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A644" s="7" t="s">
         <v>44</v>
       </c>
@@ -19290,7 +19296,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="645" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A645" s="7" t="s">
         <v>44</v>
       </c>
@@ -19307,7 +19313,7 @@
         <v>44942</v>
       </c>
     </row>
-    <row r="646" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A646" s="7" t="s">
         <v>44</v>
       </c>
@@ -19324,7 +19330,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="647" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A647" s="7" t="s">
         <v>44</v>
       </c>
@@ -19344,7 +19350,7 @@
         <v>44947</v>
       </c>
     </row>
-    <row r="648" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A648" s="7" t="s">
         <v>44</v>
       </c>
@@ -19361,7 +19367,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="649" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A649" s="7" t="s">
         <v>44</v>
       </c>
@@ -19378,7 +19384,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="650" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A650" s="7" t="s">
         <v>44</v>
       </c>
@@ -19401,7 +19407,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="651" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A651" s="7" t="s">
         <v>44</v>
       </c>
@@ -19424,7 +19430,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="652" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A652" s="7" t="s">
         <v>44</v>
       </c>
@@ -19441,7 +19447,7 @@
         <v>44959</v>
       </c>
     </row>
-    <row r="653" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A653" s="7" t="s">
         <v>44</v>
       </c>
@@ -19467,7 +19473,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="654" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A654" s="7" t="s">
         <v>44</v>
       </c>
@@ -19490,7 +19496,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="655" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A655" s="7" t="s">
         <v>44</v>
       </c>
@@ -19513,7 +19519,7 @@
         <v>44962</v>
       </c>
     </row>
-    <row r="656" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A656" s="7" t="s">
         <v>44</v>
       </c>
@@ -19533,7 +19539,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="657" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A657" s="7" t="s">
         <v>44</v>
       </c>
@@ -19553,7 +19559,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="658" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A658" s="7" t="s">
         <v>44</v>
       </c>
@@ -19573,7 +19579,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="659" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A659" s="7" t="s">
         <v>44</v>
       </c>
@@ -19593,7 +19599,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="660" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A660" s="7" t="s">
         <v>56</v>
       </c>
@@ -19613,7 +19619,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="661" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A661" s="7" t="s">
         <v>56</v>
       </c>
@@ -19633,7 +19639,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="662" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A662" s="7" t="s">
         <v>56</v>
       </c>
@@ -19650,7 +19656,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="663" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
         <v>56</v>
       </c>
@@ -19671,7 +19677,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="664" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A664" s="7" t="s">
         <v>44</v>
       </c>
@@ -19688,7 +19694,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="665" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A665" s="7" t="s">
         <v>44</v>
       </c>
@@ -19705,7 +19711,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="666" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A666" s="7" t="s">
         <v>44</v>
       </c>
@@ -19722,7 +19728,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="667" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A667" s="7" t="s">
         <v>44</v>
       </c>
@@ -19739,7 +19745,7 @@
         <v>44993</v>
       </c>
     </row>
-    <row r="668" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A668" s="7" t="s">
         <v>44</v>
       </c>
@@ -19756,7 +19762,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="669" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A669" s="7" t="s">
         <v>44</v>
       </c>
@@ -19773,7 +19779,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="670" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A670" s="7" t="s">
         <v>56</v>
       </c>
@@ -19793,7 +19799,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="671" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A671" s="7" t="s">
         <v>56</v>
       </c>
@@ -19810,7 +19816,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="672" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A672" s="7" t="s">
         <v>44</v>
       </c>
@@ -19827,7 +19833,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" s="7" t="s">
         <v>56</v>
       </c>
@@ -19847,7 +19853,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" s="7" t="s">
         <v>56</v>
       </c>
@@ -19870,7 +19876,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A675" s="7" t="s">
         <v>52</v>
       </c>
@@ -19887,7 +19893,7 @@
         <v>45011</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A676" s="7" t="s">
         <v>52</v>
       </c>
@@ -19907,7 +19913,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A677" s="7" t="s">
         <v>44</v>
       </c>
@@ -19924,7 +19930,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A678" s="7" t="s">
         <v>56</v>
       </c>
@@ -19941,7 +19947,7 @@
         <v>45022</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" s="7" t="s">
         <v>44</v>
       </c>
@@ -19958,7 +19964,7 @@
         <v>45023</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" s="7" t="s">
         <v>56</v>
       </c>
@@ -19978,7 +19984,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" s="7" t="s">
         <v>56</v>
       </c>
@@ -20001,7 +20007,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" s="7" t="s">
         <v>52</v>
       </c>
@@ -20018,7 +20024,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" s="7" t="s">
         <v>52</v>
       </c>
@@ -20035,7 +20041,7 @@
         <v>45031</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" s="7" t="s">
         <v>52</v>
       </c>
@@ -20052,7 +20058,7 @@
         <v>45032</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" s="7" t="s">
         <v>56</v>
       </c>
@@ -20069,7 +20075,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" s="7" t="s">
         <v>56</v>
       </c>
@@ -20089,7 +20095,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" s="7" t="s">
         <v>56</v>
       </c>
@@ -20109,7 +20115,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A688" s="7" t="s">
         <v>52</v>
       </c>
@@ -20129,7 +20135,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="689" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A689" s="7" t="s">
         <v>56</v>
       </c>
@@ -20149,7 +20155,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="690" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A690" s="7" t="s">
         <v>71</v>
       </c>
@@ -20175,7 +20181,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="691" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A691" s="7" t="s">
         <v>52</v>
       </c>
@@ -20195,7 +20201,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="692" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A692" s="7" t="s">
         <v>52</v>
       </c>
@@ -20215,7 +20221,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="693" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A693" s="7" t="s">
         <v>52</v>
       </c>
@@ -20232,7 +20238,7 @@
         <v>45059</v>
       </c>
     </row>
-    <row r="694" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A694" s="7" t="s">
         <v>52</v>
       </c>
@@ -20249,7 +20255,7 @@
         <v>45060</v>
       </c>
     </row>
-    <row r="695" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A695" s="7" t="s">
         <v>56</v>
       </c>
@@ -20266,7 +20272,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="696" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A696" s="7" t="s">
         <v>56</v>
       </c>
@@ -20286,7 +20292,7 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="697" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A697" s="7" t="s">
         <v>56</v>
       </c>
@@ -20306,7 +20312,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="698" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A698" s="7" t="s">
         <v>56</v>
       </c>
@@ -20323,7 +20329,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="699" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A699" s="7" t="s">
         <v>768</v>
       </c>
@@ -20340,7 +20346,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="700" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A700" s="7" t="s">
         <v>56</v>
       </c>
@@ -20360,7 +20366,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="701" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A701" s="7" t="s">
         <v>56</v>
       </c>
@@ -20383,7 +20389,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="702" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A702" s="7" t="s">
         <v>56</v>
       </c>
@@ -20403,7 +20409,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="703" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A703" s="7" t="s">
         <v>56</v>
       </c>
@@ -20423,7 +20429,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="704" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A704" s="7" t="s">
         <v>56</v>
       </c>
@@ -20443,7 +20449,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="705" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A705" s="7" t="s">
         <v>56</v>
       </c>
@@ -20466,7 +20472,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="706" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A706" s="7" t="s">
         <v>56</v>
       </c>
@@ -20486,7 +20492,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="707" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A707" s="7" t="s">
         <v>52</v>
       </c>
@@ -20506,7 +20512,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="708" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A708" s="7" t="s">
         <v>56</v>
       </c>
@@ -20526,7 +20532,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="709" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
         <v>225</v>
       </c>
@@ -20548,7 +20554,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="710" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A710" s="7" t="s">
         <v>56</v>
       </c>
@@ -20568,7 +20574,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="711" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A711" s="7" t="s">
         <v>56</v>
       </c>
@@ -20588,7 +20594,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="712" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A712" s="7" t="s">
         <v>768</v>
       </c>
@@ -20611,7 +20617,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="713" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A713" s="7" t="s">
         <v>768</v>
       </c>
@@ -20634,7 +20640,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="714" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
         <v>56</v>
       </c>
@@ -20653,7 +20659,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="715" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A715" s="7" t="s">
         <v>56</v>
       </c>
@@ -20673,7 +20679,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="716" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A716" s="7" t="s">
         <v>56</v>
       </c>
@@ -20696,7 +20702,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="717" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A717" s="7" t="s">
         <v>52</v>
       </c>
@@ -20716,7 +20722,7 @@
         <v>45100</v>
       </c>
     </row>
-    <row r="718" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A718" s="7" t="s">
         <v>44</v>
       </c>
@@ -20736,7 +20742,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="719" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A719" s="7" t="s">
         <v>768</v>
       </c>
@@ -20753,7 +20759,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="720" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A720" s="7" t="s">
         <v>56</v>
       </c>
@@ -20770,7 +20776,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="721" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A721" s="7" t="s">
         <v>56</v>
       </c>
@@ -20787,7 +20793,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="722" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A722" s="7" t="s">
         <v>56</v>
       </c>
@@ -20804,7 +20810,7 @@
         <v>45106</v>
       </c>
     </row>
-    <row r="723" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A723" s="7" t="s">
         <v>56</v>
       </c>
@@ -20827,7 +20833,7 @@
         <v>45110</v>
       </c>
     </row>
-    <row r="724" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A724" s="7" t="s">
         <v>44</v>
       </c>
@@ -20853,7 +20859,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="725" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A725" s="7" t="s">
         <v>52</v>
       </c>
@@ -20873,7 +20879,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="726" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A726" s="7" t="s">
         <v>56</v>
       </c>
@@ -20893,7 +20899,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="727" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A727" s="7" t="s">
         <v>768</v>
       </c>
@@ -20910,7 +20916,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="728" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A728" s="7" t="s">
         <v>56</v>
       </c>
@@ -20927,7 +20933,7 @@
         <v>45119</v>
       </c>
     </row>
-    <row r="729" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A729" s="7" t="s">
         <v>52</v>
       </c>
@@ -20947,7 +20953,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="730" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A730" s="7" t="s">
         <v>44</v>
       </c>
@@ -20976,7 +20982,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="731" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A731" s="7" t="s">
         <v>44</v>
       </c>
@@ -21005,7 +21011,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="732" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A732" s="7" t="s">
         <v>52</v>
       </c>
@@ -21025,7 +21031,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="733" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A733" s="7" t="s">
         <v>52</v>
       </c>
@@ -21045,7 +21051,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="734" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A734" s="7" t="s">
         <v>56</v>
       </c>
@@ -21065,7 +21071,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="735" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A735" s="7" t="s">
         <v>56</v>
       </c>
@@ -21085,7 +21091,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="736" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A736" s="7" t="s">
         <v>56</v>
       </c>
@@ -21105,7 +21111,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A737" s="7" t="s">
         <v>56</v>
       </c>
@@ -21122,7 +21128,7 @@
         <v>45155</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A738" s="7" t="s">
         <v>56</v>
       </c>
@@ -21139,7 +21145,7 @@
         <v>45162</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" s="7" t="s">
         <v>56</v>
       </c>
@@ -21159,7 +21165,7 @@
         <v>45163</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" s="7" t="s">
         <v>52</v>
       </c>
@@ -21179,7 +21185,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A741" s="7" t="s">
         <v>52</v>
       </c>
@@ -21199,7 +21205,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" s="7" t="s">
         <v>52</v>
       </c>
@@ -21222,7 +21228,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A743" s="7" t="s">
         <v>56</v>
       </c>
@@ -21242,7 +21248,7 @@
         <v>45177</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" s="7" t="s">
         <v>56</v>
       </c>
@@ -21259,7 +21265,7 @@
         <v>45179</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" s="7" t="s">
         <v>52</v>
       </c>
@@ -21279,7 +21285,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A746" s="7" t="s">
         <v>52</v>
       </c>
@@ -21299,7 +21305,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A747" s="7" t="s">
         <v>56</v>
       </c>
@@ -21319,7 +21325,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A748" s="7" t="s">
         <v>56</v>
       </c>
@@ -21336,7 +21342,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A749" s="7" t="s">
         <v>56</v>
       </c>
@@ -21356,7 +21362,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A750" s="7" t="s">
         <v>44</v>
       </c>
@@ -21373,7 +21379,7 @@
         <v>45193</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A751" s="7" t="s">
         <v>56</v>
       </c>
@@ -21393,7 +21399,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A752" s="7" t="s">
         <v>56</v>
       </c>
@@ -21413,7 +21419,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="753" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A753" s="7" t="s">
         <v>56</v>
       </c>
@@ -21433,7 +21439,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="754" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A754" s="7" t="s">
         <v>56</v>
       </c>
@@ -21453,7 +21459,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="755" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A755" s="7" t="s">
         <v>56</v>
       </c>
@@ -21473,7 +21479,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="756" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A756" s="7" t="s">
         <v>56</v>
       </c>
@@ -21493,7 +21499,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="757" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A757" s="7" t="s">
         <v>56</v>
       </c>
@@ -21513,7 +21519,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="758" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A758" s="7" t="s">
         <v>56</v>
       </c>
@@ -21536,7 +21542,7 @@
       <c r="J758" s="4"/>
       <c r="K758" s="4"/>
     </row>
-    <row r="759" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A759" s="7" t="s">
         <v>56</v>
       </c>
@@ -21553,7 +21559,7 @@
         <v>45211</v>
       </c>
     </row>
-    <row r="760" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A760" s="7" t="s">
         <v>52</v>
       </c>
@@ -21573,7 +21579,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="761" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A761" s="7" t="s">
         <v>768</v>
       </c>
@@ -21590,7 +21596,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="762" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A762" s="7" t="s">
         <v>52</v>
       </c>
@@ -21610,7 +21616,7 @@
         <v>45225</v>
       </c>
     </row>
-    <row r="763" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A763" s="7" t="s">
         <v>52</v>
       </c>
@@ -21627,7 +21633,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="764" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A764" s="7" t="s">
         <v>52</v>
       </c>
@@ -21644,7 +21650,7 @@
         <v>45242</v>
       </c>
     </row>
-    <row r="765" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A765" s="7" t="s">
         <v>71</v>
       </c>
@@ -21676,7 +21682,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="766" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A766" s="7" t="s">
         <v>71</v>
       </c>
@@ -21705,7 +21711,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="767" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A767" s="7" t="s">
         <v>71</v>
       </c>
@@ -21731,7 +21737,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="768" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A768" s="7" t="s">
         <v>71</v>
       </c>
@@ -21760,7 +21766,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="769" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A769" s="7" t="s">
         <v>369</v>
       </c>
@@ -21786,7 +21792,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="770" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A770" s="7" t="s">
         <v>52</v>
       </c>
@@ -21803,7 +21809,7 @@
         <v>45273</v>
       </c>
     </row>
-    <row r="771" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A771" s="7" t="s">
         <v>71</v>
       </c>
@@ -21835,7 +21841,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="772" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A772" s="7" t="s">
         <v>369</v>
       </c>
@@ -21858,7 +21864,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="773" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A773" s="7" t="s">
         <v>52</v>
       </c>
@@ -21878,7 +21884,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="774" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A774" s="7" t="s">
         <v>369</v>
       </c>
@@ -21907,7 +21913,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="775" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A775" s="7" t="s">
         <v>369</v>
       </c>
@@ -21930,7 +21936,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="776" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A776" s="7" t="s">
         <v>71</v>
       </c>
@@ -21959,7 +21965,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="777" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A777" s="7" t="s">
         <v>369</v>
       </c>
@@ -21976,7 +21982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A778" s="7" t="s">
         <v>71</v>
       </c>
@@ -22002,7 +22008,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="779" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A779" s="7" t="s">
         <v>71</v>
       </c>
@@ -22028,7 +22034,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="780" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A780" s="7" t="s">
         <v>44</v>
       </c>
@@ -22054,7 +22060,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="781" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A781" s="7" t="s">
         <v>71</v>
       </c>
@@ -22083,7 +22089,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="782" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A782" s="7" t="s">
         <v>369</v>
       </c>
@@ -22112,7 +22118,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="783" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A783" s="7" t="s">
         <v>369</v>
       </c>
@@ -22135,7 +22141,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="784" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A784" s="7" t="s">
         <v>52</v>
       </c>
@@ -22155,7 +22161,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="785" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A785" s="7" t="s">
         <v>52</v>
       </c>
@@ -22175,7 +22181,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="786" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A786" s="7" t="s">
         <v>71</v>
       </c>
@@ -22204,7 +22210,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="787" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A787" s="7" t="s">
         <v>369</v>
       </c>
@@ -22224,7 +22230,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="788" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A788" s="7" t="s">
         <v>71</v>
       </c>
@@ -22256,7 +22262,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="789" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A789" s="7" t="s">
         <v>52</v>
       </c>
@@ -22276,7 +22282,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="790" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A790" s="7" t="s">
         <v>52</v>
       </c>
@@ -22296,7 +22302,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="791" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A791" s="7" t="s">
         <v>71</v>
       </c>
@@ -22325,7 +22331,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="792" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A792" s="7" t="s">
         <v>71</v>
       </c>
@@ -22357,7 +22363,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="793" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A793" s="7" t="s">
         <v>71</v>
       </c>
@@ -22386,7 +22392,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="794" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A794" s="7" t="s">
         <v>52</v>
       </c>
@@ -22406,7 +22412,7 @@
         <v>45309</v>
       </c>
     </row>
-    <row r="795" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A795" s="7" t="s">
         <v>369</v>
       </c>
@@ -22426,7 +22432,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="796" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A796" s="7" t="s">
         <v>52</v>
       </c>
@@ -22446,7 +22452,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="797" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A797" s="7" t="s">
         <v>369</v>
       </c>
@@ -22463,7 +22469,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="798" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A798" s="7" t="s">
         <v>71</v>
       </c>
@@ -22495,7 +22501,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="799" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A799" s="7" t="s">
         <v>71</v>
       </c>
@@ -22521,7 +22527,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="800" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A800" s="7" t="s">
         <v>71</v>
       </c>
@@ -22550,7 +22556,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="801" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A801" s="7" t="s">
         <v>71</v>
       </c>
@@ -22579,7 +22585,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="802" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A802" s="7" t="s">
         <v>44</v>
       </c>
@@ -22596,7 +22602,7 @@
         <v>45324</v>
       </c>
     </row>
-    <row r="803" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A803" s="7" t="s">
         <v>71</v>
       </c>
@@ -22628,7 +22634,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="804" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A804" s="7" t="s">
         <v>71</v>
       </c>
@@ -22663,7 +22669,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="805" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A805" s="7" t="s">
         <v>56</v>
       </c>
@@ -22683,7 +22689,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="806" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A806" s="7" t="s">
         <v>56</v>
       </c>
@@ -22700,7 +22706,7 @@
         <v>45329</v>
       </c>
     </row>
-    <row r="807" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A807" s="7" t="s">
         <v>369</v>
       </c>
@@ -22714,7 +22720,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="808" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A808" s="7" t="s">
         <v>369</v>
       </c>
@@ -22725,7 +22731,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="809" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A809" s="7" t="s">
         <v>52</v>
       </c>
@@ -22745,7 +22751,7 @@
         <v>45337</v>
       </c>
     </row>
-    <row r="810" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A810" s="7" t="s">
         <v>56</v>
       </c>
@@ -22765,7 +22771,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="811" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A811" s="7" t="s">
         <v>71</v>
       </c>
@@ -22794,7 +22800,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="812" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A812" s="7" t="s">
         <v>369</v>
       </c>
@@ -22814,7 +22820,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="813" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A813" s="7" t="s">
         <v>369</v>
       </c>
@@ -22831,7 +22837,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="814" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A814" s="7" t="s">
         <v>71</v>
       </c>
@@ -22857,7 +22863,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="815" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A815" s="7" t="s">
         <v>71</v>
       </c>
@@ -22880,7 +22886,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="816" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A816" s="7" t="s">
         <v>369</v>
       </c>
@@ -22900,7 +22906,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="817" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A817" s="7" t="s">
         <v>44</v>
       </c>
@@ -22920,7 +22926,7 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="818" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A818" s="7" t="s">
         <v>52</v>
       </c>
@@ -22940,7 +22946,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="819" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A819" s="7" t="s">
         <v>71</v>
       </c>
@@ -22969,7 +22975,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="820" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A820" s="7" t="s">
         <v>369</v>
       </c>
@@ -22992,7 +22998,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="821" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A821" s="7" t="s">
         <v>71</v>
       </c>
@@ -23021,7 +23027,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="822" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A822" s="7" t="s">
         <v>52</v>
       </c>
@@ -23041,7 +23047,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="823" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A823" s="7" t="s">
         <v>56</v>
       </c>
@@ -23061,7 +23067,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="824" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A824" s="7" t="s">
         <v>56</v>
       </c>
@@ -23078,7 +23084,7 @@
         <v>45365</v>
       </c>
     </row>
-    <row r="825" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A825" s="7" t="s">
         <v>56</v>
       </c>
@@ -23098,7 +23104,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="826" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A826" s="7" t="s">
         <v>52</v>
       </c>
@@ -23118,7 +23124,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="827" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
         <v>56</v>
       </c>
@@ -23140,7 +23146,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="828" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
         <v>56</v>
       </c>
@@ -23164,7 +23170,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="829" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A829" s="7" t="s">
         <v>52</v>
       </c>
@@ -23184,7 +23190,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="830" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>56</v>
       </c>
@@ -23206,7 +23212,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="831" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
         <v>56</v>
       </c>
@@ -23230,7 +23236,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="832" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A832" s="7" t="s">
         <v>883</v>
       </c>
@@ -23247,7 +23253,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="833" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A833" s="7" t="s">
         <v>44</v>
       </c>
@@ -23264,7 +23270,7 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="834" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A834" s="7" t="s">
         <v>52</v>
       </c>
@@ -23284,7 +23290,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="835" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A835" s="7" t="s">
         <v>56</v>
       </c>
@@ -23304,7 +23310,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="836" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A836" s="7" t="s">
         <v>56</v>
       </c>
@@ -23321,7 +23327,7 @@
         <v>45383</v>
       </c>
     </row>
-    <row r="837" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A837" s="7" t="s">
         <v>56</v>
       </c>
@@ -23341,7 +23347,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="838" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A838" s="7" t="s">
         <v>56</v>
       </c>
@@ -23358,7 +23364,7 @@
         <v>45387</v>
       </c>
     </row>
-    <row r="839" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A839" s="7" t="s">
         <v>56</v>
       </c>
@@ -23380,7 +23386,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="840" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A840" s="7" t="s">
         <v>56</v>
       </c>
@@ -23404,7 +23410,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="841" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A841" s="7" t="s">
         <v>56</v>
       </c>
@@ -23424,7 +23430,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="842" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A842" s="7" t="s">
         <v>56</v>
       </c>
@@ -23441,7 +23447,7 @@
         <v>45408</v>
       </c>
     </row>
-    <row r="843" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A843" s="7" t="s">
         <v>56</v>
       </c>
@@ -23458,7 +23464,7 @@
         <v>45409</v>
       </c>
     </row>
-    <row r="844" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A844" s="7" t="s">
         <v>56</v>
       </c>
@@ -23478,7 +23484,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="845" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A845" s="7" t="s">
         <v>56</v>
       </c>
@@ -23498,7 +23504,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="846" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
         <v>56</v>
       </c>
@@ -23520,7 +23526,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="847" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
         <v>56</v>
       </c>
@@ -23544,7 +23550,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="848" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A848" s="7" t="s">
         <v>71</v>
       </c>
@@ -23579,7 +23585,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="849" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A849" s="7" t="s">
         <v>71</v>
       </c>
@@ -23608,7 +23614,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="850" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A850" s="7" t="s">
         <v>71</v>
       </c>
@@ -23634,7 +23640,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="851" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A851" s="7" t="s">
         <v>71</v>
       </c>
@@ -23663,7 +23669,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="852" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A852" s="7" t="s">
         <v>56</v>
       </c>
@@ -23683,7 +23689,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="853" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A853" s="7" t="s">
         <v>52</v>
       </c>
@@ -23703,7 +23709,7 @@
         <v>45428</v>
       </c>
     </row>
-    <row r="854" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A854" s="7" t="s">
         <v>56</v>
       </c>
@@ -23720,7 +23726,7 @@
         <v>45429</v>
       </c>
     </row>
-    <row r="855" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A855" s="7" t="s">
         <v>56</v>
       </c>
@@ -23743,7 +23749,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="856" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A856" s="7" t="s">
         <v>56</v>
       </c>
@@ -23763,7 +23769,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="857" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A857" s="7" t="s">
         <v>56</v>
       </c>
@@ -23783,7 +23789,7 @@
         <v>45431</v>
       </c>
     </row>
-    <row r="858" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A858" s="7" t="s">
         <v>56</v>
       </c>
@@ -23806,7 +23812,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="859" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A859" s="7" t="s">
         <v>52</v>
       </c>
@@ -23826,7 +23832,7 @@
         <v>45436</v>
       </c>
     </row>
-    <row r="860" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A860" s="7" t="s">
         <v>56</v>
       </c>
@@ -23846,7 +23852,7 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="861" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A861" s="7" t="s">
         <v>52</v>
       </c>
@@ -23866,7 +23872,7 @@
         <v>45440</v>
       </c>
     </row>
-    <row r="862" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A862" s="7" t="s">
         <v>56</v>
       </c>
@@ -23886,7 +23892,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="863" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A863" s="7" t="s">
         <v>56</v>
       </c>
@@ -23906,7 +23912,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="864" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A864" s="7" t="s">
         <v>56</v>
       </c>
@@ -23926,7 +23932,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="865" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A865" s="7" t="s">
         <v>56</v>
       </c>
@@ -23946,7 +23952,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="866" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A866" s="7" t="s">
         <v>44</v>
       </c>
@@ -23972,7 +23978,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="867" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A867" s="7" t="s">
         <v>52</v>
       </c>
@@ -23992,7 +23998,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="868" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A868" s="7" t="s">
         <v>56</v>
       </c>
@@ -24009,7 +24015,7 @@
         <v>45449</v>
       </c>
     </row>
-    <row r="869" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A869" s="7" t="s">
         <v>56</v>
       </c>
@@ -24031,7 +24037,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="870" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A870" s="7" t="s">
         <v>56</v>
       </c>
@@ -24054,7 +24060,7 @@
         <v>45452</v>
       </c>
     </row>
-    <row r="871" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A871" s="7" t="s">
         <v>56</v>
       </c>
@@ -24071,7 +24077,7 @@
         <v>45455</v>
       </c>
     </row>
-    <row r="872" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A872" s="7" t="s">
         <v>52</v>
       </c>
@@ -24091,7 +24097,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="873" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A873" s="7" t="s">
         <v>56</v>
       </c>
@@ -24108,7 +24114,7 @@
         <v>45459</v>
       </c>
     </row>
-    <row r="874" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A874" s="7" t="s">
         <v>56</v>
       </c>
@@ -24128,7 +24134,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="875" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A875" s="7" t="s">
         <v>56</v>
       </c>
@@ -24148,7 +24154,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="876" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A876" s="7" t="s">
         <v>56</v>
       </c>
@@ -24165,7 +24171,7 @@
         <v>45466</v>
       </c>
     </row>
-    <row r="877" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A877" s="7" t="s">
         <v>52</v>
       </c>
@@ -24182,7 +24188,7 @@
         <v>45471</v>
       </c>
     </row>
-    <row r="878" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A878" s="7" t="s">
         <v>52</v>
       </c>
@@ -24205,7 +24211,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="879" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A879" s="7" t="s">
         <v>52</v>
       </c>
@@ -24225,7 +24231,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="880" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A880" s="7" t="s">
         <v>56</v>
       </c>
@@ -24242,7 +24248,7 @@
         <v>45477</v>
       </c>
     </row>
-    <row r="881" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A881" s="7" t="s">
         <v>71</v>
       </c>
@@ -24268,7 +24274,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="882" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A882" s="7" t="s">
         <v>44</v>
       </c>
@@ -24288,7 +24294,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="883" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A883" s="7" t="s">
         <v>768</v>
       </c>
@@ -24308,7 +24314,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="884" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A884" s="7" t="s">
         <v>44</v>
       </c>
@@ -24325,7 +24331,7 @@
         <v>45482</v>
       </c>
     </row>
-    <row r="885" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A885" s="7" t="s">
         <v>44</v>
       </c>
@@ -24342,7 +24348,7 @@
         <v>45484</v>
       </c>
     </row>
-    <row r="886" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A886" s="7" t="s">
         <v>941</v>
       </c>
@@ -24359,7 +24365,7 @@
         <v>45487</v>
       </c>
     </row>
-    <row r="887" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A887" s="7" t="s">
         <v>44</v>
       </c>
@@ -24382,7 +24388,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="888" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A888" s="7" t="s">
         <v>52</v>
       </c>
@@ -24399,7 +24405,7 @@
         <v>45492</v>
       </c>
     </row>
-    <row r="889" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A889" s="7" t="s">
         <v>44</v>
       </c>
@@ -24422,7 +24428,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="890" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A890" s="7" t="s">
         <v>52</v>
       </c>
@@ -24451,7 +24457,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="891" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A891" s="7" t="s">
         <v>52</v>
       </c>
@@ -24483,7 +24489,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="892" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A892" s="7" t="s">
         <v>44</v>
       </c>
@@ -24512,7 +24518,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="893" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A893" s="7" t="s">
         <v>56</v>
       </c>
@@ -24529,7 +24535,7 @@
         <v>45499</v>
       </c>
     </row>
-    <row r="894" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A894" s="7" t="s">
         <v>56</v>
       </c>
@@ -24549,7 +24555,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="895" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A895" s="7" t="s">
         <v>44</v>
       </c>
@@ -24569,7 +24575,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="896" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A896" s="7" t="s">
         <v>941</v>
       </c>
@@ -24598,7 +24604,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="897" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A897" s="7" t="s">
         <v>56</v>
       </c>
@@ -24618,7 +24624,7 @@
         <v>45505</v>
       </c>
     </row>
-    <row r="898" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A898" s="7" t="s">
         <v>52</v>
       </c>
@@ -24650,7 +24656,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="899" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A899" s="7" t="s">
         <v>44</v>
       </c>
@@ -24673,7 +24679,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="900" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A900" s="7" t="s">
         <v>56</v>
       </c>
@@ -24696,7 +24702,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="901" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A901" s="7" t="s">
         <v>56</v>
       </c>
@@ -24716,7 +24722,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="902" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A902" s="7" t="s">
         <v>56</v>
       </c>
@@ -24733,7 +24739,7 @@
         <v>45509</v>
       </c>
     </row>
-    <row r="903" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A903" s="7" t="s">
         <v>44</v>
       </c>
@@ -24756,7 +24762,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="904" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A904" s="7" t="s">
         <v>44</v>
       </c>
@@ -24779,7 +24785,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="905" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A905" s="7" t="s">
         <v>44</v>
       </c>
@@ -24805,7 +24811,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="906" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A906" s="7" t="s">
         <v>56</v>
       </c>
@@ -24825,7 +24831,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="907" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A907" s="7" t="s">
         <v>44</v>
       </c>
@@ -24845,7 +24851,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="908" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A908" s="7" t="s">
         <v>52</v>
       </c>
@@ -24880,7 +24886,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="909" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A909" s="7" t="s">
         <v>52</v>
       </c>
@@ -24909,7 +24915,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="910" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A910" s="7" t="s">
         <v>52</v>
       </c>
@@ -24938,7 +24944,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="911" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A911" s="7" t="s">
         <v>225</v>
       </c>
@@ -24958,7 +24964,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="912" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A912" s="7" t="s">
         <v>44</v>
       </c>
@@ -24978,7 +24984,7 @@
         <v>45528</v>
       </c>
     </row>
-    <row r="913" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A913" s="7" t="s">
         <v>52</v>
       </c>
@@ -24998,7 +25004,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="914" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A914" s="7" t="s">
         <v>52</v>
       </c>
@@ -25024,7 +25030,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="915" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A915" s="7" t="s">
         <v>56</v>
       </c>
@@ -25044,7 +25050,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="916" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A916" s="7" t="s">
         <v>52</v>
       </c>
@@ -25064,7 +25070,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="917" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A917" s="7" t="s">
         <v>52</v>
       </c>
@@ -25090,7 +25096,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="918" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A918" s="7" t="s">
         <v>44</v>
       </c>
@@ -25119,7 +25125,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="919" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A919" s="7" t="s">
         <v>56</v>
       </c>
@@ -25139,7 +25145,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="920" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A920" s="7" t="s">
         <v>56</v>
       </c>
@@ -25159,7 +25165,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="921" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A921" s="7" t="s">
         <v>56</v>
       </c>
@@ -25179,7 +25185,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="922" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A922" s="7" t="s">
         <v>56</v>
       </c>
@@ -25199,7 +25205,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="923" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A923" s="7" t="s">
         <v>52</v>
       </c>
@@ -25231,7 +25237,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="924" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A924" s="7" t="s">
         <v>56</v>
       </c>
@@ -25248,7 +25254,7 @@
         <v>45541</v>
       </c>
     </row>
-    <row r="925" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A925" s="7" t="s">
         <v>56</v>
       </c>
@@ -25270,7 +25276,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="926" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A926" s="7" t="s">
         <v>56</v>
       </c>
@@ -25292,7 +25298,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="927" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A927" s="7" t="s">
         <v>56</v>
       </c>
@@ -25314,7 +25320,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="928" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A928" s="7" t="s">
         <v>56</v>
       </c>
@@ -25336,7 +25342,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="929" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A929" s="7" t="s">
         <v>52</v>
       </c>
@@ -25368,7 +25374,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="930" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A930" s="7" t="s">
         <v>52</v>
       </c>
@@ -25400,7 +25406,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="931" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A931" s="7" t="s">
         <v>52</v>
       </c>
@@ -25420,7 +25426,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="932" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A932" s="7" t="s">
         <v>52</v>
       </c>
@@ -25440,7 +25446,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="933" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A933" s="7" t="s">
         <v>52</v>
       </c>
@@ -25472,7 +25478,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="934" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A934" s="7" t="s">
         <v>56</v>
       </c>
@@ -25492,7 +25498,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="935" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A935" s="7" t="s">
         <v>56</v>
       </c>
@@ -25509,7 +25515,7 @@
         <v>45553</v>
       </c>
     </row>
-    <row r="936" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A936" s="7" t="s">
         <v>52</v>
       </c>
@@ -25544,7 +25550,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="937" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A937" s="7" t="s">
         <v>52</v>
       </c>
@@ -25570,7 +25576,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="938" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A938" s="7" t="s">
         <v>52</v>
       </c>
@@ -25608,7 +25614,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="939" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A939" s="7" t="s">
         <v>56</v>
       </c>
@@ -25631,7 +25637,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="940" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A940" s="7" t="s">
         <v>52</v>
       </c>
@@ -25651,7 +25657,7 @@
         <v>45565</v>
       </c>
     </row>
-    <row r="941" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A941" s="7" t="s">
         <v>52</v>
       </c>
@@ -25683,7 +25689,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="942" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A942" s="7" t="s">
         <v>52</v>
       </c>
@@ -25718,7 +25724,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="943" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A943" s="7" t="s">
         <v>52</v>
       </c>
@@ -25741,7 +25747,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="944" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A944" s="7" t="s">
         <v>52</v>
       </c>
@@ -25776,7 +25782,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="945" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A945" s="7" t="s">
         <v>52</v>
       </c>
@@ -25805,7 +25811,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="946" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A946" s="7" t="s">
         <v>44</v>
       </c>
@@ -25825,7 +25831,7 @@
         <v>45584</v>
       </c>
     </row>
-    <row r="947" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A947" s="7" t="s">
         <v>56</v>
       </c>
@@ -25842,7 +25848,7 @@
         <v>45585</v>
       </c>
     </row>
-    <row r="948" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A948" s="7" t="s">
         <v>56</v>
       </c>
@@ -25862,7 +25868,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="949" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A949" s="7" t="s">
         <v>56</v>
       </c>
@@ -25882,7 +25888,7 @@
         <v>45586</v>
       </c>
     </row>
-    <row r="950" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A950" s="7" t="s">
         <v>52</v>
       </c>
@@ -25914,7 +25920,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="951" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A951" s="7" t="s">
         <v>52</v>
       </c>
@@ -25946,7 +25952,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="952" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A952" s="7" t="s">
         <v>56</v>
       </c>
@@ -25966,7 +25972,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="953" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A953" s="7" t="s">
         <v>56</v>
       </c>
@@ -25986,7 +25992,7 @@
         <v>45590</v>
       </c>
     </row>
-    <row r="954" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A954" s="7" t="s">
         <v>52</v>
       </c>
@@ -26018,7 +26024,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="955" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A955" s="7" t="s">
         <v>56</v>
       </c>
@@ -26038,7 +26044,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="956" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A956" s="7" t="s">
         <v>56</v>
       </c>
@@ -26061,7 +26067,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="957" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A957" s="7" t="s">
         <v>56</v>
       </c>
@@ -26081,7 +26087,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="958" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A958" s="7" t="s">
         <v>56</v>
       </c>
@@ -26101,7 +26107,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="959" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A959" s="7" t="s">
         <v>52</v>
       </c>
@@ -26127,7 +26133,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="960" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A960" s="7" t="s">
         <v>52</v>
       </c>
@@ -26162,7 +26168,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="961" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A961" s="7" t="s">
         <v>52</v>
       </c>
@@ -26191,7 +26197,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="962" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A962" s="7" t="s">
         <v>52</v>
       </c>
@@ -26226,7 +26232,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="963" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A963" s="7" t="s">
         <v>56</v>
       </c>
@@ -26246,7 +26252,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="964" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A964" s="7" t="s">
         <v>56</v>
       </c>
@@ -26269,7 +26275,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="965" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A965" s="7" t="s">
         <v>56</v>
       </c>
@@ -26295,7 +26301,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="966" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A966" s="7" t="s">
         <v>52</v>
       </c>
@@ -26327,7 +26333,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="967" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A967" s="7" t="s">
         <v>44</v>
       </c>
@@ -26347,7 +26353,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="968" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A968" s="7" t="s">
         <v>52</v>
       </c>
@@ -26382,7 +26388,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="969" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A969" s="7" t="s">
         <v>52</v>
       </c>
@@ -26414,7 +26420,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="970" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A970" s="7" t="s">
         <v>52</v>
       </c>
@@ -26446,7 +26452,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="971" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A971" s="7" t="s">
         <v>71</v>
       </c>
@@ -26472,7 +26478,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="972" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A972" s="7" t="s">
         <v>52</v>
       </c>
@@ -26501,7 +26507,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="973" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A973" s="7" t="s">
         <v>52</v>
       </c>
@@ -26533,7 +26539,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="974" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A974" s="7" t="s">
         <v>52</v>
       </c>
@@ -26568,7 +26574,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="975" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A975" s="7" t="s">
         <v>52</v>
       </c>
@@ -26597,7 +26603,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="976" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A976" s="7" t="s">
         <v>369</v>
       </c>
@@ -26617,7 +26623,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="977" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A977" s="7" t="s">
         <v>52</v>
       </c>
@@ -26631,7 +26637,7 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="978" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A978" s="7" t="s">
         <v>52</v>
       </c>
@@ -26645,7 +26651,7 @@
         <v>45630</v>
       </c>
     </row>
-    <row r="979" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A979" s="7" t="s">
         <v>52</v>
       </c>
@@ -26680,7 +26686,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="980" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A980" s="7" t="s">
         <v>369</v>
       </c>
@@ -26703,7 +26709,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="981" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A981" s="7" t="s">
         <v>52</v>
       </c>
@@ -26735,7 +26741,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="982" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A982" s="7" t="s">
         <v>71</v>
       </c>
@@ -26764,7 +26770,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="983" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A983" s="7" t="s">
         <v>369</v>
       </c>
@@ -26784,7 +26790,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="984" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A984" s="7" t="s">
         <v>71</v>
       </c>
@@ -26810,7 +26816,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="985" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A985" s="7" t="s">
         <v>52</v>
       </c>
@@ -26842,7 +26848,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="986" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A986" s="7" t="s">
         <v>369</v>
       </c>
@@ -26874,7 +26880,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="987" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A987" s="7" t="s">
         <v>52</v>
       </c>
@@ -26906,7 +26912,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="988" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A988" s="7" t="s">
         <v>369</v>
       </c>
@@ -26929,7 +26935,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="989" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A989" s="7" t="s">
         <v>369</v>
       </c>
@@ -26952,7 +26958,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="990" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A990" s="7" t="s">
         <v>369</v>
       </c>
@@ -26975,7 +26981,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="991" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A991" s="7" t="s">
         <v>52</v>
       </c>
@@ -27007,7 +27013,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="992" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A992" s="7" t="s">
         <v>71</v>
       </c>
@@ -27033,7 +27039,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="993" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A993" s="7" t="s">
         <v>71</v>
       </c>
@@ -27059,7 +27065,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="994" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A994" s="7" t="s">
         <v>71</v>
       </c>
@@ -27085,7 +27091,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="995" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A995" s="7" t="s">
         <v>71</v>
       </c>
@@ -27117,7 +27123,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="996" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A996" s="7" t="s">
         <v>369</v>
       </c>
@@ -27146,7 +27152,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="997" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A997" s="7" t="s">
         <v>71</v>
       </c>
@@ -27175,7 +27181,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="998" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A998" s="7" t="s">
         <v>71</v>
       </c>
@@ -27201,7 +27207,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="999" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A999" s="7" t="s">
         <v>71</v>
       </c>
@@ -27227,7 +27233,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1000" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1000" s="7" t="s">
         <v>369</v>
       </c>
@@ -27247,7 +27253,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1001" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1001" s="7" t="s">
         <v>71</v>
       </c>
@@ -27273,7 +27279,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="1002" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1002" s="7" t="s">
         <v>52</v>
       </c>
@@ -27293,7 +27299,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="1003" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1003" s="7" t="s">
         <v>52</v>
       </c>
@@ -27319,7 +27325,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="1004" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1004" s="7" t="s">
         <v>71</v>
       </c>
@@ -27351,7 +27357,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="1005" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1005" s="7" t="s">
         <v>71</v>
       </c>
@@ -27380,7 +27386,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1006" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1006" s="7" t="s">
         <v>71</v>
       </c>
@@ -27409,7 +27415,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1007" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1007" s="7" t="s">
         <v>369</v>
       </c>
@@ -27435,7 +27441,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1008" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1008" s="7" t="s">
         <v>369</v>
       </c>
@@ -27455,7 +27461,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="1009" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1009" s="7" t="s">
         <v>1089</v>
       </c>
@@ -27484,7 +27490,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="1010" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1010" s="7" t="s">
         <v>1089</v>
       </c>
@@ -27510,7 +27516,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="1011" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1011" s="7" t="s">
         <v>71</v>
       </c>
@@ -27533,7 +27539,36 @@
         <v>822</v>
       </c>
       <c r="M1011" s="7" t="s">
-        <v>674</v>
+        <v>860</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1012" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1012" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1012" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1012" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1012" s="1">
+        <v>45682</v>
+      </c>
+      <c r="H1012" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L1012" s="7" t="s">
+        <v>822</v>
+      </c>
+      <c r="M1012" s="7" t="s">
+        <v>860</v>
+      </c>
+      <c r="V1012" s="9" t="s">
+        <v>1094</v>
       </c>
     </row>
   </sheetData>

--- a/data/touren.xlsx
+++ b/data/touren.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\90_github_repos\sport\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4163D3-F19F-497F-8B33-CBBD18B6CA0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01523D4-5854-442E-AE79-4A969A30BA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="772" xr2:uid="{8EFC6F8A-1858-4E8D-AE4F-2D7EE50AAC04}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5692" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5699" uniqueCount="1096">
   <si>
     <t>Niesen Plattform</t>
   </si>
@@ -3308,6 +3308,9 @@
   </si>
   <si>
     <t>Unterwegs 3x Ski ab wegen Stoggle...</t>
+  </si>
+  <si>
+    <t>01:40:15.0</t>
   </si>
 </sst>
 </file>
@@ -3835,41 +3838,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D437FB2D-34B2-4A5D-9E9C-C2A0B074F473}">
-  <dimension ref="A1:V1012"/>
+  <dimension ref="A1:V1013"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1001" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1031" sqref="F1031"/>
+      <selection pane="bottomLeft" activeCell="M1014" sqref="M1014"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="204" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="138.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="138.26953125" style="9" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="204" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
@@ -3937,7 +3940,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>52</v>
       </c>
@@ -3965,7 +3968,7 @@
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>44</v>
       </c>
@@ -3985,7 +3988,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>71</v>
       </c>
@@ -3999,7 +4002,7 @@
         <v>37980</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
@@ -4016,7 +4019,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>71</v>
       </c>
@@ -4033,7 +4036,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>71</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>71</v>
       </c>
@@ -4073,7 +4076,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>52</v>
       </c>
@@ -4101,7 +4104,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
@@ -4121,7 +4124,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>71</v>
       </c>
@@ -4144,7 +4147,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
@@ -4161,7 +4164,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -4193,7 +4196,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>44</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -4258,7 +4261,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -4284,7 +4287,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -4330,7 +4333,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -4352,7 +4355,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -4396,7 +4399,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -4422,7 +4425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,7 +4447,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
@@ -4467,7 +4470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>44</v>
       </c>
@@ -4490,7 +4493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>71</v>
       </c>
@@ -4510,7 +4513,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>71</v>
       </c>
@@ -4541,7 +4544,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>71</v>
       </c>
@@ -4558,7 +4561,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
@@ -4587,7 +4590,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>71</v>
       </c>
@@ -4607,7 +4610,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>71</v>
       </c>
@@ -4627,7 +4630,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>71</v>
       </c>
@@ -4659,7 +4662,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -4689,7 +4692,7 @@
       <c r="O34" s="5"/>
       <c r="P34" s="5"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>44</v>
       </c>
@@ -4712,7 +4715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -4740,7 +4743,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
@@ -4768,7 +4771,7 @@
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>44</v>
       </c>
@@ -4797,7 +4800,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
@@ -4848,7 +4851,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -4876,7 +4879,7 @@
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>44</v>
       </c>
@@ -4904,7 +4907,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -4934,7 +4937,7 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>56</v>
       </c>
@@ -4982,7 +4985,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -5004,7 +5007,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -5034,7 +5037,7 @@
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>56</v>
       </c>
@@ -5067,7 +5070,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>52</v>
       </c>
@@ -5095,7 +5098,7 @@
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>56</v>
       </c>
@@ -5128,7 +5131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>71</v>
       </c>
@@ -5154,7 +5157,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>71</v>
       </c>
@@ -5174,7 +5177,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
         <v>71</v>
       </c>
@@ -5206,7 +5209,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>71</v>
       </c>
@@ -5240,7 +5243,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>52</v>
       </c>
@@ -5268,7 +5271,7 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
@@ -5296,7 +5299,7 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>52</v>
       </c>
@@ -5357,7 +5360,7 @@
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>56</v>
       </c>
@@ -5390,7 +5393,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>52</v>
       </c>
@@ -5418,7 +5421,7 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>56</v>
       </c>
@@ -5451,7 +5454,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>71</v>
       </c>
@@ -5485,7 +5488,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>71</v>
       </c>
@@ -5511,7 +5514,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>56</v>
       </c>
@@ -5544,7 +5547,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
         <v>52</v>
       </c>
@@ -5564,7 +5567,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>52</v>
       </c>
@@ -5592,7 +5595,7 @@
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>52</v>
       </c>
@@ -5620,7 +5623,7 @@
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>52</v>
       </c>
@@ -5648,7 +5651,7 @@
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>52</v>
       </c>
@@ -5676,7 +5679,7 @@
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
@@ -5702,7 +5705,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>71</v>
       </c>
@@ -5728,7 +5731,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>71</v>
       </c>
@@ -5754,7 +5757,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>52</v>
       </c>
@@ -5782,7 +5785,7 @@
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
         <v>52</v>
       </c>
@@ -5810,7 +5813,7 @@
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>52</v>
       </c>
@@ -5830,7 +5833,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>52</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>52</v>
       </c>
@@ -5870,7 +5873,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>52</v>
       </c>
@@ -5890,7 +5893,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>52</v>
       </c>
@@ -5918,7 +5921,7 @@
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>52</v>
       </c>
@@ -5938,7 +5941,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
@@ -5960,7 +5963,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>56</v>
       </c>
@@ -5984,7 +5987,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>52</v>
       </c>
@@ -6012,7 +6015,7 @@
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>44</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>52</v>
       </c>
@@ -6060,7 +6063,7 @@
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>52</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>52</v>
       </c>
@@ -6100,7 +6103,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>52</v>
       </c>
@@ -6120,7 +6123,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
@@ -6140,7 +6143,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>52</v>
       </c>
@@ -6160,7 +6163,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>52</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>71</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>52</v>
       </c>
@@ -6234,7 +6237,7 @@
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>56</v>
       </c>
@@ -6265,7 +6268,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>52</v>
       </c>
@@ -6285,7 +6288,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>52</v>
       </c>
@@ -6305,7 +6308,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>52</v>
       </c>
@@ -6325,7 +6328,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="7" t="s">
         <v>71</v>
       </c>
@@ -6351,7 +6354,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>52</v>
       </c>
@@ -6371,7 +6374,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="7" t="s">
         <v>52</v>
       </c>
@@ -6391,7 +6394,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>52</v>
       </c>
@@ -6411,7 +6414,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
         <v>52</v>
       </c>
@@ -6431,7 +6434,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>52</v>
       </c>
@@ -6451,7 +6454,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="7" t="s">
         <v>52</v>
       </c>
@@ -6479,7 +6482,7 @@
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>52</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="7" t="s">
         <v>52</v>
       </c>
@@ -6530,7 +6533,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="7" t="s">
         <v>52</v>
       </c>
@@ -6558,7 +6561,7 @@
       <c r="O107" s="4"/>
       <c r="P107" s="4"/>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
         <v>52</v>
       </c>
@@ -6589,7 +6592,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>52</v>
       </c>
@@ -6609,7 +6612,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>56</v>
       </c>
@@ -6639,7 +6642,7 @@
       <c r="O110" s="5"/>
       <c r="P110" s="5"/>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1" t="s">
         <v>149</v>
@@ -6665,7 +6668,7 @@
       <c r="O111" s="5"/>
       <c r="P111" s="5"/>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>52</v>
       </c>
@@ -6696,7 +6699,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>56</v>
       </c>
@@ -6721,7 +6724,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>52</v>
       </c>
@@ -6741,7 +6744,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>52</v>
       </c>
@@ -6761,7 +6764,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>52</v>
       </c>
@@ -6781,7 +6784,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>71</v>
       </c>
@@ -6807,7 +6810,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>56</v>
       </c>
@@ -6829,7 +6832,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>56</v>
       </c>
@@ -6857,7 +6860,7 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>56</v>
       </c>
@@ -6887,7 +6890,7 @@
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>56</v>
       </c>
@@ -6911,7 +6914,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>56</v>
       </c>
@@ -6941,7 +6944,7 @@
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1" t="s">
         <v>149</v>
@@ -6967,7 +6970,7 @@
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="7" t="s">
         <v>52</v>
       </c>
@@ -6995,7 +6998,7 @@
       <c r="O124" s="4"/>
       <c r="P124" s="4"/>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>56</v>
       </c>
@@ -7025,7 +7028,7 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>56</v>
       </c>
@@ -7055,7 +7058,7 @@
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>56</v>
       </c>
@@ -7081,7 +7084,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>56</v>
       </c>
@@ -7107,7 +7110,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>52</v>
       </c>
@@ -7127,7 +7130,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>56</v>
       </c>
@@ -7157,7 +7160,7 @@
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>56</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>52</v>
       </c>
@@ -7203,7 +7206,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>56</v>
       </c>
@@ -7231,7 +7234,7 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>56</v>
       </c>
@@ -7257,7 +7260,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>56</v>
       </c>
@@ -7279,7 +7282,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>56</v>
       </c>
@@ -7301,7 +7304,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>56</v>
       </c>
@@ -7325,7 +7328,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>56</v>
       </c>
@@ -7351,7 +7354,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
         <v>56</v>
       </c>
@@ -7375,7 +7378,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>52</v>
       </c>
@@ -7398,7 +7401,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>52</v>
       </c>
@@ -7421,7 +7424,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>56</v>
       </c>
@@ -7451,7 +7454,7 @@
       <c r="O142" s="6"/>
       <c r="P142" s="6"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>56</v>
       </c>
@@ -7473,7 +7476,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>56</v>
       </c>
@@ -7497,7 +7500,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="7" t="s">
         <v>56</v>
       </c>
@@ -7523,7 +7526,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>56</v>
       </c>
@@ -7545,7 +7548,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>56</v>
       </c>
@@ -7569,7 +7572,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>52</v>
       </c>
@@ -7592,7 +7595,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>52</v>
       </c>
@@ -7615,7 +7618,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>52</v>
       </c>
@@ -7638,7 +7641,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>71</v>
       </c>
@@ -7664,7 +7667,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>71</v>
       </c>
@@ -7695,7 +7698,7 @@
       <c r="O152" s="4"/>
       <c r="P152" s="4"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>71</v>
       </c>
@@ -7723,7 +7726,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>71</v>
       </c>
@@ -7752,7 +7755,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>71</v>
       </c>
@@ -7783,7 +7786,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>71</v>
       </c>
@@ -7814,7 +7817,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>52</v>
       </c>
@@ -7834,7 +7837,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>71</v>
       </c>
@@ -7865,7 +7868,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>52</v>
       </c>
@@ -7885,7 +7888,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>52</v>
       </c>
@@ -7908,7 +7911,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
         <v>71</v>
       </c>
@@ -7939,7 +7942,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>71</v>
       </c>
@@ -7967,7 +7970,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
         <v>71</v>
       </c>
@@ -7998,7 +8001,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>52</v>
       </c>
@@ -8021,7 +8024,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>52</v>
       </c>
@@ -8041,7 +8044,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>52</v>
       </c>
@@ -8064,7 +8067,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="7" t="s">
         <v>52</v>
       </c>
@@ -8087,7 +8090,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>71</v>
       </c>
@@ -8118,7 +8121,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>71</v>
       </c>
@@ -8152,7 +8155,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>71</v>
       </c>
@@ -8186,7 +8189,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>56</v>
       </c>
@@ -8208,7 +8211,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>56</v>
       </c>
@@ -8232,7 +8235,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1" t="s">
         <v>149</v>
@@ -8250,7 +8253,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>52</v>
       </c>
@@ -8270,7 +8273,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>52</v>
       </c>
@@ -8290,7 +8293,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>52</v>
       </c>
@@ -8313,7 +8316,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>52</v>
       </c>
@@ -8335,7 +8338,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>56</v>
       </c>
@@ -8355,7 +8358,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>225</v>
       </c>
@@ -8377,7 +8380,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>56</v>
       </c>
@@ -8407,7 +8410,7 @@
       <c r="O180" s="6"/>
       <c r="P180" s="6"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>56</v>
       </c>
@@ -8433,7 +8436,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>52</v>
       </c>
@@ -8456,7 +8459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>56</v>
       </c>
@@ -8484,7 +8487,7 @@
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>56</v>
       </c>
@@ -8512,7 +8515,7 @@
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>56</v>
       </c>
@@ -8540,7 +8543,7 @@
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>56</v>
       </c>
@@ -8570,7 +8573,7 @@
       <c r="O186" s="6"/>
       <c r="P186" s="6"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>56</v>
       </c>
@@ -8596,7 +8599,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>56</v>
       </c>
@@ -8620,7 +8623,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>56</v>
       </c>
@@ -8646,7 +8649,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>52</v>
       </c>
@@ -8668,7 +8671,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>56</v>
       </c>
@@ -8690,7 +8693,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>225</v>
       </c>
@@ -8712,7 +8715,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>56</v>
       </c>
@@ -8734,7 +8737,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>52</v>
       </c>
@@ -8756,7 +8759,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>225</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>52</v>
       </c>
@@ -8804,7 +8807,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>52</v>
       </c>
@@ -8824,7 +8827,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>71</v>
       </c>
@@ -8858,7 +8861,7 @@
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
     </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>71</v>
       </c>
@@ -8895,7 +8898,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>71</v>
       </c>
@@ -8932,7 +8935,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>71</v>
       </c>
@@ -8960,7 +8963,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="202" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>52</v>
       </c>
@@ -8980,7 +8983,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="203" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>52</v>
       </c>
@@ -9003,7 +9006,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="204" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>56</v>
       </c>
@@ -9034,7 +9037,7 @@
       <c r="P204" s="6"/>
       <c r="V204" s="11"/>
     </row>
-    <row r="205" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>56</v>
       </c>
@@ -9058,7 +9061,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="206" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>56</v>
       </c>
@@ -9086,7 +9089,7 @@
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
     </row>
-    <row r="207" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>56</v>
       </c>
@@ -9114,7 +9117,7 @@
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
     </row>
-    <row r="208" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>56</v>
       </c>
@@ -9136,7 +9139,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="209" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>56</v>
       </c>
@@ -9160,7 +9163,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="210" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>56</v>
       </c>
@@ -9180,7 +9183,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="211" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>56</v>
       </c>
@@ -9200,7 +9203,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="212" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>52</v>
       </c>
@@ -9222,7 +9225,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="213" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>56</v>
       </c>
@@ -9247,7 +9250,7 @@
       <c r="L213" s="4"/>
       <c r="M213" s="4"/>
     </row>
-    <row r="214" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>225</v>
       </c>
@@ -9272,7 +9275,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="215" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>56</v>
       </c>
@@ -9292,7 +9295,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="216" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>56</v>
       </c>
@@ -9312,7 +9315,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="217" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>225</v>
       </c>
@@ -9337,7 +9340,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="218" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>56</v>
       </c>
@@ -9359,7 +9362,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="219" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>56</v>
       </c>
@@ -9381,7 +9384,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="220" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>56</v>
       </c>
@@ -9403,7 +9406,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="221" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>56</v>
       </c>
@@ -9426,7 +9429,7 @@
       </c>
       <c r="V221" s="11"/>
     </row>
-    <row r="222" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>56</v>
       </c>
@@ -9458,7 +9461,7 @@
       <c r="O222" s="6"/>
       <c r="P222" s="6"/>
     </row>
-    <row r="223" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
         <v>56</v>
       </c>
@@ -9480,7 +9483,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="224" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>56</v>
       </c>
@@ -9502,7 +9505,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>56</v>
       </c>
@@ -9526,7 +9529,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>56</v>
       </c>
@@ -9548,7 +9551,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>56</v>
       </c>
@@ -9572,7 +9575,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="7" t="s">
         <v>56</v>
       </c>
@@ -9594,7 +9597,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>56</v>
       </c>
@@ -9616,7 +9619,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>56</v>
       </c>
@@ -9638,7 +9641,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>56</v>
       </c>
@@ -9660,7 +9663,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>56</v>
       </c>
@@ -9682,7 +9685,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>56</v>
       </c>
@@ -9704,7 +9707,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>56</v>
       </c>
@@ -9726,7 +9729,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>225</v>
       </c>
@@ -9748,7 +9751,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
         <v>56</v>
       </c>
@@ -9774,7 +9777,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
         <v>56</v>
       </c>
@@ -9796,7 +9799,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>56</v>
       </c>
@@ -9818,7 +9821,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
         <v>56</v>
       </c>
@@ -9840,7 +9843,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>56</v>
       </c>
@@ -9864,7 +9867,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="241" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>56</v>
       </c>
@@ -9890,7 +9893,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="242" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>56</v>
       </c>
@@ -9910,7 +9913,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="243" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>56</v>
       </c>
@@ -9930,7 +9933,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="244" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>56</v>
       </c>
@@ -9950,7 +9953,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="245" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>56</v>
       </c>
@@ -9974,7 +9977,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="246" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>56</v>
       </c>
@@ -10000,7 +10003,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="247" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>56</v>
       </c>
@@ -10026,7 +10029,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="248" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>52</v>
       </c>
@@ -10048,7 +10051,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="249" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>56</v>
       </c>
@@ -10070,7 +10073,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="250" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>225</v>
       </c>
@@ -10095,7 +10098,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="251" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
         <v>56</v>
       </c>
@@ -10117,7 +10120,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="252" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
         <v>56</v>
       </c>
@@ -10139,7 +10142,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="253" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
         <v>56</v>
       </c>
@@ -10161,7 +10164,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="254" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
         <v>56</v>
       </c>
@@ -10183,7 +10186,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="255" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A255" s="7" t="s">
         <v>56</v>
       </c>
@@ -10209,7 +10212,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="256" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A256" s="7" t="s">
         <v>52</v>
       </c>
@@ -10229,7 +10232,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>56</v>
       </c>
@@ -10251,7 +10254,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>56</v>
       </c>
@@ -10275,7 +10278,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>56</v>
       </c>
@@ -10295,7 +10298,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>56</v>
       </c>
@@ -10315,7 +10318,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>56</v>
       </c>
@@ -10335,7 +10338,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>56</v>
       </c>
@@ -10357,7 +10360,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>56</v>
       </c>
@@ -10381,7 +10384,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>56</v>
       </c>
@@ -10403,7 +10406,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
         <v>52</v>
       </c>
@@ -10425,7 +10428,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>225</v>
       </c>
@@ -10447,7 +10450,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>56</v>
       </c>
@@ -10467,7 +10470,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>56</v>
       </c>
@@ -10489,7 +10492,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>56</v>
       </c>
@@ -10513,7 +10516,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>56</v>
       </c>
@@ -10537,7 +10540,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
         <v>56</v>
       </c>
@@ -10563,7 +10566,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="7" t="s">
         <v>56</v>
       </c>
@@ -10585,7 +10588,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>56</v>
       </c>
@@ -10609,7 +10612,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>56</v>
       </c>
@@ -10628,7 +10631,7 @@
         <v>44054</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>56</v>
       </c>
@@ -10651,7 +10654,7 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>56</v>
       </c>
@@ -10675,7 +10678,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
         <v>56</v>
       </c>
@@ -10701,7 +10704,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>56</v>
       </c>
@@ -10720,7 +10723,7 @@
         <v>44060</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>52</v>
       </c>
@@ -10744,7 +10747,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>56</v>
       </c>
@@ -10767,7 +10770,7 @@
         <v>44067</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
         <v>56</v>
       </c>
@@ -10790,7 +10793,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>56</v>
       </c>
@@ -10812,7 +10815,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>56</v>
       </c>
@@ -10834,7 +10837,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>56</v>
       </c>
@@ -10853,7 +10856,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>56</v>
       </c>
@@ -10876,7 +10879,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
         <v>56</v>
       </c>
@@ -10902,7 +10905,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>56</v>
       </c>
@@ -10928,7 +10931,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>56</v>
       </c>
@@ -10951,7 +10954,7 @@
         <v>44082</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>52</v>
       </c>
@@ -10974,7 +10977,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>52</v>
       </c>
@@ -10997,7 +11000,7 @@
         <v>44091</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>56</v>
       </c>
@@ -11021,7 +11024,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>56</v>
       </c>
@@ -11043,7 +11046,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>56</v>
       </c>
@@ -11067,7 +11070,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>52</v>
       </c>
@@ -11093,7 +11096,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>52</v>
       </c>
@@ -11116,7 +11119,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>52</v>
       </c>
@@ -11139,7 +11142,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
         <v>52</v>
       </c>
@@ -11162,7 +11165,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>56</v>
       </c>
@@ -11184,7 +11187,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>56</v>
       </c>
@@ -11208,7 +11211,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>56</v>
       </c>
@@ -11228,7 +11231,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>56</v>
       </c>
@@ -11248,7 +11251,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>56</v>
       </c>
@@ -11270,7 +11273,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>56</v>
       </c>
@@ -11294,7 +11297,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>52</v>
       </c>
@@ -11314,7 +11317,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>56</v>
       </c>
@@ -11348,7 +11351,7 @@
       <c r="O305" s="4"/>
       <c r="P305" s="4"/>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>56</v>
       </c>
@@ -11370,7 +11373,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>56</v>
       </c>
@@ -11394,7 +11397,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>56</v>
       </c>
@@ -11416,7 +11419,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>56</v>
       </c>
@@ -11440,7 +11443,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>56</v>
       </c>
@@ -11460,7 +11463,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>225</v>
       </c>
@@ -11482,7 +11485,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>71</v>
       </c>
@@ -11508,7 +11511,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
         <v>71</v>
       </c>
@@ -11537,7 +11540,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>71</v>
       </c>
@@ -11569,7 +11572,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>369</v>
       </c>
@@ -11595,7 +11598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>71</v>
       </c>
@@ -11629,7 +11632,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>369</v>
       </c>
@@ -11655,7 +11658,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
         <v>369</v>
       </c>
@@ -11675,7 +11678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>369</v>
       </c>
@@ -11698,7 +11701,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>71</v>
       </c>
@@ -11724,7 +11727,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>369</v>
       </c>
@@ -11741,7 +11744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>71</v>
       </c>
@@ -11770,7 +11773,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>369</v>
       </c>
@@ -11793,7 +11796,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
         <v>369</v>
       </c>
@@ -11813,7 +11816,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>369</v>
       </c>
@@ -11833,7 +11836,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>369</v>
       </c>
@@ -11853,7 +11856,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>369</v>
       </c>
@@ -11876,7 +11879,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>52</v>
       </c>
@@ -11899,7 +11902,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
         <v>369</v>
       </c>
@@ -11922,7 +11925,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
         <v>369</v>
       </c>
@@ -11945,7 +11948,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
         <v>369</v>
       </c>
@@ -11962,7 +11965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>369</v>
       </c>
@@ -11979,7 +11982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>369</v>
       </c>
@@ -11999,7 +12002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>369</v>
       </c>
@@ -12019,7 +12022,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>369</v>
       </c>
@@ -12036,7 +12039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>71</v>
       </c>
@@ -12068,7 +12071,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>369</v>
       </c>
@@ -12088,7 +12091,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>71</v>
       </c>
@@ -12117,7 +12120,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>369</v>
       </c>
@@ -12140,7 +12143,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="7" t="s">
         <v>71</v>
       </c>
@@ -12169,7 +12172,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>369</v>
       </c>
@@ -12195,7 +12198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="342" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
         <v>369</v>
       </c>
@@ -12212,7 +12215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>369</v>
       </c>
@@ -12235,7 +12238,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="344" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
         <v>369</v>
       </c>
@@ -12252,7 +12255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>71</v>
       </c>
@@ -12280,7 +12283,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="346" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
         <v>369</v>
       </c>
@@ -12303,7 +12306,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="347" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>71</v>
       </c>
@@ -12332,7 +12335,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="348" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>369</v>
       </c>
@@ -12349,7 +12352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>369</v>
       </c>
@@ -12372,7 +12375,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="350" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
         <v>71</v>
       </c>
@@ -12404,7 +12407,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="351" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>71</v>
       </c>
@@ -12433,7 +12436,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="352" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
         <v>369</v>
       </c>
@@ -12459,7 +12462,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="353" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>71</v>
       </c>
@@ -12491,7 +12494,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>369</v>
       </c>
@@ -12511,7 +12514,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="355" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>369</v>
       </c>
@@ -12540,7 +12543,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="356" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>369</v>
       </c>
@@ -12569,7 +12572,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="357" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>71</v>
       </c>
@@ -12595,7 +12598,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="358" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>71</v>
       </c>
@@ -12626,7 +12629,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="359" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A359" s="7" t="s">
         <v>71</v>
       </c>
@@ -12655,7 +12658,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="360" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>71</v>
       </c>
@@ -12686,7 +12689,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="361" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A361" s="7" t="s">
         <v>369</v>
       </c>
@@ -12709,7 +12712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="362" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A362" s="7" t="s">
         <v>71</v>
       </c>
@@ -12738,7 +12741,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="363" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A363" s="7" t="s">
         <v>56</v>
       </c>
@@ -12758,7 +12761,7 @@
         <v>44257</v>
       </c>
     </row>
-    <row r="364" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A364" s="7" t="s">
         <v>369</v>
       </c>
@@ -12784,7 +12787,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="365" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A365" s="7" t="s">
         <v>71</v>
       </c>
@@ -12810,7 +12813,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="366" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A366" s="7" t="s">
         <v>71</v>
       </c>
@@ -12841,7 +12844,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="367" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A367" s="7" t="s">
         <v>52</v>
       </c>
@@ -12861,7 +12864,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="368" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A368" s="7" t="s">
         <v>71</v>
       </c>
@@ -12887,7 +12890,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="369" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A369" s="7" t="s">
         <v>71</v>
       </c>
@@ -12916,7 +12919,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="370" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A370" s="7" t="s">
         <v>369</v>
       </c>
@@ -12936,7 +12939,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="371" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A371" s="7" t="s">
         <v>71</v>
       </c>
@@ -12968,7 +12971,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="372" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A372" s="7" t="s">
         <v>369</v>
       </c>
@@ -12985,7 +12988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A373" s="7" t="s">
         <v>71</v>
       </c>
@@ -13011,7 +13014,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="374" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A374" s="7" t="s">
         <v>369</v>
       </c>
@@ -13034,7 +13037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A375" s="7" t="s">
         <v>71</v>
       </c>
@@ -13062,7 +13065,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="376" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A376" s="7" t="s">
         <v>71</v>
       </c>
@@ -13091,7 +13094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A377" s="7" t="s">
         <v>71</v>
       </c>
@@ -13117,7 +13120,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="378" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A378" s="7" t="s">
         <v>71</v>
       </c>
@@ -13146,7 +13149,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="379" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A379" s="7" t="s">
         <v>71</v>
       </c>
@@ -13172,7 +13175,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="380" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A380" s="7" t